--- a/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2280900</v>
+        <v>2192900</v>
       </c>
       <c r="E8" s="3">
-        <v>2280900</v>
+        <v>2192900</v>
       </c>
       <c r="F8" s="3">
-        <v>2320300</v>
+        <v>2230800</v>
       </c>
       <c r="G8" s="3">
-        <v>2257700</v>
+        <v>2170600</v>
       </c>
       <c r="H8" s="3">
-        <v>2259000</v>
+        <v>2171800</v>
       </c>
       <c r="I8" s="3">
-        <v>2342200</v>
+        <v>2251900</v>
       </c>
       <c r="J8" s="3">
-        <v>2704400</v>
+        <v>2600100</v>
       </c>
       <c r="K8" s="3">
         <v>3100200</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1049100</v>
+        <v>1008600</v>
       </c>
       <c r="E9" s="3">
-        <v>2080800</v>
+        <v>2000500</v>
       </c>
       <c r="F9" s="3">
-        <v>1036800</v>
+        <v>996800</v>
       </c>
       <c r="G9" s="3">
-        <v>1014900</v>
+        <v>975700</v>
       </c>
       <c r="H9" s="3">
-        <v>1025200</v>
+        <v>985700</v>
       </c>
       <c r="I9" s="3">
-        <v>1116900</v>
+        <v>1073800</v>
       </c>
       <c r="J9" s="3">
-        <v>51600</v>
+        <v>49700</v>
       </c>
       <c r="K9" s="3">
         <v>71100</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1231800</v>
+        <v>1184300</v>
       </c>
       <c r="E10" s="3">
-        <v>200100</v>
+        <v>192400</v>
       </c>
       <c r="F10" s="3">
-        <v>1283500</v>
+        <v>1234000</v>
       </c>
       <c r="G10" s="3">
-        <v>1242800</v>
+        <v>1194800</v>
       </c>
       <c r="H10" s="3">
-        <v>1233700</v>
+        <v>1186200</v>
       </c>
       <c r="I10" s="3">
-        <v>1225300</v>
+        <v>1178100</v>
       </c>
       <c r="J10" s="3">
-        <v>2652800</v>
+        <v>2550500</v>
       </c>
       <c r="K10" s="3">
         <v>3029100</v>
@@ -881,13 +881,13 @@
         <v>1900</v>
       </c>
       <c r="E14" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="F14" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G14" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>95500</v>
+        <v>91900</v>
       </c>
       <c r="K14" s="3">
         <v>3400</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>308000</v>
+        <v>296100</v>
       </c>
       <c r="E15" s="3">
-        <v>410600</v>
+        <v>394800</v>
       </c>
       <c r="F15" s="3">
-        <v>277600</v>
+        <v>266900</v>
       </c>
       <c r="G15" s="3">
-        <v>287900</v>
+        <v>276800</v>
       </c>
       <c r="H15" s="3">
-        <v>292500</v>
+        <v>281200</v>
       </c>
       <c r="I15" s="3">
-        <v>291200</v>
+        <v>279900</v>
       </c>
       <c r="J15" s="3">
-        <v>348000</v>
+        <v>334600</v>
       </c>
       <c r="K15" s="3">
         <v>390200</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1876100</v>
+        <v>1803800</v>
       </c>
       <c r="E17" s="3">
-        <v>1927800</v>
+        <v>1853400</v>
       </c>
       <c r="F17" s="3">
-        <v>1942000</v>
+        <v>1867100</v>
       </c>
       <c r="G17" s="3">
-        <v>1909000</v>
+        <v>1835400</v>
       </c>
       <c r="H17" s="3">
-        <v>1930300</v>
+        <v>1855900</v>
       </c>
       <c r="I17" s="3">
-        <v>2029100</v>
+        <v>1950900</v>
       </c>
       <c r="J17" s="3">
-        <v>2457200</v>
+        <v>2362400</v>
       </c>
       <c r="K17" s="3">
         <v>2759500</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>404800</v>
+        <v>389200</v>
       </c>
       <c r="E18" s="3">
-        <v>353100</v>
+        <v>339500</v>
       </c>
       <c r="F18" s="3">
-        <v>378300</v>
+        <v>363700</v>
       </c>
       <c r="G18" s="3">
-        <v>348600</v>
+        <v>335200</v>
       </c>
       <c r="H18" s="3">
-        <v>328600</v>
+        <v>315900</v>
       </c>
       <c r="I18" s="3">
-        <v>313100</v>
+        <v>301000</v>
       </c>
       <c r="J18" s="3">
-        <v>247300</v>
+        <v>237700</v>
       </c>
       <c r="K18" s="3">
         <v>340800</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23900</v>
+        <v>23000</v>
       </c>
       <c r="E20" s="3">
-        <v>22600</v>
+        <v>21700</v>
       </c>
       <c r="F20" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="G20" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="H20" s="3">
-        <v>17400</v>
+        <v>16800</v>
       </c>
       <c r="I20" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="J20" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>737400</v>
+        <v>706900</v>
       </c>
       <c r="E21" s="3">
-        <v>687000</v>
+        <v>658500</v>
       </c>
       <c r="F21" s="3">
-        <v>666900</v>
+        <v>639400</v>
       </c>
       <c r="G21" s="3">
-        <v>648900</v>
+        <v>621900</v>
       </c>
       <c r="H21" s="3">
-        <v>639200</v>
+        <v>612600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J21" s="3">
-        <v>604500</v>
+        <v>578800</v>
       </c>
       <c r="K21" s="3">
         <v>803600</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>54900</v>
+        <v>52800</v>
       </c>
       <c r="E22" s="3">
-        <v>49700</v>
+        <v>47800</v>
       </c>
       <c r="F22" s="3">
-        <v>27100</v>
+        <v>26100</v>
       </c>
       <c r="G22" s="3">
-        <v>29700</v>
+        <v>28600</v>
       </c>
       <c r="H22" s="3">
-        <v>34900</v>
+        <v>33500</v>
       </c>
       <c r="I22" s="3">
-        <v>27100</v>
+        <v>26100</v>
       </c>
       <c r="J22" s="3">
-        <v>35500</v>
+        <v>34100</v>
       </c>
       <c r="K22" s="3">
         <v>54200</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>373800</v>
+        <v>359400</v>
       </c>
       <c r="E23" s="3">
-        <v>326000</v>
+        <v>313500</v>
       </c>
       <c r="F23" s="3">
-        <v>361500</v>
+        <v>347600</v>
       </c>
       <c r="G23" s="3">
-        <v>330500</v>
+        <v>317800</v>
       </c>
       <c r="H23" s="3">
-        <v>311200</v>
+        <v>299200</v>
       </c>
       <c r="I23" s="3">
-        <v>293100</v>
+        <v>281800</v>
       </c>
       <c r="J23" s="3">
-        <v>220100</v>
+        <v>211700</v>
       </c>
       <c r="K23" s="3">
         <v>286600</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>109800</v>
+        <v>105500</v>
       </c>
       <c r="E24" s="3">
-        <v>90400</v>
+        <v>86900</v>
       </c>
       <c r="F24" s="3">
-        <v>91700</v>
+        <v>88100</v>
       </c>
       <c r="G24" s="3">
-        <v>91700</v>
+        <v>88100</v>
       </c>
       <c r="H24" s="3">
-        <v>69100</v>
+        <v>66400</v>
       </c>
       <c r="I24" s="3">
-        <v>84600</v>
+        <v>81300</v>
       </c>
       <c r="J24" s="3">
-        <v>66500</v>
+        <v>63900</v>
       </c>
       <c r="K24" s="3">
         <v>75900</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>264100</v>
+        <v>253900</v>
       </c>
       <c r="E26" s="3">
-        <v>235600</v>
+        <v>226600</v>
       </c>
       <c r="F26" s="3">
-        <v>269900</v>
+        <v>259500</v>
       </c>
       <c r="G26" s="3">
-        <v>238900</v>
+        <v>229700</v>
       </c>
       <c r="H26" s="3">
-        <v>242100</v>
+        <v>232800</v>
       </c>
       <c r="I26" s="3">
-        <v>208500</v>
+        <v>200500</v>
       </c>
       <c r="J26" s="3">
-        <v>153700</v>
+        <v>147700</v>
       </c>
       <c r="K26" s="3">
         <v>210700</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>264100</v>
+        <v>253900</v>
       </c>
       <c r="E27" s="3">
-        <v>235600</v>
+        <v>226600</v>
       </c>
       <c r="F27" s="3">
-        <v>269900</v>
+        <v>259500</v>
       </c>
       <c r="G27" s="3">
-        <v>238900</v>
+        <v>229700</v>
       </c>
       <c r="H27" s="3">
-        <v>240800</v>
+        <v>231500</v>
       </c>
       <c r="I27" s="3">
-        <v>207200</v>
+        <v>199200</v>
       </c>
       <c r="J27" s="3">
-        <v>152400</v>
+        <v>146500</v>
       </c>
       <c r="K27" s="3">
         <v>209300</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>88400</v>
+        <v>85000</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23900</v>
+        <v>-23000</v>
       </c>
       <c r="E32" s="3">
-        <v>-22600</v>
+        <v>-21700</v>
       </c>
       <c r="F32" s="3">
-        <v>-10300</v>
+        <v>-9900</v>
       </c>
       <c r="G32" s="3">
-        <v>-11600</v>
+        <v>-11200</v>
       </c>
       <c r="H32" s="3">
-        <v>-17400</v>
+        <v>-16800</v>
       </c>
       <c r="I32" s="3">
-        <v>-7100</v>
+        <v>-6800</v>
       </c>
       <c r="J32" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>264100</v>
+        <v>253900</v>
       </c>
       <c r="E33" s="3">
-        <v>235600</v>
+        <v>226600</v>
       </c>
       <c r="F33" s="3">
-        <v>269900</v>
+        <v>259500</v>
       </c>
       <c r="G33" s="3">
-        <v>238900</v>
+        <v>229700</v>
       </c>
       <c r="H33" s="3">
-        <v>240800</v>
+        <v>231500</v>
       </c>
       <c r="I33" s="3">
-        <v>295700</v>
+        <v>284300</v>
       </c>
       <c r="J33" s="3">
-        <v>152400</v>
+        <v>146500</v>
       </c>
       <c r="K33" s="3">
         <v>782500</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>264100</v>
+        <v>253900</v>
       </c>
       <c r="E35" s="3">
-        <v>235600</v>
+        <v>226600</v>
       </c>
       <c r="F35" s="3">
-        <v>269900</v>
+        <v>259500</v>
       </c>
       <c r="G35" s="3">
-        <v>238900</v>
+        <v>229700</v>
       </c>
       <c r="H35" s="3">
-        <v>240800</v>
+        <v>231500</v>
       </c>
       <c r="I35" s="3">
-        <v>295700</v>
+        <v>284300</v>
       </c>
       <c r="J35" s="3">
-        <v>152400</v>
+        <v>146500</v>
       </c>
       <c r="K35" s="3">
         <v>782500</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34900</v>
+        <v>33500</v>
       </c>
       <c r="E41" s="3">
-        <v>35500</v>
+        <v>34100</v>
       </c>
       <c r="F41" s="3">
-        <v>33600</v>
+        <v>32200</v>
       </c>
       <c r="G41" s="3">
-        <v>33600</v>
+        <v>32200</v>
       </c>
       <c r="H41" s="3">
-        <v>51600</v>
+        <v>49600</v>
       </c>
       <c r="I41" s="3">
-        <v>134300</v>
+        <v>129000</v>
       </c>
       <c r="J41" s="3">
-        <v>76200</v>
+        <v>73200</v>
       </c>
       <c r="K41" s="3">
         <v>125300</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>427400</v>
+        <v>410500</v>
       </c>
       <c r="E43" s="3">
-        <v>814100</v>
+        <v>781900</v>
       </c>
       <c r="F43" s="3">
-        <v>341500</v>
+        <v>328000</v>
       </c>
       <c r="G43" s="3">
-        <v>279500</v>
+        <v>268500</v>
       </c>
       <c r="H43" s="3">
-        <v>229200</v>
+        <v>220100</v>
       </c>
       <c r="I43" s="3">
-        <v>282100</v>
+        <v>271000</v>
       </c>
       <c r="J43" s="3">
-        <v>311800</v>
+        <v>299500</v>
       </c>
       <c r="K43" s="3">
         <v>392900</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>64600</v>
+        <v>62000</v>
       </c>
       <c r="E44" s="3">
-        <v>102000</v>
+        <v>98000</v>
       </c>
       <c r="F44" s="3">
-        <v>60700</v>
+        <v>58300</v>
       </c>
       <c r="G44" s="3">
-        <v>52300</v>
+        <v>50200</v>
       </c>
       <c r="H44" s="3">
-        <v>45200</v>
+        <v>43400</v>
       </c>
       <c r="I44" s="3">
-        <v>32300</v>
+        <v>31000</v>
       </c>
       <c r="J44" s="3">
-        <v>34200</v>
+        <v>32900</v>
       </c>
       <c r="K44" s="3">
         <v>33200</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>61300</v>
+        <v>58900</v>
       </c>
       <c r="E45" s="3">
-        <v>50400</v>
+        <v>48400</v>
       </c>
       <c r="F45" s="3">
-        <v>52300</v>
+        <v>50200</v>
       </c>
       <c r="G45" s="3">
-        <v>53600</v>
+        <v>51500</v>
       </c>
       <c r="H45" s="3">
-        <v>103900</v>
+        <v>99800</v>
       </c>
       <c r="I45" s="3">
-        <v>94300</v>
+        <v>90500</v>
       </c>
       <c r="J45" s="3">
-        <v>118800</v>
+        <v>114100</v>
       </c>
       <c r="K45" s="3">
         <v>107000</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>588100</v>
+        <v>564900</v>
       </c>
       <c r="E46" s="3">
-        <v>521000</v>
+        <v>500400</v>
       </c>
       <c r="F46" s="3">
-        <v>488100</v>
+        <v>468800</v>
       </c>
       <c r="G46" s="3">
-        <v>419000</v>
+        <v>402400</v>
       </c>
       <c r="H46" s="3">
-        <v>430000</v>
+        <v>413000</v>
       </c>
       <c r="I46" s="3">
-        <v>542900</v>
+        <v>521500</v>
       </c>
       <c r="J46" s="3">
-        <v>541000</v>
+        <v>519600</v>
       </c>
       <c r="K46" s="3">
         <v>658500</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>305400</v>
+        <v>293300</v>
       </c>
       <c r="E47" s="3">
-        <v>471300</v>
+        <v>452700</v>
       </c>
       <c r="F47" s="3">
-        <v>222700</v>
+        <v>213900</v>
       </c>
       <c r="G47" s="3">
-        <v>220100</v>
+        <v>211500</v>
       </c>
       <c r="H47" s="3">
-        <v>202700</v>
+        <v>194700</v>
       </c>
       <c r="I47" s="3">
-        <v>196300</v>
+        <v>188500</v>
       </c>
       <c r="J47" s="3">
-        <v>152400</v>
+        <v>146300</v>
       </c>
       <c r="K47" s="3">
         <v>189000</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1092400</v>
+        <v>1049200</v>
       </c>
       <c r="E48" s="3">
-        <v>1766400</v>
+        <v>1696600</v>
       </c>
       <c r="F48" s="3">
-        <v>690800</v>
+        <v>663500</v>
       </c>
       <c r="G48" s="3">
-        <v>712700</v>
+        <v>684600</v>
       </c>
       <c r="H48" s="3">
-        <v>713400</v>
+        <v>685200</v>
       </c>
       <c r="I48" s="3">
-        <v>710800</v>
+        <v>682700</v>
       </c>
       <c r="J48" s="3">
-        <v>869600</v>
+        <v>835300</v>
       </c>
       <c r="K48" s="3">
         <v>1026400</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>637200</v>
+        <v>612000</v>
       </c>
       <c r="E49" s="3">
-        <v>1396400</v>
+        <v>1341300</v>
       </c>
       <c r="F49" s="3">
-        <v>744400</v>
+        <v>715000</v>
       </c>
       <c r="G49" s="3">
-        <v>730200</v>
+        <v>701300</v>
       </c>
       <c r="H49" s="3">
-        <v>723100</v>
+        <v>694500</v>
       </c>
       <c r="I49" s="3">
-        <v>640400</v>
+        <v>615100</v>
       </c>
       <c r="J49" s="3">
-        <v>691400</v>
+        <v>664100</v>
       </c>
       <c r="K49" s="3">
         <v>609800</v>
@@ -1896,22 +1896,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20700</v>
+        <v>19800</v>
       </c>
       <c r="E52" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="F52" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="G52" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
       </c>
       <c r="I52" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2643700</v>
+        <v>2539300</v>
       </c>
       <c r="E54" s="3">
-        <v>2481700</v>
+        <v>2383700</v>
       </c>
       <c r="F54" s="3">
-        <v>2150500</v>
+        <v>2065600</v>
       </c>
       <c r="G54" s="3">
-        <v>2089800</v>
+        <v>2007300</v>
       </c>
       <c r="H54" s="3">
-        <v>2069800</v>
+        <v>1988000</v>
       </c>
       <c r="I54" s="3">
-        <v>2093700</v>
+        <v>2011000</v>
       </c>
       <c r="J54" s="3">
-        <v>2255100</v>
+        <v>2166000</v>
       </c>
       <c r="K54" s="3">
         <v>2484400</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>203400</v>
+        <v>195300</v>
       </c>
       <c r="E57" s="3">
-        <v>520400</v>
+        <v>499800</v>
       </c>
       <c r="F57" s="3">
-        <v>175000</v>
+        <v>168000</v>
       </c>
       <c r="G57" s="3">
-        <v>178800</v>
+        <v>171800</v>
       </c>
       <c r="H57" s="3">
-        <v>225300</v>
+        <v>216400</v>
       </c>
       <c r="I57" s="3">
-        <v>253100</v>
+        <v>243100</v>
       </c>
       <c r="J57" s="3">
-        <v>355100</v>
+        <v>341100</v>
       </c>
       <c r="K57" s="3">
         <v>300100</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>299600</v>
+        <v>287700</v>
       </c>
       <c r="E58" s="3">
-        <v>242100</v>
+        <v>232500</v>
       </c>
       <c r="F58" s="3">
-        <v>190500</v>
+        <v>182900</v>
       </c>
       <c r="G58" s="3">
-        <v>122700</v>
+        <v>117800</v>
       </c>
       <c r="H58" s="3">
-        <v>97500</v>
+        <v>93600</v>
       </c>
       <c r="I58" s="3">
-        <v>74900</v>
+        <v>71900</v>
       </c>
       <c r="J58" s="3">
-        <v>149100</v>
+        <v>143200</v>
       </c>
       <c r="K58" s="3">
         <v>279800</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>106500</v>
+        <v>102300</v>
       </c>
       <c r="E59" s="3">
-        <v>125900</v>
+        <v>120900</v>
       </c>
       <c r="F59" s="3">
-        <v>145300</v>
+        <v>139500</v>
       </c>
       <c r="G59" s="3">
-        <v>120100</v>
+        <v>115300</v>
       </c>
       <c r="H59" s="3">
-        <v>140100</v>
+        <v>134600</v>
       </c>
       <c r="I59" s="3">
-        <v>171100</v>
+        <v>164300</v>
       </c>
       <c r="J59" s="3">
-        <v>196900</v>
+        <v>189100</v>
       </c>
       <c r="K59" s="3">
         <v>235800</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>609400</v>
+        <v>585400</v>
       </c>
       <c r="E60" s="3">
-        <v>490000</v>
+        <v>470700</v>
       </c>
       <c r="F60" s="3">
-        <v>510700</v>
+        <v>490500</v>
       </c>
       <c r="G60" s="3">
-        <v>421600</v>
+        <v>404900</v>
       </c>
       <c r="H60" s="3">
-        <v>462900</v>
+        <v>444600</v>
       </c>
       <c r="I60" s="3">
-        <v>499000</v>
+        <v>479300</v>
       </c>
       <c r="J60" s="3">
-        <v>701100</v>
+        <v>673400</v>
       </c>
       <c r="K60" s="3">
         <v>815700</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>917400</v>
+        <v>881200</v>
       </c>
       <c r="E61" s="3">
-        <v>901300</v>
+        <v>865700</v>
       </c>
       <c r="F61" s="3">
-        <v>446800</v>
+        <v>429100</v>
       </c>
       <c r="G61" s="3">
-        <v>442200</v>
+        <v>424800</v>
       </c>
       <c r="H61" s="3">
-        <v>350600</v>
+        <v>336700</v>
       </c>
       <c r="I61" s="3">
-        <v>373200</v>
+        <v>358400</v>
       </c>
       <c r="J61" s="3">
-        <v>488100</v>
+        <v>468800</v>
       </c>
       <c r="K61" s="3">
         <v>412600</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>171100</v>
+        <v>164300</v>
       </c>
       <c r="E62" s="3">
-        <v>146600</v>
+        <v>140800</v>
       </c>
       <c r="F62" s="3">
-        <v>127200</v>
+        <v>122200</v>
       </c>
       <c r="G62" s="3">
-        <v>138800</v>
+        <v>133300</v>
       </c>
       <c r="H62" s="3">
-        <v>108500</v>
+        <v>104200</v>
       </c>
       <c r="I62" s="3">
-        <v>118800</v>
+        <v>114100</v>
       </c>
       <c r="J62" s="3">
-        <v>153700</v>
+        <v>147600</v>
       </c>
       <c r="K62" s="3">
         <v>154500</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1697900</v>
+        <v>1630900</v>
       </c>
       <c r="E66" s="3">
-        <v>1524300</v>
+        <v>1464100</v>
       </c>
       <c r="F66" s="3">
-        <v>1084600</v>
+        <v>1041800</v>
       </c>
       <c r="G66" s="3">
-        <v>1002600</v>
+        <v>963000</v>
       </c>
       <c r="H66" s="3">
-        <v>921900</v>
+        <v>885500</v>
       </c>
       <c r="I66" s="3">
-        <v>994900</v>
+        <v>955600</v>
       </c>
       <c r="J66" s="3">
-        <v>1346700</v>
+        <v>1293500</v>
       </c>
       <c r="K66" s="3">
         <v>1386200</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>601100</v>
+        <v>577300</v>
       </c>
       <c r="E72" s="3">
-        <v>633300</v>
+        <v>608300</v>
       </c>
       <c r="F72" s="3">
-        <v>727600</v>
+        <v>698900</v>
       </c>
       <c r="G72" s="3">
-        <v>756000</v>
+        <v>726100</v>
       </c>
       <c r="H72" s="3">
-        <v>795400</v>
+        <v>764000</v>
       </c>
       <c r="I72" s="3">
-        <v>764400</v>
+        <v>734200</v>
       </c>
       <c r="J72" s="3">
-        <v>653300</v>
+        <v>627500</v>
       </c>
       <c r="K72" s="3">
         <v>758800</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>945800</v>
+        <v>908400</v>
       </c>
       <c r="E76" s="3">
-        <v>957400</v>
+        <v>919600</v>
       </c>
       <c r="F76" s="3">
-        <v>1065900</v>
+        <v>1023800</v>
       </c>
       <c r="G76" s="3">
-        <v>1087200</v>
+        <v>1044200</v>
       </c>
       <c r="H76" s="3">
-        <v>1147900</v>
+        <v>1102500</v>
       </c>
       <c r="I76" s="3">
-        <v>1098800</v>
+        <v>1055400</v>
       </c>
       <c r="J76" s="3">
-        <v>908400</v>
+        <v>872500</v>
       </c>
       <c r="K76" s="3">
         <v>1098200</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>264100</v>
+        <v>253900</v>
       </c>
       <c r="E81" s="3">
-        <v>235600</v>
+        <v>226600</v>
       </c>
       <c r="F81" s="3">
-        <v>269900</v>
+        <v>259500</v>
       </c>
       <c r="G81" s="3">
-        <v>238900</v>
+        <v>229700</v>
       </c>
       <c r="H81" s="3">
-        <v>240800</v>
+        <v>231500</v>
       </c>
       <c r="I81" s="3">
-        <v>295700</v>
+        <v>284300</v>
       </c>
       <c r="J81" s="3">
-        <v>152400</v>
+        <v>146500</v>
       </c>
       <c r="K81" s="3">
         <v>782500</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>308000</v>
+        <v>296100</v>
       </c>
       <c r="E83" s="3">
-        <v>310500</v>
+        <v>298600</v>
       </c>
       <c r="F83" s="3">
-        <v>277600</v>
+        <v>266900</v>
       </c>
       <c r="G83" s="3">
-        <v>287900</v>
+        <v>276800</v>
       </c>
       <c r="H83" s="3">
-        <v>292500</v>
+        <v>281200</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J83" s="3">
-        <v>348000</v>
+        <v>334600</v>
       </c>
       <c r="K83" s="3">
         <v>461400</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>501600</v>
+        <v>482300</v>
       </c>
       <c r="E89" s="3">
-        <v>529400</v>
+        <v>509000</v>
       </c>
       <c r="F89" s="3">
-        <v>462900</v>
+        <v>445000</v>
       </c>
       <c r="G89" s="3">
-        <v>462200</v>
+        <v>444400</v>
       </c>
       <c r="H89" s="3">
-        <v>406700</v>
+        <v>391000</v>
       </c>
       <c r="I89" s="3">
-        <v>395100</v>
+        <v>379900</v>
       </c>
       <c r="J89" s="3">
-        <v>571400</v>
+        <v>549300</v>
       </c>
       <c r="K89" s="3">
         <v>667300</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-267900</v>
+        <v>-257600</v>
       </c>
       <c r="E91" s="3">
-        <v>-267300</v>
+        <v>-257000</v>
       </c>
       <c r="F91" s="3">
-        <v>-256900</v>
+        <v>-247000</v>
       </c>
       <c r="G91" s="3">
-        <v>-269900</v>
+        <v>-259500</v>
       </c>
       <c r="H91" s="3">
-        <v>-378300</v>
+        <v>-363700</v>
       </c>
       <c r="I91" s="3">
-        <v>-311800</v>
+        <v>-299800</v>
       </c>
       <c r="J91" s="3">
-        <v>-251100</v>
+        <v>-241500</v>
       </c>
       <c r="K91" s="3">
         <v>-449200</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-275000</v>
+        <v>-264400</v>
       </c>
       <c r="E94" s="3">
-        <v>-312500</v>
+        <v>-300400</v>
       </c>
       <c r="F94" s="3">
-        <v>-245300</v>
+        <v>-235900</v>
       </c>
       <c r="G94" s="3">
-        <v>-315100</v>
+        <v>-302900</v>
       </c>
       <c r="H94" s="3">
-        <v>-294400</v>
+        <v>-283000</v>
       </c>
       <c r="I94" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="J94" s="3">
-        <v>-298300</v>
+        <v>-286800</v>
       </c>
       <c r="K94" s="3">
         <v>-449200</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-296300</v>
+        <v>-284900</v>
       </c>
       <c r="E96" s="3">
-        <v>-295700</v>
+        <v>-284300</v>
       </c>
       <c r="F96" s="3">
-        <v>-295700</v>
+        <v>-284300</v>
       </c>
       <c r="G96" s="3">
-        <v>-277600</v>
+        <v>-266900</v>
       </c>
       <c r="H96" s="3">
-        <v>-192400</v>
+        <v>-185000</v>
       </c>
       <c r="I96" s="3">
-        <v>-175000</v>
+        <v>-168200</v>
       </c>
       <c r="J96" s="3">
-        <v>-211100</v>
+        <v>-203000</v>
       </c>
       <c r="K96" s="3">
         <v>-230400</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-227300</v>
+        <v>-218500</v>
       </c>
       <c r="E100" s="3">
-        <v>-215000</v>
+        <v>-206700</v>
       </c>
       <c r="F100" s="3">
-        <v>-217600</v>
+        <v>-209200</v>
       </c>
       <c r="G100" s="3">
-        <v>-165300</v>
+        <v>-158900</v>
       </c>
       <c r="H100" s="3">
-        <v>-196300</v>
+        <v>-188700</v>
       </c>
       <c r="I100" s="3">
-        <v>-342200</v>
+        <v>-329000</v>
       </c>
       <c r="J100" s="3">
-        <v>-315100</v>
+        <v>-302900</v>
       </c>
       <c r="K100" s="3">
         <v>-313000</v>
@@ -3227,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I101" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="J101" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K101" s="3">
         <v>700</v>
@@ -3254,16 +3254,16 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-18100</v>
+        <v>-17400</v>
       </c>
       <c r="H102" s="3">
-        <v>-82600</v>
+        <v>-79400</v>
       </c>
       <c r="I102" s="3">
-        <v>58100</v>
+        <v>55900</v>
       </c>
       <c r="J102" s="3">
-        <v>-43300</v>
+        <v>-41600</v>
       </c>
       <c r="K102" s="3">
         <v>-94200</v>

--- a/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>SPKKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42185</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41820</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41455</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41090</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2192900</v>
+        <v>2398100</v>
       </c>
       <c r="E8" s="3">
-        <v>2192900</v>
+        <v>2338500</v>
       </c>
       <c r="F8" s="3">
-        <v>2230800</v>
+        <v>2338500</v>
       </c>
       <c r="G8" s="3">
-        <v>2170600</v>
+        <v>2378900</v>
       </c>
       <c r="H8" s="3">
-        <v>2171800</v>
+        <v>2314700</v>
       </c>
       <c r="I8" s="3">
-        <v>2251900</v>
+        <v>2316000</v>
       </c>
       <c r="J8" s="3">
+        <v>2401400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2600100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3100200</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1008600</v>
+        <v>1100100</v>
       </c>
       <c r="E9" s="3">
-        <v>2000500</v>
+        <v>1075600</v>
       </c>
       <c r="F9" s="3">
-        <v>996800</v>
+        <v>2133300</v>
       </c>
       <c r="G9" s="3">
-        <v>975700</v>
+        <v>1063000</v>
       </c>
       <c r="H9" s="3">
-        <v>985700</v>
+        <v>1040500</v>
       </c>
       <c r="I9" s="3">
-        <v>1073800</v>
+        <v>1051100</v>
       </c>
       <c r="J9" s="3">
+        <v>1145100</v>
+      </c>
+      <c r="K9" s="3">
         <v>49700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>71100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1184300</v>
+        <v>1298000</v>
       </c>
       <c r="E10" s="3">
-        <v>192400</v>
+        <v>1262900</v>
       </c>
       <c r="F10" s="3">
-        <v>1234000</v>
+        <v>205200</v>
       </c>
       <c r="G10" s="3">
-        <v>1194800</v>
+        <v>1315900</v>
       </c>
       <c r="H10" s="3">
-        <v>1186200</v>
+        <v>1274200</v>
       </c>
       <c r="I10" s="3">
-        <v>1178100</v>
+        <v>1264900</v>
       </c>
       <c r="J10" s="3">
+        <v>1256300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2550500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3029100</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,12 +851,15 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3">
         <v>2700</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="E14" s="3">
-        <v>4300</v>
+        <v>2000</v>
       </c>
       <c r="F14" s="3">
-        <v>1200</v>
+        <v>4600</v>
       </c>
       <c r="G14" s="3">
-        <v>5600</v>
-      </c>
-      <c r="H14" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>91900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3400</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>296100</v>
+        <v>317100</v>
       </c>
       <c r="E15" s="3">
-        <v>394800</v>
+        <v>315700</v>
       </c>
       <c r="F15" s="3">
-        <v>266900</v>
+        <v>421000</v>
       </c>
       <c r="G15" s="3">
-        <v>276800</v>
+        <v>284600</v>
       </c>
       <c r="H15" s="3">
-        <v>281200</v>
+        <v>295200</v>
       </c>
       <c r="I15" s="3">
-        <v>279900</v>
+        <v>299800</v>
       </c>
       <c r="J15" s="3">
+        <v>298500</v>
+      </c>
+      <c r="K15" s="3">
         <v>334600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>390200</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1803800</v>
+        <v>1977800</v>
       </c>
       <c r="E17" s="3">
-        <v>1853400</v>
+        <v>1923500</v>
       </c>
       <c r="F17" s="3">
-        <v>1867100</v>
+        <v>1976400</v>
       </c>
       <c r="G17" s="3">
-        <v>1835400</v>
+        <v>1991000</v>
       </c>
       <c r="H17" s="3">
-        <v>1855900</v>
+        <v>1957200</v>
       </c>
       <c r="I17" s="3">
-        <v>1950900</v>
+        <v>1979100</v>
       </c>
       <c r="J17" s="3">
+        <v>2080400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2362400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2759500</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>389200</v>
+        <v>420300</v>
       </c>
       <c r="E18" s="3">
-        <v>339500</v>
+        <v>415000</v>
       </c>
       <c r="F18" s="3">
-        <v>363700</v>
+        <v>362100</v>
       </c>
       <c r="G18" s="3">
-        <v>335200</v>
+        <v>387900</v>
       </c>
       <c r="H18" s="3">
-        <v>315900</v>
+        <v>357400</v>
       </c>
       <c r="I18" s="3">
-        <v>301000</v>
+        <v>336900</v>
       </c>
       <c r="J18" s="3">
+        <v>321000</v>
+      </c>
+      <c r="K18" s="3">
         <v>237700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>340800</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23000</v>
+        <v>23800</v>
       </c>
       <c r="E20" s="3">
-        <v>21700</v>
+        <v>24500</v>
       </c>
       <c r="F20" s="3">
-        <v>9900</v>
+        <v>23200</v>
       </c>
       <c r="G20" s="3">
-        <v>11200</v>
+        <v>10600</v>
       </c>
       <c r="H20" s="3">
-        <v>16800</v>
+        <v>11900</v>
       </c>
       <c r="I20" s="3">
-        <v>6800</v>
+        <v>17900</v>
       </c>
       <c r="J20" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K20" s="3">
         <v>8100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>706900</v>
+        <v>757700</v>
       </c>
       <c r="E21" s="3">
-        <v>658500</v>
+        <v>751700</v>
       </c>
       <c r="F21" s="3">
-        <v>639400</v>
+        <v>700100</v>
       </c>
       <c r="G21" s="3">
-        <v>621900</v>
+        <v>679900</v>
       </c>
       <c r="H21" s="3">
-        <v>612600</v>
-      </c>
-      <c r="I21" s="3" t="s">
+        <v>661300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>651300</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>578800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>803600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>52800</v>
+        <v>62200</v>
       </c>
       <c r="E22" s="3">
-        <v>47800</v>
+        <v>56300</v>
       </c>
       <c r="F22" s="3">
-        <v>26100</v>
+        <v>51000</v>
       </c>
       <c r="G22" s="3">
-        <v>28600</v>
+        <v>27800</v>
       </c>
       <c r="H22" s="3">
-        <v>33500</v>
+        <v>30400</v>
       </c>
       <c r="I22" s="3">
-        <v>26100</v>
+        <v>35700</v>
       </c>
       <c r="J22" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K22" s="3">
         <v>34100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>54200</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>359400</v>
+        <v>381900</v>
       </c>
       <c r="E23" s="3">
-        <v>313500</v>
+        <v>383200</v>
       </c>
       <c r="F23" s="3">
-        <v>347600</v>
+        <v>334300</v>
       </c>
       <c r="G23" s="3">
-        <v>317800</v>
+        <v>370700</v>
       </c>
       <c r="H23" s="3">
-        <v>299200</v>
+        <v>338900</v>
       </c>
       <c r="I23" s="3">
-        <v>281800</v>
+        <v>319000</v>
       </c>
       <c r="J23" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K23" s="3">
         <v>211700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>286600</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>105500</v>
+        <v>99300</v>
       </c>
       <c r="E24" s="3">
-        <v>86900</v>
+        <v>112500</v>
       </c>
       <c r="F24" s="3">
-        <v>88100</v>
+        <v>92700</v>
       </c>
       <c r="G24" s="3">
-        <v>88100</v>
+        <v>94000</v>
       </c>
       <c r="H24" s="3">
-        <v>66400</v>
+        <v>94000</v>
       </c>
       <c r="I24" s="3">
-        <v>81300</v>
+        <v>70800</v>
       </c>
       <c r="J24" s="3">
+        <v>86700</v>
+      </c>
+      <c r="K24" s="3">
         <v>63900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>75900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>253900</v>
+        <v>282600</v>
       </c>
       <c r="E26" s="3">
-        <v>226600</v>
+        <v>270700</v>
       </c>
       <c r="F26" s="3">
-        <v>259500</v>
+        <v>241600</v>
       </c>
       <c r="G26" s="3">
-        <v>229700</v>
+        <v>276700</v>
       </c>
       <c r="H26" s="3">
-        <v>232800</v>
+        <v>244900</v>
       </c>
       <c r="I26" s="3">
-        <v>200500</v>
+        <v>248200</v>
       </c>
       <c r="J26" s="3">
+        <v>213800</v>
+      </c>
+      <c r="K26" s="3">
         <v>147700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>210700</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>253900</v>
+        <v>282600</v>
       </c>
       <c r="E27" s="3">
-        <v>226600</v>
+        <v>270700</v>
       </c>
       <c r="F27" s="3">
-        <v>259500</v>
+        <v>241600</v>
       </c>
       <c r="G27" s="3">
-        <v>229700</v>
+        <v>276700</v>
       </c>
       <c r="H27" s="3">
-        <v>231500</v>
+        <v>244900</v>
       </c>
       <c r="I27" s="3">
-        <v>199200</v>
+        <v>246900</v>
       </c>
       <c r="J27" s="3">
+        <v>212500</v>
+      </c>
+      <c r="K27" s="3">
         <v>146500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>209300</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1304,21 +1364,24 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>90700</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>573200</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23000</v>
+        <v>-23800</v>
       </c>
       <c r="E32" s="3">
-        <v>-21700</v>
+        <v>-24500</v>
       </c>
       <c r="F32" s="3">
-        <v>-9900</v>
+        <v>-23200</v>
       </c>
       <c r="G32" s="3">
-        <v>-11200</v>
+        <v>-10600</v>
       </c>
       <c r="H32" s="3">
-        <v>-16800</v>
+        <v>-11900</v>
       </c>
       <c r="I32" s="3">
-        <v>-6800</v>
+        <v>-17900</v>
       </c>
       <c r="J32" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>253900</v>
+        <v>282600</v>
       </c>
       <c r="E33" s="3">
-        <v>226600</v>
+        <v>270700</v>
       </c>
       <c r="F33" s="3">
-        <v>259500</v>
+        <v>241600</v>
       </c>
       <c r="G33" s="3">
-        <v>229700</v>
+        <v>276700</v>
       </c>
       <c r="H33" s="3">
-        <v>231500</v>
+        <v>244900</v>
       </c>
       <c r="I33" s="3">
-        <v>284300</v>
+        <v>246900</v>
       </c>
       <c r="J33" s="3">
+        <v>303200</v>
+      </c>
+      <c r="K33" s="3">
         <v>146500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>782500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>253900</v>
+        <v>282600</v>
       </c>
       <c r="E35" s="3">
-        <v>226600</v>
+        <v>270700</v>
       </c>
       <c r="F35" s="3">
-        <v>259500</v>
+        <v>241600</v>
       </c>
       <c r="G35" s="3">
-        <v>229700</v>
+        <v>276700</v>
       </c>
       <c r="H35" s="3">
-        <v>231500</v>
+        <v>244900</v>
       </c>
       <c r="I35" s="3">
-        <v>284300</v>
+        <v>246900</v>
       </c>
       <c r="J35" s="3">
+        <v>303200</v>
+      </c>
+      <c r="K35" s="3">
         <v>146500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>782500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42185</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41820</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41455</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41090</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>33500</v>
+        <v>35100</v>
       </c>
       <c r="E41" s="3">
-        <v>34100</v>
+        <v>35700</v>
       </c>
       <c r="F41" s="3">
-        <v>32200</v>
+        <v>36400</v>
       </c>
       <c r="G41" s="3">
-        <v>32200</v>
+        <v>34400</v>
       </c>
       <c r="H41" s="3">
-        <v>49600</v>
+        <v>34400</v>
       </c>
       <c r="I41" s="3">
-        <v>129000</v>
+        <v>53000</v>
       </c>
       <c r="J41" s="3">
+        <v>137700</v>
+      </c>
+      <c r="K41" s="3">
         <v>73200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>125300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,219 +1708,243 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>410500</v>
+        <v>422300</v>
       </c>
       <c r="E43" s="3">
-        <v>781900</v>
+        <v>438200</v>
       </c>
       <c r="F43" s="3">
-        <v>328000</v>
+        <v>834700</v>
       </c>
       <c r="G43" s="3">
-        <v>268500</v>
+        <v>350100</v>
       </c>
       <c r="H43" s="3">
-        <v>220100</v>
+        <v>286600</v>
       </c>
       <c r="I43" s="3">
-        <v>271000</v>
+        <v>235000</v>
       </c>
       <c r="J43" s="3">
+        <v>289300</v>
+      </c>
+      <c r="K43" s="3">
         <v>299500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>392900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>62000</v>
+        <v>63500</v>
       </c>
       <c r="E44" s="3">
-        <v>98000</v>
+        <v>66200</v>
       </c>
       <c r="F44" s="3">
-        <v>58300</v>
+        <v>104600</v>
       </c>
       <c r="G44" s="3">
-        <v>50200</v>
+        <v>62200</v>
       </c>
       <c r="H44" s="3">
-        <v>43400</v>
+        <v>53600</v>
       </c>
       <c r="I44" s="3">
-        <v>31000</v>
+        <v>46300</v>
       </c>
       <c r="J44" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K44" s="3">
         <v>32900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>33200</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>58900</v>
+        <v>93300</v>
       </c>
       <c r="E45" s="3">
-        <v>48400</v>
+        <v>62900</v>
       </c>
       <c r="F45" s="3">
-        <v>50200</v>
+        <v>51600</v>
       </c>
       <c r="G45" s="3">
-        <v>51500</v>
+        <v>53600</v>
       </c>
       <c r="H45" s="3">
-        <v>99800</v>
+        <v>54900</v>
       </c>
       <c r="I45" s="3">
-        <v>90500</v>
+        <v>106600</v>
       </c>
       <c r="J45" s="3">
+        <v>96600</v>
+      </c>
+      <c r="K45" s="3">
         <v>114100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>107000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>564900</v>
+        <v>614200</v>
       </c>
       <c r="E46" s="3">
+        <v>603000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>534200</v>
+      </c>
+      <c r="G46" s="3">
         <v>500400</v>
       </c>
-      <c r="F46" s="3">
-        <v>468800</v>
-      </c>
-      <c r="G46" s="3">
-        <v>402400</v>
-      </c>
       <c r="H46" s="3">
-        <v>413000</v>
+        <v>429600</v>
       </c>
       <c r="I46" s="3">
-        <v>521500</v>
+        <v>440800</v>
       </c>
       <c r="J46" s="3">
+        <v>556700</v>
+      </c>
+      <c r="K46" s="3">
         <v>519600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>658500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>293300</v>
+        <v>391800</v>
       </c>
       <c r="E47" s="3">
-        <v>452700</v>
+        <v>313100</v>
       </c>
       <c r="F47" s="3">
-        <v>213900</v>
+        <v>483200</v>
       </c>
       <c r="G47" s="3">
-        <v>211500</v>
+        <v>228400</v>
       </c>
       <c r="H47" s="3">
-        <v>194700</v>
+        <v>225700</v>
       </c>
       <c r="I47" s="3">
-        <v>188500</v>
+        <v>207800</v>
       </c>
       <c r="J47" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K47" s="3">
         <v>146300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>189000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1049200</v>
+        <v>1190800</v>
       </c>
       <c r="E48" s="3">
-        <v>1696600</v>
+        <v>1119900</v>
       </c>
       <c r="F48" s="3">
-        <v>663500</v>
+        <v>1811000</v>
       </c>
       <c r="G48" s="3">
-        <v>684600</v>
+        <v>708200</v>
       </c>
       <c r="H48" s="3">
-        <v>685200</v>
+        <v>730700</v>
       </c>
       <c r="I48" s="3">
-        <v>682700</v>
+        <v>731400</v>
       </c>
       <c r="J48" s="3">
+        <v>728800</v>
+      </c>
+      <c r="K48" s="3">
         <v>835300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1026400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>612000</v>
+        <v>640700</v>
       </c>
       <c r="E49" s="3">
-        <v>1341300</v>
+        <v>653300</v>
       </c>
       <c r="F49" s="3">
-        <v>715000</v>
+        <v>1431700</v>
       </c>
       <c r="G49" s="3">
-        <v>701300</v>
+        <v>763200</v>
       </c>
       <c r="H49" s="3">
-        <v>694500</v>
+        <v>748600</v>
       </c>
       <c r="I49" s="3">
-        <v>615100</v>
+        <v>741300</v>
       </c>
       <c r="J49" s="3">
+        <v>656600</v>
+      </c>
+      <c r="K49" s="3">
         <v>664100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>609800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19800</v>
+        <v>39700</v>
       </c>
       <c r="E52" s="3">
-        <v>6200</v>
+        <v>21200</v>
       </c>
       <c r="F52" s="3">
-        <v>4300</v>
+        <v>6600</v>
       </c>
       <c r="G52" s="3">
-        <v>7400</v>
+        <v>4600</v>
       </c>
       <c r="H52" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>600</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2539300</v>
+        <v>2877300</v>
       </c>
       <c r="E54" s="3">
-        <v>2383700</v>
+        <v>2710500</v>
       </c>
       <c r="F54" s="3">
-        <v>2065600</v>
+        <v>2544300</v>
       </c>
       <c r="G54" s="3">
-        <v>2007300</v>
+        <v>2204800</v>
       </c>
       <c r="H54" s="3">
-        <v>1988000</v>
+        <v>2142600</v>
       </c>
       <c r="I54" s="3">
-        <v>2011000</v>
+        <v>2122100</v>
       </c>
       <c r="J54" s="3">
+        <v>2146500</v>
+      </c>
+      <c r="K54" s="3">
         <v>2166000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2484400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>195300</v>
+        <v>156900</v>
       </c>
       <c r="E57" s="3">
-        <v>499800</v>
+        <v>208500</v>
       </c>
       <c r="F57" s="3">
-        <v>168000</v>
+        <v>533500</v>
       </c>
       <c r="G57" s="3">
-        <v>171800</v>
+        <v>179400</v>
       </c>
       <c r="H57" s="3">
-        <v>216400</v>
+        <v>183300</v>
       </c>
       <c r="I57" s="3">
-        <v>243100</v>
+        <v>231000</v>
       </c>
       <c r="J57" s="3">
+        <v>259500</v>
+      </c>
+      <c r="K57" s="3">
         <v>341100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>287700</v>
+        <v>198600</v>
       </c>
       <c r="E58" s="3">
-        <v>232500</v>
+        <v>307100</v>
       </c>
       <c r="F58" s="3">
-        <v>182900</v>
+        <v>248200</v>
       </c>
       <c r="G58" s="3">
-        <v>117800</v>
+        <v>195300</v>
       </c>
       <c r="H58" s="3">
-        <v>93600</v>
+        <v>125800</v>
       </c>
       <c r="I58" s="3">
-        <v>71900</v>
+        <v>99900</v>
       </c>
       <c r="J58" s="3">
+        <v>76800</v>
+      </c>
+      <c r="K58" s="3">
         <v>143200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>279800</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>102300</v>
+        <v>161500</v>
       </c>
       <c r="E59" s="3">
-        <v>120900</v>
+        <v>109200</v>
       </c>
       <c r="F59" s="3">
-        <v>139500</v>
+        <v>129100</v>
       </c>
       <c r="G59" s="3">
-        <v>115300</v>
+        <v>148900</v>
       </c>
       <c r="H59" s="3">
-        <v>134600</v>
+        <v>123100</v>
       </c>
       <c r="I59" s="3">
-        <v>164300</v>
+        <v>143600</v>
       </c>
       <c r="J59" s="3">
+        <v>175400</v>
+      </c>
+      <c r="K59" s="3">
         <v>189100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>235800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>585400</v>
+        <v>516900</v>
       </c>
       <c r="E60" s="3">
-        <v>470700</v>
+        <v>624800</v>
       </c>
       <c r="F60" s="3">
-        <v>490500</v>
+        <v>502400</v>
       </c>
       <c r="G60" s="3">
-        <v>404900</v>
+        <v>523600</v>
       </c>
       <c r="H60" s="3">
-        <v>444600</v>
+        <v>432200</v>
       </c>
       <c r="I60" s="3">
-        <v>479300</v>
+        <v>474600</v>
       </c>
       <c r="J60" s="3">
+        <v>511600</v>
+      </c>
+      <c r="K60" s="3">
         <v>673400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>815700</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>881200</v>
+        <v>1174900</v>
       </c>
       <c r="E61" s="3">
-        <v>865700</v>
+        <v>940600</v>
       </c>
       <c r="F61" s="3">
-        <v>429100</v>
+        <v>924000</v>
       </c>
       <c r="G61" s="3">
-        <v>424800</v>
+        <v>458000</v>
       </c>
       <c r="H61" s="3">
-        <v>336700</v>
+        <v>453400</v>
       </c>
       <c r="I61" s="3">
-        <v>358400</v>
+        <v>359400</v>
       </c>
       <c r="J61" s="3">
+        <v>382600</v>
+      </c>
+      <c r="K61" s="3">
         <v>468800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>412600</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>164300</v>
+        <v>197200</v>
       </c>
       <c r="E62" s="3">
-        <v>140800</v>
+        <v>175400</v>
       </c>
       <c r="F62" s="3">
-        <v>122200</v>
+        <v>150300</v>
       </c>
       <c r="G62" s="3">
-        <v>133300</v>
+        <v>130400</v>
       </c>
       <c r="H62" s="3">
-        <v>104200</v>
+        <v>142300</v>
       </c>
       <c r="I62" s="3">
-        <v>114100</v>
+        <v>111200</v>
       </c>
       <c r="J62" s="3">
+        <v>121800</v>
+      </c>
+      <c r="K62" s="3">
         <v>147600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>154500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1630900</v>
+        <v>1889100</v>
       </c>
       <c r="E66" s="3">
-        <v>1464100</v>
+        <v>1740800</v>
       </c>
       <c r="F66" s="3">
-        <v>1041800</v>
+        <v>1562700</v>
       </c>
       <c r="G66" s="3">
-        <v>963000</v>
+        <v>1112000</v>
       </c>
       <c r="H66" s="3">
-        <v>885500</v>
+        <v>1027900</v>
       </c>
       <c r="I66" s="3">
-        <v>955600</v>
+        <v>945200</v>
       </c>
       <c r="J66" s="3">
+        <v>1020000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1293500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1386200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>577300</v>
+        <v>595000</v>
       </c>
       <c r="E72" s="3">
-        <v>608300</v>
+        <v>616200</v>
       </c>
       <c r="F72" s="3">
-        <v>698900</v>
+        <v>649300</v>
       </c>
       <c r="G72" s="3">
-        <v>726100</v>
+        <v>746000</v>
       </c>
       <c r="H72" s="3">
-        <v>764000</v>
+        <v>775100</v>
       </c>
       <c r="I72" s="3">
-        <v>734200</v>
+        <v>815500</v>
       </c>
       <c r="J72" s="3">
+        <v>783700</v>
+      </c>
+      <c r="K72" s="3">
         <v>627500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>758800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>908400</v>
+        <v>988200</v>
       </c>
       <c r="E76" s="3">
-        <v>919600</v>
+        <v>969700</v>
       </c>
       <c r="F76" s="3">
-        <v>1023800</v>
+        <v>981600</v>
       </c>
       <c r="G76" s="3">
-        <v>1044200</v>
+        <v>1092800</v>
       </c>
       <c r="H76" s="3">
-        <v>1102500</v>
+        <v>1114600</v>
       </c>
       <c r="I76" s="3">
-        <v>1055400</v>
+        <v>1176900</v>
       </c>
       <c r="J76" s="3">
+        <v>1126600</v>
+      </c>
+      <c r="K76" s="3">
         <v>872500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1098200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42185</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41820</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41455</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41090</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>253900</v>
+        <v>282600</v>
       </c>
       <c r="E81" s="3">
-        <v>226600</v>
+        <v>270700</v>
       </c>
       <c r="F81" s="3">
-        <v>259500</v>
+        <v>241600</v>
       </c>
       <c r="G81" s="3">
-        <v>229700</v>
+        <v>276700</v>
       </c>
       <c r="H81" s="3">
-        <v>231500</v>
+        <v>244900</v>
       </c>
       <c r="I81" s="3">
-        <v>284300</v>
+        <v>246900</v>
       </c>
       <c r="J81" s="3">
+        <v>303200</v>
+      </c>
+      <c r="K81" s="3">
         <v>146500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>782500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>296100</v>
+        <v>317100</v>
       </c>
       <c r="E83" s="3">
-        <v>298600</v>
+        <v>315700</v>
       </c>
       <c r="F83" s="3">
-        <v>266900</v>
+        <v>318400</v>
       </c>
       <c r="G83" s="3">
-        <v>276800</v>
+        <v>284600</v>
       </c>
       <c r="H83" s="3">
-        <v>281200</v>
-      </c>
-      <c r="I83" s="3" t="s">
+        <v>295200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>299800</v>
+      </c>
+      <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>334600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>461400</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>482300</v>
+        <v>597700</v>
       </c>
       <c r="E89" s="3">
-        <v>509000</v>
+        <v>514300</v>
       </c>
       <c r="F89" s="3">
-        <v>445000</v>
+        <v>542800</v>
       </c>
       <c r="G89" s="3">
-        <v>444400</v>
+        <v>474600</v>
       </c>
       <c r="H89" s="3">
-        <v>391000</v>
+        <v>473900</v>
       </c>
       <c r="I89" s="3">
-        <v>379900</v>
+        <v>417000</v>
       </c>
       <c r="J89" s="3">
+        <v>405100</v>
+      </c>
+      <c r="K89" s="3">
         <v>549300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>667300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-257600</v>
+        <v>-260100</v>
       </c>
       <c r="E91" s="3">
-        <v>-257000</v>
+        <v>-274700</v>
       </c>
       <c r="F91" s="3">
-        <v>-247000</v>
+        <v>-274000</v>
       </c>
       <c r="G91" s="3">
-        <v>-259500</v>
+        <v>-263400</v>
       </c>
       <c r="H91" s="3">
-        <v>-363700</v>
+        <v>-276700</v>
       </c>
       <c r="I91" s="3">
-        <v>-299800</v>
+        <v>-387900</v>
       </c>
       <c r="J91" s="3">
+        <v>-319700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-241500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-449200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-264400</v>
+        <v>-272000</v>
       </c>
       <c r="E94" s="3">
-        <v>-300400</v>
+        <v>-282000</v>
       </c>
       <c r="F94" s="3">
-        <v>-235900</v>
+        <v>-320400</v>
       </c>
       <c r="G94" s="3">
-        <v>-302900</v>
+        <v>-251500</v>
       </c>
       <c r="H94" s="3">
-        <v>-283000</v>
+        <v>-323000</v>
       </c>
       <c r="I94" s="3">
-        <v>6200</v>
+        <v>-301800</v>
       </c>
       <c r="J94" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-286800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-449200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-284900</v>
+        <v>-303800</v>
       </c>
       <c r="E96" s="3">
-        <v>-284300</v>
+        <v>-303800</v>
       </c>
       <c r="F96" s="3">
-        <v>-284300</v>
+        <v>-303200</v>
       </c>
       <c r="G96" s="3">
-        <v>-266900</v>
+        <v>-303200</v>
       </c>
       <c r="H96" s="3">
-        <v>-185000</v>
+        <v>-284600</v>
       </c>
       <c r="I96" s="3">
-        <v>-168200</v>
+        <v>-197200</v>
       </c>
       <c r="J96" s="3">
+        <v>-179400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-203000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-230400</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-218500</v>
+        <v>-326300</v>
       </c>
       <c r="E100" s="3">
-        <v>-206700</v>
+        <v>-233000</v>
       </c>
       <c r="F100" s="3">
-        <v>-209200</v>
+        <v>-220400</v>
       </c>
       <c r="G100" s="3">
-        <v>-158900</v>
+        <v>-223100</v>
       </c>
       <c r="H100" s="3">
-        <v>-188700</v>
+        <v>-169400</v>
       </c>
       <c r="I100" s="3">
-        <v>-329000</v>
+        <v>-201200</v>
       </c>
       <c r="J100" s="3">
+        <v>-350800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-302900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-313000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3223,52 +3471,58 @@
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H101" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E102" s="3">
-        <v>1900</v>
+        <v>-700</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G102" s="3">
-        <v>-17400</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-79400</v>
+        <v>-18500</v>
       </c>
       <c r="I102" s="3">
-        <v>55900</v>
+        <v>-84700</v>
       </c>
       <c r="J102" s="3">
+        <v>59600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-41600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-94200</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2398100</v>
+        <v>2523400</v>
       </c>
       <c r="E8" s="3">
-        <v>2338500</v>
+        <v>2472100</v>
       </c>
       <c r="F8" s="3">
-        <v>2338500</v>
+        <v>2481200</v>
       </c>
       <c r="G8" s="3">
-        <v>2378900</v>
+        <v>2524100</v>
       </c>
       <c r="H8" s="3">
-        <v>2314700</v>
+        <v>2455900</v>
       </c>
       <c r="I8" s="3">
-        <v>2316000</v>
+        <v>2457300</v>
       </c>
       <c r="J8" s="3">
-        <v>2401400</v>
+        <v>2547900</v>
       </c>
       <c r="K8" s="3">
         <v>2600100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1100100</v>
+        <v>1167200</v>
       </c>
       <c r="E9" s="3">
-        <v>1075600</v>
+        <v>1141200</v>
       </c>
       <c r="F9" s="3">
-        <v>2133300</v>
+        <v>2263500</v>
       </c>
       <c r="G9" s="3">
-        <v>1063000</v>
+        <v>1127900</v>
       </c>
       <c r="H9" s="3">
-        <v>1040500</v>
+        <v>1104000</v>
       </c>
       <c r="I9" s="3">
-        <v>1051100</v>
+        <v>1115300</v>
       </c>
       <c r="J9" s="3">
-        <v>1145100</v>
+        <v>1215000</v>
       </c>
       <c r="K9" s="3">
         <v>49700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1298000</v>
+        <v>1356100</v>
       </c>
       <c r="E10" s="3">
-        <v>1262900</v>
+        <v>1330900</v>
       </c>
       <c r="F10" s="3">
-        <v>205200</v>
+        <v>217700</v>
       </c>
       <c r="G10" s="3">
-        <v>1315900</v>
+        <v>1396200</v>
       </c>
       <c r="H10" s="3">
-        <v>1274200</v>
+        <v>1351900</v>
       </c>
       <c r="I10" s="3">
-        <v>1264900</v>
+        <v>1342100</v>
       </c>
       <c r="J10" s="3">
-        <v>1256300</v>
+        <v>1333000</v>
       </c>
       <c r="K10" s="3">
         <v>2550500</v>
@@ -897,19 +897,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="F14" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="G14" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H14" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>317100</v>
+        <v>336400</v>
       </c>
       <c r="E15" s="3">
-        <v>315700</v>
+        <v>335000</v>
       </c>
       <c r="F15" s="3">
-        <v>421000</v>
+        <v>446700</v>
       </c>
       <c r="G15" s="3">
-        <v>284600</v>
+        <v>302000</v>
       </c>
       <c r="H15" s="3">
-        <v>295200</v>
+        <v>313200</v>
       </c>
       <c r="I15" s="3">
-        <v>299800</v>
+        <v>318100</v>
       </c>
       <c r="J15" s="3">
-        <v>298500</v>
+        <v>316700</v>
       </c>
       <c r="K15" s="3">
         <v>334600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1977800</v>
+        <v>2077400</v>
       </c>
       <c r="E17" s="3">
-        <v>1923500</v>
+        <v>2031800</v>
       </c>
       <c r="F17" s="3">
-        <v>1976400</v>
+        <v>2097100</v>
       </c>
       <c r="G17" s="3">
-        <v>1991000</v>
+        <v>2112500</v>
       </c>
       <c r="H17" s="3">
-        <v>1957200</v>
+        <v>2076700</v>
       </c>
       <c r="I17" s="3">
-        <v>1979100</v>
+        <v>2099900</v>
       </c>
       <c r="J17" s="3">
-        <v>2080400</v>
+        <v>2207300</v>
       </c>
       <c r="K17" s="3">
         <v>2362400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>420300</v>
+        <v>446000</v>
       </c>
       <c r="E18" s="3">
-        <v>415000</v>
+        <v>440300</v>
       </c>
       <c r="F18" s="3">
-        <v>362100</v>
+        <v>384200</v>
       </c>
       <c r="G18" s="3">
-        <v>387900</v>
+        <v>411500</v>
       </c>
       <c r="H18" s="3">
-        <v>357400</v>
+        <v>379200</v>
       </c>
       <c r="I18" s="3">
-        <v>336900</v>
+        <v>357500</v>
       </c>
       <c r="J18" s="3">
-        <v>321000</v>
+        <v>340600</v>
       </c>
       <c r="K18" s="3">
         <v>237700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23800</v>
+        <v>25300</v>
       </c>
       <c r="E20" s="3">
-        <v>24500</v>
+        <v>26000</v>
       </c>
       <c r="F20" s="3">
-        <v>23200</v>
+        <v>24600</v>
       </c>
       <c r="G20" s="3">
-        <v>10600</v>
+        <v>11200</v>
       </c>
       <c r="H20" s="3">
-        <v>11900</v>
+        <v>12600</v>
       </c>
       <c r="I20" s="3">
-        <v>17900</v>
+        <v>19000</v>
       </c>
       <c r="J20" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="K20" s="3">
         <v>8100</v>
@@ -1089,22 +1089,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>757700</v>
+        <v>806800</v>
       </c>
       <c r="E21" s="3">
-        <v>751700</v>
+        <v>800500</v>
       </c>
       <c r="F21" s="3">
-        <v>700100</v>
+        <v>745700</v>
       </c>
       <c r="G21" s="3">
-        <v>679900</v>
+        <v>724000</v>
       </c>
       <c r="H21" s="3">
-        <v>661300</v>
+        <v>704300</v>
       </c>
       <c r="I21" s="3">
-        <v>651300</v>
+        <v>693800</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>62200</v>
+        <v>66000</v>
       </c>
       <c r="E22" s="3">
-        <v>56300</v>
+        <v>59700</v>
       </c>
       <c r="F22" s="3">
-        <v>51000</v>
+        <v>54100</v>
       </c>
       <c r="G22" s="3">
-        <v>27800</v>
+        <v>29500</v>
       </c>
       <c r="H22" s="3">
-        <v>30400</v>
+        <v>32300</v>
       </c>
       <c r="I22" s="3">
-        <v>35700</v>
+        <v>37900</v>
       </c>
       <c r="J22" s="3">
-        <v>27800</v>
+        <v>29500</v>
       </c>
       <c r="K22" s="3">
         <v>34100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>381900</v>
+        <v>405200</v>
       </c>
       <c r="E23" s="3">
-        <v>383200</v>
+        <v>406600</v>
       </c>
       <c r="F23" s="3">
-        <v>334300</v>
+        <v>354700</v>
       </c>
       <c r="G23" s="3">
-        <v>370700</v>
+        <v>393300</v>
       </c>
       <c r="H23" s="3">
-        <v>338900</v>
+        <v>359600</v>
       </c>
       <c r="I23" s="3">
-        <v>319000</v>
+        <v>338500</v>
       </c>
       <c r="J23" s="3">
-        <v>300500</v>
+        <v>318800</v>
       </c>
       <c r="K23" s="3">
         <v>211700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>99300</v>
+        <v>105300</v>
       </c>
       <c r="E24" s="3">
-        <v>112500</v>
+        <v>119400</v>
       </c>
       <c r="F24" s="3">
-        <v>92700</v>
+        <v>98300</v>
       </c>
       <c r="G24" s="3">
-        <v>94000</v>
+        <v>99700</v>
       </c>
       <c r="H24" s="3">
-        <v>94000</v>
+        <v>99700</v>
       </c>
       <c r="I24" s="3">
-        <v>70800</v>
+        <v>75100</v>
       </c>
       <c r="J24" s="3">
-        <v>86700</v>
+        <v>92000</v>
       </c>
       <c r="K24" s="3">
         <v>63900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>282600</v>
+        <v>299900</v>
       </c>
       <c r="E26" s="3">
-        <v>270700</v>
+        <v>287200</v>
       </c>
       <c r="F26" s="3">
-        <v>241600</v>
+        <v>256300</v>
       </c>
       <c r="G26" s="3">
-        <v>276700</v>
+        <v>293600</v>
       </c>
       <c r="H26" s="3">
-        <v>244900</v>
+        <v>259900</v>
       </c>
       <c r="I26" s="3">
-        <v>248200</v>
+        <v>263400</v>
       </c>
       <c r="J26" s="3">
-        <v>213800</v>
+        <v>226800</v>
       </c>
       <c r="K26" s="3">
         <v>147700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>282600</v>
+        <v>299900</v>
       </c>
       <c r="E27" s="3">
-        <v>270700</v>
+        <v>287200</v>
       </c>
       <c r="F27" s="3">
-        <v>241600</v>
+        <v>256300</v>
       </c>
       <c r="G27" s="3">
-        <v>276700</v>
+        <v>293600</v>
       </c>
       <c r="H27" s="3">
-        <v>244900</v>
+        <v>259900</v>
       </c>
       <c r="I27" s="3">
-        <v>246900</v>
+        <v>262000</v>
       </c>
       <c r="J27" s="3">
-        <v>212500</v>
+        <v>225400</v>
       </c>
       <c r="K27" s="3">
         <v>146500</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>90700</v>
+        <v>96200</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23800</v>
+        <v>-25300</v>
       </c>
       <c r="E32" s="3">
-        <v>-24500</v>
+        <v>-26000</v>
       </c>
       <c r="F32" s="3">
-        <v>-23200</v>
+        <v>-24600</v>
       </c>
       <c r="G32" s="3">
-        <v>-10600</v>
+        <v>-11200</v>
       </c>
       <c r="H32" s="3">
-        <v>-11900</v>
+        <v>-12600</v>
       </c>
       <c r="I32" s="3">
-        <v>-17900</v>
+        <v>-19000</v>
       </c>
       <c r="J32" s="3">
-        <v>-7300</v>
+        <v>-7700</v>
       </c>
       <c r="K32" s="3">
         <v>-8100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>282600</v>
+        <v>299900</v>
       </c>
       <c r="E33" s="3">
-        <v>270700</v>
+        <v>287200</v>
       </c>
       <c r="F33" s="3">
-        <v>241600</v>
+        <v>256300</v>
       </c>
       <c r="G33" s="3">
-        <v>276700</v>
+        <v>293600</v>
       </c>
       <c r="H33" s="3">
-        <v>244900</v>
+        <v>259900</v>
       </c>
       <c r="I33" s="3">
-        <v>246900</v>
+        <v>262000</v>
       </c>
       <c r="J33" s="3">
-        <v>303200</v>
+        <v>321700</v>
       </c>
       <c r="K33" s="3">
         <v>146500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>282600</v>
+        <v>299900</v>
       </c>
       <c r="E35" s="3">
-        <v>270700</v>
+        <v>287200</v>
       </c>
       <c r="F35" s="3">
-        <v>241600</v>
+        <v>256300</v>
       </c>
       <c r="G35" s="3">
-        <v>276700</v>
+        <v>293600</v>
       </c>
       <c r="H35" s="3">
-        <v>244900</v>
+        <v>259900</v>
       </c>
       <c r="I35" s="3">
-        <v>246900</v>
+        <v>262000</v>
       </c>
       <c r="J35" s="3">
-        <v>303200</v>
+        <v>321700</v>
       </c>
       <c r="K35" s="3">
         <v>146500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35100</v>
+        <v>37200</v>
       </c>
       <c r="E41" s="3">
-        <v>35700</v>
+        <v>37900</v>
       </c>
       <c r="F41" s="3">
-        <v>36400</v>
+        <v>38600</v>
       </c>
       <c r="G41" s="3">
-        <v>34400</v>
+        <v>36500</v>
       </c>
       <c r="H41" s="3">
-        <v>34400</v>
+        <v>36500</v>
       </c>
       <c r="I41" s="3">
-        <v>53000</v>
+        <v>56200</v>
       </c>
       <c r="J41" s="3">
-        <v>137700</v>
+        <v>146100</v>
       </c>
       <c r="K41" s="3">
         <v>73200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>422300</v>
+        <v>415100</v>
       </c>
       <c r="E43" s="3">
-        <v>438200</v>
+        <v>431900</v>
       </c>
       <c r="F43" s="3">
-        <v>834700</v>
+        <v>853300</v>
       </c>
       <c r="G43" s="3">
-        <v>350100</v>
+        <v>371500</v>
       </c>
       <c r="H43" s="3">
-        <v>286600</v>
+        <v>304100</v>
       </c>
       <c r="I43" s="3">
-        <v>235000</v>
+        <v>249300</v>
       </c>
       <c r="J43" s="3">
-        <v>289300</v>
+        <v>306900</v>
       </c>
       <c r="K43" s="3">
         <v>299500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>63500</v>
+        <v>67400</v>
       </c>
       <c r="E44" s="3">
-        <v>66200</v>
+        <v>70200</v>
       </c>
       <c r="F44" s="3">
-        <v>104600</v>
+        <v>111000</v>
       </c>
       <c r="G44" s="3">
-        <v>62200</v>
+        <v>66000</v>
       </c>
       <c r="H44" s="3">
-        <v>53600</v>
+        <v>56900</v>
       </c>
       <c r="I44" s="3">
-        <v>46300</v>
+        <v>49200</v>
       </c>
       <c r="J44" s="3">
-        <v>33100</v>
+        <v>35100</v>
       </c>
       <c r="K44" s="3">
         <v>32900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>93300</v>
+        <v>132000</v>
       </c>
       <c r="E45" s="3">
-        <v>62900</v>
+        <v>99700</v>
       </c>
       <c r="F45" s="3">
-        <v>51600</v>
+        <v>87100</v>
       </c>
       <c r="G45" s="3">
-        <v>53600</v>
+        <v>56900</v>
       </c>
       <c r="H45" s="3">
-        <v>54900</v>
+        <v>58300</v>
       </c>
       <c r="I45" s="3">
-        <v>106600</v>
+        <v>113100</v>
       </c>
       <c r="J45" s="3">
-        <v>96600</v>
+        <v>102500</v>
       </c>
       <c r="K45" s="3">
         <v>114100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>614200</v>
+        <v>651700</v>
       </c>
       <c r="E46" s="3">
-        <v>603000</v>
+        <v>639800</v>
       </c>
       <c r="F46" s="3">
-        <v>534200</v>
+        <v>566800</v>
       </c>
       <c r="G46" s="3">
-        <v>500400</v>
+        <v>530900</v>
       </c>
       <c r="H46" s="3">
-        <v>429600</v>
+        <v>455800</v>
       </c>
       <c r="I46" s="3">
-        <v>440800</v>
+        <v>467700</v>
       </c>
       <c r="J46" s="3">
-        <v>556700</v>
+        <v>590600</v>
       </c>
       <c r="K46" s="3">
         <v>519600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>391800</v>
+        <v>415800</v>
       </c>
       <c r="E47" s="3">
-        <v>313100</v>
+        <v>332200</v>
       </c>
       <c r="F47" s="3">
-        <v>483200</v>
+        <v>512700</v>
       </c>
       <c r="G47" s="3">
-        <v>228400</v>
+        <v>242300</v>
       </c>
       <c r="H47" s="3">
-        <v>225700</v>
+        <v>239500</v>
       </c>
       <c r="I47" s="3">
-        <v>207800</v>
+        <v>220500</v>
       </c>
       <c r="J47" s="3">
-        <v>201200</v>
+        <v>213500</v>
       </c>
       <c r="K47" s="3">
         <v>146300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1190800</v>
+        <v>1263400</v>
       </c>
       <c r="E48" s="3">
-        <v>1119900</v>
+        <v>1188300</v>
       </c>
       <c r="F48" s="3">
-        <v>1811000</v>
+        <v>1921500</v>
       </c>
       <c r="G48" s="3">
-        <v>708200</v>
+        <v>751500</v>
       </c>
       <c r="H48" s="3">
-        <v>730700</v>
+        <v>775300</v>
       </c>
       <c r="I48" s="3">
-        <v>731400</v>
+        <v>776000</v>
       </c>
       <c r="J48" s="3">
-        <v>728800</v>
+        <v>773200</v>
       </c>
       <c r="K48" s="3">
         <v>835300</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>640700</v>
+        <v>679800</v>
       </c>
       <c r="E49" s="3">
-        <v>653300</v>
+        <v>693200</v>
       </c>
       <c r="F49" s="3">
-        <v>1431700</v>
+        <v>1519100</v>
       </c>
       <c r="G49" s="3">
-        <v>763200</v>
+        <v>809800</v>
       </c>
       <c r="H49" s="3">
-        <v>748600</v>
+        <v>794300</v>
       </c>
       <c r="I49" s="3">
-        <v>741300</v>
+        <v>786600</v>
       </c>
       <c r="J49" s="3">
-        <v>656600</v>
+        <v>696700</v>
       </c>
       <c r="K49" s="3">
         <v>664100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39700</v>
+        <v>42100</v>
       </c>
       <c r="E52" s="3">
-        <v>21200</v>
+        <v>22500</v>
       </c>
       <c r="F52" s="3">
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="G52" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="H52" s="3">
-        <v>7900</v>
+        <v>8400</v>
       </c>
       <c r="I52" s="3">
         <v>700</v>
       </c>
       <c r="J52" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2877300</v>
+        <v>3052900</v>
       </c>
       <c r="E54" s="3">
-        <v>2710500</v>
+        <v>2875900</v>
       </c>
       <c r="F54" s="3">
-        <v>2544300</v>
+        <v>2699600</v>
       </c>
       <c r="G54" s="3">
-        <v>2204800</v>
+        <v>2339400</v>
       </c>
       <c r="H54" s="3">
-        <v>2142600</v>
+        <v>2273300</v>
       </c>
       <c r="I54" s="3">
-        <v>2122100</v>
+        <v>2251600</v>
       </c>
       <c r="J54" s="3">
-        <v>2146500</v>
+        <v>2277600</v>
       </c>
       <c r="K54" s="3">
         <v>2166000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>156900</v>
+        <v>166400</v>
       </c>
       <c r="E57" s="3">
-        <v>208500</v>
+        <v>221200</v>
       </c>
       <c r="F57" s="3">
-        <v>533500</v>
+        <v>566100</v>
       </c>
       <c r="G57" s="3">
-        <v>179400</v>
+        <v>190300</v>
       </c>
       <c r="H57" s="3">
-        <v>183300</v>
+        <v>194500</v>
       </c>
       <c r="I57" s="3">
-        <v>231000</v>
+        <v>245100</v>
       </c>
       <c r="J57" s="3">
-        <v>259500</v>
+        <v>275300</v>
       </c>
       <c r="K57" s="3">
         <v>341100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>198600</v>
+        <v>210700</v>
       </c>
       <c r="E58" s="3">
-        <v>307100</v>
+        <v>325900</v>
       </c>
       <c r="F58" s="3">
-        <v>248200</v>
+        <v>263400</v>
       </c>
       <c r="G58" s="3">
-        <v>195300</v>
+        <v>207200</v>
       </c>
       <c r="H58" s="3">
-        <v>125800</v>
+        <v>133400</v>
       </c>
       <c r="I58" s="3">
-        <v>99900</v>
+        <v>106000</v>
       </c>
       <c r="J58" s="3">
-        <v>76800</v>
+        <v>81500</v>
       </c>
       <c r="K58" s="3">
         <v>143200</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>161500</v>
+        <v>171400</v>
       </c>
       <c r="E59" s="3">
-        <v>109200</v>
+        <v>115900</v>
       </c>
       <c r="F59" s="3">
-        <v>129100</v>
+        <v>136900</v>
       </c>
       <c r="G59" s="3">
-        <v>148900</v>
+        <v>158000</v>
       </c>
       <c r="H59" s="3">
-        <v>123100</v>
+        <v>130600</v>
       </c>
       <c r="I59" s="3">
-        <v>143600</v>
+        <v>152400</v>
       </c>
       <c r="J59" s="3">
-        <v>175400</v>
+        <v>186100</v>
       </c>
       <c r="K59" s="3">
         <v>189100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>516900</v>
+        <v>548500</v>
       </c>
       <c r="E60" s="3">
-        <v>624800</v>
+        <v>663000</v>
       </c>
       <c r="F60" s="3">
-        <v>502400</v>
+        <v>533000</v>
       </c>
       <c r="G60" s="3">
-        <v>523600</v>
+        <v>555500</v>
       </c>
       <c r="H60" s="3">
-        <v>432200</v>
+        <v>458600</v>
       </c>
       <c r="I60" s="3">
-        <v>474600</v>
+        <v>503500</v>
       </c>
       <c r="J60" s="3">
-        <v>511600</v>
+        <v>542900</v>
       </c>
       <c r="K60" s="3">
         <v>673400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1174900</v>
+        <v>1246600</v>
       </c>
       <c r="E61" s="3">
-        <v>940600</v>
+        <v>998000</v>
       </c>
       <c r="F61" s="3">
-        <v>924000</v>
+        <v>980400</v>
       </c>
       <c r="G61" s="3">
-        <v>458000</v>
+        <v>486000</v>
       </c>
       <c r="H61" s="3">
-        <v>453400</v>
+        <v>481100</v>
       </c>
       <c r="I61" s="3">
-        <v>359400</v>
+        <v>381300</v>
       </c>
       <c r="J61" s="3">
-        <v>382600</v>
+        <v>405900</v>
       </c>
       <c r="K61" s="3">
         <v>468800</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>197200</v>
+        <v>209300</v>
       </c>
       <c r="E62" s="3">
-        <v>175400</v>
+        <v>186100</v>
       </c>
       <c r="F62" s="3">
-        <v>150300</v>
+        <v>159400</v>
       </c>
       <c r="G62" s="3">
-        <v>130400</v>
+        <v>138400</v>
       </c>
       <c r="H62" s="3">
-        <v>142300</v>
+        <v>151000</v>
       </c>
       <c r="I62" s="3">
-        <v>111200</v>
+        <v>118000</v>
       </c>
       <c r="J62" s="3">
-        <v>121800</v>
+        <v>129200</v>
       </c>
       <c r="K62" s="3">
         <v>147600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1889100</v>
+        <v>2004400</v>
       </c>
       <c r="E66" s="3">
-        <v>1740800</v>
+        <v>1847000</v>
       </c>
       <c r="F66" s="3">
-        <v>1562700</v>
+        <v>1658100</v>
       </c>
       <c r="G66" s="3">
-        <v>1112000</v>
+        <v>1179900</v>
       </c>
       <c r="H66" s="3">
-        <v>1027900</v>
+        <v>1090700</v>
       </c>
       <c r="I66" s="3">
-        <v>945200</v>
+        <v>1002900</v>
       </c>
       <c r="J66" s="3">
-        <v>1020000</v>
+        <v>1082200</v>
       </c>
       <c r="K66" s="3">
         <v>1293500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>595000</v>
+        <v>631400</v>
       </c>
       <c r="E72" s="3">
-        <v>616200</v>
+        <v>653800</v>
       </c>
       <c r="F72" s="3">
-        <v>649300</v>
+        <v>689000</v>
       </c>
       <c r="G72" s="3">
-        <v>746000</v>
+        <v>791500</v>
       </c>
       <c r="H72" s="3">
-        <v>775100</v>
+        <v>822400</v>
       </c>
       <c r="I72" s="3">
-        <v>815500</v>
+        <v>865200</v>
       </c>
       <c r="J72" s="3">
-        <v>783700</v>
+        <v>831500</v>
       </c>
       <c r="K72" s="3">
         <v>627500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>988200</v>
+        <v>1048500</v>
       </c>
       <c r="E76" s="3">
-        <v>969700</v>
+        <v>1028900</v>
       </c>
       <c r="F76" s="3">
-        <v>981600</v>
+        <v>1041500</v>
       </c>
       <c r="G76" s="3">
-        <v>1092800</v>
+        <v>1159500</v>
       </c>
       <c r="H76" s="3">
-        <v>1114600</v>
+        <v>1182700</v>
       </c>
       <c r="I76" s="3">
-        <v>1176900</v>
+        <v>1248700</v>
       </c>
       <c r="J76" s="3">
-        <v>1126600</v>
+        <v>1195300</v>
       </c>
       <c r="K76" s="3">
         <v>872500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>282600</v>
+        <v>299900</v>
       </c>
       <c r="E81" s="3">
-        <v>270700</v>
+        <v>287200</v>
       </c>
       <c r="F81" s="3">
-        <v>241600</v>
+        <v>256300</v>
       </c>
       <c r="G81" s="3">
-        <v>276700</v>
+        <v>293600</v>
       </c>
       <c r="H81" s="3">
-        <v>244900</v>
+        <v>259900</v>
       </c>
       <c r="I81" s="3">
-        <v>246900</v>
+        <v>262000</v>
       </c>
       <c r="J81" s="3">
-        <v>303200</v>
+        <v>321700</v>
       </c>
       <c r="K81" s="3">
         <v>146500</v>
@@ -2905,22 +2905,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>317100</v>
+        <v>336400</v>
       </c>
       <c r="E83" s="3">
-        <v>315700</v>
+        <v>335000</v>
       </c>
       <c r="F83" s="3">
-        <v>318400</v>
+        <v>337800</v>
       </c>
       <c r="G83" s="3">
-        <v>284600</v>
+        <v>302000</v>
       </c>
       <c r="H83" s="3">
-        <v>295200</v>
+        <v>313200</v>
       </c>
       <c r="I83" s="3">
-        <v>299800</v>
+        <v>318100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>597700</v>
+        <v>634200</v>
       </c>
       <c r="E89" s="3">
-        <v>514300</v>
+        <v>545700</v>
       </c>
       <c r="F89" s="3">
-        <v>542800</v>
+        <v>575900</v>
       </c>
       <c r="G89" s="3">
-        <v>474600</v>
+        <v>503500</v>
       </c>
       <c r="H89" s="3">
-        <v>473900</v>
+        <v>502800</v>
       </c>
       <c r="I89" s="3">
-        <v>417000</v>
+        <v>442400</v>
       </c>
       <c r="J89" s="3">
-        <v>405100</v>
+        <v>429800</v>
       </c>
       <c r="K89" s="3">
         <v>549300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-260100</v>
+        <v>-276000</v>
       </c>
       <c r="E91" s="3">
-        <v>-274700</v>
+        <v>-291500</v>
       </c>
       <c r="F91" s="3">
-        <v>-274000</v>
+        <v>-290800</v>
       </c>
       <c r="G91" s="3">
-        <v>-263400</v>
+        <v>-279500</v>
       </c>
       <c r="H91" s="3">
-        <v>-276700</v>
+        <v>-293600</v>
       </c>
       <c r="I91" s="3">
-        <v>-387900</v>
+        <v>-411500</v>
       </c>
       <c r="J91" s="3">
-        <v>-319700</v>
+        <v>-339200</v>
       </c>
       <c r="K91" s="3">
         <v>-241500</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-272000</v>
+        <v>-288600</v>
       </c>
       <c r="E94" s="3">
-        <v>-282000</v>
+        <v>-299200</v>
       </c>
       <c r="F94" s="3">
-        <v>-320400</v>
+        <v>-339900</v>
       </c>
       <c r="G94" s="3">
-        <v>-251500</v>
+        <v>-266900</v>
       </c>
       <c r="H94" s="3">
-        <v>-323000</v>
+        <v>-342700</v>
       </c>
       <c r="I94" s="3">
-        <v>-301800</v>
+        <v>-320200</v>
       </c>
       <c r="J94" s="3">
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="K94" s="3">
         <v>-286800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-303800</v>
+        <v>-322400</v>
       </c>
       <c r="E96" s="3">
-        <v>-303800</v>
+        <v>-322400</v>
       </c>
       <c r="F96" s="3">
-        <v>-303200</v>
+        <v>-321700</v>
       </c>
       <c r="G96" s="3">
-        <v>-303200</v>
+        <v>-321700</v>
       </c>
       <c r="H96" s="3">
-        <v>-284600</v>
+        <v>-302000</v>
       </c>
       <c r="I96" s="3">
-        <v>-197200</v>
+        <v>-209300</v>
       </c>
       <c r="J96" s="3">
-        <v>-179400</v>
+        <v>-190300</v>
       </c>
       <c r="K96" s="3">
         <v>-203000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-326300</v>
+        <v>-346200</v>
       </c>
       <c r="E100" s="3">
-        <v>-233000</v>
+        <v>-247200</v>
       </c>
       <c r="F100" s="3">
-        <v>-220400</v>
+        <v>-233900</v>
       </c>
       <c r="G100" s="3">
-        <v>-223100</v>
+        <v>-236700</v>
       </c>
       <c r="H100" s="3">
-        <v>-169400</v>
+        <v>-179800</v>
       </c>
       <c r="I100" s="3">
-        <v>-201200</v>
+        <v>-213500</v>
       </c>
       <c r="J100" s="3">
-        <v>-350800</v>
+        <v>-372200</v>
       </c>
       <c r="K100" s="3">
         <v>-302900</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J101" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K101" s="3">
         <v>-1200</v>
@@ -3502,19 +3502,19 @@
         <v>-700</v>
       </c>
       <c r="F102" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-18500</v>
+        <v>-19700</v>
       </c>
       <c r="I102" s="3">
-        <v>-84700</v>
+        <v>-89900</v>
       </c>
       <c r="J102" s="3">
-        <v>59600</v>
+        <v>63200</v>
       </c>
       <c r="K102" s="3">
         <v>-41600</v>

--- a/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2523400</v>
+        <v>2496800</v>
       </c>
       <c r="E8" s="3">
-        <v>2472100</v>
+        <v>2446000</v>
       </c>
       <c r="F8" s="3">
-        <v>2481200</v>
+        <v>2455100</v>
       </c>
       <c r="G8" s="3">
-        <v>2524100</v>
+        <v>2497500</v>
       </c>
       <c r="H8" s="3">
-        <v>2455900</v>
+        <v>2430100</v>
       </c>
       <c r="I8" s="3">
-        <v>2457300</v>
+        <v>2431500</v>
       </c>
       <c r="J8" s="3">
-        <v>2547900</v>
+        <v>2521100</v>
       </c>
       <c r="K8" s="3">
         <v>2600100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1167200</v>
+        <v>1154900</v>
       </c>
       <c r="E9" s="3">
-        <v>1141200</v>
+        <v>1129200</v>
       </c>
       <c r="F9" s="3">
-        <v>2263500</v>
+        <v>2239700</v>
       </c>
       <c r="G9" s="3">
-        <v>1127900</v>
+        <v>1116000</v>
       </c>
       <c r="H9" s="3">
-        <v>1104000</v>
+        <v>1092400</v>
       </c>
       <c r="I9" s="3">
-        <v>1115300</v>
+        <v>1103500</v>
       </c>
       <c r="J9" s="3">
-        <v>1215000</v>
+        <v>1202200</v>
       </c>
       <c r="K9" s="3">
         <v>49700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1356100</v>
+        <v>1341900</v>
       </c>
       <c r="E10" s="3">
-        <v>1330900</v>
+        <v>1316800</v>
       </c>
       <c r="F10" s="3">
-        <v>217700</v>
+        <v>215400</v>
       </c>
       <c r="G10" s="3">
-        <v>1396200</v>
+        <v>1381500</v>
       </c>
       <c r="H10" s="3">
-        <v>1351900</v>
+        <v>1337700</v>
       </c>
       <c r="I10" s="3">
-        <v>1342100</v>
+        <v>1328000</v>
       </c>
       <c r="J10" s="3">
-        <v>1333000</v>
+        <v>1318900</v>
       </c>
       <c r="K10" s="3">
         <v>2550500</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>336400</v>
+        <v>332900</v>
       </c>
       <c r="E15" s="3">
-        <v>335000</v>
+        <v>331500</v>
       </c>
       <c r="F15" s="3">
-        <v>446700</v>
+        <v>442000</v>
       </c>
       <c r="G15" s="3">
-        <v>302000</v>
+        <v>298800</v>
       </c>
       <c r="H15" s="3">
-        <v>313200</v>
+        <v>309900</v>
       </c>
       <c r="I15" s="3">
-        <v>318100</v>
+        <v>314800</v>
       </c>
       <c r="J15" s="3">
-        <v>316700</v>
+        <v>313400</v>
       </c>
       <c r="K15" s="3">
         <v>334600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2077400</v>
+        <v>2055500</v>
       </c>
       <c r="E17" s="3">
-        <v>2031800</v>
+        <v>2010300</v>
       </c>
       <c r="F17" s="3">
-        <v>2097100</v>
+        <v>2075000</v>
       </c>
       <c r="G17" s="3">
-        <v>2112500</v>
+        <v>2090300</v>
       </c>
       <c r="H17" s="3">
-        <v>2076700</v>
+        <v>2054800</v>
       </c>
       <c r="I17" s="3">
-        <v>2099900</v>
+        <v>2077800</v>
       </c>
       <c r="J17" s="3">
-        <v>2207300</v>
+        <v>2184100</v>
       </c>
       <c r="K17" s="3">
         <v>2362400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>446000</v>
+        <v>441300</v>
       </c>
       <c r="E18" s="3">
-        <v>440300</v>
+        <v>435700</v>
       </c>
       <c r="F18" s="3">
-        <v>384200</v>
+        <v>380100</v>
       </c>
       <c r="G18" s="3">
-        <v>411500</v>
+        <v>407200</v>
       </c>
       <c r="H18" s="3">
-        <v>379200</v>
+        <v>375200</v>
       </c>
       <c r="I18" s="3">
-        <v>357500</v>
+        <v>353700</v>
       </c>
       <c r="J18" s="3">
-        <v>340600</v>
+        <v>337000</v>
       </c>
       <c r="K18" s="3">
         <v>237700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="E20" s="3">
-        <v>26000</v>
+        <v>25700</v>
       </c>
       <c r="F20" s="3">
-        <v>24600</v>
+        <v>24300</v>
       </c>
       <c r="G20" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="H20" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="I20" s="3">
-        <v>19000</v>
+        <v>18800</v>
       </c>
       <c r="J20" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="K20" s="3">
         <v>8100</v>
@@ -1089,22 +1089,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>806800</v>
+        <v>799700</v>
       </c>
       <c r="E21" s="3">
-        <v>800500</v>
+        <v>793500</v>
       </c>
       <c r="F21" s="3">
-        <v>745700</v>
+        <v>739300</v>
       </c>
       <c r="G21" s="3">
-        <v>724000</v>
+        <v>717700</v>
       </c>
       <c r="H21" s="3">
-        <v>704300</v>
+        <v>698200</v>
       </c>
       <c r="I21" s="3">
-        <v>693800</v>
+        <v>687800</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>66000</v>
+        <v>65300</v>
       </c>
       <c r="E22" s="3">
-        <v>59700</v>
+        <v>59100</v>
       </c>
       <c r="F22" s="3">
-        <v>54100</v>
+        <v>53500</v>
       </c>
       <c r="G22" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="H22" s="3">
-        <v>32300</v>
+        <v>32000</v>
       </c>
       <c r="I22" s="3">
-        <v>37900</v>
+        <v>37500</v>
       </c>
       <c r="J22" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="K22" s="3">
         <v>34100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>405200</v>
+        <v>401000</v>
       </c>
       <c r="E23" s="3">
-        <v>406600</v>
+        <v>402300</v>
       </c>
       <c r="F23" s="3">
-        <v>354700</v>
+        <v>350900</v>
       </c>
       <c r="G23" s="3">
-        <v>393300</v>
+        <v>389100</v>
       </c>
       <c r="H23" s="3">
-        <v>359600</v>
+        <v>355800</v>
       </c>
       <c r="I23" s="3">
-        <v>338500</v>
+        <v>334900</v>
       </c>
       <c r="J23" s="3">
-        <v>318800</v>
+        <v>315500</v>
       </c>
       <c r="K23" s="3">
         <v>211700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>105300</v>
+        <v>104200</v>
       </c>
       <c r="E24" s="3">
-        <v>119400</v>
+        <v>118100</v>
       </c>
       <c r="F24" s="3">
-        <v>98300</v>
+        <v>97300</v>
       </c>
       <c r="G24" s="3">
-        <v>99700</v>
+        <v>98700</v>
       </c>
       <c r="H24" s="3">
-        <v>99700</v>
+        <v>98700</v>
       </c>
       <c r="I24" s="3">
-        <v>75100</v>
+        <v>74400</v>
       </c>
       <c r="J24" s="3">
-        <v>92000</v>
+        <v>91000</v>
       </c>
       <c r="K24" s="3">
         <v>63900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>299900</v>
+        <v>296700</v>
       </c>
       <c r="E26" s="3">
-        <v>287200</v>
+        <v>284200</v>
       </c>
       <c r="F26" s="3">
-        <v>256300</v>
+        <v>253600</v>
       </c>
       <c r="G26" s="3">
-        <v>293600</v>
+        <v>290500</v>
       </c>
       <c r="H26" s="3">
-        <v>259900</v>
+        <v>257100</v>
       </c>
       <c r="I26" s="3">
-        <v>263400</v>
+        <v>260600</v>
       </c>
       <c r="J26" s="3">
-        <v>226800</v>
+        <v>224500</v>
       </c>
       <c r="K26" s="3">
         <v>147700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>299900</v>
+        <v>296700</v>
       </c>
       <c r="E27" s="3">
-        <v>287200</v>
+        <v>284200</v>
       </c>
       <c r="F27" s="3">
-        <v>256300</v>
+        <v>253600</v>
       </c>
       <c r="G27" s="3">
-        <v>293600</v>
+        <v>290500</v>
       </c>
       <c r="H27" s="3">
-        <v>259900</v>
+        <v>257100</v>
       </c>
       <c r="I27" s="3">
-        <v>262000</v>
+        <v>259200</v>
       </c>
       <c r="J27" s="3">
-        <v>225400</v>
+        <v>223100</v>
       </c>
       <c r="K27" s="3">
         <v>146500</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>96200</v>
+        <v>95200</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-25300</v>
+        <v>-25000</v>
       </c>
       <c r="E32" s="3">
-        <v>-26000</v>
+        <v>-25700</v>
       </c>
       <c r="F32" s="3">
-        <v>-24600</v>
+        <v>-24300</v>
       </c>
       <c r="G32" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="H32" s="3">
-        <v>-12600</v>
+        <v>-12500</v>
       </c>
       <c r="I32" s="3">
-        <v>-19000</v>
+        <v>-18800</v>
       </c>
       <c r="J32" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="K32" s="3">
         <v>-8100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>299900</v>
+        <v>296700</v>
       </c>
       <c r="E33" s="3">
-        <v>287200</v>
+        <v>284200</v>
       </c>
       <c r="F33" s="3">
-        <v>256300</v>
+        <v>253600</v>
       </c>
       <c r="G33" s="3">
-        <v>293600</v>
+        <v>290500</v>
       </c>
       <c r="H33" s="3">
-        <v>259900</v>
+        <v>257100</v>
       </c>
       <c r="I33" s="3">
-        <v>262000</v>
+        <v>259200</v>
       </c>
       <c r="J33" s="3">
-        <v>321700</v>
+        <v>318300</v>
       </c>
       <c r="K33" s="3">
         <v>146500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>299900</v>
+        <v>296700</v>
       </c>
       <c r="E35" s="3">
-        <v>287200</v>
+        <v>284200</v>
       </c>
       <c r="F35" s="3">
-        <v>256300</v>
+        <v>253600</v>
       </c>
       <c r="G35" s="3">
-        <v>293600</v>
+        <v>290500</v>
       </c>
       <c r="H35" s="3">
-        <v>259900</v>
+        <v>257100</v>
       </c>
       <c r="I35" s="3">
-        <v>262000</v>
+        <v>259200</v>
       </c>
       <c r="J35" s="3">
-        <v>321700</v>
+        <v>318300</v>
       </c>
       <c r="K35" s="3">
         <v>146500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37200</v>
+        <v>36800</v>
       </c>
       <c r="E41" s="3">
-        <v>37900</v>
+        <v>37500</v>
       </c>
       <c r="F41" s="3">
-        <v>38600</v>
+        <v>38200</v>
       </c>
       <c r="G41" s="3">
-        <v>36500</v>
+        <v>36100</v>
       </c>
       <c r="H41" s="3">
-        <v>36500</v>
+        <v>36100</v>
       </c>
       <c r="I41" s="3">
-        <v>56200</v>
+        <v>55600</v>
       </c>
       <c r="J41" s="3">
-        <v>146100</v>
+        <v>144500</v>
       </c>
       <c r="K41" s="3">
         <v>73200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>415100</v>
+        <v>410700</v>
       </c>
       <c r="E43" s="3">
-        <v>431900</v>
+        <v>427400</v>
       </c>
       <c r="F43" s="3">
-        <v>853300</v>
+        <v>844300</v>
       </c>
       <c r="G43" s="3">
-        <v>371500</v>
+        <v>367600</v>
       </c>
       <c r="H43" s="3">
-        <v>304100</v>
+        <v>300900</v>
       </c>
       <c r="I43" s="3">
-        <v>249300</v>
+        <v>246700</v>
       </c>
       <c r="J43" s="3">
-        <v>306900</v>
+        <v>303700</v>
       </c>
       <c r="K43" s="3">
         <v>299500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>67400</v>
+        <v>66700</v>
       </c>
       <c r="E44" s="3">
-        <v>70200</v>
+        <v>69500</v>
       </c>
       <c r="F44" s="3">
-        <v>111000</v>
+        <v>109800</v>
       </c>
       <c r="G44" s="3">
-        <v>66000</v>
+        <v>65300</v>
       </c>
       <c r="H44" s="3">
-        <v>56900</v>
+        <v>56300</v>
       </c>
       <c r="I44" s="3">
-        <v>49200</v>
+        <v>48600</v>
       </c>
       <c r="J44" s="3">
-        <v>35100</v>
+        <v>34700</v>
       </c>
       <c r="K44" s="3">
         <v>32900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>132000</v>
+        <v>130600</v>
       </c>
       <c r="E45" s="3">
-        <v>99700</v>
+        <v>98700</v>
       </c>
       <c r="F45" s="3">
-        <v>87100</v>
+        <v>86200</v>
       </c>
       <c r="G45" s="3">
-        <v>56900</v>
+        <v>56300</v>
       </c>
       <c r="H45" s="3">
-        <v>58300</v>
+        <v>57700</v>
       </c>
       <c r="I45" s="3">
-        <v>113100</v>
+        <v>111900</v>
       </c>
       <c r="J45" s="3">
-        <v>102500</v>
+        <v>101500</v>
       </c>
       <c r="K45" s="3">
         <v>114100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>651700</v>
+        <v>644900</v>
       </c>
       <c r="E46" s="3">
-        <v>639800</v>
+        <v>633100</v>
       </c>
       <c r="F46" s="3">
-        <v>566800</v>
+        <v>560800</v>
       </c>
       <c r="G46" s="3">
-        <v>530900</v>
+        <v>525300</v>
       </c>
       <c r="H46" s="3">
-        <v>455800</v>
+        <v>451000</v>
       </c>
       <c r="I46" s="3">
-        <v>467700</v>
+        <v>462800</v>
       </c>
       <c r="J46" s="3">
-        <v>590600</v>
+        <v>584400</v>
       </c>
       <c r="K46" s="3">
         <v>519600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>415800</v>
+        <v>411400</v>
       </c>
       <c r="E47" s="3">
-        <v>332200</v>
+        <v>328700</v>
       </c>
       <c r="F47" s="3">
-        <v>512700</v>
+        <v>507300</v>
       </c>
       <c r="G47" s="3">
-        <v>242300</v>
+        <v>239700</v>
       </c>
       <c r="H47" s="3">
-        <v>239500</v>
+        <v>237000</v>
       </c>
       <c r="I47" s="3">
-        <v>220500</v>
+        <v>218200</v>
       </c>
       <c r="J47" s="3">
-        <v>213500</v>
+        <v>211200</v>
       </c>
       <c r="K47" s="3">
         <v>146300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1263400</v>
+        <v>1250100</v>
       </c>
       <c r="E48" s="3">
-        <v>1188300</v>
+        <v>1175800</v>
       </c>
       <c r="F48" s="3">
-        <v>1921500</v>
+        <v>1901200</v>
       </c>
       <c r="G48" s="3">
-        <v>751500</v>
+        <v>743500</v>
       </c>
       <c r="H48" s="3">
-        <v>775300</v>
+        <v>767200</v>
       </c>
       <c r="I48" s="3">
-        <v>776000</v>
+        <v>767900</v>
       </c>
       <c r="J48" s="3">
-        <v>773200</v>
+        <v>765100</v>
       </c>
       <c r="K48" s="3">
         <v>835300</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>679800</v>
+        <v>672700</v>
       </c>
       <c r="E49" s="3">
-        <v>693200</v>
+        <v>685900</v>
       </c>
       <c r="F49" s="3">
-        <v>1519100</v>
+        <v>1503100</v>
       </c>
       <c r="G49" s="3">
-        <v>809800</v>
+        <v>801200</v>
       </c>
       <c r="H49" s="3">
-        <v>794300</v>
+        <v>785900</v>
       </c>
       <c r="I49" s="3">
-        <v>786600</v>
+        <v>778300</v>
       </c>
       <c r="J49" s="3">
-        <v>696700</v>
+        <v>689300</v>
       </c>
       <c r="K49" s="3">
         <v>664100</v>
@@ -2015,19 +2015,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42100</v>
+        <v>41700</v>
       </c>
       <c r="E52" s="3">
-        <v>22500</v>
+        <v>22200</v>
       </c>
       <c r="F52" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="G52" s="3">
         <v>4900</v>
       </c>
       <c r="H52" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="I52" s="3">
         <v>700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3052900</v>
+        <v>3020700</v>
       </c>
       <c r="E54" s="3">
-        <v>2875900</v>
+        <v>2845600</v>
       </c>
       <c r="F54" s="3">
-        <v>2699600</v>
+        <v>2671200</v>
       </c>
       <c r="G54" s="3">
-        <v>2339400</v>
+        <v>2314700</v>
       </c>
       <c r="H54" s="3">
-        <v>2273300</v>
+        <v>2249400</v>
       </c>
       <c r="I54" s="3">
-        <v>2251600</v>
+        <v>2227800</v>
       </c>
       <c r="J54" s="3">
-        <v>2277600</v>
+        <v>2253600</v>
       </c>
       <c r="K54" s="3">
         <v>2166000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>166400</v>
+        <v>164700</v>
       </c>
       <c r="E57" s="3">
-        <v>221200</v>
+        <v>179300</v>
       </c>
       <c r="F57" s="3">
-        <v>566100</v>
+        <v>530900</v>
       </c>
       <c r="G57" s="3">
-        <v>190300</v>
+        <v>188300</v>
       </c>
       <c r="H57" s="3">
-        <v>194500</v>
+        <v>192500</v>
       </c>
       <c r="I57" s="3">
-        <v>245100</v>
+        <v>242500</v>
       </c>
       <c r="J57" s="3">
-        <v>275300</v>
+        <v>272400</v>
       </c>
       <c r="K57" s="3">
         <v>341100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>210700</v>
+        <v>208500</v>
       </c>
       <c r="E58" s="3">
-        <v>325900</v>
+        <v>332200</v>
       </c>
       <c r="F58" s="3">
-        <v>263400</v>
+        <v>266800</v>
       </c>
       <c r="G58" s="3">
-        <v>207200</v>
+        <v>205000</v>
       </c>
       <c r="H58" s="3">
-        <v>133400</v>
+        <v>132000</v>
       </c>
       <c r="I58" s="3">
-        <v>106000</v>
+        <v>104900</v>
       </c>
       <c r="J58" s="3">
-        <v>81500</v>
+        <v>80600</v>
       </c>
       <c r="K58" s="3">
         <v>143200</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>171400</v>
+        <v>169600</v>
       </c>
       <c r="E59" s="3">
-        <v>115900</v>
+        <v>144500</v>
       </c>
       <c r="F59" s="3">
-        <v>136900</v>
+        <v>158400</v>
       </c>
       <c r="G59" s="3">
-        <v>158000</v>
+        <v>156400</v>
       </c>
       <c r="H59" s="3">
-        <v>130600</v>
+        <v>129300</v>
       </c>
       <c r="I59" s="3">
-        <v>152400</v>
+        <v>150800</v>
       </c>
       <c r="J59" s="3">
-        <v>186100</v>
+        <v>184100</v>
       </c>
       <c r="K59" s="3">
         <v>189100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>548500</v>
+        <v>542700</v>
       </c>
       <c r="E60" s="3">
-        <v>663000</v>
+        <v>656000</v>
       </c>
       <c r="F60" s="3">
-        <v>533000</v>
+        <v>527400</v>
       </c>
       <c r="G60" s="3">
-        <v>555500</v>
+        <v>549700</v>
       </c>
       <c r="H60" s="3">
-        <v>458600</v>
+        <v>453800</v>
       </c>
       <c r="I60" s="3">
-        <v>503500</v>
+        <v>498200</v>
       </c>
       <c r="J60" s="3">
-        <v>542900</v>
+        <v>537200</v>
       </c>
       <c r="K60" s="3">
         <v>673400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1246600</v>
+        <v>1233400</v>
       </c>
       <c r="E61" s="3">
-        <v>998000</v>
+        <v>987500</v>
       </c>
       <c r="F61" s="3">
-        <v>980400</v>
+        <v>970100</v>
       </c>
       <c r="G61" s="3">
-        <v>486000</v>
+        <v>480900</v>
       </c>
       <c r="H61" s="3">
-        <v>481100</v>
+        <v>476000</v>
       </c>
       <c r="I61" s="3">
-        <v>381300</v>
+        <v>377300</v>
       </c>
       <c r="J61" s="3">
-        <v>405900</v>
+        <v>401700</v>
       </c>
       <c r="K61" s="3">
         <v>468800</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>209300</v>
+        <v>207100</v>
       </c>
       <c r="E62" s="3">
-        <v>186100</v>
+        <v>184100</v>
       </c>
       <c r="F62" s="3">
-        <v>159400</v>
+        <v>157700</v>
       </c>
       <c r="G62" s="3">
-        <v>138400</v>
+        <v>136900</v>
       </c>
       <c r="H62" s="3">
-        <v>151000</v>
+        <v>149400</v>
       </c>
       <c r="I62" s="3">
-        <v>118000</v>
+        <v>116700</v>
       </c>
       <c r="J62" s="3">
-        <v>129200</v>
+        <v>127900</v>
       </c>
       <c r="K62" s="3">
         <v>147600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2004400</v>
+        <v>1983200</v>
       </c>
       <c r="E66" s="3">
-        <v>1847000</v>
+        <v>1827600</v>
       </c>
       <c r="F66" s="3">
-        <v>1658100</v>
+        <v>1640700</v>
       </c>
       <c r="G66" s="3">
-        <v>1179900</v>
+        <v>1167400</v>
       </c>
       <c r="H66" s="3">
-        <v>1090700</v>
+        <v>1079200</v>
       </c>
       <c r="I66" s="3">
-        <v>1002900</v>
+        <v>992300</v>
       </c>
       <c r="J66" s="3">
-        <v>1082200</v>
+        <v>1070800</v>
       </c>
       <c r="K66" s="3">
         <v>1293500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>631400</v>
+        <v>624700</v>
       </c>
       <c r="E72" s="3">
-        <v>653800</v>
+        <v>647000</v>
       </c>
       <c r="F72" s="3">
-        <v>689000</v>
+        <v>681700</v>
       </c>
       <c r="G72" s="3">
-        <v>791500</v>
+        <v>783200</v>
       </c>
       <c r="H72" s="3">
-        <v>822400</v>
+        <v>813700</v>
       </c>
       <c r="I72" s="3">
-        <v>865200</v>
+        <v>856100</v>
       </c>
       <c r="J72" s="3">
-        <v>831500</v>
+        <v>822800</v>
       </c>
       <c r="K72" s="3">
         <v>627500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1048500</v>
+        <v>1037500</v>
       </c>
       <c r="E76" s="3">
-        <v>1028900</v>
+        <v>1018000</v>
       </c>
       <c r="F76" s="3">
-        <v>1041500</v>
+        <v>1030500</v>
       </c>
       <c r="G76" s="3">
-        <v>1159500</v>
+        <v>1147300</v>
       </c>
       <c r="H76" s="3">
+        <v>1170200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1235500</v>
+      </c>
+      <c r="J76" s="3">
         <v>1182700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1248700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1195300</v>
       </c>
       <c r="K76" s="3">
         <v>872500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>299900</v>
+        <v>296700</v>
       </c>
       <c r="E81" s="3">
-        <v>287200</v>
+        <v>284200</v>
       </c>
       <c r="F81" s="3">
-        <v>256300</v>
+        <v>253600</v>
       </c>
       <c r="G81" s="3">
-        <v>293600</v>
+        <v>290500</v>
       </c>
       <c r="H81" s="3">
-        <v>259900</v>
+        <v>257100</v>
       </c>
       <c r="I81" s="3">
-        <v>262000</v>
+        <v>259200</v>
       </c>
       <c r="J81" s="3">
-        <v>321700</v>
+        <v>318300</v>
       </c>
       <c r="K81" s="3">
         <v>146500</v>
@@ -2905,22 +2905,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>336400</v>
+        <v>332900</v>
       </c>
       <c r="E83" s="3">
-        <v>335000</v>
+        <v>331500</v>
       </c>
       <c r="F83" s="3">
-        <v>337800</v>
+        <v>334200</v>
       </c>
       <c r="G83" s="3">
-        <v>302000</v>
+        <v>298800</v>
       </c>
       <c r="H83" s="3">
-        <v>313200</v>
+        <v>309900</v>
       </c>
       <c r="I83" s="3">
-        <v>318100</v>
+        <v>314800</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>634200</v>
+        <v>627500</v>
       </c>
       <c r="E89" s="3">
-        <v>545700</v>
+        <v>539900</v>
       </c>
       <c r="F89" s="3">
-        <v>575900</v>
+        <v>569800</v>
       </c>
       <c r="G89" s="3">
-        <v>503500</v>
+        <v>498200</v>
       </c>
       <c r="H89" s="3">
-        <v>502800</v>
+        <v>497500</v>
       </c>
       <c r="I89" s="3">
-        <v>442400</v>
+        <v>437800</v>
       </c>
       <c r="J89" s="3">
-        <v>429800</v>
+        <v>425300</v>
       </c>
       <c r="K89" s="3">
         <v>549300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-276000</v>
+        <v>-273100</v>
       </c>
       <c r="E91" s="3">
-        <v>-291500</v>
+        <v>-288400</v>
       </c>
       <c r="F91" s="3">
-        <v>-290800</v>
+        <v>-287700</v>
       </c>
       <c r="G91" s="3">
-        <v>-279500</v>
+        <v>-276600</v>
       </c>
       <c r="H91" s="3">
-        <v>-293600</v>
+        <v>-290500</v>
       </c>
       <c r="I91" s="3">
-        <v>-411500</v>
+        <v>-407200</v>
       </c>
       <c r="J91" s="3">
-        <v>-339200</v>
+        <v>-335600</v>
       </c>
       <c r="K91" s="3">
         <v>-241500</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-288600</v>
+        <v>-285600</v>
       </c>
       <c r="E94" s="3">
-        <v>-299200</v>
+        <v>-296000</v>
       </c>
       <c r="F94" s="3">
-        <v>-339900</v>
+        <v>-336300</v>
       </c>
       <c r="G94" s="3">
-        <v>-266900</v>
+        <v>-264100</v>
       </c>
       <c r="H94" s="3">
-        <v>-342700</v>
+        <v>-339100</v>
       </c>
       <c r="I94" s="3">
-        <v>-320200</v>
+        <v>-316900</v>
       </c>
       <c r="J94" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="K94" s="3">
         <v>-286800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-322400</v>
+        <v>-319000</v>
       </c>
       <c r="E96" s="3">
-        <v>-322400</v>
+        <v>-319000</v>
       </c>
       <c r="F96" s="3">
-        <v>-321700</v>
+        <v>-318300</v>
       </c>
       <c r="G96" s="3">
-        <v>-321700</v>
+        <v>-318300</v>
       </c>
       <c r="H96" s="3">
-        <v>-302000</v>
+        <v>-298800</v>
       </c>
       <c r="I96" s="3">
-        <v>-209300</v>
+        <v>-207100</v>
       </c>
       <c r="J96" s="3">
-        <v>-190300</v>
+        <v>-188300</v>
       </c>
       <c r="K96" s="3">
         <v>-203000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-346200</v>
+        <v>-342600</v>
       </c>
       <c r="E100" s="3">
-        <v>-247200</v>
+        <v>-244600</v>
       </c>
       <c r="F100" s="3">
-        <v>-233900</v>
+        <v>-231400</v>
       </c>
       <c r="G100" s="3">
-        <v>-236700</v>
+        <v>-234200</v>
       </c>
       <c r="H100" s="3">
-        <v>-179800</v>
+        <v>-177900</v>
       </c>
       <c r="I100" s="3">
-        <v>-213500</v>
+        <v>-211200</v>
       </c>
       <c r="J100" s="3">
-        <v>-372200</v>
+        <v>-368300</v>
       </c>
       <c r="K100" s="3">
         <v>-302900</v>
@@ -3508,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-19700</v>
+        <v>-19500</v>
       </c>
       <c r="I102" s="3">
-        <v>-89900</v>
+        <v>-88900</v>
       </c>
       <c r="J102" s="3">
-        <v>63200</v>
+        <v>62500</v>
       </c>
       <c r="K102" s="3">
         <v>-41600</v>

--- a/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2496800</v>
+        <v>2596700</v>
       </c>
       <c r="E8" s="3">
-        <v>2446000</v>
+        <v>2543900</v>
       </c>
       <c r="F8" s="3">
-        <v>2455100</v>
+        <v>2553300</v>
       </c>
       <c r="G8" s="3">
-        <v>2497500</v>
+        <v>2597400</v>
       </c>
       <c r="H8" s="3">
-        <v>2430100</v>
+        <v>2527300</v>
       </c>
       <c r="I8" s="3">
-        <v>2431500</v>
+        <v>2528700</v>
       </c>
       <c r="J8" s="3">
-        <v>2521100</v>
+        <v>2622000</v>
       </c>
       <c r="K8" s="3">
         <v>2600100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1154900</v>
+        <v>1201100</v>
       </c>
       <c r="E9" s="3">
-        <v>1129200</v>
+        <v>1174400</v>
       </c>
       <c r="F9" s="3">
-        <v>2239700</v>
+        <v>2329300</v>
       </c>
       <c r="G9" s="3">
-        <v>1116000</v>
+        <v>1160700</v>
       </c>
       <c r="H9" s="3">
-        <v>1092400</v>
+        <v>1136100</v>
       </c>
       <c r="I9" s="3">
-        <v>1103500</v>
+        <v>1147600</v>
       </c>
       <c r="J9" s="3">
-        <v>1202200</v>
+        <v>1250300</v>
       </c>
       <c r="K9" s="3">
         <v>49700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1341900</v>
+        <v>1395500</v>
       </c>
       <c r="E10" s="3">
-        <v>1316800</v>
+        <v>1369500</v>
       </c>
       <c r="F10" s="3">
-        <v>215400</v>
+        <v>224000</v>
       </c>
       <c r="G10" s="3">
-        <v>1381500</v>
+        <v>1436700</v>
       </c>
       <c r="H10" s="3">
-        <v>1337700</v>
+        <v>1391200</v>
       </c>
       <c r="I10" s="3">
-        <v>1328000</v>
+        <v>1381100</v>
       </c>
       <c r="J10" s="3">
-        <v>1318900</v>
+        <v>1371700</v>
       </c>
       <c r="K10" s="3">
         <v>2550500</v>
@@ -903,13 +903,13 @@
         <v>700</v>
       </c>
       <c r="F14" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="G14" s="3">
         <v>1400</v>
       </c>
       <c r="H14" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>332900</v>
+        <v>346200</v>
       </c>
       <c r="E15" s="3">
-        <v>331500</v>
+        <v>344700</v>
       </c>
       <c r="F15" s="3">
-        <v>442000</v>
+        <v>459600</v>
       </c>
       <c r="G15" s="3">
-        <v>298800</v>
+        <v>310800</v>
       </c>
       <c r="H15" s="3">
-        <v>309900</v>
+        <v>322300</v>
       </c>
       <c r="I15" s="3">
-        <v>314800</v>
+        <v>327400</v>
       </c>
       <c r="J15" s="3">
-        <v>313400</v>
+        <v>325900</v>
       </c>
       <c r="K15" s="3">
         <v>334600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2055500</v>
+        <v>2137700</v>
       </c>
       <c r="E17" s="3">
-        <v>2010300</v>
+        <v>2090800</v>
       </c>
       <c r="F17" s="3">
-        <v>2075000</v>
+        <v>2158000</v>
       </c>
       <c r="G17" s="3">
-        <v>2090300</v>
+        <v>2173900</v>
       </c>
       <c r="H17" s="3">
-        <v>2054800</v>
+        <v>2137000</v>
       </c>
       <c r="I17" s="3">
-        <v>2077800</v>
+        <v>2160900</v>
       </c>
       <c r="J17" s="3">
-        <v>2184100</v>
+        <v>2271400</v>
       </c>
       <c r="K17" s="3">
         <v>2362400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>441300</v>
+        <v>458900</v>
       </c>
       <c r="E18" s="3">
-        <v>435700</v>
+        <v>453100</v>
       </c>
       <c r="F18" s="3">
-        <v>380100</v>
+        <v>395300</v>
       </c>
       <c r="G18" s="3">
-        <v>407200</v>
+        <v>423500</v>
       </c>
       <c r="H18" s="3">
-        <v>375200</v>
+        <v>390300</v>
       </c>
       <c r="I18" s="3">
-        <v>353700</v>
+        <v>367900</v>
       </c>
       <c r="J18" s="3">
-        <v>337000</v>
+        <v>350500</v>
       </c>
       <c r="K18" s="3">
         <v>237700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="E20" s="3">
-        <v>25700</v>
+        <v>26700</v>
       </c>
       <c r="F20" s="3">
-        <v>24300</v>
+        <v>25300</v>
       </c>
       <c r="G20" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="H20" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="I20" s="3">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="J20" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="K20" s="3">
         <v>8100</v>
@@ -1089,22 +1089,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>799700</v>
+        <v>830500</v>
       </c>
       <c r="E21" s="3">
-        <v>793500</v>
+        <v>824000</v>
       </c>
       <c r="F21" s="3">
-        <v>739300</v>
+        <v>767700</v>
       </c>
       <c r="G21" s="3">
-        <v>717700</v>
+        <v>745300</v>
       </c>
       <c r="H21" s="3">
-        <v>698200</v>
+        <v>725100</v>
       </c>
       <c r="I21" s="3">
-        <v>687800</v>
+        <v>714200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>65300</v>
+        <v>67900</v>
       </c>
       <c r="E22" s="3">
-        <v>59100</v>
+        <v>61400</v>
       </c>
       <c r="F22" s="3">
-        <v>53500</v>
+        <v>55600</v>
       </c>
       <c r="G22" s="3">
-        <v>29200</v>
+        <v>30400</v>
       </c>
       <c r="H22" s="3">
-        <v>32000</v>
+        <v>33200</v>
       </c>
       <c r="I22" s="3">
-        <v>37500</v>
+        <v>39000</v>
       </c>
       <c r="J22" s="3">
-        <v>29200</v>
+        <v>30400</v>
       </c>
       <c r="K22" s="3">
         <v>34100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>401000</v>
+        <v>417000</v>
       </c>
       <c r="E23" s="3">
-        <v>402300</v>
+        <v>418400</v>
       </c>
       <c r="F23" s="3">
-        <v>350900</v>
+        <v>365000</v>
       </c>
       <c r="G23" s="3">
-        <v>389100</v>
+        <v>404700</v>
       </c>
       <c r="H23" s="3">
-        <v>355800</v>
+        <v>370000</v>
       </c>
       <c r="I23" s="3">
-        <v>334900</v>
+        <v>348300</v>
       </c>
       <c r="J23" s="3">
-        <v>315500</v>
+        <v>328100</v>
       </c>
       <c r="K23" s="3">
         <v>211700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>104200</v>
+        <v>108400</v>
       </c>
       <c r="E24" s="3">
-        <v>118100</v>
+        <v>122900</v>
       </c>
       <c r="F24" s="3">
-        <v>97300</v>
+        <v>101200</v>
       </c>
       <c r="G24" s="3">
-        <v>98700</v>
+        <v>102600</v>
       </c>
       <c r="H24" s="3">
-        <v>98700</v>
+        <v>102600</v>
       </c>
       <c r="I24" s="3">
-        <v>74400</v>
+        <v>77300</v>
       </c>
       <c r="J24" s="3">
-        <v>91000</v>
+        <v>94700</v>
       </c>
       <c r="K24" s="3">
         <v>63900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>296700</v>
+        <v>308600</v>
       </c>
       <c r="E26" s="3">
-        <v>284200</v>
+        <v>295600</v>
       </c>
       <c r="F26" s="3">
-        <v>253600</v>
+        <v>263800</v>
       </c>
       <c r="G26" s="3">
-        <v>290500</v>
+        <v>302100</v>
       </c>
       <c r="H26" s="3">
-        <v>257100</v>
+        <v>267400</v>
       </c>
       <c r="I26" s="3">
-        <v>260600</v>
+        <v>271000</v>
       </c>
       <c r="J26" s="3">
-        <v>224500</v>
+        <v>233400</v>
       </c>
       <c r="K26" s="3">
         <v>147700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>296700</v>
+        <v>308600</v>
       </c>
       <c r="E27" s="3">
-        <v>284200</v>
+        <v>295600</v>
       </c>
       <c r="F27" s="3">
-        <v>253600</v>
+        <v>263800</v>
       </c>
       <c r="G27" s="3">
-        <v>290500</v>
+        <v>302100</v>
       </c>
       <c r="H27" s="3">
-        <v>257100</v>
+        <v>267400</v>
       </c>
       <c r="I27" s="3">
-        <v>259200</v>
+        <v>269600</v>
       </c>
       <c r="J27" s="3">
-        <v>223100</v>
+        <v>232000</v>
       </c>
       <c r="K27" s="3">
         <v>146500</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>95200</v>
+        <v>99000</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-25000</v>
+        <v>-26000</v>
       </c>
       <c r="E32" s="3">
-        <v>-25700</v>
+        <v>-26700</v>
       </c>
       <c r="F32" s="3">
-        <v>-24300</v>
+        <v>-25300</v>
       </c>
       <c r="G32" s="3">
-        <v>-11100</v>
+        <v>-11600</v>
       </c>
       <c r="H32" s="3">
-        <v>-12500</v>
+        <v>-13000</v>
       </c>
       <c r="I32" s="3">
-        <v>-18800</v>
+        <v>-19500</v>
       </c>
       <c r="J32" s="3">
-        <v>-7600</v>
+        <v>-7900</v>
       </c>
       <c r="K32" s="3">
         <v>-8100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>296700</v>
+        <v>308600</v>
       </c>
       <c r="E33" s="3">
-        <v>284200</v>
+        <v>295600</v>
       </c>
       <c r="F33" s="3">
-        <v>253600</v>
+        <v>263800</v>
       </c>
       <c r="G33" s="3">
-        <v>290500</v>
+        <v>302100</v>
       </c>
       <c r="H33" s="3">
-        <v>257100</v>
+        <v>267400</v>
       </c>
       <c r="I33" s="3">
-        <v>259200</v>
+        <v>269600</v>
       </c>
       <c r="J33" s="3">
-        <v>318300</v>
+        <v>331000</v>
       </c>
       <c r="K33" s="3">
         <v>146500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>296700</v>
+        <v>308600</v>
       </c>
       <c r="E35" s="3">
-        <v>284200</v>
+        <v>295600</v>
       </c>
       <c r="F35" s="3">
-        <v>253600</v>
+        <v>263800</v>
       </c>
       <c r="G35" s="3">
-        <v>290500</v>
+        <v>302100</v>
       </c>
       <c r="H35" s="3">
-        <v>257100</v>
+        <v>267400</v>
       </c>
       <c r="I35" s="3">
-        <v>259200</v>
+        <v>269600</v>
       </c>
       <c r="J35" s="3">
-        <v>318300</v>
+        <v>331000</v>
       </c>
       <c r="K35" s="3">
         <v>146500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36800</v>
+        <v>38300</v>
       </c>
       <c r="E41" s="3">
-        <v>37500</v>
+        <v>39000</v>
       </c>
       <c r="F41" s="3">
-        <v>38200</v>
+        <v>39700</v>
       </c>
       <c r="G41" s="3">
-        <v>36100</v>
+        <v>37600</v>
       </c>
       <c r="H41" s="3">
-        <v>36100</v>
+        <v>37600</v>
       </c>
       <c r="I41" s="3">
-        <v>55600</v>
+        <v>57800</v>
       </c>
       <c r="J41" s="3">
-        <v>144500</v>
+        <v>150300</v>
       </c>
       <c r="K41" s="3">
         <v>73200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>410700</v>
+        <v>427100</v>
       </c>
       <c r="E43" s="3">
-        <v>427400</v>
+        <v>444500</v>
       </c>
       <c r="F43" s="3">
-        <v>844300</v>
+        <v>878100</v>
       </c>
       <c r="G43" s="3">
-        <v>367600</v>
+        <v>382300</v>
       </c>
       <c r="H43" s="3">
-        <v>300900</v>
+        <v>312900</v>
       </c>
       <c r="I43" s="3">
-        <v>246700</v>
+        <v>256600</v>
       </c>
       <c r="J43" s="3">
-        <v>303700</v>
+        <v>315800</v>
       </c>
       <c r="K43" s="3">
         <v>299500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>66700</v>
+        <v>69400</v>
       </c>
       <c r="E44" s="3">
-        <v>69500</v>
+        <v>72300</v>
       </c>
       <c r="F44" s="3">
-        <v>109800</v>
+        <v>114200</v>
       </c>
       <c r="G44" s="3">
-        <v>65300</v>
+        <v>67900</v>
       </c>
       <c r="H44" s="3">
-        <v>56300</v>
+        <v>58500</v>
       </c>
       <c r="I44" s="3">
-        <v>48600</v>
+        <v>50600</v>
       </c>
       <c r="J44" s="3">
-        <v>34700</v>
+        <v>36100</v>
       </c>
       <c r="K44" s="3">
         <v>32900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>130600</v>
+        <v>135900</v>
       </c>
       <c r="E45" s="3">
-        <v>98700</v>
+        <v>102600</v>
       </c>
       <c r="F45" s="3">
-        <v>86200</v>
+        <v>89600</v>
       </c>
       <c r="G45" s="3">
-        <v>56300</v>
+        <v>58500</v>
       </c>
       <c r="H45" s="3">
-        <v>57700</v>
+        <v>60000</v>
       </c>
       <c r="I45" s="3">
-        <v>111900</v>
+        <v>116400</v>
       </c>
       <c r="J45" s="3">
-        <v>101500</v>
+        <v>105500</v>
       </c>
       <c r="K45" s="3">
         <v>114100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>644900</v>
+        <v>670700</v>
       </c>
       <c r="E46" s="3">
-        <v>633100</v>
+        <v>658400</v>
       </c>
       <c r="F46" s="3">
-        <v>560800</v>
+        <v>583200</v>
       </c>
       <c r="G46" s="3">
-        <v>525300</v>
+        <v>546400</v>
       </c>
       <c r="H46" s="3">
-        <v>451000</v>
+        <v>469000</v>
       </c>
       <c r="I46" s="3">
-        <v>462800</v>
+        <v>481300</v>
       </c>
       <c r="J46" s="3">
-        <v>584400</v>
+        <v>607800</v>
       </c>
       <c r="K46" s="3">
         <v>519600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>411400</v>
+        <v>427800</v>
       </c>
       <c r="E47" s="3">
-        <v>328700</v>
+        <v>341800</v>
       </c>
       <c r="F47" s="3">
-        <v>507300</v>
+        <v>527600</v>
       </c>
       <c r="G47" s="3">
-        <v>239700</v>
+        <v>249300</v>
       </c>
       <c r="H47" s="3">
-        <v>237000</v>
+        <v>246400</v>
       </c>
       <c r="I47" s="3">
-        <v>218200</v>
+        <v>226900</v>
       </c>
       <c r="J47" s="3">
-        <v>211200</v>
+        <v>219700</v>
       </c>
       <c r="K47" s="3">
         <v>146300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1250100</v>
+        <v>1300100</v>
       </c>
       <c r="E48" s="3">
-        <v>1175800</v>
+        <v>1222800</v>
       </c>
       <c r="F48" s="3">
-        <v>1901200</v>
+        <v>1977300</v>
       </c>
       <c r="G48" s="3">
-        <v>743500</v>
+        <v>773300</v>
       </c>
       <c r="H48" s="3">
-        <v>767200</v>
+        <v>797900</v>
       </c>
       <c r="I48" s="3">
-        <v>767900</v>
+        <v>798600</v>
       </c>
       <c r="J48" s="3">
-        <v>765100</v>
+        <v>795700</v>
       </c>
       <c r="K48" s="3">
         <v>835300</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>672700</v>
+        <v>699600</v>
       </c>
       <c r="E49" s="3">
-        <v>685900</v>
+        <v>713300</v>
       </c>
       <c r="F49" s="3">
-        <v>1503100</v>
+        <v>1563200</v>
       </c>
       <c r="G49" s="3">
-        <v>801200</v>
+        <v>833300</v>
       </c>
       <c r="H49" s="3">
-        <v>785900</v>
+        <v>817400</v>
       </c>
       <c r="I49" s="3">
-        <v>778300</v>
+        <v>809400</v>
       </c>
       <c r="J49" s="3">
-        <v>689300</v>
+        <v>716900</v>
       </c>
       <c r="K49" s="3">
         <v>664100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>41700</v>
+        <v>43400</v>
       </c>
       <c r="E52" s="3">
-        <v>22200</v>
+        <v>23100</v>
       </c>
       <c r="F52" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="G52" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="H52" s="3">
-        <v>8300</v>
+        <v>8700</v>
       </c>
       <c r="I52" s="3">
         <v>700</v>
       </c>
       <c r="J52" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3020700</v>
+        <v>3141600</v>
       </c>
       <c r="E54" s="3">
-        <v>2845600</v>
+        <v>2959500</v>
       </c>
       <c r="F54" s="3">
-        <v>2671200</v>
+        <v>2778100</v>
       </c>
       <c r="G54" s="3">
-        <v>2314700</v>
+        <v>2407300</v>
       </c>
       <c r="H54" s="3">
-        <v>2249400</v>
+        <v>2339400</v>
       </c>
       <c r="I54" s="3">
-        <v>2227800</v>
+        <v>2317000</v>
       </c>
       <c r="J54" s="3">
-        <v>2253600</v>
+        <v>2343700</v>
       </c>
       <c r="K54" s="3">
         <v>2166000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>164700</v>
+        <v>171300</v>
       </c>
       <c r="E57" s="3">
-        <v>179300</v>
+        <v>186500</v>
       </c>
       <c r="F57" s="3">
-        <v>530900</v>
+        <v>552100</v>
       </c>
       <c r="G57" s="3">
-        <v>188300</v>
+        <v>195900</v>
       </c>
       <c r="H57" s="3">
-        <v>192500</v>
+        <v>200200</v>
       </c>
       <c r="I57" s="3">
-        <v>242500</v>
+        <v>252200</v>
       </c>
       <c r="J57" s="3">
-        <v>272400</v>
+        <v>283300</v>
       </c>
       <c r="K57" s="3">
         <v>341100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>208500</v>
+        <v>216800</v>
       </c>
       <c r="E58" s="3">
-        <v>332200</v>
+        <v>345500</v>
       </c>
       <c r="F58" s="3">
-        <v>266800</v>
+        <v>277500</v>
       </c>
       <c r="G58" s="3">
-        <v>205000</v>
+        <v>213200</v>
       </c>
       <c r="H58" s="3">
-        <v>132000</v>
+        <v>137300</v>
       </c>
       <c r="I58" s="3">
-        <v>104900</v>
+        <v>109100</v>
       </c>
       <c r="J58" s="3">
-        <v>80600</v>
+        <v>83800</v>
       </c>
       <c r="K58" s="3">
         <v>143200</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>169600</v>
+        <v>176300</v>
       </c>
       <c r="E59" s="3">
-        <v>144500</v>
+        <v>150300</v>
       </c>
       <c r="F59" s="3">
-        <v>158400</v>
+        <v>164800</v>
       </c>
       <c r="G59" s="3">
-        <v>156400</v>
+        <v>162600</v>
       </c>
       <c r="H59" s="3">
-        <v>129300</v>
+        <v>134400</v>
       </c>
       <c r="I59" s="3">
-        <v>150800</v>
+        <v>156800</v>
       </c>
       <c r="J59" s="3">
-        <v>184100</v>
+        <v>191500</v>
       </c>
       <c r="K59" s="3">
         <v>189100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>542700</v>
+        <v>564400</v>
       </c>
       <c r="E60" s="3">
-        <v>656000</v>
+        <v>682200</v>
       </c>
       <c r="F60" s="3">
-        <v>527400</v>
+        <v>548500</v>
       </c>
       <c r="G60" s="3">
-        <v>549700</v>
+        <v>571700</v>
       </c>
       <c r="H60" s="3">
-        <v>453800</v>
+        <v>471900</v>
       </c>
       <c r="I60" s="3">
-        <v>498200</v>
+        <v>518200</v>
       </c>
       <c r="J60" s="3">
-        <v>537200</v>
+        <v>558600</v>
       </c>
       <c r="K60" s="3">
         <v>673400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1233400</v>
+        <v>1282800</v>
       </c>
       <c r="E61" s="3">
-        <v>987500</v>
+        <v>1027000</v>
       </c>
       <c r="F61" s="3">
-        <v>970100</v>
+        <v>1008900</v>
       </c>
       <c r="G61" s="3">
-        <v>480900</v>
+        <v>500100</v>
       </c>
       <c r="H61" s="3">
-        <v>476000</v>
+        <v>495000</v>
       </c>
       <c r="I61" s="3">
-        <v>377300</v>
+        <v>392400</v>
       </c>
       <c r="J61" s="3">
-        <v>401700</v>
+        <v>417700</v>
       </c>
       <c r="K61" s="3">
         <v>468800</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>207100</v>
+        <v>215400</v>
       </c>
       <c r="E62" s="3">
-        <v>184100</v>
+        <v>191500</v>
       </c>
       <c r="F62" s="3">
-        <v>157700</v>
+        <v>164100</v>
       </c>
       <c r="G62" s="3">
-        <v>136900</v>
+        <v>142400</v>
       </c>
       <c r="H62" s="3">
-        <v>149400</v>
+        <v>155400</v>
       </c>
       <c r="I62" s="3">
-        <v>116700</v>
+        <v>121400</v>
       </c>
       <c r="J62" s="3">
-        <v>127900</v>
+        <v>133000</v>
       </c>
       <c r="K62" s="3">
         <v>147600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1983200</v>
+        <v>2062600</v>
       </c>
       <c r="E66" s="3">
-        <v>1827600</v>
+        <v>1900700</v>
       </c>
       <c r="F66" s="3">
-        <v>1640700</v>
+        <v>1706300</v>
       </c>
       <c r="G66" s="3">
-        <v>1167400</v>
+        <v>1214100</v>
       </c>
       <c r="H66" s="3">
-        <v>1079200</v>
+        <v>1122400</v>
       </c>
       <c r="I66" s="3">
-        <v>992300</v>
+        <v>1032000</v>
       </c>
       <c r="J66" s="3">
-        <v>1070800</v>
+        <v>1113700</v>
       </c>
       <c r="K66" s="3">
         <v>1293500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>624700</v>
+        <v>649700</v>
       </c>
       <c r="E72" s="3">
-        <v>647000</v>
+        <v>672800</v>
       </c>
       <c r="F72" s="3">
-        <v>681700</v>
+        <v>709000</v>
       </c>
       <c r="G72" s="3">
-        <v>783200</v>
+        <v>814500</v>
       </c>
       <c r="H72" s="3">
-        <v>813700</v>
+        <v>846300</v>
       </c>
       <c r="I72" s="3">
-        <v>856100</v>
+        <v>890400</v>
       </c>
       <c r="J72" s="3">
-        <v>822800</v>
+        <v>855700</v>
       </c>
       <c r="K72" s="3">
         <v>627500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1037500</v>
+        <v>1079000</v>
       </c>
       <c r="E76" s="3">
-        <v>1018000</v>
+        <v>1058800</v>
       </c>
       <c r="F76" s="3">
-        <v>1030500</v>
+        <v>1071800</v>
       </c>
       <c r="G76" s="3">
-        <v>1147300</v>
+        <v>1193200</v>
       </c>
       <c r="H76" s="3">
-        <v>1170200</v>
+        <v>1217000</v>
       </c>
       <c r="I76" s="3">
-        <v>1235500</v>
+        <v>1285000</v>
       </c>
       <c r="J76" s="3">
-        <v>1182700</v>
+        <v>1230000</v>
       </c>
       <c r="K76" s="3">
         <v>872500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>296700</v>
+        <v>308600</v>
       </c>
       <c r="E81" s="3">
-        <v>284200</v>
+        <v>295600</v>
       </c>
       <c r="F81" s="3">
-        <v>253600</v>
+        <v>263800</v>
       </c>
       <c r="G81" s="3">
-        <v>290500</v>
+        <v>302100</v>
       </c>
       <c r="H81" s="3">
-        <v>257100</v>
+        <v>267400</v>
       </c>
       <c r="I81" s="3">
-        <v>259200</v>
+        <v>269600</v>
       </c>
       <c r="J81" s="3">
-        <v>318300</v>
+        <v>331000</v>
       </c>
       <c r="K81" s="3">
         <v>146500</v>
@@ -2905,22 +2905,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>332900</v>
+        <v>346200</v>
       </c>
       <c r="E83" s="3">
-        <v>331500</v>
+        <v>344700</v>
       </c>
       <c r="F83" s="3">
-        <v>334200</v>
+        <v>347600</v>
       </c>
       <c r="G83" s="3">
-        <v>298800</v>
+        <v>310800</v>
       </c>
       <c r="H83" s="3">
-        <v>309900</v>
+        <v>322300</v>
       </c>
       <c r="I83" s="3">
-        <v>314800</v>
+        <v>327400</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>627500</v>
+        <v>652600</v>
       </c>
       <c r="E89" s="3">
-        <v>539900</v>
+        <v>561500</v>
       </c>
       <c r="F89" s="3">
-        <v>569800</v>
+        <v>592600</v>
       </c>
       <c r="G89" s="3">
-        <v>498200</v>
+        <v>518200</v>
       </c>
       <c r="H89" s="3">
-        <v>497500</v>
+        <v>517500</v>
       </c>
       <c r="I89" s="3">
-        <v>437800</v>
+        <v>455300</v>
       </c>
       <c r="J89" s="3">
-        <v>425300</v>
+        <v>442300</v>
       </c>
       <c r="K89" s="3">
         <v>549300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-273100</v>
+        <v>-284000</v>
       </c>
       <c r="E91" s="3">
-        <v>-288400</v>
+        <v>-299900</v>
       </c>
       <c r="F91" s="3">
-        <v>-287700</v>
+        <v>-299200</v>
       </c>
       <c r="G91" s="3">
-        <v>-276600</v>
+        <v>-287600</v>
       </c>
       <c r="H91" s="3">
-        <v>-290500</v>
+        <v>-302100</v>
       </c>
       <c r="I91" s="3">
-        <v>-407200</v>
+        <v>-423500</v>
       </c>
       <c r="J91" s="3">
-        <v>-335600</v>
+        <v>-349100</v>
       </c>
       <c r="K91" s="3">
         <v>-241500</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-285600</v>
+        <v>-297000</v>
       </c>
       <c r="E94" s="3">
-        <v>-296000</v>
+        <v>-307900</v>
       </c>
       <c r="F94" s="3">
-        <v>-336300</v>
+        <v>-349800</v>
       </c>
       <c r="G94" s="3">
-        <v>-264100</v>
+        <v>-274600</v>
       </c>
       <c r="H94" s="3">
-        <v>-339100</v>
+        <v>-352700</v>
       </c>
       <c r="I94" s="3">
-        <v>-316900</v>
+        <v>-329600</v>
       </c>
       <c r="J94" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="K94" s="3">
         <v>-286800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-319000</v>
+        <v>-331700</v>
       </c>
       <c r="E96" s="3">
-        <v>-319000</v>
+        <v>-331700</v>
       </c>
       <c r="F96" s="3">
-        <v>-318300</v>
+        <v>-331000</v>
       </c>
       <c r="G96" s="3">
-        <v>-318300</v>
+        <v>-331000</v>
       </c>
       <c r="H96" s="3">
-        <v>-298800</v>
+        <v>-310800</v>
       </c>
       <c r="I96" s="3">
-        <v>-207100</v>
+        <v>-215400</v>
       </c>
       <c r="J96" s="3">
-        <v>-188300</v>
+        <v>-195900</v>
       </c>
       <c r="K96" s="3">
         <v>-203000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-342600</v>
+        <v>-356300</v>
       </c>
       <c r="E100" s="3">
-        <v>-244600</v>
+        <v>-254400</v>
       </c>
       <c r="F100" s="3">
-        <v>-231400</v>
+        <v>-240700</v>
       </c>
       <c r="G100" s="3">
-        <v>-234200</v>
+        <v>-243500</v>
       </c>
       <c r="H100" s="3">
-        <v>-177900</v>
+        <v>-185000</v>
       </c>
       <c r="I100" s="3">
-        <v>-211200</v>
+        <v>-219700</v>
       </c>
       <c r="J100" s="3">
-        <v>-368300</v>
+        <v>-383000</v>
       </c>
       <c r="K100" s="3">
         <v>-302900</v>
@@ -3502,19 +3502,19 @@
         <v>-700</v>
       </c>
       <c r="F102" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-19500</v>
+        <v>-20200</v>
       </c>
       <c r="I102" s="3">
-        <v>-88900</v>
+        <v>-92500</v>
       </c>
       <c r="J102" s="3">
-        <v>62500</v>
+        <v>65000</v>
       </c>
       <c r="K102" s="3">
         <v>-41600</v>

--- a/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SPKKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41820</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41455</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41090</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2596700</v>
+        <v>2439900</v>
       </c>
       <c r="E8" s="3">
-        <v>2543900</v>
+        <v>2458300</v>
       </c>
       <c r="F8" s="3">
-        <v>2553300</v>
+        <v>2408400</v>
       </c>
       <c r="G8" s="3">
-        <v>2597400</v>
+        <v>2417300</v>
       </c>
       <c r="H8" s="3">
-        <v>2527300</v>
+        <v>2459000</v>
       </c>
       <c r="I8" s="3">
-        <v>2528700</v>
+        <v>2392600</v>
       </c>
       <c r="J8" s="3">
+        <v>2394000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2622000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2600100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3100200</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1201100</v>
+        <v>1146700</v>
       </c>
       <c r="E9" s="3">
-        <v>1174400</v>
+        <v>1137100</v>
       </c>
       <c r="F9" s="3">
-        <v>2329300</v>
+        <v>1111800</v>
       </c>
       <c r="G9" s="3">
-        <v>1160700</v>
+        <v>2205200</v>
       </c>
       <c r="H9" s="3">
-        <v>1136100</v>
+        <v>1098800</v>
       </c>
       <c r="I9" s="3">
-        <v>1147600</v>
+        <v>1075600</v>
       </c>
       <c r="J9" s="3">
+        <v>1086500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1250300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>71100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1395500</v>
+        <v>1293100</v>
       </c>
       <c r="E10" s="3">
-        <v>1369500</v>
+        <v>1321200</v>
       </c>
       <c r="F10" s="3">
-        <v>224000</v>
+        <v>1296600</v>
       </c>
       <c r="G10" s="3">
-        <v>1436700</v>
+        <v>212100</v>
       </c>
       <c r="H10" s="3">
-        <v>1391200</v>
+        <v>1360200</v>
       </c>
       <c r="I10" s="3">
-        <v>1381100</v>
+        <v>1317100</v>
       </c>
       <c r="J10" s="3">
+        <v>1307500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1371700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2550500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3029100</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,12 +867,15 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3">
         <v>2700</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-10900</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
-        <v>5100</v>
-      </c>
       <c r="G14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>91900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3400</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>346200</v>
+        <v>357800</v>
       </c>
       <c r="E15" s="3">
-        <v>344700</v>
+        <v>333900</v>
       </c>
       <c r="F15" s="3">
-        <v>459600</v>
+        <v>326400</v>
       </c>
       <c r="G15" s="3">
-        <v>310800</v>
+        <v>435200</v>
       </c>
       <c r="H15" s="3">
-        <v>322300</v>
+        <v>294200</v>
       </c>
       <c r="I15" s="3">
-        <v>327400</v>
+        <v>305200</v>
       </c>
       <c r="J15" s="3">
+        <v>309900</v>
+      </c>
+      <c r="K15" s="3">
         <v>325900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>334600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>390200</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2137700</v>
+        <v>2028700</v>
       </c>
       <c r="E17" s="3">
-        <v>2090800</v>
+        <v>2030700</v>
       </c>
       <c r="F17" s="3">
-        <v>2158000</v>
+        <v>1979400</v>
       </c>
       <c r="G17" s="3">
-        <v>2173900</v>
+        <v>2043000</v>
       </c>
       <c r="H17" s="3">
-        <v>2137000</v>
+        <v>2058100</v>
       </c>
       <c r="I17" s="3">
-        <v>2160900</v>
+        <v>2023200</v>
       </c>
       <c r="J17" s="3">
+        <v>2045800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2271400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2362400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2759500</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>458900</v>
+        <v>411200</v>
       </c>
       <c r="E18" s="3">
-        <v>453100</v>
+        <v>427600</v>
       </c>
       <c r="F18" s="3">
-        <v>395300</v>
+        <v>429000</v>
       </c>
       <c r="G18" s="3">
-        <v>423500</v>
+        <v>374300</v>
       </c>
       <c r="H18" s="3">
-        <v>390300</v>
+        <v>400900</v>
       </c>
       <c r="I18" s="3">
-        <v>367900</v>
+        <v>369500</v>
       </c>
       <c r="J18" s="3">
+        <v>348300</v>
+      </c>
+      <c r="K18" s="3">
         <v>350500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>237700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>340800</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>26000</v>
+        <v>22600</v>
       </c>
       <c r="E20" s="3">
-        <v>26700</v>
+        <v>25300</v>
       </c>
       <c r="F20" s="3">
         <v>25300</v>
       </c>
       <c r="G20" s="3">
-        <v>11600</v>
+        <v>23900</v>
       </c>
       <c r="H20" s="3">
-        <v>13000</v>
+        <v>10900</v>
       </c>
       <c r="I20" s="3">
-        <v>19500</v>
+        <v>12300</v>
       </c>
       <c r="J20" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K20" s="3">
         <v>7900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>830500</v>
+        <v>794000</v>
       </c>
       <c r="E21" s="3">
-        <v>824000</v>
+        <v>782900</v>
       </c>
       <c r="F21" s="3">
-        <v>767700</v>
+        <v>782900</v>
       </c>
       <c r="G21" s="3">
-        <v>745300</v>
+        <v>729500</v>
       </c>
       <c r="H21" s="3">
-        <v>725100</v>
+        <v>708100</v>
       </c>
       <c r="I21" s="3">
-        <v>714200</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>689000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>678800</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>578800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>803600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>67900</v>
+        <v>55400</v>
       </c>
       <c r="E22" s="3">
-        <v>61400</v>
+        <v>64300</v>
       </c>
       <c r="F22" s="3">
-        <v>55600</v>
+        <v>58200</v>
       </c>
       <c r="G22" s="3">
+        <v>52700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>28700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>31500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>36900</v>
+      </c>
+      <c r="K22" s="3">
         <v>30400</v>
       </c>
-      <c r="H22" s="3">
-        <v>33200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>39000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>30400</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>54200</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>417000</v>
+        <v>378400</v>
       </c>
       <c r="E23" s="3">
-        <v>418400</v>
+        <v>388600</v>
       </c>
       <c r="F23" s="3">
-        <v>365000</v>
+        <v>396200</v>
       </c>
       <c r="G23" s="3">
-        <v>404700</v>
+        <v>345500</v>
       </c>
       <c r="H23" s="3">
-        <v>370000</v>
+        <v>383200</v>
       </c>
       <c r="I23" s="3">
-        <v>348300</v>
+        <v>350300</v>
       </c>
       <c r="J23" s="3">
+        <v>329800</v>
+      </c>
+      <c r="K23" s="3">
         <v>328100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>211700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>286600</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>108400</v>
+        <v>115600</v>
       </c>
       <c r="E24" s="3">
-        <v>122900</v>
+        <v>101300</v>
       </c>
       <c r="F24" s="3">
-        <v>101200</v>
+        <v>116300</v>
       </c>
       <c r="G24" s="3">
-        <v>102600</v>
+        <v>95800</v>
       </c>
       <c r="H24" s="3">
-        <v>102600</v>
+        <v>97200</v>
       </c>
       <c r="I24" s="3">
-        <v>77300</v>
+        <v>97200</v>
       </c>
       <c r="J24" s="3">
+        <v>73200</v>
+      </c>
+      <c r="K24" s="3">
         <v>94700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>63900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>75900</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>308600</v>
+        <v>262700</v>
       </c>
       <c r="E26" s="3">
-        <v>295600</v>
+        <v>287400</v>
       </c>
       <c r="F26" s="3">
-        <v>263800</v>
+        <v>279800</v>
       </c>
       <c r="G26" s="3">
-        <v>302100</v>
+        <v>249700</v>
       </c>
       <c r="H26" s="3">
-        <v>267400</v>
+        <v>286000</v>
       </c>
       <c r="I26" s="3">
-        <v>271000</v>
+        <v>253200</v>
       </c>
       <c r="J26" s="3">
+        <v>256600</v>
+      </c>
+      <c r="K26" s="3">
         <v>233400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>147700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>210700</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>308600</v>
+        <v>262700</v>
       </c>
       <c r="E27" s="3">
-        <v>295600</v>
+        <v>287400</v>
       </c>
       <c r="F27" s="3">
-        <v>263800</v>
+        <v>279800</v>
       </c>
       <c r="G27" s="3">
-        <v>302100</v>
+        <v>249700</v>
       </c>
       <c r="H27" s="3">
-        <v>267400</v>
+        <v>286000</v>
       </c>
       <c r="I27" s="3">
-        <v>269600</v>
+        <v>253200</v>
       </c>
       <c r="J27" s="3">
+        <v>255200</v>
+      </c>
+      <c r="K27" s="3">
         <v>232000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>146500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>209300</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1367,21 +1427,24 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>99000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>573200</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-26000</v>
+        <v>-22600</v>
       </c>
       <c r="E32" s="3">
-        <v>-26700</v>
+        <v>-25300</v>
       </c>
       <c r="F32" s="3">
         <v>-25300</v>
       </c>
       <c r="G32" s="3">
-        <v>-11600</v>
+        <v>-23900</v>
       </c>
       <c r="H32" s="3">
-        <v>-13000</v>
+        <v>-10900</v>
       </c>
       <c r="I32" s="3">
-        <v>-19500</v>
+        <v>-12300</v>
       </c>
       <c r="J32" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>308600</v>
+        <v>262700</v>
       </c>
       <c r="E33" s="3">
-        <v>295600</v>
+        <v>287400</v>
       </c>
       <c r="F33" s="3">
-        <v>263800</v>
+        <v>279800</v>
       </c>
       <c r="G33" s="3">
-        <v>302100</v>
+        <v>249700</v>
       </c>
       <c r="H33" s="3">
-        <v>267400</v>
+        <v>286000</v>
       </c>
       <c r="I33" s="3">
-        <v>269600</v>
+        <v>253200</v>
       </c>
       <c r="J33" s="3">
+        <v>255200</v>
+      </c>
+      <c r="K33" s="3">
         <v>331000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>146500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>782500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>308600</v>
+        <v>262700</v>
       </c>
       <c r="E35" s="3">
-        <v>295600</v>
+        <v>287400</v>
       </c>
       <c r="F35" s="3">
-        <v>263800</v>
+        <v>279800</v>
       </c>
       <c r="G35" s="3">
-        <v>302100</v>
+        <v>249700</v>
       </c>
       <c r="H35" s="3">
-        <v>267400</v>
+        <v>286000</v>
       </c>
       <c r="I35" s="3">
-        <v>269600</v>
+        <v>253200</v>
       </c>
       <c r="J35" s="3">
+        <v>255200</v>
+      </c>
+      <c r="K35" s="3">
         <v>331000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>146500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>782500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41820</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41455</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41090</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38300</v>
+        <v>49300</v>
       </c>
       <c r="E41" s="3">
-        <v>39000</v>
+        <v>36300</v>
       </c>
       <c r="F41" s="3">
-        <v>39700</v>
+        <v>36900</v>
       </c>
       <c r="G41" s="3">
         <v>37600</v>
       </c>
       <c r="H41" s="3">
-        <v>37600</v>
+        <v>35600</v>
       </c>
       <c r="I41" s="3">
-        <v>57800</v>
+        <v>35600</v>
       </c>
       <c r="J41" s="3">
+        <v>54700</v>
+      </c>
+      <c r="K41" s="3">
         <v>150300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>73200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>125300</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,240 +1800,264 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>427100</v>
+        <v>402300</v>
       </c>
       <c r="E43" s="3">
-        <v>444500</v>
+        <v>424900</v>
       </c>
       <c r="F43" s="3">
-        <v>878100</v>
+        <v>420800</v>
       </c>
       <c r="G43" s="3">
-        <v>382300</v>
+        <v>831300</v>
       </c>
       <c r="H43" s="3">
-        <v>312900</v>
+        <v>361900</v>
       </c>
       <c r="I43" s="3">
-        <v>256600</v>
+        <v>296300</v>
       </c>
       <c r="J43" s="3">
+        <v>242900</v>
+      </c>
+      <c r="K43" s="3">
         <v>315800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>299500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>392900</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>69400</v>
+        <v>43800</v>
       </c>
       <c r="E44" s="3">
-        <v>72300</v>
+        <v>65700</v>
       </c>
       <c r="F44" s="3">
-        <v>114200</v>
+        <v>68400</v>
       </c>
       <c r="G44" s="3">
-        <v>67900</v>
+        <v>108100</v>
       </c>
       <c r="H44" s="3">
-        <v>58500</v>
+        <v>64300</v>
       </c>
       <c r="I44" s="3">
-        <v>50600</v>
+        <v>55400</v>
       </c>
       <c r="J44" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K44" s="3">
         <v>36100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>32900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>33200</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>135900</v>
+        <v>131400</v>
       </c>
       <c r="E45" s="3">
-        <v>102600</v>
+        <v>128600</v>
       </c>
       <c r="F45" s="3">
-        <v>89600</v>
+        <v>97200</v>
       </c>
       <c r="G45" s="3">
-        <v>58500</v>
+        <v>84800</v>
       </c>
       <c r="H45" s="3">
-        <v>60000</v>
+        <v>55400</v>
       </c>
       <c r="I45" s="3">
-        <v>116400</v>
+        <v>56800</v>
       </c>
       <c r="J45" s="3">
+        <v>110200</v>
+      </c>
+      <c r="K45" s="3">
         <v>105500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>114100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>107000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>670700</v>
+        <v>626700</v>
       </c>
       <c r="E46" s="3">
-        <v>658400</v>
+        <v>655500</v>
       </c>
       <c r="F46" s="3">
-        <v>583200</v>
+        <v>623300</v>
       </c>
       <c r="G46" s="3">
-        <v>546400</v>
+        <v>552100</v>
       </c>
       <c r="H46" s="3">
-        <v>469000</v>
+        <v>517300</v>
       </c>
       <c r="I46" s="3">
-        <v>481300</v>
+        <v>444000</v>
       </c>
       <c r="J46" s="3">
+        <v>455700</v>
+      </c>
+      <c r="K46" s="3">
         <v>607800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>519600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>658500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>427800</v>
+        <v>340700</v>
       </c>
       <c r="E47" s="3">
-        <v>341800</v>
+        <v>405000</v>
       </c>
       <c r="F47" s="3">
-        <v>527600</v>
+        <v>323600</v>
       </c>
       <c r="G47" s="3">
-        <v>249300</v>
+        <v>499500</v>
       </c>
       <c r="H47" s="3">
-        <v>246400</v>
+        <v>236000</v>
       </c>
       <c r="I47" s="3">
-        <v>226900</v>
+        <v>233300</v>
       </c>
       <c r="J47" s="3">
+        <v>214800</v>
+      </c>
+      <c r="K47" s="3">
         <v>219700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>146300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>189000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1300100</v>
+        <v>1234300</v>
       </c>
       <c r="E48" s="3">
-        <v>1222800</v>
+        <v>1303400</v>
       </c>
       <c r="F48" s="3">
-        <v>1977300</v>
+        <v>1157700</v>
       </c>
       <c r="G48" s="3">
-        <v>773300</v>
+        <v>1872000</v>
       </c>
       <c r="H48" s="3">
-        <v>797900</v>
+        <v>732100</v>
       </c>
       <c r="I48" s="3">
-        <v>798600</v>
+        <v>755400</v>
       </c>
       <c r="J48" s="3">
+        <v>756000</v>
+      </c>
+      <c r="K48" s="3">
         <v>795700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>835300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1026400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>699600</v>
+        <v>595900</v>
       </c>
       <c r="E49" s="3">
-        <v>713300</v>
+        <v>576800</v>
       </c>
       <c r="F49" s="3">
-        <v>1563200</v>
+        <v>675300</v>
       </c>
       <c r="G49" s="3">
-        <v>833300</v>
+        <v>1479900</v>
       </c>
       <c r="H49" s="3">
-        <v>817400</v>
+        <v>788900</v>
       </c>
       <c r="I49" s="3">
-        <v>809400</v>
+        <v>773800</v>
       </c>
       <c r="J49" s="3">
+        <v>766300</v>
+      </c>
+      <c r="K49" s="3">
         <v>716900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>664100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>609800</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43400</v>
+        <v>16400</v>
       </c>
       <c r="E52" s="3">
-        <v>23100</v>
+        <v>41100</v>
       </c>
       <c r="F52" s="3">
-        <v>7200</v>
+        <v>21900</v>
       </c>
       <c r="G52" s="3">
-        <v>5100</v>
+        <v>6800</v>
       </c>
       <c r="H52" s="3">
-        <v>8700</v>
+        <v>4800</v>
       </c>
       <c r="I52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3141600</v>
+        <v>2814100</v>
       </c>
       <c r="E54" s="3">
-        <v>2959500</v>
+        <v>2981700</v>
       </c>
       <c r="F54" s="3">
-        <v>2778100</v>
+        <v>2801800</v>
       </c>
       <c r="G54" s="3">
-        <v>2407300</v>
+        <v>2630100</v>
       </c>
       <c r="H54" s="3">
-        <v>2339400</v>
+        <v>2279100</v>
       </c>
       <c r="I54" s="3">
-        <v>2317000</v>
+        <v>2214800</v>
       </c>
       <c r="J54" s="3">
+        <v>2193500</v>
+      </c>
+      <c r="K54" s="3">
         <v>2343700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2166000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2484400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>171300</v>
+        <v>184700</v>
       </c>
       <c r="E57" s="3">
-        <v>186500</v>
+        <v>182700</v>
       </c>
       <c r="F57" s="3">
-        <v>552100</v>
+        <v>176500</v>
       </c>
       <c r="G57" s="3">
-        <v>195900</v>
+        <v>522700</v>
       </c>
       <c r="H57" s="3">
-        <v>200200</v>
+        <v>185400</v>
       </c>
       <c r="I57" s="3">
-        <v>252200</v>
+        <v>189500</v>
       </c>
       <c r="J57" s="3">
+        <v>238800</v>
+      </c>
+      <c r="K57" s="3">
         <v>283300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>341100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>216800</v>
+        <v>319500</v>
       </c>
       <c r="E58" s="3">
-        <v>345500</v>
+        <v>205300</v>
       </c>
       <c r="F58" s="3">
-        <v>277500</v>
+        <v>327000</v>
       </c>
       <c r="G58" s="3">
-        <v>213200</v>
+        <v>262700</v>
       </c>
       <c r="H58" s="3">
-        <v>137300</v>
+        <v>201800</v>
       </c>
       <c r="I58" s="3">
-        <v>109100</v>
+        <v>130000</v>
       </c>
       <c r="J58" s="3">
+        <v>103300</v>
+      </c>
+      <c r="K58" s="3">
         <v>83800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>143200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>279800</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>176300</v>
+        <v>138200</v>
       </c>
       <c r="E59" s="3">
-        <v>150300</v>
+        <v>166900</v>
       </c>
       <c r="F59" s="3">
-        <v>164800</v>
+        <v>142300</v>
       </c>
       <c r="G59" s="3">
-        <v>162600</v>
+        <v>156000</v>
       </c>
       <c r="H59" s="3">
-        <v>134400</v>
+        <v>153900</v>
       </c>
       <c r="I59" s="3">
-        <v>156800</v>
+        <v>127300</v>
       </c>
       <c r="J59" s="3">
+        <v>148500</v>
+      </c>
+      <c r="K59" s="3">
         <v>191500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>189100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>235800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>564400</v>
+        <v>642500</v>
       </c>
       <c r="E60" s="3">
-        <v>682200</v>
+        <v>554900</v>
       </c>
       <c r="F60" s="3">
-        <v>548500</v>
+        <v>645900</v>
       </c>
       <c r="G60" s="3">
-        <v>571700</v>
+        <v>519300</v>
       </c>
       <c r="H60" s="3">
-        <v>471900</v>
+        <v>541200</v>
       </c>
       <c r="I60" s="3">
-        <v>518200</v>
+        <v>446800</v>
       </c>
       <c r="J60" s="3">
+        <v>490600</v>
+      </c>
+      <c r="K60" s="3">
         <v>558600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>673400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>815700</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1282800</v>
+        <v>982500</v>
       </c>
       <c r="E61" s="3">
-        <v>1027000</v>
+        <v>1214500</v>
       </c>
       <c r="F61" s="3">
-        <v>1008900</v>
+        <v>972200</v>
       </c>
       <c r="G61" s="3">
-        <v>500100</v>
+        <v>955100</v>
       </c>
       <c r="H61" s="3">
-        <v>495000</v>
+        <v>473500</v>
       </c>
       <c r="I61" s="3">
-        <v>392400</v>
+        <v>468700</v>
       </c>
       <c r="J61" s="3">
+        <v>371500</v>
+      </c>
+      <c r="K61" s="3">
         <v>417700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>468800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>412600</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>215400</v>
+        <v>160800</v>
       </c>
       <c r="E62" s="3">
-        <v>191500</v>
+        <v>203900</v>
       </c>
       <c r="F62" s="3">
-        <v>164100</v>
+        <v>181300</v>
       </c>
       <c r="G62" s="3">
-        <v>142400</v>
+        <v>155300</v>
       </c>
       <c r="H62" s="3">
-        <v>155400</v>
+        <v>134800</v>
       </c>
       <c r="I62" s="3">
-        <v>121400</v>
+        <v>147100</v>
       </c>
       <c r="J62" s="3">
+        <v>114900</v>
+      </c>
+      <c r="K62" s="3">
         <v>133000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>147600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>154500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2062600</v>
+        <v>1785800</v>
       </c>
       <c r="E66" s="3">
-        <v>1900700</v>
+        <v>1973200</v>
       </c>
       <c r="F66" s="3">
-        <v>1706300</v>
+        <v>1799400</v>
       </c>
       <c r="G66" s="3">
-        <v>1214100</v>
+        <v>1615400</v>
       </c>
       <c r="H66" s="3">
-        <v>1122400</v>
+        <v>1149500</v>
       </c>
       <c r="I66" s="3">
-        <v>1032000</v>
+        <v>1062600</v>
       </c>
       <c r="J66" s="3">
+        <v>977000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1113700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1293500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1386200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>649700</v>
+        <v>542600</v>
       </c>
       <c r="E72" s="3">
-        <v>672800</v>
+        <v>602100</v>
       </c>
       <c r="F72" s="3">
-        <v>709000</v>
+        <v>637000</v>
       </c>
       <c r="G72" s="3">
-        <v>814500</v>
+        <v>671200</v>
       </c>
       <c r="H72" s="3">
-        <v>846300</v>
+        <v>771100</v>
       </c>
       <c r="I72" s="3">
-        <v>890400</v>
+        <v>801200</v>
       </c>
       <c r="J72" s="3">
+        <v>842900</v>
+      </c>
+      <c r="K72" s="3">
         <v>855700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>627500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>758800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1079000</v>
+        <v>1028400</v>
       </c>
       <c r="E76" s="3">
-        <v>1058800</v>
+        <v>1008500</v>
       </c>
       <c r="F76" s="3">
-        <v>1071800</v>
+        <v>1002400</v>
       </c>
       <c r="G76" s="3">
-        <v>1193200</v>
+        <v>1014700</v>
       </c>
       <c r="H76" s="3">
-        <v>1217000</v>
+        <v>1129600</v>
       </c>
       <c r="I76" s="3">
-        <v>1285000</v>
+        <v>1152200</v>
       </c>
       <c r="J76" s="3">
+        <v>1216500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1230000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>872500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1098200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41820</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41455</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41090</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>308600</v>
+        <v>262700</v>
       </c>
       <c r="E81" s="3">
-        <v>295600</v>
+        <v>287400</v>
       </c>
       <c r="F81" s="3">
-        <v>263800</v>
+        <v>279800</v>
       </c>
       <c r="G81" s="3">
-        <v>302100</v>
+        <v>249700</v>
       </c>
       <c r="H81" s="3">
-        <v>267400</v>
+        <v>286000</v>
       </c>
       <c r="I81" s="3">
-        <v>269600</v>
+        <v>253200</v>
       </c>
       <c r="J81" s="3">
+        <v>255200</v>
+      </c>
+      <c r="K81" s="3">
         <v>331000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>146500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>782500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>346200</v>
+        <v>357800</v>
       </c>
       <c r="E83" s="3">
-        <v>344700</v>
+        <v>327700</v>
       </c>
       <c r="F83" s="3">
-        <v>347600</v>
+        <v>326400</v>
       </c>
       <c r="G83" s="3">
-        <v>310800</v>
+        <v>329100</v>
       </c>
       <c r="H83" s="3">
-        <v>322300</v>
+        <v>294200</v>
       </c>
       <c r="I83" s="3">
-        <v>327400</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>305200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>309900</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>334600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>461400</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>652600</v>
+        <v>587000</v>
       </c>
       <c r="E89" s="3">
-        <v>561500</v>
+        <v>617800</v>
       </c>
       <c r="F89" s="3">
-        <v>592600</v>
+        <v>531600</v>
       </c>
       <c r="G89" s="3">
-        <v>518200</v>
+        <v>561000</v>
       </c>
       <c r="H89" s="3">
-        <v>517500</v>
+        <v>490600</v>
       </c>
       <c r="I89" s="3">
-        <v>455300</v>
+        <v>489900</v>
       </c>
       <c r="J89" s="3">
+        <v>431000</v>
+      </c>
+      <c r="K89" s="3">
         <v>442300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>549300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>667300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-284000</v>
+        <v>-229200</v>
       </c>
       <c r="E91" s="3">
-        <v>-299900</v>
+        <v>-268900</v>
       </c>
       <c r="F91" s="3">
-        <v>-299200</v>
+        <v>-283900</v>
       </c>
       <c r="G91" s="3">
-        <v>-287600</v>
+        <v>-283300</v>
       </c>
       <c r="H91" s="3">
-        <v>-302100</v>
+        <v>-272300</v>
       </c>
       <c r="I91" s="3">
-        <v>-423500</v>
+        <v>-286000</v>
       </c>
       <c r="J91" s="3">
+        <v>-400900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-349100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-241500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-449200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-297000</v>
+        <v>-265500</v>
       </c>
       <c r="E94" s="3">
-        <v>-307900</v>
+        <v>-281200</v>
       </c>
       <c r="F94" s="3">
-        <v>-349800</v>
+        <v>-291500</v>
       </c>
       <c r="G94" s="3">
-        <v>-274600</v>
+        <v>-331200</v>
       </c>
       <c r="H94" s="3">
-        <v>-352700</v>
+        <v>-260000</v>
       </c>
       <c r="I94" s="3">
-        <v>-329600</v>
+        <v>-333900</v>
       </c>
       <c r="J94" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="K94" s="3">
         <v>7200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-286800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-449200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-331700</v>
+        <v>-225800</v>
       </c>
       <c r="E96" s="3">
-        <v>-331700</v>
+        <v>-314000</v>
       </c>
       <c r="F96" s="3">
-        <v>-331000</v>
+        <v>-314000</v>
       </c>
       <c r="G96" s="3">
-        <v>-331000</v>
+        <v>-313400</v>
       </c>
       <c r="H96" s="3">
-        <v>-310800</v>
+        <v>-313400</v>
       </c>
       <c r="I96" s="3">
-        <v>-215400</v>
+        <v>-294200</v>
       </c>
       <c r="J96" s="3">
+        <v>-203900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-195900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-203000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-230400</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,42 +3665,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-356300</v>
+        <v>-308600</v>
       </c>
       <c r="E100" s="3">
-        <v>-254400</v>
+        <v>-337300</v>
       </c>
       <c r="F100" s="3">
-        <v>-240700</v>
+        <v>-240800</v>
       </c>
       <c r="G100" s="3">
-        <v>-243500</v>
+        <v>-227800</v>
       </c>
       <c r="H100" s="3">
-        <v>-185000</v>
+        <v>-230600</v>
       </c>
       <c r="I100" s="3">
-        <v>-219700</v>
+        <v>-175200</v>
       </c>
       <c r="J100" s="3">
+        <v>-208000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-383000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-302900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-313000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3474,55 +3722,61 @@
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-700</v>
+        <v>13000</v>
       </c>
       <c r="E102" s="3">
         <v>-700</v>
       </c>
       <c r="F102" s="3">
-        <v>2200</v>
+        <v>-700</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="H102" s="3">
-        <v>-20200</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-92500</v>
+        <v>-19200</v>
       </c>
       <c r="J102" s="3">
+        <v>-87600</v>
+      </c>
+      <c r="K102" s="3">
         <v>65000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-41600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-94200</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2439900</v>
+        <v>2433400</v>
       </c>
       <c r="E8" s="3">
-        <v>2458300</v>
+        <v>2451900</v>
       </c>
       <c r="F8" s="3">
-        <v>2408400</v>
+        <v>2402000</v>
       </c>
       <c r="G8" s="3">
-        <v>2417300</v>
+        <v>2410900</v>
       </c>
       <c r="H8" s="3">
-        <v>2459000</v>
+        <v>2452500</v>
       </c>
       <c r="I8" s="3">
-        <v>2392600</v>
+        <v>2386400</v>
       </c>
       <c r="J8" s="3">
-        <v>2394000</v>
+        <v>2387700</v>
       </c>
       <c r="K8" s="3">
         <v>2622000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1146700</v>
+        <v>1143700</v>
       </c>
       <c r="E9" s="3">
-        <v>1137100</v>
+        <v>1134100</v>
       </c>
       <c r="F9" s="3">
-        <v>1111800</v>
+        <v>1108900</v>
       </c>
       <c r="G9" s="3">
-        <v>2205200</v>
+        <v>2199400</v>
       </c>
       <c r="H9" s="3">
-        <v>1098800</v>
+        <v>1095900</v>
       </c>
       <c r="I9" s="3">
-        <v>1075600</v>
+        <v>1072700</v>
       </c>
       <c r="J9" s="3">
-        <v>1086500</v>
+        <v>1083700</v>
       </c>
       <c r="K9" s="3">
         <v>1250300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1289700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1317700</v>
+      </c>
+      <c r="F10" s="3">
         <v>1293100</v>
       </c>
-      <c r="E10" s="3">
-        <v>1321200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1296600</v>
-      </c>
       <c r="G10" s="3">
-        <v>212100</v>
+        <v>211500</v>
       </c>
       <c r="H10" s="3">
-        <v>1360200</v>
+        <v>1356600</v>
       </c>
       <c r="I10" s="3">
-        <v>1317100</v>
+        <v>1313600</v>
       </c>
       <c r="J10" s="3">
-        <v>1307500</v>
+        <v>1304100</v>
       </c>
       <c r="K10" s="3">
         <v>1371700</v>
@@ -931,7 +931,7 @@
         <v>1400</v>
       </c>
       <c r="I14" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>357800</v>
+        <v>356900</v>
       </c>
       <c r="E15" s="3">
-        <v>333900</v>
+        <v>333000</v>
       </c>
       <c r="F15" s="3">
-        <v>326400</v>
+        <v>325500</v>
       </c>
       <c r="G15" s="3">
-        <v>435200</v>
+        <v>434000</v>
       </c>
       <c r="H15" s="3">
-        <v>294200</v>
+        <v>293400</v>
       </c>
       <c r="I15" s="3">
-        <v>305200</v>
+        <v>304400</v>
       </c>
       <c r="J15" s="3">
-        <v>309900</v>
+        <v>309100</v>
       </c>
       <c r="K15" s="3">
         <v>325900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2028700</v>
+        <v>2023300</v>
       </c>
       <c r="E17" s="3">
-        <v>2030700</v>
+        <v>2025400</v>
       </c>
       <c r="F17" s="3">
-        <v>1979400</v>
+        <v>1974200</v>
       </c>
       <c r="G17" s="3">
-        <v>2043000</v>
+        <v>2037600</v>
       </c>
       <c r="H17" s="3">
-        <v>2058100</v>
+        <v>2052700</v>
       </c>
       <c r="I17" s="3">
-        <v>2023200</v>
+        <v>2017900</v>
       </c>
       <c r="J17" s="3">
-        <v>2045800</v>
+        <v>2040400</v>
       </c>
       <c r="K17" s="3">
         <v>2271400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>411200</v>
+        <v>410100</v>
       </c>
       <c r="E18" s="3">
-        <v>427600</v>
+        <v>426500</v>
       </c>
       <c r="F18" s="3">
-        <v>429000</v>
+        <v>427900</v>
       </c>
       <c r="G18" s="3">
-        <v>374300</v>
+        <v>373300</v>
       </c>
       <c r="H18" s="3">
-        <v>400900</v>
+        <v>399900</v>
       </c>
       <c r="I18" s="3">
-        <v>369500</v>
+        <v>368500</v>
       </c>
       <c r="J18" s="3">
-        <v>348300</v>
+        <v>347300</v>
       </c>
       <c r="K18" s="3">
         <v>350500</v>
@@ -1089,13 +1089,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22600</v>
+        <v>22500</v>
       </c>
       <c r="E20" s="3">
-        <v>25300</v>
+        <v>25200</v>
       </c>
       <c r="F20" s="3">
-        <v>25300</v>
+        <v>25200</v>
       </c>
       <c r="G20" s="3">
         <v>23900</v>
@@ -1107,7 +1107,7 @@
         <v>12300</v>
       </c>
       <c r="J20" s="3">
-        <v>18500</v>
+        <v>18400</v>
       </c>
       <c r="K20" s="3">
         <v>7900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>794000</v>
+        <v>789600</v>
       </c>
       <c r="E21" s="3">
-        <v>782900</v>
+        <v>778700</v>
       </c>
       <c r="F21" s="3">
-        <v>782900</v>
+        <v>778700</v>
       </c>
       <c r="G21" s="3">
-        <v>729500</v>
+        <v>725500</v>
       </c>
       <c r="H21" s="3">
-        <v>708100</v>
+        <v>704300</v>
       </c>
       <c r="I21" s="3">
-        <v>689000</v>
+        <v>685200</v>
       </c>
       <c r="J21" s="3">
-        <v>678800</v>
+        <v>675000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>55400</v>
+        <v>55300</v>
       </c>
       <c r="E22" s="3">
-        <v>64300</v>
+        <v>64100</v>
       </c>
       <c r="F22" s="3">
-        <v>58200</v>
+        <v>58000</v>
       </c>
       <c r="G22" s="3">
-        <v>52700</v>
+        <v>52500</v>
       </c>
       <c r="H22" s="3">
         <v>28700</v>
       </c>
       <c r="I22" s="3">
-        <v>31500</v>
+        <v>31400</v>
       </c>
       <c r="J22" s="3">
-        <v>36900</v>
+        <v>36800</v>
       </c>
       <c r="K22" s="3">
         <v>30400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>378400</v>
+        <v>377400</v>
       </c>
       <c r="E23" s="3">
-        <v>388600</v>
+        <v>387600</v>
       </c>
       <c r="F23" s="3">
-        <v>396200</v>
+        <v>395100</v>
       </c>
       <c r="G23" s="3">
-        <v>345500</v>
+        <v>344600</v>
       </c>
       <c r="H23" s="3">
-        <v>383200</v>
+        <v>382100</v>
       </c>
       <c r="I23" s="3">
-        <v>350300</v>
+        <v>349400</v>
       </c>
       <c r="J23" s="3">
-        <v>329800</v>
+        <v>328900</v>
       </c>
       <c r="K23" s="3">
         <v>328100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>115600</v>
+        <v>115300</v>
       </c>
       <c r="E24" s="3">
-        <v>101300</v>
+        <v>101000</v>
       </c>
       <c r="F24" s="3">
-        <v>116300</v>
+        <v>116000</v>
       </c>
       <c r="G24" s="3">
-        <v>95800</v>
+        <v>95500</v>
       </c>
       <c r="H24" s="3">
-        <v>97200</v>
+        <v>96900</v>
       </c>
       <c r="I24" s="3">
-        <v>97200</v>
+        <v>96900</v>
       </c>
       <c r="J24" s="3">
-        <v>73200</v>
+        <v>73000</v>
       </c>
       <c r="K24" s="3">
         <v>94700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>262700</v>
+        <v>262000</v>
       </c>
       <c r="E26" s="3">
-        <v>287400</v>
+        <v>286600</v>
       </c>
       <c r="F26" s="3">
-        <v>279800</v>
+        <v>279100</v>
       </c>
       <c r="G26" s="3">
-        <v>249700</v>
+        <v>249100</v>
       </c>
       <c r="H26" s="3">
-        <v>286000</v>
+        <v>285200</v>
       </c>
       <c r="I26" s="3">
-        <v>253200</v>
+        <v>252500</v>
       </c>
       <c r="J26" s="3">
-        <v>256600</v>
+        <v>255900</v>
       </c>
       <c r="K26" s="3">
         <v>233400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>262700</v>
+        <v>262000</v>
       </c>
       <c r="E27" s="3">
-        <v>287400</v>
+        <v>286600</v>
       </c>
       <c r="F27" s="3">
-        <v>279800</v>
+        <v>279100</v>
       </c>
       <c r="G27" s="3">
-        <v>249700</v>
+        <v>249100</v>
       </c>
       <c r="H27" s="3">
-        <v>286000</v>
+        <v>285200</v>
       </c>
       <c r="I27" s="3">
-        <v>253200</v>
+        <v>252500</v>
       </c>
       <c r="J27" s="3">
-        <v>255200</v>
+        <v>254500</v>
       </c>
       <c r="K27" s="3">
         <v>232000</v>
@@ -1521,13 +1521,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22600</v>
+        <v>-22500</v>
       </c>
       <c r="E32" s="3">
-        <v>-25300</v>
+        <v>-25200</v>
       </c>
       <c r="F32" s="3">
-        <v>-25300</v>
+        <v>-25200</v>
       </c>
       <c r="G32" s="3">
         <v>-23900</v>
@@ -1539,7 +1539,7 @@
         <v>-12300</v>
       </c>
       <c r="J32" s="3">
-        <v>-18500</v>
+        <v>-18400</v>
       </c>
       <c r="K32" s="3">
         <v>-7900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>262700</v>
+        <v>262000</v>
       </c>
       <c r="E33" s="3">
-        <v>287400</v>
+        <v>286600</v>
       </c>
       <c r="F33" s="3">
-        <v>279800</v>
+        <v>279100</v>
       </c>
       <c r="G33" s="3">
-        <v>249700</v>
+        <v>249100</v>
       </c>
       <c r="H33" s="3">
-        <v>286000</v>
+        <v>285200</v>
       </c>
       <c r="I33" s="3">
-        <v>253200</v>
+        <v>252500</v>
       </c>
       <c r="J33" s="3">
-        <v>255200</v>
+        <v>254500</v>
       </c>
       <c r="K33" s="3">
         <v>331000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>262700</v>
+        <v>262000</v>
       </c>
       <c r="E35" s="3">
-        <v>287400</v>
+        <v>286600</v>
       </c>
       <c r="F35" s="3">
-        <v>279800</v>
+        <v>279100</v>
       </c>
       <c r="G35" s="3">
-        <v>249700</v>
+        <v>249100</v>
       </c>
       <c r="H35" s="3">
-        <v>286000</v>
+        <v>285200</v>
       </c>
       <c r="I35" s="3">
-        <v>253200</v>
+        <v>252500</v>
       </c>
       <c r="J35" s="3">
-        <v>255200</v>
+        <v>254500</v>
       </c>
       <c r="K35" s="3">
         <v>331000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>49300</v>
+        <v>49100</v>
       </c>
       <c r="E41" s="3">
-        <v>36300</v>
+        <v>36200</v>
       </c>
       <c r="F41" s="3">
-        <v>36900</v>
+        <v>36800</v>
       </c>
       <c r="G41" s="3">
-        <v>37600</v>
+        <v>37500</v>
       </c>
       <c r="H41" s="3">
-        <v>35600</v>
+        <v>35500</v>
       </c>
       <c r="I41" s="3">
-        <v>35600</v>
+        <v>35500</v>
       </c>
       <c r="J41" s="3">
-        <v>54700</v>
+        <v>54600</v>
       </c>
       <c r="K41" s="3">
         <v>150300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>402300</v>
+        <v>401300</v>
       </c>
       <c r="E43" s="3">
-        <v>424900</v>
+        <v>423800</v>
       </c>
       <c r="F43" s="3">
-        <v>420800</v>
+        <v>419700</v>
       </c>
       <c r="G43" s="3">
-        <v>831300</v>
+        <v>829100</v>
       </c>
       <c r="H43" s="3">
-        <v>361900</v>
+        <v>361000</v>
       </c>
       <c r="I43" s="3">
-        <v>296300</v>
+        <v>295500</v>
       </c>
       <c r="J43" s="3">
-        <v>242900</v>
+        <v>242300</v>
       </c>
       <c r="K43" s="3">
         <v>315800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>43800</v>
+        <v>43700</v>
       </c>
       <c r="E44" s="3">
-        <v>65700</v>
+        <v>65500</v>
       </c>
       <c r="F44" s="3">
-        <v>68400</v>
+        <v>68200</v>
       </c>
       <c r="G44" s="3">
-        <v>108100</v>
+        <v>107800</v>
       </c>
       <c r="H44" s="3">
-        <v>64300</v>
+        <v>64100</v>
       </c>
       <c r="I44" s="3">
-        <v>55400</v>
+        <v>55300</v>
       </c>
       <c r="J44" s="3">
-        <v>47900</v>
+        <v>47800</v>
       </c>
       <c r="K44" s="3">
         <v>36100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>131400</v>
+        <v>131000</v>
       </c>
       <c r="E45" s="3">
-        <v>128600</v>
+        <v>128300</v>
       </c>
       <c r="F45" s="3">
-        <v>97200</v>
+        <v>96900</v>
       </c>
       <c r="G45" s="3">
-        <v>84800</v>
+        <v>84600</v>
       </c>
       <c r="H45" s="3">
-        <v>55400</v>
+        <v>55300</v>
       </c>
       <c r="I45" s="3">
-        <v>56800</v>
+        <v>56600</v>
       </c>
       <c r="J45" s="3">
-        <v>110200</v>
+        <v>109900</v>
       </c>
       <c r="K45" s="3">
         <v>105500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>626700</v>
+        <v>625100</v>
       </c>
       <c r="E46" s="3">
-        <v>655500</v>
+        <v>653700</v>
       </c>
       <c r="F46" s="3">
-        <v>623300</v>
+        <v>621700</v>
       </c>
       <c r="G46" s="3">
-        <v>552100</v>
+        <v>550700</v>
       </c>
       <c r="H46" s="3">
-        <v>517300</v>
+        <v>515900</v>
       </c>
       <c r="I46" s="3">
-        <v>444000</v>
+        <v>442900</v>
       </c>
       <c r="J46" s="3">
-        <v>455700</v>
+        <v>454500</v>
       </c>
       <c r="K46" s="3">
         <v>607800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>340700</v>
+        <v>339800</v>
       </c>
       <c r="E47" s="3">
-        <v>405000</v>
+        <v>404000</v>
       </c>
       <c r="F47" s="3">
-        <v>323600</v>
+        <v>322800</v>
       </c>
       <c r="G47" s="3">
-        <v>499500</v>
+        <v>498200</v>
       </c>
       <c r="H47" s="3">
-        <v>236000</v>
+        <v>235400</v>
       </c>
       <c r="I47" s="3">
-        <v>233300</v>
+        <v>232700</v>
       </c>
       <c r="J47" s="3">
-        <v>214800</v>
+        <v>214300</v>
       </c>
       <c r="K47" s="3">
         <v>219700</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1234300</v>
+        <v>1231000</v>
       </c>
       <c r="E48" s="3">
-        <v>1303400</v>
+        <v>1300000</v>
       </c>
       <c r="F48" s="3">
-        <v>1157700</v>
+        <v>1154600</v>
       </c>
       <c r="G48" s="3">
-        <v>1872000</v>
+        <v>1867000</v>
       </c>
       <c r="H48" s="3">
-        <v>732100</v>
+        <v>730200</v>
       </c>
       <c r="I48" s="3">
-        <v>755400</v>
+        <v>753400</v>
       </c>
       <c r="J48" s="3">
-        <v>756000</v>
+        <v>754100</v>
       </c>
       <c r="K48" s="3">
         <v>795700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>595900</v>
+        <v>594400</v>
       </c>
       <c r="E49" s="3">
-        <v>576800</v>
+        <v>575300</v>
       </c>
       <c r="F49" s="3">
-        <v>675300</v>
+        <v>673500</v>
       </c>
       <c r="G49" s="3">
-        <v>1479900</v>
+        <v>1476000</v>
       </c>
       <c r="H49" s="3">
-        <v>788900</v>
+        <v>786800</v>
       </c>
       <c r="I49" s="3">
-        <v>773800</v>
+        <v>771800</v>
       </c>
       <c r="J49" s="3">
-        <v>766300</v>
+        <v>764300</v>
       </c>
       <c r="K49" s="3">
         <v>716900</v>
@@ -2137,10 +2137,10 @@
         <v>16400</v>
       </c>
       <c r="E52" s="3">
-        <v>41100</v>
+        <v>40900</v>
       </c>
       <c r="F52" s="3">
-        <v>21900</v>
+        <v>21800</v>
       </c>
       <c r="G52" s="3">
         <v>6800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2814100</v>
+        <v>2806700</v>
       </c>
       <c r="E54" s="3">
-        <v>2981700</v>
+        <v>2973900</v>
       </c>
       <c r="F54" s="3">
-        <v>2801800</v>
+        <v>2794400</v>
       </c>
       <c r="G54" s="3">
-        <v>2630100</v>
+        <v>2623100</v>
       </c>
       <c r="H54" s="3">
-        <v>2279100</v>
+        <v>2273100</v>
       </c>
       <c r="I54" s="3">
-        <v>2214800</v>
+        <v>2208900</v>
       </c>
       <c r="J54" s="3">
-        <v>2193500</v>
+        <v>2187800</v>
       </c>
       <c r="K54" s="3">
         <v>2343700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>184700</v>
+        <v>184200</v>
       </c>
       <c r="E57" s="3">
-        <v>182700</v>
+        <v>182200</v>
       </c>
       <c r="F57" s="3">
-        <v>176500</v>
+        <v>176100</v>
       </c>
       <c r="G57" s="3">
-        <v>522700</v>
+        <v>521400</v>
       </c>
       <c r="H57" s="3">
-        <v>185400</v>
+        <v>184900</v>
       </c>
       <c r="I57" s="3">
-        <v>189500</v>
+        <v>189000</v>
       </c>
       <c r="J57" s="3">
-        <v>238800</v>
+        <v>238200</v>
       </c>
       <c r="K57" s="3">
         <v>283300</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>319500</v>
+        <v>318700</v>
       </c>
       <c r="E58" s="3">
-        <v>205300</v>
+        <v>204700</v>
       </c>
       <c r="F58" s="3">
-        <v>327000</v>
+        <v>326200</v>
       </c>
       <c r="G58" s="3">
-        <v>262700</v>
+        <v>193800</v>
       </c>
       <c r="H58" s="3">
-        <v>201800</v>
+        <v>201300</v>
       </c>
       <c r="I58" s="3">
-        <v>130000</v>
+        <v>129700</v>
       </c>
       <c r="J58" s="3">
-        <v>103300</v>
+        <v>103000</v>
       </c>
       <c r="K58" s="3">
         <v>83800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>138200</v>
+        <v>137800</v>
       </c>
       <c r="E59" s="3">
-        <v>166900</v>
+        <v>166500</v>
       </c>
       <c r="F59" s="3">
-        <v>142300</v>
+        <v>141900</v>
       </c>
       <c r="G59" s="3">
-        <v>156000</v>
+        <v>155600</v>
       </c>
       <c r="H59" s="3">
-        <v>153900</v>
+        <v>153500</v>
       </c>
       <c r="I59" s="3">
-        <v>127300</v>
+        <v>126900</v>
       </c>
       <c r="J59" s="3">
-        <v>148500</v>
+        <v>148100</v>
       </c>
       <c r="K59" s="3">
         <v>191500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>642500</v>
+        <v>640800</v>
       </c>
       <c r="E60" s="3">
-        <v>554900</v>
+        <v>553400</v>
       </c>
       <c r="F60" s="3">
-        <v>645900</v>
+        <v>644200</v>
       </c>
       <c r="G60" s="3">
-        <v>519300</v>
+        <v>517900</v>
       </c>
       <c r="H60" s="3">
-        <v>541200</v>
+        <v>539800</v>
       </c>
       <c r="I60" s="3">
-        <v>446800</v>
+        <v>445600</v>
       </c>
       <c r="J60" s="3">
-        <v>490600</v>
+        <v>489300</v>
       </c>
       <c r="K60" s="3">
         <v>558600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>982500</v>
+        <v>979900</v>
       </c>
       <c r="E61" s="3">
-        <v>1214500</v>
+        <v>1211300</v>
       </c>
       <c r="F61" s="3">
-        <v>972200</v>
+        <v>969700</v>
       </c>
       <c r="G61" s="3">
-        <v>955100</v>
+        <v>952600</v>
       </c>
       <c r="H61" s="3">
-        <v>473500</v>
+        <v>472200</v>
       </c>
       <c r="I61" s="3">
-        <v>468700</v>
+        <v>467400</v>
       </c>
       <c r="J61" s="3">
-        <v>371500</v>
+        <v>370500</v>
       </c>
       <c r="K61" s="3">
         <v>417700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>160800</v>
+        <v>160400</v>
       </c>
       <c r="E62" s="3">
-        <v>203900</v>
+        <v>203400</v>
       </c>
       <c r="F62" s="3">
-        <v>181300</v>
+        <v>180800</v>
       </c>
       <c r="G62" s="3">
-        <v>155300</v>
+        <v>154900</v>
       </c>
       <c r="H62" s="3">
-        <v>134800</v>
+        <v>134400</v>
       </c>
       <c r="I62" s="3">
-        <v>147100</v>
+        <v>146700</v>
       </c>
       <c r="J62" s="3">
-        <v>114900</v>
+        <v>114600</v>
       </c>
       <c r="K62" s="3">
         <v>133000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1785800</v>
+        <v>1781100</v>
       </c>
       <c r="E66" s="3">
-        <v>1973200</v>
+        <v>1968000</v>
       </c>
       <c r="F66" s="3">
-        <v>1799400</v>
+        <v>1794700</v>
       </c>
       <c r="G66" s="3">
-        <v>1615400</v>
+        <v>1611100</v>
       </c>
       <c r="H66" s="3">
-        <v>1149500</v>
+        <v>1146400</v>
       </c>
       <c r="I66" s="3">
-        <v>1062600</v>
+        <v>1059800</v>
       </c>
       <c r="J66" s="3">
-        <v>977000</v>
+        <v>974500</v>
       </c>
       <c r="K66" s="3">
         <v>1113700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>542600</v>
+        <v>541100</v>
       </c>
       <c r="E72" s="3">
-        <v>602100</v>
+        <v>600500</v>
       </c>
       <c r="F72" s="3">
-        <v>637000</v>
+        <v>635300</v>
       </c>
       <c r="G72" s="3">
-        <v>671200</v>
+        <v>669400</v>
       </c>
       <c r="H72" s="3">
-        <v>771100</v>
+        <v>769100</v>
       </c>
       <c r="I72" s="3">
-        <v>801200</v>
+        <v>799100</v>
       </c>
       <c r="J72" s="3">
-        <v>842900</v>
+        <v>840700</v>
       </c>
       <c r="K72" s="3">
         <v>855700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1028400</v>
+        <v>1025600</v>
       </c>
       <c r="E76" s="3">
-        <v>1008500</v>
+        <v>1005900</v>
       </c>
       <c r="F76" s="3">
-        <v>1002400</v>
+        <v>999700</v>
       </c>
       <c r="G76" s="3">
-        <v>1014700</v>
+        <v>1012000</v>
       </c>
       <c r="H76" s="3">
-        <v>1129600</v>
+        <v>1126600</v>
       </c>
       <c r="I76" s="3">
-        <v>1152200</v>
+        <v>1149200</v>
       </c>
       <c r="J76" s="3">
-        <v>1216500</v>
+        <v>1213300</v>
       </c>
       <c r="K76" s="3">
         <v>1230000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>262700</v>
+        <v>262000</v>
       </c>
       <c r="E81" s="3">
-        <v>287400</v>
+        <v>286600</v>
       </c>
       <c r="F81" s="3">
-        <v>279800</v>
+        <v>279100</v>
       </c>
       <c r="G81" s="3">
-        <v>249700</v>
+        <v>249100</v>
       </c>
       <c r="H81" s="3">
-        <v>286000</v>
+        <v>285200</v>
       </c>
       <c r="I81" s="3">
-        <v>253200</v>
+        <v>252500</v>
       </c>
       <c r="J81" s="3">
-        <v>255200</v>
+        <v>254500</v>
       </c>
       <c r="K81" s="3">
         <v>331000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>357800</v>
+        <v>356900</v>
       </c>
       <c r="E83" s="3">
-        <v>327700</v>
+        <v>326900</v>
       </c>
       <c r="F83" s="3">
-        <v>326400</v>
+        <v>325500</v>
       </c>
       <c r="G83" s="3">
-        <v>329100</v>
+        <v>328200</v>
       </c>
       <c r="H83" s="3">
-        <v>294200</v>
+        <v>293400</v>
       </c>
       <c r="I83" s="3">
-        <v>305200</v>
+        <v>304400</v>
       </c>
       <c r="J83" s="3">
-        <v>309900</v>
+        <v>309100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>587000</v>
+        <v>585500</v>
       </c>
       <c r="E89" s="3">
-        <v>617800</v>
+        <v>616200</v>
       </c>
       <c r="F89" s="3">
-        <v>531600</v>
+        <v>530200</v>
       </c>
       <c r="G89" s="3">
-        <v>561000</v>
+        <v>559600</v>
       </c>
       <c r="H89" s="3">
-        <v>490600</v>
+        <v>489300</v>
       </c>
       <c r="I89" s="3">
-        <v>489900</v>
+        <v>488600</v>
       </c>
       <c r="J89" s="3">
-        <v>431000</v>
+        <v>429900</v>
       </c>
       <c r="K89" s="3">
         <v>442300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-229200</v>
+        <v>-228600</v>
       </c>
       <c r="E91" s="3">
-        <v>-268900</v>
+        <v>-268200</v>
       </c>
       <c r="F91" s="3">
-        <v>-283900</v>
+        <v>-283200</v>
       </c>
       <c r="G91" s="3">
-        <v>-283300</v>
+        <v>-282500</v>
       </c>
       <c r="H91" s="3">
-        <v>-272300</v>
+        <v>-271600</v>
       </c>
       <c r="I91" s="3">
-        <v>-286000</v>
+        <v>-285200</v>
       </c>
       <c r="J91" s="3">
-        <v>-400900</v>
+        <v>-399900</v>
       </c>
       <c r="K91" s="3">
         <v>-349100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-265500</v>
+        <v>-264800</v>
       </c>
       <c r="E94" s="3">
-        <v>-281200</v>
+        <v>-280500</v>
       </c>
       <c r="F94" s="3">
-        <v>-291500</v>
+        <v>-290700</v>
       </c>
       <c r="G94" s="3">
-        <v>-331200</v>
+        <v>-330300</v>
       </c>
       <c r="H94" s="3">
-        <v>-260000</v>
+        <v>-259300</v>
       </c>
       <c r="I94" s="3">
-        <v>-333900</v>
+        <v>-333000</v>
       </c>
       <c r="J94" s="3">
-        <v>-312000</v>
+        <v>-311200</v>
       </c>
       <c r="K94" s="3">
         <v>7200</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-225800</v>
+        <v>-225200</v>
       </c>
       <c r="E96" s="3">
-        <v>-314000</v>
+        <v>-313200</v>
       </c>
       <c r="F96" s="3">
-        <v>-314000</v>
+        <v>-313200</v>
       </c>
       <c r="G96" s="3">
-        <v>-313400</v>
+        <v>-312500</v>
       </c>
       <c r="H96" s="3">
-        <v>-313400</v>
+        <v>-312500</v>
       </c>
       <c r="I96" s="3">
-        <v>-294200</v>
+        <v>-293400</v>
       </c>
       <c r="J96" s="3">
-        <v>-203900</v>
+        <v>-203400</v>
       </c>
       <c r="K96" s="3">
         <v>-195900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-308600</v>
+        <v>-307800</v>
       </c>
       <c r="E100" s="3">
-        <v>-337300</v>
+        <v>-336400</v>
       </c>
       <c r="F100" s="3">
-        <v>-240800</v>
+        <v>-240200</v>
       </c>
       <c r="G100" s="3">
-        <v>-227800</v>
+        <v>-227200</v>
       </c>
       <c r="H100" s="3">
-        <v>-230600</v>
+        <v>-230000</v>
       </c>
       <c r="I100" s="3">
-        <v>-175200</v>
+        <v>-174700</v>
       </c>
       <c r="J100" s="3">
-        <v>-208000</v>
+        <v>-207400</v>
       </c>
       <c r="K100" s="3">
         <v>-383000</v>
@@ -3756,16 +3756,16 @@
         <v>-700</v>
       </c>
       <c r="G102" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-19200</v>
+        <v>-19100</v>
       </c>
       <c r="J102" s="3">
-        <v>-87600</v>
+        <v>-87300</v>
       </c>
       <c r="K102" s="3">
         <v>65000</v>

--- a/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2433400</v>
+        <v>2427400</v>
       </c>
       <c r="E8" s="3">
-        <v>2451900</v>
+        <v>2445800</v>
       </c>
       <c r="F8" s="3">
-        <v>2402000</v>
+        <v>2396100</v>
       </c>
       <c r="G8" s="3">
-        <v>2410900</v>
+        <v>2404900</v>
       </c>
       <c r="H8" s="3">
-        <v>2452500</v>
+        <v>2446400</v>
       </c>
       <c r="I8" s="3">
-        <v>2386400</v>
+        <v>2380400</v>
       </c>
       <c r="J8" s="3">
-        <v>2387700</v>
+        <v>2381800</v>
       </c>
       <c r="K8" s="3">
         <v>2622000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1143700</v>
+        <v>1140900</v>
       </c>
       <c r="E9" s="3">
-        <v>1134100</v>
+        <v>1131300</v>
       </c>
       <c r="F9" s="3">
-        <v>1108900</v>
+        <v>1106100</v>
       </c>
       <c r="G9" s="3">
-        <v>2199400</v>
+        <v>2193900</v>
       </c>
       <c r="H9" s="3">
-        <v>1095900</v>
+        <v>1093200</v>
       </c>
       <c r="I9" s="3">
-        <v>1072700</v>
+        <v>1070100</v>
       </c>
       <c r="J9" s="3">
-        <v>1083700</v>
+        <v>1081000</v>
       </c>
       <c r="K9" s="3">
         <v>1250300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1289700</v>
+        <v>1286500</v>
       </c>
       <c r="E10" s="3">
-        <v>1317700</v>
+        <v>1314400</v>
       </c>
       <c r="F10" s="3">
-        <v>1293100</v>
+        <v>1289900</v>
       </c>
       <c r="G10" s="3">
-        <v>211500</v>
+        <v>211000</v>
       </c>
       <c r="H10" s="3">
-        <v>1356600</v>
+        <v>1353200</v>
       </c>
       <c r="I10" s="3">
-        <v>1313600</v>
+        <v>1310300</v>
       </c>
       <c r="J10" s="3">
-        <v>1304100</v>
+        <v>1300800</v>
       </c>
       <c r="K10" s="3">
         <v>1371700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>356900</v>
+        <v>356000</v>
       </c>
       <c r="E15" s="3">
-        <v>333000</v>
+        <v>332200</v>
       </c>
       <c r="F15" s="3">
-        <v>325500</v>
+        <v>324700</v>
       </c>
       <c r="G15" s="3">
-        <v>434000</v>
+        <v>432900</v>
       </c>
       <c r="H15" s="3">
-        <v>293400</v>
+        <v>292700</v>
       </c>
       <c r="I15" s="3">
-        <v>304400</v>
+        <v>303600</v>
       </c>
       <c r="J15" s="3">
-        <v>309100</v>
+        <v>308400</v>
       </c>
       <c r="K15" s="3">
         <v>325900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2023300</v>
+        <v>2019000</v>
       </c>
       <c r="E17" s="3">
-        <v>2025400</v>
+        <v>2020300</v>
       </c>
       <c r="F17" s="3">
-        <v>1974200</v>
+        <v>1969300</v>
       </c>
       <c r="G17" s="3">
-        <v>2037600</v>
+        <v>2032600</v>
       </c>
       <c r="H17" s="3">
-        <v>2052700</v>
+        <v>2047500</v>
       </c>
       <c r="I17" s="3">
-        <v>2017900</v>
+        <v>2012800</v>
       </c>
       <c r="J17" s="3">
-        <v>2040400</v>
+        <v>2035300</v>
       </c>
       <c r="K17" s="3">
         <v>2271400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>410100</v>
+        <v>408400</v>
       </c>
       <c r="E18" s="3">
-        <v>426500</v>
+        <v>425400</v>
       </c>
       <c r="F18" s="3">
-        <v>427900</v>
+        <v>426800</v>
       </c>
       <c r="G18" s="3">
-        <v>373300</v>
+        <v>372300</v>
       </c>
       <c r="H18" s="3">
-        <v>399900</v>
+        <v>398900</v>
       </c>
       <c r="I18" s="3">
-        <v>368500</v>
+        <v>367600</v>
       </c>
       <c r="J18" s="3">
-        <v>347300</v>
+        <v>346500</v>
       </c>
       <c r="K18" s="3">
         <v>350500</v>
@@ -1089,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22500</v>
+        <v>23100</v>
       </c>
       <c r="E20" s="3">
         <v>25200</v>
@@ -1098,7 +1098,7 @@
         <v>25200</v>
       </c>
       <c r="G20" s="3">
-        <v>23900</v>
+        <v>23800</v>
       </c>
       <c r="H20" s="3">
         <v>10900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>789600</v>
+        <v>789200</v>
       </c>
       <c r="E21" s="3">
-        <v>778700</v>
+        <v>778200</v>
       </c>
       <c r="F21" s="3">
-        <v>778700</v>
+        <v>778200</v>
       </c>
       <c r="G21" s="3">
-        <v>725500</v>
+        <v>725100</v>
       </c>
       <c r="H21" s="3">
-        <v>704300</v>
+        <v>703800</v>
       </c>
       <c r="I21" s="3">
-        <v>685200</v>
+        <v>684800</v>
       </c>
       <c r="J21" s="3">
-        <v>675000</v>
+        <v>674600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,22 +1161,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>55300</v>
+        <v>55100</v>
       </c>
       <c r="E22" s="3">
-        <v>64100</v>
+        <v>64000</v>
       </c>
       <c r="F22" s="3">
-        <v>58000</v>
+        <v>57900</v>
       </c>
       <c r="G22" s="3">
-        <v>52500</v>
+        <v>52400</v>
       </c>
       <c r="H22" s="3">
-        <v>28700</v>
+        <v>28600</v>
       </c>
       <c r="I22" s="3">
-        <v>31400</v>
+        <v>31300</v>
       </c>
       <c r="J22" s="3">
         <v>36800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>377400</v>
+        <v>376400</v>
       </c>
       <c r="E23" s="3">
-        <v>387600</v>
+        <v>386600</v>
       </c>
       <c r="F23" s="3">
-        <v>395100</v>
+        <v>394100</v>
       </c>
       <c r="G23" s="3">
-        <v>344600</v>
+        <v>343800</v>
       </c>
       <c r="H23" s="3">
-        <v>382100</v>
+        <v>381200</v>
       </c>
       <c r="I23" s="3">
-        <v>349400</v>
+        <v>348500</v>
       </c>
       <c r="J23" s="3">
-        <v>328900</v>
+        <v>328100</v>
       </c>
       <c r="K23" s="3">
         <v>328100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>115300</v>
+        <v>115000</v>
       </c>
       <c r="E24" s="3">
-        <v>101000</v>
+        <v>100700</v>
       </c>
       <c r="F24" s="3">
-        <v>116000</v>
+        <v>115700</v>
       </c>
       <c r="G24" s="3">
-        <v>95500</v>
+        <v>95300</v>
       </c>
       <c r="H24" s="3">
-        <v>96900</v>
+        <v>96700</v>
       </c>
       <c r="I24" s="3">
-        <v>96900</v>
+        <v>96700</v>
       </c>
       <c r="J24" s="3">
-        <v>73000</v>
+        <v>72800</v>
       </c>
       <c r="K24" s="3">
         <v>94700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>262000</v>
+        <v>261400</v>
       </c>
       <c r="E26" s="3">
-        <v>286600</v>
+        <v>285900</v>
       </c>
       <c r="F26" s="3">
-        <v>279100</v>
+        <v>278400</v>
       </c>
       <c r="G26" s="3">
-        <v>249100</v>
+        <v>248500</v>
       </c>
       <c r="H26" s="3">
-        <v>285200</v>
+        <v>284500</v>
       </c>
       <c r="I26" s="3">
-        <v>252500</v>
+        <v>251900</v>
       </c>
       <c r="J26" s="3">
-        <v>255900</v>
+        <v>255300</v>
       </c>
       <c r="K26" s="3">
         <v>233400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>262000</v>
+        <v>261400</v>
       </c>
       <c r="E27" s="3">
-        <v>286600</v>
+        <v>285900</v>
       </c>
       <c r="F27" s="3">
-        <v>279100</v>
+        <v>278400</v>
       </c>
       <c r="G27" s="3">
-        <v>249100</v>
+        <v>248500</v>
       </c>
       <c r="H27" s="3">
-        <v>285200</v>
+        <v>284500</v>
       </c>
       <c r="I27" s="3">
-        <v>252500</v>
+        <v>251900</v>
       </c>
       <c r="J27" s="3">
-        <v>254500</v>
+        <v>253900</v>
       </c>
       <c r="K27" s="3">
         <v>232000</v>
@@ -1521,7 +1521,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22500</v>
+        <v>-23100</v>
       </c>
       <c r="E32" s="3">
         <v>-25200</v>
@@ -1530,7 +1530,7 @@
         <v>-25200</v>
       </c>
       <c r="G32" s="3">
-        <v>-23900</v>
+        <v>-23800</v>
       </c>
       <c r="H32" s="3">
         <v>-10900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>262000</v>
+        <v>261400</v>
       </c>
       <c r="E33" s="3">
-        <v>286600</v>
+        <v>285900</v>
       </c>
       <c r="F33" s="3">
-        <v>279100</v>
+        <v>278400</v>
       </c>
       <c r="G33" s="3">
-        <v>249100</v>
+        <v>248500</v>
       </c>
       <c r="H33" s="3">
-        <v>285200</v>
+        <v>284500</v>
       </c>
       <c r="I33" s="3">
-        <v>252500</v>
+        <v>251900</v>
       </c>
       <c r="J33" s="3">
-        <v>254500</v>
+        <v>253900</v>
       </c>
       <c r="K33" s="3">
         <v>331000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>262000</v>
+        <v>261400</v>
       </c>
       <c r="E35" s="3">
-        <v>286600</v>
+        <v>285900</v>
       </c>
       <c r="F35" s="3">
-        <v>279100</v>
+        <v>278400</v>
       </c>
       <c r="G35" s="3">
-        <v>249100</v>
+        <v>248500</v>
       </c>
       <c r="H35" s="3">
-        <v>285200</v>
+        <v>284500</v>
       </c>
       <c r="I35" s="3">
-        <v>252500</v>
+        <v>251900</v>
       </c>
       <c r="J35" s="3">
-        <v>254500</v>
+        <v>253900</v>
       </c>
       <c r="K35" s="3">
         <v>331000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>49100</v>
+        <v>49000</v>
       </c>
       <c r="E41" s="3">
-        <v>36200</v>
+        <v>36100</v>
       </c>
       <c r="F41" s="3">
         <v>36800</v>
       </c>
       <c r="G41" s="3">
-        <v>37500</v>
+        <v>37400</v>
       </c>
       <c r="H41" s="3">
-        <v>35500</v>
+        <v>35400</v>
       </c>
       <c r="I41" s="3">
-        <v>35500</v>
+        <v>35400</v>
       </c>
       <c r="J41" s="3">
-        <v>54600</v>
+        <v>54500</v>
       </c>
       <c r="K41" s="3">
         <v>150300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>401300</v>
+        <v>923000</v>
       </c>
       <c r="E43" s="3">
-        <v>423800</v>
+        <v>422700</v>
       </c>
       <c r="F43" s="3">
-        <v>419700</v>
+        <v>418600</v>
       </c>
       <c r="G43" s="3">
-        <v>829100</v>
+        <v>827100</v>
       </c>
       <c r="H43" s="3">
-        <v>361000</v>
+        <v>360100</v>
       </c>
       <c r="I43" s="3">
-        <v>295500</v>
+        <v>294700</v>
       </c>
       <c r="J43" s="3">
-        <v>242300</v>
+        <v>241600</v>
       </c>
       <c r="K43" s="3">
         <v>315800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>43700</v>
+        <v>87100</v>
       </c>
       <c r="E44" s="3">
-        <v>65500</v>
+        <v>65300</v>
       </c>
       <c r="F44" s="3">
-        <v>68200</v>
+        <v>68100</v>
       </c>
       <c r="G44" s="3">
-        <v>107800</v>
+        <v>107600</v>
       </c>
       <c r="H44" s="3">
-        <v>64100</v>
+        <v>64000</v>
       </c>
       <c r="I44" s="3">
-        <v>55300</v>
+        <v>55100</v>
       </c>
       <c r="J44" s="3">
-        <v>47800</v>
+        <v>47600</v>
       </c>
       <c r="K44" s="3">
         <v>36100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>131000</v>
+        <v>130700</v>
       </c>
       <c r="E45" s="3">
-        <v>128300</v>
+        <v>128000</v>
       </c>
       <c r="F45" s="3">
-        <v>96900</v>
+        <v>96700</v>
       </c>
       <c r="G45" s="3">
-        <v>84600</v>
+        <v>84400</v>
       </c>
       <c r="H45" s="3">
-        <v>55300</v>
+        <v>55100</v>
       </c>
       <c r="I45" s="3">
-        <v>56600</v>
+        <v>56500</v>
       </c>
       <c r="J45" s="3">
-        <v>109900</v>
+        <v>109600</v>
       </c>
       <c r="K45" s="3">
         <v>105500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>625100</v>
+        <v>623500</v>
       </c>
       <c r="E46" s="3">
-        <v>653700</v>
+        <v>652100</v>
       </c>
       <c r="F46" s="3">
-        <v>621700</v>
+        <v>620100</v>
       </c>
       <c r="G46" s="3">
-        <v>550700</v>
+        <v>549300</v>
       </c>
       <c r="H46" s="3">
-        <v>515900</v>
+        <v>514600</v>
       </c>
       <c r="I46" s="3">
-        <v>442900</v>
+        <v>441800</v>
       </c>
       <c r="J46" s="3">
-        <v>454500</v>
+        <v>453300</v>
       </c>
       <c r="K46" s="3">
         <v>607800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>339800</v>
+        <v>493500</v>
       </c>
       <c r="E47" s="3">
-        <v>404000</v>
+        <v>403000</v>
       </c>
       <c r="F47" s="3">
-        <v>322800</v>
+        <v>322000</v>
       </c>
       <c r="G47" s="3">
-        <v>498200</v>
+        <v>496900</v>
       </c>
       <c r="H47" s="3">
-        <v>235400</v>
+        <v>234800</v>
       </c>
       <c r="I47" s="3">
-        <v>232700</v>
+        <v>232100</v>
       </c>
       <c r="J47" s="3">
-        <v>214300</v>
+        <v>213700</v>
       </c>
       <c r="K47" s="3">
         <v>219700</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1231000</v>
+        <v>2456000</v>
       </c>
       <c r="E48" s="3">
-        <v>1300000</v>
+        <v>1296700</v>
       </c>
       <c r="F48" s="3">
-        <v>1154600</v>
+        <v>1151700</v>
       </c>
       <c r="G48" s="3">
-        <v>1867000</v>
+        <v>1862400</v>
       </c>
       <c r="H48" s="3">
-        <v>730200</v>
+        <v>728300</v>
       </c>
       <c r="I48" s="3">
-        <v>753400</v>
+        <v>751500</v>
       </c>
       <c r="J48" s="3">
-        <v>754100</v>
+        <v>752200</v>
       </c>
       <c r="K48" s="3">
         <v>795700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>594400</v>
+        <v>1176900</v>
       </c>
       <c r="E49" s="3">
-        <v>575300</v>
+        <v>573800</v>
       </c>
       <c r="F49" s="3">
-        <v>673500</v>
+        <v>671900</v>
       </c>
       <c r="G49" s="3">
-        <v>1476000</v>
+        <v>1472400</v>
       </c>
       <c r="H49" s="3">
-        <v>786800</v>
+        <v>784800</v>
       </c>
       <c r="I49" s="3">
-        <v>771800</v>
+        <v>769900</v>
       </c>
       <c r="J49" s="3">
-        <v>764300</v>
+        <v>762400</v>
       </c>
       <c r="K49" s="3">
         <v>716900</v>
@@ -2134,10 +2134,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="E52" s="3">
-        <v>40900</v>
+        <v>40800</v>
       </c>
       <c r="F52" s="3">
         <v>21800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2806700</v>
+        <v>2790900</v>
       </c>
       <c r="E54" s="3">
-        <v>2973900</v>
+        <v>2966500</v>
       </c>
       <c r="F54" s="3">
-        <v>2794400</v>
+        <v>2787500</v>
       </c>
       <c r="G54" s="3">
-        <v>2623100</v>
+        <v>2616600</v>
       </c>
       <c r="H54" s="3">
-        <v>2273100</v>
+        <v>2267400</v>
       </c>
       <c r="I54" s="3">
-        <v>2208900</v>
+        <v>2203400</v>
       </c>
       <c r="J54" s="3">
-        <v>2187800</v>
+        <v>2182300</v>
       </c>
       <c r="K54" s="3">
         <v>2343700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>184200</v>
+        <v>509800</v>
       </c>
       <c r="E57" s="3">
-        <v>182200</v>
+        <v>181700</v>
       </c>
       <c r="F57" s="3">
-        <v>176100</v>
+        <v>175600</v>
       </c>
       <c r="G57" s="3">
-        <v>521400</v>
+        <v>520100</v>
       </c>
       <c r="H57" s="3">
-        <v>184900</v>
+        <v>184500</v>
       </c>
       <c r="I57" s="3">
-        <v>189000</v>
+        <v>188600</v>
       </c>
       <c r="J57" s="3">
-        <v>238200</v>
+        <v>237600</v>
       </c>
       <c r="K57" s="3">
         <v>283300</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>318700</v>
+        <v>464200</v>
       </c>
       <c r="E58" s="3">
-        <v>204700</v>
+        <v>204200</v>
       </c>
       <c r="F58" s="3">
-        <v>326200</v>
+        <v>325400</v>
       </c>
       <c r="G58" s="3">
-        <v>193800</v>
+        <v>193300</v>
       </c>
       <c r="H58" s="3">
-        <v>201300</v>
+        <v>200800</v>
       </c>
       <c r="I58" s="3">
-        <v>129700</v>
+        <v>129300</v>
       </c>
       <c r="J58" s="3">
-        <v>103000</v>
+        <v>102800</v>
       </c>
       <c r="K58" s="3">
         <v>83800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>137800</v>
+        <v>137500</v>
       </c>
       <c r="E59" s="3">
-        <v>166500</v>
+        <v>166100</v>
       </c>
       <c r="F59" s="3">
-        <v>141900</v>
+        <v>141600</v>
       </c>
       <c r="G59" s="3">
-        <v>155600</v>
+        <v>155200</v>
       </c>
       <c r="H59" s="3">
-        <v>153500</v>
+        <v>153200</v>
       </c>
       <c r="I59" s="3">
-        <v>126900</v>
+        <v>126600</v>
       </c>
       <c r="J59" s="3">
-        <v>148100</v>
+        <v>147700</v>
       </c>
       <c r="K59" s="3">
         <v>191500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>640800</v>
+        <v>639200</v>
       </c>
       <c r="E60" s="3">
-        <v>553400</v>
+        <v>552000</v>
       </c>
       <c r="F60" s="3">
-        <v>644200</v>
+        <v>642600</v>
       </c>
       <c r="G60" s="3">
-        <v>517900</v>
+        <v>516700</v>
       </c>
       <c r="H60" s="3">
-        <v>539800</v>
+        <v>538400</v>
       </c>
       <c r="I60" s="3">
-        <v>445600</v>
+        <v>444500</v>
       </c>
       <c r="J60" s="3">
-        <v>489300</v>
+        <v>488100</v>
       </c>
       <c r="K60" s="3">
         <v>558600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>979900</v>
+        <v>977500</v>
       </c>
       <c r="E61" s="3">
-        <v>1211300</v>
+        <v>1208200</v>
       </c>
       <c r="F61" s="3">
-        <v>969700</v>
+        <v>967300</v>
       </c>
       <c r="G61" s="3">
-        <v>952600</v>
+        <v>950300</v>
       </c>
       <c r="H61" s="3">
-        <v>472200</v>
+        <v>471000</v>
       </c>
       <c r="I61" s="3">
-        <v>467400</v>
+        <v>466300</v>
       </c>
       <c r="J61" s="3">
-        <v>370500</v>
+        <v>369600</v>
       </c>
       <c r="K61" s="3">
         <v>417700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>160400</v>
+        <v>158600</v>
       </c>
       <c r="E62" s="3">
-        <v>203400</v>
+        <v>202800</v>
       </c>
       <c r="F62" s="3">
-        <v>180800</v>
+        <v>180400</v>
       </c>
       <c r="G62" s="3">
-        <v>154900</v>
+        <v>154500</v>
       </c>
       <c r="H62" s="3">
-        <v>134400</v>
+        <v>134100</v>
       </c>
       <c r="I62" s="3">
-        <v>146700</v>
+        <v>146400</v>
       </c>
       <c r="J62" s="3">
-        <v>114600</v>
+        <v>114400</v>
       </c>
       <c r="K62" s="3">
         <v>133000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1781100</v>
+        <v>1775300</v>
       </c>
       <c r="E66" s="3">
-        <v>1968000</v>
+        <v>1963100</v>
       </c>
       <c r="F66" s="3">
-        <v>1794700</v>
+        <v>1790200</v>
       </c>
       <c r="G66" s="3">
-        <v>1611100</v>
+        <v>1607100</v>
       </c>
       <c r="H66" s="3">
-        <v>1146400</v>
+        <v>1143600</v>
       </c>
       <c r="I66" s="3">
-        <v>1059800</v>
+        <v>1057100</v>
       </c>
       <c r="J66" s="3">
-        <v>974500</v>
+        <v>972000</v>
       </c>
       <c r="K66" s="3">
         <v>1113700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>541100</v>
+        <v>532300</v>
       </c>
       <c r="E72" s="3">
-        <v>600500</v>
+        <v>599000</v>
       </c>
       <c r="F72" s="3">
-        <v>635300</v>
+        <v>633700</v>
       </c>
       <c r="G72" s="3">
-        <v>669400</v>
+        <v>667800</v>
       </c>
       <c r="H72" s="3">
-        <v>769100</v>
+        <v>767100</v>
       </c>
       <c r="I72" s="3">
-        <v>799100</v>
+        <v>797100</v>
       </c>
       <c r="J72" s="3">
-        <v>840700</v>
+        <v>838600</v>
       </c>
       <c r="K72" s="3">
         <v>855700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1025600</v>
+        <v>1015600</v>
       </c>
       <c r="E76" s="3">
-        <v>1005900</v>
+        <v>1003400</v>
       </c>
       <c r="F76" s="3">
-        <v>999700</v>
+        <v>997200</v>
       </c>
       <c r="G76" s="3">
-        <v>1012000</v>
+        <v>1009500</v>
       </c>
       <c r="H76" s="3">
-        <v>1126600</v>
+        <v>1123800</v>
       </c>
       <c r="I76" s="3">
-        <v>1149200</v>
+        <v>1146300</v>
       </c>
       <c r="J76" s="3">
-        <v>1213300</v>
+        <v>1210300</v>
       </c>
       <c r="K76" s="3">
         <v>1230000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>262000</v>
+        <v>261400</v>
       </c>
       <c r="E81" s="3">
-        <v>286600</v>
+        <v>285900</v>
       </c>
       <c r="F81" s="3">
-        <v>279100</v>
+        <v>278400</v>
       </c>
       <c r="G81" s="3">
-        <v>249100</v>
+        <v>248500</v>
       </c>
       <c r="H81" s="3">
-        <v>285200</v>
+        <v>284500</v>
       </c>
       <c r="I81" s="3">
-        <v>252500</v>
+        <v>251900</v>
       </c>
       <c r="J81" s="3">
-        <v>254500</v>
+        <v>253900</v>
       </c>
       <c r="K81" s="3">
         <v>331000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>356900</v>
+        <v>356000</v>
       </c>
       <c r="E83" s="3">
-        <v>326900</v>
+        <v>326100</v>
       </c>
       <c r="F83" s="3">
-        <v>325500</v>
+        <v>324700</v>
       </c>
       <c r="G83" s="3">
-        <v>328200</v>
+        <v>327400</v>
       </c>
       <c r="H83" s="3">
-        <v>293400</v>
+        <v>292700</v>
       </c>
       <c r="I83" s="3">
-        <v>304400</v>
+        <v>303600</v>
       </c>
       <c r="J83" s="3">
-        <v>309100</v>
+        <v>308400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>585500</v>
+        <v>584000</v>
       </c>
       <c r="E89" s="3">
-        <v>616200</v>
+        <v>614700</v>
       </c>
       <c r="F89" s="3">
-        <v>530200</v>
+        <v>528900</v>
       </c>
       <c r="G89" s="3">
-        <v>559600</v>
+        <v>558200</v>
       </c>
       <c r="H89" s="3">
-        <v>489300</v>
+        <v>488100</v>
       </c>
       <c r="I89" s="3">
-        <v>488600</v>
+        <v>487400</v>
       </c>
       <c r="J89" s="3">
-        <v>429900</v>
+        <v>428800</v>
       </c>
       <c r="K89" s="3">
         <v>442300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-228600</v>
+        <v>-228000</v>
       </c>
       <c r="E91" s="3">
-        <v>-268200</v>
+        <v>-267500</v>
       </c>
       <c r="F91" s="3">
-        <v>-283200</v>
+        <v>-282500</v>
       </c>
       <c r="G91" s="3">
-        <v>-282500</v>
+        <v>-281800</v>
       </c>
       <c r="H91" s="3">
-        <v>-271600</v>
+        <v>-270900</v>
       </c>
       <c r="I91" s="3">
-        <v>-285200</v>
+        <v>-284500</v>
       </c>
       <c r="J91" s="3">
-        <v>-399900</v>
+        <v>-398900</v>
       </c>
       <c r="K91" s="3">
         <v>-349100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-264800</v>
+        <v>-264100</v>
       </c>
       <c r="E94" s="3">
-        <v>-280500</v>
+        <v>-279800</v>
       </c>
       <c r="F94" s="3">
-        <v>-290700</v>
+        <v>-290000</v>
       </c>
       <c r="G94" s="3">
-        <v>-330300</v>
+        <v>-329500</v>
       </c>
       <c r="H94" s="3">
-        <v>-259300</v>
+        <v>-258700</v>
       </c>
       <c r="I94" s="3">
-        <v>-333000</v>
+        <v>-332200</v>
       </c>
       <c r="J94" s="3">
-        <v>-311200</v>
+        <v>-310400</v>
       </c>
       <c r="K94" s="3">
         <v>7200</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-225200</v>
+        <v>-224600</v>
       </c>
       <c r="E96" s="3">
-        <v>-313200</v>
+        <v>-312400</v>
       </c>
       <c r="F96" s="3">
-        <v>-313200</v>
+        <v>-312400</v>
       </c>
       <c r="G96" s="3">
-        <v>-312500</v>
+        <v>-311800</v>
       </c>
       <c r="H96" s="3">
-        <v>-312500</v>
+        <v>-311800</v>
       </c>
       <c r="I96" s="3">
-        <v>-293400</v>
+        <v>-292700</v>
       </c>
       <c r="J96" s="3">
-        <v>-203400</v>
+        <v>-202800</v>
       </c>
       <c r="K96" s="3">
         <v>-195900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-307800</v>
+        <v>-307000</v>
       </c>
       <c r="E100" s="3">
-        <v>-336400</v>
+        <v>-335600</v>
       </c>
       <c r="F100" s="3">
-        <v>-240200</v>
+        <v>-239600</v>
       </c>
       <c r="G100" s="3">
-        <v>-227200</v>
+        <v>-226700</v>
       </c>
       <c r="H100" s="3">
-        <v>-230000</v>
+        <v>-229400</v>
       </c>
       <c r="I100" s="3">
-        <v>-174700</v>
+        <v>-174300</v>
       </c>
       <c r="J100" s="3">
-        <v>-207400</v>
+        <v>-206900</v>
       </c>
       <c r="K100" s="3">
         <v>-383000</v>
@@ -3747,7 +3747,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="E102" s="3">
         <v>-700</v>
@@ -3765,7 +3765,7 @@
         <v>-19100</v>
       </c>
       <c r="J102" s="3">
-        <v>-87300</v>
+        <v>-87100</v>
       </c>
       <c r="K102" s="3">
         <v>65000</v>

--- a/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2427400</v>
+        <v>2221600</v>
       </c>
       <c r="E8" s="3">
-        <v>2445800</v>
+        <v>2238400</v>
       </c>
       <c r="F8" s="3">
-        <v>2396100</v>
+        <v>2193000</v>
       </c>
       <c r="G8" s="3">
-        <v>2404900</v>
+        <v>2201100</v>
       </c>
       <c r="H8" s="3">
-        <v>2446400</v>
+        <v>2239100</v>
       </c>
       <c r="I8" s="3">
-        <v>2380400</v>
+        <v>2178600</v>
       </c>
       <c r="J8" s="3">
-        <v>2381800</v>
+        <v>2179900</v>
       </c>
       <c r="K8" s="3">
         <v>2622000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1140900</v>
+        <v>1044100</v>
       </c>
       <c r="E9" s="3">
-        <v>1131300</v>
+        <v>1035400</v>
       </c>
       <c r="F9" s="3">
-        <v>1106100</v>
+        <v>1012400</v>
       </c>
       <c r="G9" s="3">
-        <v>2193900</v>
+        <v>2007900</v>
       </c>
       <c r="H9" s="3">
-        <v>1093200</v>
+        <v>1000500</v>
       </c>
       <c r="I9" s="3">
-        <v>1070100</v>
+        <v>979400</v>
       </c>
       <c r="J9" s="3">
-        <v>1081000</v>
+        <v>989300</v>
       </c>
       <c r="K9" s="3">
         <v>1250300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1286500</v>
+        <v>1177500</v>
       </c>
       <c r="E10" s="3">
-        <v>1314400</v>
+        <v>1203000</v>
       </c>
       <c r="F10" s="3">
-        <v>1289900</v>
+        <v>1180600</v>
       </c>
       <c r="G10" s="3">
-        <v>211000</v>
+        <v>193100</v>
       </c>
       <c r="H10" s="3">
-        <v>1353200</v>
+        <v>1238500</v>
       </c>
       <c r="I10" s="3">
-        <v>1310300</v>
+        <v>1199300</v>
       </c>
       <c r="J10" s="3">
-        <v>1300800</v>
+        <v>1190600</v>
       </c>
       <c r="K10" s="3">
         <v>1371700</v>
@@ -916,22 +916,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-10900</v>
+        <v>-10000</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G14" s="3">
-        <v>4800</v>
+        <v>4400</v>
       </c>
       <c r="H14" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="I14" s="3">
-        <v>6100</v>
+        <v>5600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>356000</v>
+        <v>325800</v>
       </c>
       <c r="E15" s="3">
-        <v>332200</v>
+        <v>304000</v>
       </c>
       <c r="F15" s="3">
-        <v>324700</v>
+        <v>297200</v>
       </c>
       <c r="G15" s="3">
-        <v>432900</v>
+        <v>396200</v>
       </c>
       <c r="H15" s="3">
-        <v>292700</v>
+        <v>267900</v>
       </c>
       <c r="I15" s="3">
-        <v>303600</v>
+        <v>277900</v>
       </c>
       <c r="J15" s="3">
-        <v>308400</v>
+        <v>282200</v>
       </c>
       <c r="K15" s="3">
         <v>325900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2019000</v>
+        <v>1847800</v>
       </c>
       <c r="E17" s="3">
-        <v>2020300</v>
+        <v>1849100</v>
       </c>
       <c r="F17" s="3">
-        <v>1969300</v>
+        <v>1802300</v>
       </c>
       <c r="G17" s="3">
-        <v>2032600</v>
+        <v>1860300</v>
       </c>
       <c r="H17" s="3">
-        <v>2047500</v>
+        <v>1874000</v>
       </c>
       <c r="I17" s="3">
-        <v>2012800</v>
+        <v>1842200</v>
       </c>
       <c r="J17" s="3">
-        <v>2035300</v>
+        <v>1862800</v>
       </c>
       <c r="K17" s="3">
         <v>2271400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>408400</v>
+        <v>373800</v>
       </c>
       <c r="E18" s="3">
-        <v>425400</v>
+        <v>389400</v>
       </c>
       <c r="F18" s="3">
-        <v>426800</v>
+        <v>390600</v>
       </c>
       <c r="G18" s="3">
-        <v>372300</v>
+        <v>340800</v>
       </c>
       <c r="H18" s="3">
-        <v>398900</v>
+        <v>365100</v>
       </c>
       <c r="I18" s="3">
-        <v>367600</v>
+        <v>336400</v>
       </c>
       <c r="J18" s="3">
-        <v>346500</v>
+        <v>317100</v>
       </c>
       <c r="K18" s="3">
         <v>350500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E20" s="3">
         <v>23100</v>
       </c>
-      <c r="E20" s="3">
-        <v>25200</v>
-      </c>
       <c r="F20" s="3">
-        <v>25200</v>
+        <v>23100</v>
       </c>
       <c r="G20" s="3">
-        <v>23800</v>
+        <v>21800</v>
       </c>
       <c r="H20" s="3">
-        <v>10900</v>
+        <v>10000</v>
       </c>
       <c r="I20" s="3">
-        <v>12300</v>
+        <v>11200</v>
       </c>
       <c r="J20" s="3">
-        <v>18400</v>
+        <v>16800</v>
       </c>
       <c r="K20" s="3">
         <v>7900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>789200</v>
+        <v>724400</v>
       </c>
       <c r="E21" s="3">
-        <v>778200</v>
+        <v>714100</v>
       </c>
       <c r="F21" s="3">
-        <v>778200</v>
+        <v>714100</v>
       </c>
       <c r="G21" s="3">
-        <v>725100</v>
+        <v>665600</v>
       </c>
       <c r="H21" s="3">
-        <v>703800</v>
+        <v>645900</v>
       </c>
       <c r="I21" s="3">
-        <v>684800</v>
+        <v>628600</v>
       </c>
       <c r="J21" s="3">
-        <v>674600</v>
+        <v>619300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>55100</v>
+        <v>50500</v>
       </c>
       <c r="E22" s="3">
-        <v>64000</v>
+        <v>58600</v>
       </c>
       <c r="F22" s="3">
-        <v>57900</v>
+        <v>53000</v>
       </c>
       <c r="G22" s="3">
-        <v>52400</v>
+        <v>48000</v>
       </c>
       <c r="H22" s="3">
-        <v>28600</v>
+        <v>26200</v>
       </c>
       <c r="I22" s="3">
-        <v>31300</v>
+        <v>28700</v>
       </c>
       <c r="J22" s="3">
-        <v>36800</v>
+        <v>33600</v>
       </c>
       <c r="K22" s="3">
         <v>30400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>376400</v>
+        <v>344500</v>
       </c>
       <c r="E23" s="3">
-        <v>386600</v>
+        <v>353900</v>
       </c>
       <c r="F23" s="3">
-        <v>394100</v>
+        <v>360700</v>
       </c>
       <c r="G23" s="3">
-        <v>343800</v>
+        <v>314600</v>
       </c>
       <c r="H23" s="3">
-        <v>381200</v>
+        <v>348900</v>
       </c>
       <c r="I23" s="3">
-        <v>348500</v>
+        <v>319000</v>
       </c>
       <c r="J23" s="3">
-        <v>328100</v>
+        <v>300300</v>
       </c>
       <c r="K23" s="3">
         <v>328100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>115000</v>
+        <v>105300</v>
       </c>
       <c r="E24" s="3">
-        <v>100700</v>
+        <v>92200</v>
       </c>
       <c r="F24" s="3">
-        <v>115700</v>
+        <v>105900</v>
       </c>
       <c r="G24" s="3">
-        <v>95300</v>
+        <v>87200</v>
       </c>
       <c r="H24" s="3">
-        <v>96700</v>
+        <v>88500</v>
       </c>
       <c r="I24" s="3">
-        <v>96700</v>
+        <v>88500</v>
       </c>
       <c r="J24" s="3">
-        <v>72800</v>
+        <v>66700</v>
       </c>
       <c r="K24" s="3">
         <v>94700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>261400</v>
+        <v>239200</v>
       </c>
       <c r="E26" s="3">
-        <v>285900</v>
+        <v>261700</v>
       </c>
       <c r="F26" s="3">
-        <v>278400</v>
+        <v>254800</v>
       </c>
       <c r="G26" s="3">
-        <v>248500</v>
+        <v>227400</v>
       </c>
       <c r="H26" s="3">
-        <v>284500</v>
+        <v>260400</v>
       </c>
       <c r="I26" s="3">
-        <v>251900</v>
+        <v>230500</v>
       </c>
       <c r="J26" s="3">
-        <v>255300</v>
+        <v>233600</v>
       </c>
       <c r="K26" s="3">
         <v>233400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>261400</v>
+        <v>239200</v>
       </c>
       <c r="E27" s="3">
-        <v>285900</v>
+        <v>261700</v>
       </c>
       <c r="F27" s="3">
-        <v>278400</v>
+        <v>254800</v>
       </c>
       <c r="G27" s="3">
-        <v>248500</v>
+        <v>227400</v>
       </c>
       <c r="H27" s="3">
-        <v>284500</v>
+        <v>260400</v>
       </c>
       <c r="I27" s="3">
-        <v>251900</v>
+        <v>230500</v>
       </c>
       <c r="J27" s="3">
-        <v>253900</v>
+        <v>232400</v>
       </c>
       <c r="K27" s="3">
         <v>232000</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-23100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-25200</v>
-      </c>
       <c r="F32" s="3">
-        <v>-25200</v>
+        <v>-23100</v>
       </c>
       <c r="G32" s="3">
-        <v>-23800</v>
+        <v>-21800</v>
       </c>
       <c r="H32" s="3">
-        <v>-10900</v>
+        <v>-10000</v>
       </c>
       <c r="I32" s="3">
-        <v>-12300</v>
+        <v>-11200</v>
       </c>
       <c r="J32" s="3">
-        <v>-18400</v>
+        <v>-16800</v>
       </c>
       <c r="K32" s="3">
         <v>-7900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>261400</v>
+        <v>239200</v>
       </c>
       <c r="E33" s="3">
-        <v>285900</v>
+        <v>261700</v>
       </c>
       <c r="F33" s="3">
-        <v>278400</v>
+        <v>254800</v>
       </c>
       <c r="G33" s="3">
-        <v>248500</v>
+        <v>227400</v>
       </c>
       <c r="H33" s="3">
-        <v>284500</v>
+        <v>260400</v>
       </c>
       <c r="I33" s="3">
-        <v>251900</v>
+        <v>230500</v>
       </c>
       <c r="J33" s="3">
-        <v>253900</v>
+        <v>232400</v>
       </c>
       <c r="K33" s="3">
         <v>331000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>261400</v>
+        <v>239200</v>
       </c>
       <c r="E35" s="3">
-        <v>285900</v>
+        <v>261700</v>
       </c>
       <c r="F35" s="3">
-        <v>278400</v>
+        <v>254800</v>
       </c>
       <c r="G35" s="3">
-        <v>248500</v>
+        <v>227400</v>
       </c>
       <c r="H35" s="3">
-        <v>284500</v>
+        <v>260400</v>
       </c>
       <c r="I35" s="3">
-        <v>251900</v>
+        <v>230500</v>
       </c>
       <c r="J35" s="3">
-        <v>253900</v>
+        <v>232400</v>
       </c>
       <c r="K35" s="3">
         <v>331000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>49000</v>
+        <v>44900</v>
       </c>
       <c r="E41" s="3">
-        <v>36100</v>
+        <v>33000</v>
       </c>
       <c r="F41" s="3">
-        <v>36800</v>
+        <v>33600</v>
       </c>
       <c r="G41" s="3">
-        <v>37400</v>
+        <v>34300</v>
       </c>
       <c r="H41" s="3">
-        <v>35400</v>
+        <v>32400</v>
       </c>
       <c r="I41" s="3">
-        <v>35400</v>
+        <v>32400</v>
       </c>
       <c r="J41" s="3">
-        <v>54500</v>
+        <v>49800</v>
       </c>
       <c r="K41" s="3">
         <v>150300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>923000</v>
+        <v>844800</v>
       </c>
       <c r="E43" s="3">
-        <v>422700</v>
+        <v>386900</v>
       </c>
       <c r="F43" s="3">
-        <v>418600</v>
+        <v>383100</v>
       </c>
       <c r="G43" s="3">
-        <v>827100</v>
+        <v>756900</v>
       </c>
       <c r="H43" s="3">
-        <v>360100</v>
+        <v>329600</v>
       </c>
       <c r="I43" s="3">
-        <v>294700</v>
+        <v>269800</v>
       </c>
       <c r="J43" s="3">
-        <v>241600</v>
+        <v>221200</v>
       </c>
       <c r="K43" s="3">
         <v>315800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>87100</v>
+        <v>79700</v>
       </c>
       <c r="E44" s="3">
-        <v>65300</v>
+        <v>59800</v>
       </c>
       <c r="F44" s="3">
-        <v>68100</v>
+        <v>62300</v>
       </c>
       <c r="G44" s="3">
-        <v>107600</v>
+        <v>98400</v>
       </c>
       <c r="H44" s="3">
-        <v>64000</v>
+        <v>58600</v>
       </c>
       <c r="I44" s="3">
-        <v>55100</v>
+        <v>50500</v>
       </c>
       <c r="J44" s="3">
-        <v>47600</v>
+        <v>43600</v>
       </c>
       <c r="K44" s="3">
         <v>36100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>130700</v>
+        <v>119600</v>
       </c>
       <c r="E45" s="3">
-        <v>128000</v>
+        <v>117100</v>
       </c>
       <c r="F45" s="3">
-        <v>96700</v>
+        <v>88500</v>
       </c>
       <c r="G45" s="3">
-        <v>84400</v>
+        <v>77300</v>
       </c>
       <c r="H45" s="3">
-        <v>55100</v>
+        <v>50500</v>
       </c>
       <c r="I45" s="3">
-        <v>56500</v>
+        <v>51700</v>
       </c>
       <c r="J45" s="3">
-        <v>109600</v>
+        <v>100300</v>
       </c>
       <c r="K45" s="3">
         <v>105500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>623500</v>
+        <v>570700</v>
       </c>
       <c r="E46" s="3">
-        <v>652100</v>
+        <v>596800</v>
       </c>
       <c r="F46" s="3">
-        <v>620100</v>
+        <v>567600</v>
       </c>
       <c r="G46" s="3">
-        <v>549300</v>
+        <v>502800</v>
       </c>
       <c r="H46" s="3">
-        <v>514600</v>
+        <v>471000</v>
       </c>
       <c r="I46" s="3">
-        <v>441800</v>
+        <v>404300</v>
       </c>
       <c r="J46" s="3">
-        <v>453300</v>
+        <v>414900</v>
       </c>
       <c r="K46" s="3">
         <v>607800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>493500</v>
+        <v>451700</v>
       </c>
       <c r="E47" s="3">
-        <v>403000</v>
+        <v>368800</v>
       </c>
       <c r="F47" s="3">
-        <v>322000</v>
+        <v>294700</v>
       </c>
       <c r="G47" s="3">
-        <v>496900</v>
+        <v>454800</v>
       </c>
       <c r="H47" s="3">
-        <v>234800</v>
+        <v>214900</v>
       </c>
       <c r="I47" s="3">
-        <v>232100</v>
+        <v>212400</v>
       </c>
       <c r="J47" s="3">
-        <v>213700</v>
+        <v>195600</v>
       </c>
       <c r="K47" s="3">
         <v>219700</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2456000</v>
+        <v>2247800</v>
       </c>
       <c r="E48" s="3">
-        <v>1296700</v>
+        <v>1186800</v>
       </c>
       <c r="F48" s="3">
-        <v>1151700</v>
+        <v>1054100</v>
       </c>
       <c r="G48" s="3">
-        <v>1862400</v>
+        <v>1704500</v>
       </c>
       <c r="H48" s="3">
-        <v>728300</v>
+        <v>666600</v>
       </c>
       <c r="I48" s="3">
-        <v>751500</v>
+        <v>687800</v>
       </c>
       <c r="J48" s="3">
-        <v>752200</v>
+        <v>688400</v>
       </c>
       <c r="K48" s="3">
         <v>795700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1176900</v>
+        <v>1077200</v>
       </c>
       <c r="E49" s="3">
-        <v>573800</v>
+        <v>525200</v>
       </c>
       <c r="F49" s="3">
-        <v>671900</v>
+        <v>614900</v>
       </c>
       <c r="G49" s="3">
-        <v>1472400</v>
+        <v>1347500</v>
       </c>
       <c r="H49" s="3">
-        <v>784800</v>
+        <v>718300</v>
       </c>
       <c r="I49" s="3">
-        <v>769900</v>
+        <v>704600</v>
       </c>
       <c r="J49" s="3">
-        <v>762400</v>
+        <v>697800</v>
       </c>
       <c r="K49" s="3">
         <v>716900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16300</v>
+        <v>15000</v>
       </c>
       <c r="E52" s="3">
-        <v>40800</v>
+        <v>37400</v>
       </c>
       <c r="F52" s="3">
-        <v>21800</v>
+        <v>19900</v>
       </c>
       <c r="G52" s="3">
-        <v>6800</v>
+        <v>6200</v>
       </c>
       <c r="H52" s="3">
-        <v>4800</v>
+        <v>4400</v>
       </c>
       <c r="I52" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="J52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K52" s="3">
         <v>3600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2790900</v>
+        <v>2554300</v>
       </c>
       <c r="E54" s="3">
-        <v>2966500</v>
+        <v>2715000</v>
       </c>
       <c r="F54" s="3">
-        <v>2787500</v>
+        <v>2551200</v>
       </c>
       <c r="G54" s="3">
-        <v>2616600</v>
+        <v>2394800</v>
       </c>
       <c r="H54" s="3">
-        <v>2267400</v>
+        <v>2075200</v>
       </c>
       <c r="I54" s="3">
-        <v>2203400</v>
+        <v>2016700</v>
       </c>
       <c r="J54" s="3">
-        <v>2182300</v>
+        <v>1997300</v>
       </c>
       <c r="K54" s="3">
         <v>2343700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>509800</v>
+        <v>466600</v>
       </c>
       <c r="E57" s="3">
-        <v>181700</v>
+        <v>166300</v>
       </c>
       <c r="F57" s="3">
-        <v>175600</v>
+        <v>160700</v>
       </c>
       <c r="G57" s="3">
-        <v>520100</v>
+        <v>476000</v>
       </c>
       <c r="H57" s="3">
-        <v>184500</v>
+        <v>168800</v>
       </c>
       <c r="I57" s="3">
-        <v>188600</v>
+        <v>172600</v>
       </c>
       <c r="J57" s="3">
-        <v>237600</v>
+        <v>217400</v>
       </c>
       <c r="K57" s="3">
         <v>283300</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>464200</v>
+        <v>424900</v>
       </c>
       <c r="E58" s="3">
-        <v>204200</v>
+        <v>186900</v>
       </c>
       <c r="F58" s="3">
-        <v>325400</v>
+        <v>297800</v>
       </c>
       <c r="G58" s="3">
-        <v>193300</v>
+        <v>176900</v>
       </c>
       <c r="H58" s="3">
-        <v>200800</v>
+        <v>183800</v>
       </c>
       <c r="I58" s="3">
-        <v>129300</v>
+        <v>118400</v>
       </c>
       <c r="J58" s="3">
-        <v>102800</v>
+        <v>94100</v>
       </c>
       <c r="K58" s="3">
         <v>83800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>137500</v>
+        <v>125800</v>
       </c>
       <c r="E59" s="3">
-        <v>166100</v>
+        <v>152000</v>
       </c>
       <c r="F59" s="3">
-        <v>141600</v>
+        <v>129600</v>
       </c>
       <c r="G59" s="3">
-        <v>155200</v>
+        <v>142000</v>
       </c>
       <c r="H59" s="3">
-        <v>153200</v>
+        <v>140200</v>
       </c>
       <c r="I59" s="3">
-        <v>126600</v>
+        <v>115900</v>
       </c>
       <c r="J59" s="3">
-        <v>147700</v>
+        <v>135200</v>
       </c>
       <c r="K59" s="3">
         <v>191500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>639200</v>
+        <v>585000</v>
       </c>
       <c r="E60" s="3">
-        <v>552000</v>
+        <v>505300</v>
       </c>
       <c r="F60" s="3">
-        <v>642600</v>
+        <v>588100</v>
       </c>
       <c r="G60" s="3">
-        <v>516700</v>
+        <v>472900</v>
       </c>
       <c r="H60" s="3">
-        <v>538400</v>
+        <v>492800</v>
       </c>
       <c r="I60" s="3">
-        <v>444500</v>
+        <v>406800</v>
       </c>
       <c r="J60" s="3">
-        <v>488100</v>
+        <v>446700</v>
       </c>
       <c r="K60" s="3">
         <v>558600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>977500</v>
+        <v>894600</v>
       </c>
       <c r="E61" s="3">
-        <v>1208200</v>
+        <v>1105800</v>
       </c>
       <c r="F61" s="3">
-        <v>967300</v>
+        <v>885300</v>
       </c>
       <c r="G61" s="3">
-        <v>950300</v>
+        <v>869700</v>
       </c>
       <c r="H61" s="3">
-        <v>471000</v>
+        <v>431100</v>
       </c>
       <c r="I61" s="3">
-        <v>466300</v>
+        <v>426800</v>
       </c>
       <c r="J61" s="3">
-        <v>369600</v>
+        <v>338300</v>
       </c>
       <c r="K61" s="3">
         <v>417700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>158600</v>
+        <v>145200</v>
       </c>
       <c r="E62" s="3">
-        <v>202800</v>
+        <v>185700</v>
       </c>
       <c r="F62" s="3">
-        <v>180400</v>
+        <v>165100</v>
       </c>
       <c r="G62" s="3">
-        <v>154500</v>
+        <v>141400</v>
       </c>
       <c r="H62" s="3">
-        <v>134100</v>
+        <v>122700</v>
       </c>
       <c r="I62" s="3">
-        <v>146400</v>
+        <v>133900</v>
       </c>
       <c r="J62" s="3">
-        <v>114400</v>
+        <v>104700</v>
       </c>
       <c r="K62" s="3">
         <v>133000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1775300</v>
+        <v>1624800</v>
       </c>
       <c r="E66" s="3">
-        <v>1963100</v>
+        <v>1796700</v>
       </c>
       <c r="F66" s="3">
-        <v>1790200</v>
+        <v>1638500</v>
       </c>
       <c r="G66" s="3">
-        <v>1607100</v>
+        <v>1470900</v>
       </c>
       <c r="H66" s="3">
-        <v>1143600</v>
+        <v>1046600</v>
       </c>
       <c r="I66" s="3">
-        <v>1057100</v>
+        <v>967500</v>
       </c>
       <c r="J66" s="3">
-        <v>972000</v>
+        <v>889600</v>
       </c>
       <c r="K66" s="3">
         <v>1113700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>532300</v>
+        <v>487200</v>
       </c>
       <c r="E72" s="3">
-        <v>599000</v>
+        <v>548200</v>
       </c>
       <c r="F72" s="3">
-        <v>633700</v>
+        <v>580000</v>
       </c>
       <c r="G72" s="3">
-        <v>667800</v>
+        <v>611200</v>
       </c>
       <c r="H72" s="3">
-        <v>767100</v>
+        <v>702100</v>
       </c>
       <c r="I72" s="3">
-        <v>797100</v>
+        <v>729500</v>
       </c>
       <c r="J72" s="3">
-        <v>838600</v>
+        <v>767500</v>
       </c>
       <c r="K72" s="3">
         <v>855700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1015600</v>
+        <v>929500</v>
       </c>
       <c r="E76" s="3">
-        <v>1003400</v>
+        <v>918300</v>
       </c>
       <c r="F76" s="3">
-        <v>997200</v>
+        <v>912700</v>
       </c>
       <c r="G76" s="3">
-        <v>1009500</v>
+        <v>923900</v>
       </c>
       <c r="H76" s="3">
-        <v>1123800</v>
+        <v>1028600</v>
       </c>
       <c r="I76" s="3">
-        <v>1146300</v>
+        <v>1049100</v>
       </c>
       <c r="J76" s="3">
-        <v>1210300</v>
+        <v>1107700</v>
       </c>
       <c r="K76" s="3">
         <v>1230000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>261400</v>
+        <v>239200</v>
       </c>
       <c r="E81" s="3">
-        <v>285900</v>
+        <v>261700</v>
       </c>
       <c r="F81" s="3">
-        <v>278400</v>
+        <v>254800</v>
       </c>
       <c r="G81" s="3">
-        <v>248500</v>
+        <v>227400</v>
       </c>
       <c r="H81" s="3">
-        <v>284500</v>
+        <v>260400</v>
       </c>
       <c r="I81" s="3">
-        <v>251900</v>
+        <v>230500</v>
       </c>
       <c r="J81" s="3">
-        <v>253900</v>
+        <v>232400</v>
       </c>
       <c r="K81" s="3">
         <v>331000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>356000</v>
+        <v>325800</v>
       </c>
       <c r="E83" s="3">
-        <v>326100</v>
+        <v>298400</v>
       </c>
       <c r="F83" s="3">
-        <v>324700</v>
+        <v>297200</v>
       </c>
       <c r="G83" s="3">
-        <v>327400</v>
+        <v>299700</v>
       </c>
       <c r="H83" s="3">
-        <v>292700</v>
+        <v>267900</v>
       </c>
       <c r="I83" s="3">
-        <v>303600</v>
+        <v>277900</v>
       </c>
       <c r="J83" s="3">
-        <v>308400</v>
+        <v>282200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>584000</v>
+        <v>534500</v>
       </c>
       <c r="E89" s="3">
-        <v>614700</v>
+        <v>562600</v>
       </c>
       <c r="F89" s="3">
-        <v>528900</v>
+        <v>484100</v>
       </c>
       <c r="G89" s="3">
-        <v>558200</v>
+        <v>510900</v>
       </c>
       <c r="H89" s="3">
-        <v>488100</v>
+        <v>446700</v>
       </c>
       <c r="I89" s="3">
-        <v>487400</v>
+        <v>446100</v>
       </c>
       <c r="J89" s="3">
-        <v>428800</v>
+        <v>392500</v>
       </c>
       <c r="K89" s="3">
         <v>442300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-228000</v>
+        <v>-208700</v>
       </c>
       <c r="E91" s="3">
-        <v>-267500</v>
+        <v>-244800</v>
       </c>
       <c r="F91" s="3">
-        <v>-282500</v>
+        <v>-258500</v>
       </c>
       <c r="G91" s="3">
-        <v>-281800</v>
+        <v>-257900</v>
       </c>
       <c r="H91" s="3">
-        <v>-270900</v>
+        <v>-248000</v>
       </c>
       <c r="I91" s="3">
-        <v>-284500</v>
+        <v>-260400</v>
       </c>
       <c r="J91" s="3">
-        <v>-398900</v>
+        <v>-365100</v>
       </c>
       <c r="K91" s="3">
         <v>-349100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-264100</v>
+        <v>-241700</v>
       </c>
       <c r="E94" s="3">
-        <v>-279800</v>
+        <v>-256100</v>
       </c>
       <c r="F94" s="3">
-        <v>-290000</v>
+        <v>-265400</v>
       </c>
       <c r="G94" s="3">
-        <v>-329500</v>
+        <v>-301500</v>
       </c>
       <c r="H94" s="3">
-        <v>-258700</v>
+        <v>-236700</v>
       </c>
       <c r="I94" s="3">
-        <v>-332200</v>
+        <v>-304000</v>
       </c>
       <c r="J94" s="3">
-        <v>-310400</v>
+        <v>-284100</v>
       </c>
       <c r="K94" s="3">
         <v>7200</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-224600</v>
+        <v>-205600</v>
       </c>
       <c r="E96" s="3">
-        <v>-312400</v>
+        <v>-286000</v>
       </c>
       <c r="F96" s="3">
-        <v>-312400</v>
+        <v>-286000</v>
       </c>
       <c r="G96" s="3">
-        <v>-311800</v>
+        <v>-285300</v>
       </c>
       <c r="H96" s="3">
-        <v>-311800</v>
+        <v>-285300</v>
       </c>
       <c r="I96" s="3">
-        <v>-292700</v>
+        <v>-267900</v>
       </c>
       <c r="J96" s="3">
-        <v>-202800</v>
+        <v>-185700</v>
       </c>
       <c r="K96" s="3">
         <v>-195900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-307000</v>
+        <v>-281000</v>
       </c>
       <c r="E100" s="3">
-        <v>-335600</v>
+        <v>-307100</v>
       </c>
       <c r="F100" s="3">
-        <v>-239600</v>
+        <v>-219300</v>
       </c>
       <c r="G100" s="3">
-        <v>-226700</v>
+        <v>-207500</v>
       </c>
       <c r="H100" s="3">
-        <v>-229400</v>
+        <v>-210000</v>
       </c>
       <c r="I100" s="3">
-        <v>-174300</v>
+        <v>-159500</v>
       </c>
       <c r="J100" s="3">
-        <v>-206900</v>
+        <v>-189400</v>
       </c>
       <c r="K100" s="3">
         <v>-383000</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K101" s="3">
         <v>-1400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>12900</v>
+        <v>11800</v>
       </c>
       <c r="E102" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F102" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="G102" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-19100</v>
+        <v>-17400</v>
       </c>
       <c r="J102" s="3">
-        <v>-87100</v>
+        <v>-79700</v>
       </c>
       <c r="K102" s="3">
         <v>65000</v>

--- a/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>SPKKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41820</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41455</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41090</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2221600</v>
+        <v>2301700</v>
       </c>
       <c r="E8" s="3">
-        <v>2238400</v>
+        <v>2222000</v>
       </c>
       <c r="F8" s="3">
-        <v>2193000</v>
+        <v>2238800</v>
       </c>
       <c r="G8" s="3">
-        <v>2201100</v>
+        <v>2193300</v>
       </c>
       <c r="H8" s="3">
-        <v>2239100</v>
+        <v>2201400</v>
       </c>
       <c r="I8" s="3">
-        <v>2178600</v>
+        <v>2239400</v>
       </c>
       <c r="J8" s="3">
+        <v>2179000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2179900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2622000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2600100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3100200</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1044100</v>
+        <v>1096000</v>
       </c>
       <c r="E9" s="3">
-        <v>1035400</v>
+        <v>1044300</v>
       </c>
       <c r="F9" s="3">
-        <v>1012400</v>
+        <v>1035600</v>
       </c>
       <c r="G9" s="3">
-        <v>2007900</v>
+        <v>1012500</v>
       </c>
       <c r="H9" s="3">
-        <v>1000500</v>
+        <v>2008300</v>
       </c>
       <c r="I9" s="3">
-        <v>979400</v>
+        <v>1000700</v>
       </c>
       <c r="J9" s="3">
+        <v>979500</v>
+      </c>
+      <c r="K9" s="3">
         <v>989300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1250300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>49700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>71100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1177500</v>
+        <v>1205700</v>
       </c>
       <c r="E10" s="3">
-        <v>1203000</v>
+        <v>1177700</v>
       </c>
       <c r="F10" s="3">
-        <v>1180600</v>
+        <v>1203200</v>
       </c>
       <c r="G10" s="3">
-        <v>193100</v>
+        <v>1180800</v>
       </c>
       <c r="H10" s="3">
-        <v>1238500</v>
+        <v>193200</v>
       </c>
       <c r="I10" s="3">
-        <v>1199300</v>
+        <v>1238700</v>
       </c>
       <c r="J10" s="3">
+        <v>1199500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1190600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1371700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2550500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3029100</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -870,12 +883,15 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3">
         <v>2700</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E14" s="3">
         <v>-10000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5600</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>91900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3400</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>325800</v>
+        <v>324000</v>
       </c>
       <c r="E15" s="3">
-        <v>304000</v>
+        <v>325900</v>
       </c>
       <c r="F15" s="3">
+        <v>304100</v>
+      </c>
+      <c r="G15" s="3">
         <v>297200</v>
       </c>
-      <c r="G15" s="3">
-        <v>396200</v>
-      </c>
       <c r="H15" s="3">
+        <v>396300</v>
+      </c>
+      <c r="I15" s="3">
         <v>267900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>277900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>282200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>325900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>334600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>390200</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1847800</v>
+        <v>1909800</v>
       </c>
       <c r="E17" s="3">
-        <v>1849100</v>
+        <v>1848100</v>
       </c>
       <c r="F17" s="3">
-        <v>1802300</v>
+        <v>1849400</v>
       </c>
       <c r="G17" s="3">
-        <v>1860300</v>
+        <v>1802600</v>
       </c>
       <c r="H17" s="3">
-        <v>1874000</v>
+        <v>1860600</v>
       </c>
       <c r="I17" s="3">
-        <v>1842200</v>
+        <v>1874300</v>
       </c>
       <c r="J17" s="3">
+        <v>1842500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1862800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2271400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2362400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2759500</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>373800</v>
+        <v>391900</v>
       </c>
       <c r="E18" s="3">
+        <v>373900</v>
+      </c>
+      <c r="F18" s="3">
         <v>389400</v>
       </c>
-      <c r="F18" s="3">
-        <v>390600</v>
-      </c>
       <c r="G18" s="3">
+        <v>390700</v>
+      </c>
+      <c r="H18" s="3">
         <v>340800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>365100</v>
       </c>
-      <c r="I18" s="3">
-        <v>336400</v>
-      </c>
       <c r="J18" s="3">
+        <v>336500</v>
+      </c>
+      <c r="K18" s="3">
         <v>317100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>350500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>237700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>340800</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E20" s="3">
         <v>21200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>23100</v>
       </c>
       <c r="F20" s="3">
         <v>23100</v>
       </c>
       <c r="G20" s="3">
+        <v>23100</v>
+      </c>
+      <c r="H20" s="3">
         <v>21800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>10000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>724400</v>
+        <v>729900</v>
       </c>
       <c r="E21" s="3">
-        <v>714100</v>
+        <v>717400</v>
       </c>
       <c r="F21" s="3">
-        <v>714100</v>
+        <v>708800</v>
       </c>
       <c r="G21" s="3">
-        <v>665600</v>
+        <v>708900</v>
       </c>
       <c r="H21" s="3">
-        <v>645900</v>
+        <v>660200</v>
       </c>
       <c r="I21" s="3">
-        <v>628600</v>
+        <v>641100</v>
       </c>
       <c r="J21" s="3">
+        <v>623600</v>
+      </c>
+      <c r="K21" s="3">
         <v>619300</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>578800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>803600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E22" s="3">
         <v>50500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>58600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>53000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>48000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>26200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>33600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>30400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>54200</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>344500</v>
+        <v>362000</v>
       </c>
       <c r="E23" s="3">
+        <v>344600</v>
+      </c>
+      <c r="F23" s="3">
         <v>353900</v>
       </c>
-      <c r="F23" s="3">
-        <v>360700</v>
-      </c>
       <c r="G23" s="3">
-        <v>314600</v>
+        <v>360800</v>
       </c>
       <c r="H23" s="3">
+        <v>314700</v>
+      </c>
+      <c r="I23" s="3">
         <v>348900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>319000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>328100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>211700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>286600</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E24" s="3">
         <v>105300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>92200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>105900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>87200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>88500</v>
       </c>
       <c r="I24" s="3">
         <v>88500</v>
       </c>
       <c r="J24" s="3">
+        <v>88500</v>
+      </c>
+      <c r="K24" s="3">
         <v>66700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>94700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>63900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>75900</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>239200</v>
+        <v>255500</v>
       </c>
       <c r="E26" s="3">
+        <v>239300</v>
+      </c>
+      <c r="F26" s="3">
         <v>261700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>254800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>227400</v>
       </c>
-      <c r="H26" s="3">
-        <v>260400</v>
-      </c>
       <c r="I26" s="3">
+        <v>260500</v>
+      </c>
+      <c r="J26" s="3">
         <v>230500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>233600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>233400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>147700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>210700</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>239200</v>
+        <v>255500</v>
       </c>
       <c r="E27" s="3">
+        <v>239300</v>
+      </c>
+      <c r="F27" s="3">
         <v>261700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>254800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>227400</v>
       </c>
-      <c r="H27" s="3">
-        <v>260400</v>
-      </c>
       <c r="I27" s="3">
+        <v>260500</v>
+      </c>
+      <c r="J27" s="3">
         <v>230500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>232400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>232000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>146500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>209300</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,45 +1463,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>99000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>573200</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-21200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-23100</v>
       </c>
       <c r="F32" s="3">
         <v>-23100</v>
       </c>
       <c r="G32" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-21800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-10000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>239200</v>
+        <v>255500</v>
       </c>
       <c r="E33" s="3">
+        <v>239300</v>
+      </c>
+      <c r="F33" s="3">
         <v>261700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>254800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>227400</v>
       </c>
-      <c r="H33" s="3">
-        <v>260400</v>
-      </c>
       <c r="I33" s="3">
+        <v>260500</v>
+      </c>
+      <c r="J33" s="3">
         <v>230500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>232400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>331000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>146500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>782500</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>239200</v>
+        <v>255500</v>
       </c>
       <c r="E35" s="3">
+        <v>239300</v>
+      </c>
+      <c r="F35" s="3">
         <v>261700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>254800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>227400</v>
       </c>
-      <c r="H35" s="3">
-        <v>260400</v>
-      </c>
       <c r="I35" s="3">
+        <v>260500</v>
+      </c>
+      <c r="J35" s="3">
         <v>230500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>232400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>331000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>146500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>782500</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41820</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41455</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41090</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E41" s="3">
         <v>44900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>33000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>32400</v>
       </c>
       <c r="I41" s="3">
         <v>32400</v>
       </c>
       <c r="J41" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K41" s="3">
         <v>49800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>150300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>73200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>125300</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1803,261 +1892,285 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>844800</v>
+        <v>406300</v>
       </c>
       <c r="E43" s="3">
+        <v>844900</v>
+      </c>
+      <c r="F43" s="3">
         <v>386900</v>
       </c>
-      <c r="F43" s="3">
-        <v>383100</v>
-      </c>
       <c r="G43" s="3">
-        <v>756900</v>
+        <v>383200</v>
       </c>
       <c r="H43" s="3">
+        <v>757100</v>
+      </c>
+      <c r="I43" s="3">
         <v>329600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>269800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>221200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>315800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>299500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>392900</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>79700</v>
+        <v>66700</v>
       </c>
       <c r="E44" s="3">
+        <v>79800</v>
+      </c>
+      <c r="F44" s="3">
         <v>59800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>62300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>98400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>58600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>50500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>43600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>36100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>32900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>33200</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>243600</v>
+      </c>
+      <c r="E45" s="3">
         <v>119600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>117100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>88500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>77300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>50500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>51700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>105500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>114100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>107000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>570700</v>
+        <v>760800</v>
       </c>
       <c r="E46" s="3">
-        <v>596800</v>
+        <v>570800</v>
       </c>
       <c r="F46" s="3">
+        <v>596900</v>
+      </c>
+      <c r="G46" s="3">
         <v>567600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>502800</v>
       </c>
-      <c r="H46" s="3">
-        <v>471000</v>
-      </c>
       <c r="I46" s="3">
-        <v>404300</v>
+        <v>471100</v>
       </c>
       <c r="J46" s="3">
+        <v>404400</v>
+      </c>
+      <c r="K46" s="3">
         <v>414900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>607800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>519600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>658500</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>254800</v>
+      </c>
+      <c r="E47" s="3">
         <v>451700</v>
       </c>
-      <c r="E47" s="3">
-        <v>368800</v>
-      </c>
       <c r="F47" s="3">
+        <v>368900</v>
+      </c>
+      <c r="G47" s="3">
         <v>294700</v>
       </c>
-      <c r="G47" s="3">
-        <v>454800</v>
-      </c>
       <c r="H47" s="3">
-        <v>214900</v>
+        <v>454900</v>
       </c>
       <c r="I47" s="3">
-        <v>212400</v>
+        <v>215000</v>
       </c>
       <c r="J47" s="3">
+        <v>212500</v>
+      </c>
+      <c r="K47" s="3">
         <v>195600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>219700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>146300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>189000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2247800</v>
+        <v>1063600</v>
       </c>
       <c r="E48" s="3">
-        <v>1186800</v>
+        <v>2248100</v>
       </c>
       <c r="F48" s="3">
-        <v>1054100</v>
+        <v>1187000</v>
       </c>
       <c r="G48" s="3">
-        <v>1704500</v>
+        <v>1054300</v>
       </c>
       <c r="H48" s="3">
-        <v>666600</v>
+        <v>1704800</v>
       </c>
       <c r="I48" s="3">
-        <v>687800</v>
+        <v>666700</v>
       </c>
       <c r="J48" s="3">
+        <v>687900</v>
+      </c>
+      <c r="K48" s="3">
         <v>688400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>795700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>835300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1026400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1077200</v>
+        <v>522800</v>
       </c>
       <c r="E49" s="3">
-        <v>525200</v>
+        <v>1077300</v>
       </c>
       <c r="F49" s="3">
-        <v>614900</v>
+        <v>525300</v>
       </c>
       <c r="G49" s="3">
-        <v>1347500</v>
+        <v>615000</v>
       </c>
       <c r="H49" s="3">
-        <v>718300</v>
+        <v>1347800</v>
       </c>
       <c r="I49" s="3">
-        <v>704600</v>
+        <v>718400</v>
       </c>
       <c r="J49" s="3">
+        <v>704700</v>
+      </c>
+      <c r="K49" s="3">
         <v>697800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>716900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>664100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>609800</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E52" s="3">
         <v>15000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>37400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2554300</v>
+        <v>2610200</v>
       </c>
       <c r="E54" s="3">
-        <v>2715000</v>
+        <v>2554700</v>
       </c>
       <c r="F54" s="3">
-        <v>2551200</v>
+        <v>2715500</v>
       </c>
       <c r="G54" s="3">
-        <v>2394800</v>
+        <v>2551600</v>
       </c>
       <c r="H54" s="3">
-        <v>2075200</v>
+        <v>2395200</v>
       </c>
       <c r="I54" s="3">
-        <v>2016700</v>
+        <v>2075500</v>
       </c>
       <c r="J54" s="3">
+        <v>2017000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1997300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2343700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2166000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2484400</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>466600</v>
+        <v>163300</v>
       </c>
       <c r="E57" s="3">
-        <v>166300</v>
+        <v>466700</v>
       </c>
       <c r="F57" s="3">
-        <v>160700</v>
+        <v>166400</v>
       </c>
       <c r="G57" s="3">
+        <v>160800</v>
+      </c>
+      <c r="H57" s="3">
         <v>476000</v>
       </c>
-      <c r="H57" s="3">
-        <v>168800</v>
-      </c>
       <c r="I57" s="3">
+        <v>168900</v>
+      </c>
+      <c r="J57" s="3">
         <v>172600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>217400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>283300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>341100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>424900</v>
+        <v>236800</v>
       </c>
       <c r="E58" s="3">
+        <v>425000</v>
+      </c>
+      <c r="F58" s="3">
         <v>186900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>297800</v>
       </c>
-      <c r="G58" s="3">
-        <v>176900</v>
-      </c>
       <c r="H58" s="3">
+        <v>177000</v>
+      </c>
+      <c r="I58" s="3">
         <v>183800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>118400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>94100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>83800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>143200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>279800</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>125800</v>
+        <v>185700</v>
       </c>
       <c r="E59" s="3">
+        <v>125900</v>
+      </c>
+      <c r="F59" s="3">
         <v>152000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>129600</v>
       </c>
-      <c r="G59" s="3">
-        <v>142000</v>
-      </c>
       <c r="H59" s="3">
+        <v>142100</v>
+      </c>
+      <c r="I59" s="3">
         <v>140200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>115900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>135200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>191500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>189100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>235800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>585000</v>
+        <v>585700</v>
       </c>
       <c r="E60" s="3">
+        <v>585100</v>
+      </c>
+      <c r="F60" s="3">
         <v>505300</v>
       </c>
-      <c r="F60" s="3">
-        <v>588100</v>
-      </c>
       <c r="G60" s="3">
+        <v>588200</v>
+      </c>
+      <c r="H60" s="3">
         <v>472900</v>
       </c>
-      <c r="H60" s="3">
-        <v>492800</v>
-      </c>
       <c r="I60" s="3">
-        <v>406800</v>
+        <v>492900</v>
       </c>
       <c r="J60" s="3">
+        <v>406900</v>
+      </c>
+      <c r="K60" s="3">
         <v>446700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>558600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>673400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>815700</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>894600</v>
+        <v>950200</v>
       </c>
       <c r="E61" s="3">
-        <v>1105800</v>
+        <v>894800</v>
       </c>
       <c r="F61" s="3">
-        <v>885300</v>
+        <v>1106000</v>
       </c>
       <c r="G61" s="3">
-        <v>869700</v>
+        <v>885400</v>
       </c>
       <c r="H61" s="3">
-        <v>431100</v>
+        <v>869800</v>
       </c>
       <c r="I61" s="3">
+        <v>431200</v>
+      </c>
+      <c r="J61" s="3">
         <v>426800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>338300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>417700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>468800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>412600</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>155200</v>
+      </c>
+      <c r="E62" s="3">
         <v>145200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>185700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>165100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>141400</v>
       </c>
-      <c r="H62" s="3">
-        <v>122700</v>
-      </c>
       <c r="I62" s="3">
-        <v>133900</v>
+        <v>122800</v>
       </c>
       <c r="J62" s="3">
+        <v>134000</v>
+      </c>
+      <c r="K62" s="3">
         <v>104700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>133000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>147600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>154500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1624800</v>
+        <v>1691100</v>
       </c>
       <c r="E66" s="3">
-        <v>1796700</v>
+        <v>1625000</v>
       </c>
       <c r="F66" s="3">
-        <v>1638500</v>
+        <v>1797000</v>
       </c>
       <c r="G66" s="3">
-        <v>1470900</v>
+        <v>1638800</v>
       </c>
       <c r="H66" s="3">
-        <v>1046600</v>
+        <v>1471100</v>
       </c>
       <c r="I66" s="3">
-        <v>967500</v>
+        <v>1046800</v>
       </c>
       <c r="J66" s="3">
+        <v>967700</v>
+      </c>
+      <c r="K66" s="3">
         <v>889600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1113700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1293500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1386200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>487200</v>
+        <v>453000</v>
       </c>
       <c r="E72" s="3">
-        <v>548200</v>
+        <v>487300</v>
       </c>
       <c r="F72" s="3">
-        <v>580000</v>
+        <v>548300</v>
       </c>
       <c r="G72" s="3">
-        <v>611200</v>
+        <v>580100</v>
       </c>
       <c r="H72" s="3">
-        <v>702100</v>
+        <v>611300</v>
       </c>
       <c r="I72" s="3">
-        <v>729500</v>
+        <v>702200</v>
       </c>
       <c r="J72" s="3">
+        <v>729700</v>
+      </c>
+      <c r="K72" s="3">
         <v>767500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>855700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>627500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>758800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>929500</v>
+        <v>919100</v>
       </c>
       <c r="E76" s="3">
-        <v>918300</v>
+        <v>929700</v>
       </c>
       <c r="F76" s="3">
-        <v>912700</v>
+        <v>918400</v>
       </c>
       <c r="G76" s="3">
-        <v>923900</v>
+        <v>912800</v>
       </c>
       <c r="H76" s="3">
-        <v>1028600</v>
+        <v>924100</v>
       </c>
       <c r="I76" s="3">
-        <v>1049100</v>
+        <v>1028700</v>
       </c>
       <c r="J76" s="3">
+        <v>1049300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1107700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1230000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>872500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1098200</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41820</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41455</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41090</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>239200</v>
+        <v>255500</v>
       </c>
       <c r="E81" s="3">
+        <v>239300</v>
+      </c>
+      <c r="F81" s="3">
         <v>261700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>254800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>227400</v>
       </c>
-      <c r="H81" s="3">
-        <v>260400</v>
-      </c>
       <c r="I81" s="3">
+        <v>260500</v>
+      </c>
+      <c r="J81" s="3">
         <v>230500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>232400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>331000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>146500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>782500</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>325800</v>
+        <v>324000</v>
       </c>
       <c r="E83" s="3">
-        <v>298400</v>
+        <v>324600</v>
       </c>
       <c r="F83" s="3">
+        <v>298500</v>
+      </c>
+      <c r="G83" s="3">
         <v>297200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>299700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>267900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>277900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>282200</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>334600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>461400</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>534500</v>
+        <v>524000</v>
       </c>
       <c r="E89" s="3">
-        <v>562600</v>
+        <v>531500</v>
       </c>
       <c r="F89" s="3">
+        <v>562700</v>
+      </c>
+      <c r="G89" s="3">
         <v>484100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>510900</v>
       </c>
-      <c r="H89" s="3">
-        <v>446700</v>
-      </c>
       <c r="I89" s="3">
+        <v>446800</v>
+      </c>
+      <c r="J89" s="3">
         <v>446100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>392500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>442300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>549300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>667300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-208700</v>
+        <v>-264800</v>
       </c>
       <c r="E91" s="3">
-        <v>-244800</v>
+        <v>-205600</v>
       </c>
       <c r="F91" s="3">
-        <v>-258500</v>
+        <v>-244900</v>
       </c>
       <c r="G91" s="3">
-        <v>-257900</v>
+        <v>-258600</v>
       </c>
       <c r="H91" s="3">
+        <v>-258000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-248000</v>
       </c>
-      <c r="I91" s="3">
-        <v>-260400</v>
-      </c>
       <c r="J91" s="3">
+        <v>-260500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-365100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-349100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-241500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-449200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-241700</v>
+        <v>-306600</v>
       </c>
       <c r="E94" s="3">
+        <v>-234300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-256100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-265400</v>
       </c>
-      <c r="G94" s="3">
-        <v>-301500</v>
-      </c>
       <c r="H94" s="3">
-        <v>-236700</v>
+        <v>-301600</v>
       </c>
       <c r="I94" s="3">
-        <v>-304000</v>
+        <v>-236800</v>
       </c>
       <c r="J94" s="3">
+        <v>-304100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-284100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-286800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-449200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-279800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-205600</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-286000</v>
       </c>
       <c r="F96" s="3">
         <v>-286000</v>
       </c>
       <c r="G96" s="3">
-        <v>-285300</v>
+        <v>-286000</v>
       </c>
       <c r="H96" s="3">
-        <v>-285300</v>
+        <v>-285400</v>
       </c>
       <c r="I96" s="3">
+        <v>-285400</v>
+      </c>
+      <c r="J96" s="3">
         <v>-267900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-185700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-195900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-203000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-230400</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-281000</v>
+        <v>-218100</v>
       </c>
       <c r="E100" s="3">
-        <v>-307100</v>
+        <v>-285400</v>
       </c>
       <c r="F100" s="3">
+        <v>-307200</v>
+      </c>
+      <c r="G100" s="3">
         <v>-219300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-207500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-210000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-159500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-189400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-383000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-302900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-313000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>11800</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-600</v>
       </c>
       <c r="F102" s="3">
         <v>-600</v>
       </c>
       <c r="G102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-17400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-79700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>65000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-41600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-94200</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2301700</v>
+        <v>2224900</v>
       </c>
       <c r="E8" s="3">
-        <v>2222000</v>
+        <v>2147800</v>
       </c>
       <c r="F8" s="3">
-        <v>2238800</v>
+        <v>2164100</v>
       </c>
       <c r="G8" s="3">
-        <v>2193300</v>
+        <v>2120100</v>
       </c>
       <c r="H8" s="3">
-        <v>2201400</v>
+        <v>2127900</v>
       </c>
       <c r="I8" s="3">
-        <v>2239400</v>
+        <v>2164700</v>
       </c>
       <c r="J8" s="3">
-        <v>2179000</v>
+        <v>2106200</v>
       </c>
       <c r="K8" s="3">
         <v>2179900</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1096000</v>
+        <v>1059400</v>
       </c>
       <c r="E9" s="3">
-        <v>1044300</v>
+        <v>1009500</v>
       </c>
       <c r="F9" s="3">
-        <v>1035600</v>
+        <v>1001000</v>
       </c>
       <c r="G9" s="3">
-        <v>1012500</v>
+        <v>978700</v>
       </c>
       <c r="H9" s="3">
-        <v>2008300</v>
+        <v>1941200</v>
       </c>
       <c r="I9" s="3">
-        <v>1000700</v>
+        <v>967300</v>
       </c>
       <c r="J9" s="3">
-        <v>979500</v>
+        <v>946800</v>
       </c>
       <c r="K9" s="3">
         <v>989300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1205700</v>
+        <v>1165500</v>
       </c>
       <c r="E10" s="3">
-        <v>1177700</v>
+        <v>1138300</v>
       </c>
       <c r="F10" s="3">
-        <v>1203200</v>
+        <v>1163000</v>
       </c>
       <c r="G10" s="3">
-        <v>1180800</v>
+        <v>1141400</v>
       </c>
       <c r="H10" s="3">
-        <v>193200</v>
+        <v>186700</v>
       </c>
       <c r="I10" s="3">
-        <v>1238700</v>
+        <v>1197400</v>
       </c>
       <c r="J10" s="3">
-        <v>1199500</v>
+        <v>1159400</v>
       </c>
       <c r="K10" s="3">
         <v>1190600</v>
@@ -935,10 +935,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-8700</v>
+        <v>-8400</v>
       </c>
       <c r="E14" s="3">
-        <v>-10000</v>
+        <v>-9600</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>600</v>
       </c>
       <c r="H14" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="I14" s="3">
         <v>1200</v>
       </c>
       <c r="J14" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>324000</v>
+        <v>313200</v>
       </c>
       <c r="E15" s="3">
-        <v>325900</v>
+        <v>315000</v>
       </c>
       <c r="F15" s="3">
-        <v>304100</v>
+        <v>293900</v>
       </c>
       <c r="G15" s="3">
-        <v>297200</v>
+        <v>287300</v>
       </c>
       <c r="H15" s="3">
-        <v>396300</v>
+        <v>383100</v>
       </c>
       <c r="I15" s="3">
-        <v>267900</v>
+        <v>259000</v>
       </c>
       <c r="J15" s="3">
-        <v>277900</v>
+        <v>268600</v>
       </c>
       <c r="K15" s="3">
         <v>282200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1909800</v>
+        <v>1846000</v>
       </c>
       <c r="E17" s="3">
-        <v>1848100</v>
+        <v>1786400</v>
       </c>
       <c r="F17" s="3">
-        <v>1849400</v>
+        <v>1787600</v>
       </c>
       <c r="G17" s="3">
-        <v>1802600</v>
+        <v>1742500</v>
       </c>
       <c r="H17" s="3">
-        <v>1860600</v>
+        <v>1798500</v>
       </c>
       <c r="I17" s="3">
-        <v>1874300</v>
+        <v>1811700</v>
       </c>
       <c r="J17" s="3">
-        <v>1842500</v>
+        <v>1781000</v>
       </c>
       <c r="K17" s="3">
         <v>1862800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>391900</v>
+        <v>378800</v>
       </c>
       <c r="E18" s="3">
-        <v>373900</v>
+        <v>361400</v>
       </c>
       <c r="F18" s="3">
-        <v>389400</v>
+        <v>376400</v>
       </c>
       <c r="G18" s="3">
-        <v>390700</v>
+        <v>377600</v>
       </c>
       <c r="H18" s="3">
-        <v>340800</v>
+        <v>329500</v>
       </c>
       <c r="I18" s="3">
-        <v>365100</v>
+        <v>352900</v>
       </c>
       <c r="J18" s="3">
-        <v>336500</v>
+        <v>325200</v>
       </c>
       <c r="K18" s="3">
         <v>317100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16200</v>
+        <v>15700</v>
       </c>
       <c r="E20" s="3">
-        <v>21200</v>
+        <v>20500</v>
       </c>
       <c r="F20" s="3">
-        <v>23100</v>
+        <v>22300</v>
       </c>
       <c r="G20" s="3">
-        <v>23100</v>
+        <v>22300</v>
       </c>
       <c r="H20" s="3">
-        <v>21800</v>
+        <v>21100</v>
       </c>
       <c r="I20" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="J20" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="K20" s="3">
         <v>16800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>729900</v>
+        <v>700300</v>
       </c>
       <c r="E21" s="3">
-        <v>717400</v>
+        <v>688300</v>
       </c>
       <c r="F21" s="3">
-        <v>708800</v>
+        <v>680400</v>
       </c>
       <c r="G21" s="3">
-        <v>708900</v>
+        <v>680500</v>
       </c>
       <c r="H21" s="3">
-        <v>660200</v>
+        <v>633400</v>
       </c>
       <c r="I21" s="3">
-        <v>641100</v>
+        <v>615500</v>
       </c>
       <c r="J21" s="3">
-        <v>623600</v>
+        <v>598400</v>
       </c>
       <c r="K21" s="3">
         <v>619300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>46100</v>
+        <v>44600</v>
       </c>
       <c r="E22" s="3">
-        <v>50500</v>
+        <v>48800</v>
       </c>
       <c r="F22" s="3">
-        <v>58600</v>
+        <v>56600</v>
       </c>
       <c r="G22" s="3">
-        <v>53000</v>
+        <v>51200</v>
       </c>
       <c r="H22" s="3">
-        <v>48000</v>
+        <v>46400</v>
       </c>
       <c r="I22" s="3">
-        <v>26200</v>
+        <v>25300</v>
       </c>
       <c r="J22" s="3">
-        <v>28700</v>
+        <v>27700</v>
       </c>
       <c r="K22" s="3">
         <v>33600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>362000</v>
+        <v>349900</v>
       </c>
       <c r="E23" s="3">
-        <v>344600</v>
+        <v>333100</v>
       </c>
       <c r="F23" s="3">
-        <v>353900</v>
+        <v>342100</v>
       </c>
       <c r="G23" s="3">
-        <v>360800</v>
+        <v>348700</v>
       </c>
       <c r="H23" s="3">
-        <v>314700</v>
+        <v>304200</v>
       </c>
       <c r="I23" s="3">
-        <v>348900</v>
+        <v>337300</v>
       </c>
       <c r="J23" s="3">
-        <v>319000</v>
+        <v>308400</v>
       </c>
       <c r="K23" s="3">
         <v>300300</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>106600</v>
+        <v>103000</v>
       </c>
       <c r="E24" s="3">
-        <v>105300</v>
+        <v>101800</v>
       </c>
       <c r="F24" s="3">
-        <v>92200</v>
+        <v>89100</v>
       </c>
       <c r="G24" s="3">
-        <v>105900</v>
+        <v>102400</v>
       </c>
       <c r="H24" s="3">
-        <v>87200</v>
+        <v>84300</v>
       </c>
       <c r="I24" s="3">
-        <v>88500</v>
+        <v>85500</v>
       </c>
       <c r="J24" s="3">
-        <v>88500</v>
+        <v>85500</v>
       </c>
       <c r="K24" s="3">
         <v>66700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>255500</v>
+        <v>246900</v>
       </c>
       <c r="E26" s="3">
-        <v>239300</v>
+        <v>231300</v>
       </c>
       <c r="F26" s="3">
-        <v>261700</v>
+        <v>253000</v>
       </c>
       <c r="G26" s="3">
-        <v>254800</v>
+        <v>246300</v>
       </c>
       <c r="H26" s="3">
-        <v>227400</v>
+        <v>219800</v>
       </c>
       <c r="I26" s="3">
-        <v>260500</v>
+        <v>251800</v>
       </c>
       <c r="J26" s="3">
-        <v>230500</v>
+        <v>222900</v>
       </c>
       <c r="K26" s="3">
         <v>233600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>255500</v>
+        <v>246900</v>
       </c>
       <c r="E27" s="3">
-        <v>239300</v>
+        <v>231300</v>
       </c>
       <c r="F27" s="3">
-        <v>261700</v>
+        <v>253000</v>
       </c>
       <c r="G27" s="3">
-        <v>254800</v>
+        <v>246300</v>
       </c>
       <c r="H27" s="3">
-        <v>227400</v>
+        <v>219800</v>
       </c>
       <c r="I27" s="3">
-        <v>260500</v>
+        <v>251800</v>
       </c>
       <c r="J27" s="3">
-        <v>230500</v>
+        <v>222900</v>
       </c>
       <c r="K27" s="3">
         <v>232400</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16200</v>
+        <v>-15700</v>
       </c>
       <c r="E32" s="3">
-        <v>-21200</v>
+        <v>-20500</v>
       </c>
       <c r="F32" s="3">
-        <v>-23100</v>
+        <v>-22300</v>
       </c>
       <c r="G32" s="3">
-        <v>-23100</v>
+        <v>-22300</v>
       </c>
       <c r="H32" s="3">
-        <v>-21800</v>
+        <v>-21100</v>
       </c>
       <c r="I32" s="3">
-        <v>-10000</v>
+        <v>-9600</v>
       </c>
       <c r="J32" s="3">
-        <v>-11200</v>
+        <v>-10800</v>
       </c>
       <c r="K32" s="3">
         <v>-16800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>255500</v>
+        <v>246900</v>
       </c>
       <c r="E33" s="3">
-        <v>239300</v>
+        <v>231300</v>
       </c>
       <c r="F33" s="3">
-        <v>261700</v>
+        <v>253000</v>
       </c>
       <c r="G33" s="3">
-        <v>254800</v>
+        <v>246300</v>
       </c>
       <c r="H33" s="3">
-        <v>227400</v>
+        <v>219800</v>
       </c>
       <c r="I33" s="3">
-        <v>260500</v>
+        <v>251800</v>
       </c>
       <c r="J33" s="3">
-        <v>230500</v>
+        <v>222900</v>
       </c>
       <c r="K33" s="3">
         <v>232400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>255500</v>
+        <v>246900</v>
       </c>
       <c r="E35" s="3">
-        <v>239300</v>
+        <v>231300</v>
       </c>
       <c r="F35" s="3">
-        <v>261700</v>
+        <v>253000</v>
       </c>
       <c r="G35" s="3">
-        <v>254800</v>
+        <v>246300</v>
       </c>
       <c r="H35" s="3">
-        <v>227400</v>
+        <v>219800</v>
       </c>
       <c r="I35" s="3">
-        <v>260500</v>
+        <v>251800</v>
       </c>
       <c r="J35" s="3">
-        <v>230500</v>
+        <v>222900</v>
       </c>
       <c r="K35" s="3">
         <v>232400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44200</v>
+        <v>42800</v>
       </c>
       <c r="E41" s="3">
-        <v>44900</v>
+        <v>43400</v>
       </c>
       <c r="F41" s="3">
-        <v>33000</v>
+        <v>31900</v>
       </c>
       <c r="G41" s="3">
-        <v>33600</v>
+        <v>32500</v>
       </c>
       <c r="H41" s="3">
-        <v>34300</v>
+        <v>33100</v>
       </c>
       <c r="I41" s="3">
-        <v>32400</v>
+        <v>31300</v>
       </c>
       <c r="J41" s="3">
-        <v>32400</v>
+        <v>31300</v>
       </c>
       <c r="K41" s="3">
         <v>49800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>406300</v>
+        <v>392700</v>
       </c>
       <c r="E43" s="3">
-        <v>844900</v>
+        <v>816700</v>
       </c>
       <c r="F43" s="3">
-        <v>386900</v>
+        <v>374000</v>
       </c>
       <c r="G43" s="3">
-        <v>383200</v>
+        <v>370400</v>
       </c>
       <c r="H43" s="3">
-        <v>757100</v>
+        <v>731800</v>
       </c>
       <c r="I43" s="3">
-        <v>329600</v>
+        <v>318600</v>
       </c>
       <c r="J43" s="3">
-        <v>269800</v>
+        <v>260800</v>
       </c>
       <c r="K43" s="3">
         <v>221200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>66700</v>
+        <v>64400</v>
       </c>
       <c r="E44" s="3">
-        <v>79800</v>
+        <v>77100</v>
       </c>
       <c r="F44" s="3">
-        <v>59800</v>
+        <v>57800</v>
       </c>
       <c r="G44" s="3">
-        <v>62300</v>
+        <v>60200</v>
       </c>
       <c r="H44" s="3">
-        <v>98400</v>
+        <v>95200</v>
       </c>
       <c r="I44" s="3">
-        <v>58600</v>
+        <v>56600</v>
       </c>
       <c r="J44" s="3">
-        <v>50500</v>
+        <v>48800</v>
       </c>
       <c r="K44" s="3">
         <v>43600</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>243600</v>
+        <v>235500</v>
       </c>
       <c r="E45" s="3">
-        <v>119600</v>
+        <v>115600</v>
       </c>
       <c r="F45" s="3">
-        <v>117100</v>
+        <v>113200</v>
       </c>
       <c r="G45" s="3">
-        <v>88500</v>
+        <v>85500</v>
       </c>
       <c r="H45" s="3">
-        <v>77300</v>
+        <v>74700</v>
       </c>
       <c r="I45" s="3">
-        <v>50500</v>
+        <v>48800</v>
       </c>
       <c r="J45" s="3">
-        <v>51700</v>
+        <v>50000</v>
       </c>
       <c r="K45" s="3">
         <v>100300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>760800</v>
+        <v>735400</v>
       </c>
       <c r="E46" s="3">
-        <v>570800</v>
+        <v>551700</v>
       </c>
       <c r="F46" s="3">
-        <v>596900</v>
+        <v>577000</v>
       </c>
       <c r="G46" s="3">
-        <v>567600</v>
+        <v>548700</v>
       </c>
       <c r="H46" s="3">
-        <v>502800</v>
+        <v>486100</v>
       </c>
       <c r="I46" s="3">
-        <v>471100</v>
+        <v>455300</v>
       </c>
       <c r="J46" s="3">
-        <v>404400</v>
+        <v>390900</v>
       </c>
       <c r="K46" s="3">
         <v>414900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>254800</v>
+        <v>246300</v>
       </c>
       <c r="E47" s="3">
-        <v>451700</v>
+        <v>436700</v>
       </c>
       <c r="F47" s="3">
-        <v>368900</v>
+        <v>356600</v>
       </c>
       <c r="G47" s="3">
-        <v>294700</v>
+        <v>284900</v>
       </c>
       <c r="H47" s="3">
-        <v>454900</v>
+        <v>439700</v>
       </c>
       <c r="I47" s="3">
-        <v>215000</v>
+        <v>207800</v>
       </c>
       <c r="J47" s="3">
-        <v>212500</v>
+        <v>205400</v>
       </c>
       <c r="K47" s="3">
         <v>195600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1063600</v>
+        <v>1028100</v>
       </c>
       <c r="E48" s="3">
-        <v>2248100</v>
+        <v>2173100</v>
       </c>
       <c r="F48" s="3">
-        <v>1187000</v>
+        <v>1147400</v>
       </c>
       <c r="G48" s="3">
-        <v>1054300</v>
+        <v>1019100</v>
       </c>
       <c r="H48" s="3">
-        <v>1704800</v>
+        <v>1647900</v>
       </c>
       <c r="I48" s="3">
-        <v>666700</v>
+        <v>644500</v>
       </c>
       <c r="J48" s="3">
-        <v>687900</v>
+        <v>664900</v>
       </c>
       <c r="K48" s="3">
         <v>688400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>522800</v>
+        <v>505300</v>
       </c>
       <c r="E49" s="3">
-        <v>1077300</v>
+        <v>1041400</v>
       </c>
       <c r="F49" s="3">
-        <v>525300</v>
+        <v>507700</v>
       </c>
       <c r="G49" s="3">
-        <v>615000</v>
+        <v>594500</v>
       </c>
       <c r="H49" s="3">
-        <v>1347800</v>
+        <v>1302800</v>
       </c>
       <c r="I49" s="3">
-        <v>718400</v>
+        <v>694500</v>
       </c>
       <c r="J49" s="3">
-        <v>704700</v>
+        <v>681200</v>
       </c>
       <c r="K49" s="3">
         <v>697800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="E52" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="F52" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="G52" s="3">
-        <v>19900</v>
+        <v>19300</v>
       </c>
       <c r="H52" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="I52" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="J52" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2610200</v>
+        <v>2523000</v>
       </c>
       <c r="E54" s="3">
-        <v>2554700</v>
+        <v>2469400</v>
       </c>
       <c r="F54" s="3">
-        <v>2715500</v>
+        <v>2624800</v>
       </c>
       <c r="G54" s="3">
-        <v>2551600</v>
+        <v>2466400</v>
       </c>
       <c r="H54" s="3">
-        <v>2395200</v>
+        <v>2315200</v>
       </c>
       <c r="I54" s="3">
-        <v>2075500</v>
+        <v>2006300</v>
       </c>
       <c r="J54" s="3">
-        <v>2017000</v>
+        <v>1949600</v>
       </c>
       <c r="K54" s="3">
         <v>1997300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>163300</v>
+        <v>157800</v>
       </c>
       <c r="E57" s="3">
-        <v>466700</v>
+        <v>451100</v>
       </c>
       <c r="F57" s="3">
-        <v>166400</v>
+        <v>160800</v>
       </c>
       <c r="G57" s="3">
-        <v>160800</v>
+        <v>155400</v>
       </c>
       <c r="H57" s="3">
-        <v>476000</v>
+        <v>460200</v>
       </c>
       <c r="I57" s="3">
-        <v>168900</v>
+        <v>163200</v>
       </c>
       <c r="J57" s="3">
-        <v>172600</v>
+        <v>166800</v>
       </c>
       <c r="K57" s="3">
         <v>217400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>236800</v>
+        <v>228900</v>
       </c>
       <c r="E58" s="3">
-        <v>425000</v>
+        <v>410800</v>
       </c>
       <c r="F58" s="3">
-        <v>186900</v>
+        <v>180700</v>
       </c>
       <c r="G58" s="3">
-        <v>297800</v>
+        <v>287900</v>
       </c>
       <c r="H58" s="3">
-        <v>177000</v>
+        <v>171100</v>
       </c>
       <c r="I58" s="3">
-        <v>183800</v>
+        <v>177700</v>
       </c>
       <c r="J58" s="3">
-        <v>118400</v>
+        <v>114400</v>
       </c>
       <c r="K58" s="3">
         <v>94100</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>185700</v>
+        <v>179500</v>
       </c>
       <c r="E59" s="3">
-        <v>125900</v>
+        <v>121700</v>
       </c>
       <c r="F59" s="3">
-        <v>152000</v>
+        <v>147000</v>
       </c>
       <c r="G59" s="3">
-        <v>129600</v>
+        <v>125300</v>
       </c>
       <c r="H59" s="3">
-        <v>142100</v>
+        <v>137300</v>
       </c>
       <c r="I59" s="3">
-        <v>140200</v>
+        <v>135500</v>
       </c>
       <c r="J59" s="3">
-        <v>115900</v>
+        <v>112000</v>
       </c>
       <c r="K59" s="3">
         <v>135200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>585700</v>
+        <v>566200</v>
       </c>
       <c r="E60" s="3">
-        <v>585100</v>
+        <v>565600</v>
       </c>
       <c r="F60" s="3">
-        <v>505300</v>
+        <v>488500</v>
       </c>
       <c r="G60" s="3">
-        <v>588200</v>
+        <v>568600</v>
       </c>
       <c r="H60" s="3">
-        <v>472900</v>
+        <v>457100</v>
       </c>
       <c r="I60" s="3">
-        <v>492900</v>
+        <v>476400</v>
       </c>
       <c r="J60" s="3">
-        <v>406900</v>
+        <v>393300</v>
       </c>
       <c r="K60" s="3">
         <v>446700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>950200</v>
+        <v>918500</v>
       </c>
       <c r="E61" s="3">
-        <v>894800</v>
+        <v>864900</v>
       </c>
       <c r="F61" s="3">
-        <v>1106000</v>
+        <v>1069100</v>
       </c>
       <c r="G61" s="3">
-        <v>885400</v>
+        <v>855900</v>
       </c>
       <c r="H61" s="3">
-        <v>869800</v>
+        <v>840800</v>
       </c>
       <c r="I61" s="3">
-        <v>431200</v>
+        <v>416800</v>
       </c>
       <c r="J61" s="3">
-        <v>426800</v>
+        <v>412600</v>
       </c>
       <c r="K61" s="3">
         <v>338300</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>155200</v>
+        <v>150000</v>
       </c>
       <c r="E62" s="3">
-        <v>145200</v>
+        <v>140300</v>
       </c>
       <c r="F62" s="3">
-        <v>185700</v>
+        <v>179500</v>
       </c>
       <c r="G62" s="3">
-        <v>165100</v>
+        <v>159600</v>
       </c>
       <c r="H62" s="3">
-        <v>141400</v>
+        <v>136700</v>
       </c>
       <c r="I62" s="3">
-        <v>122800</v>
+        <v>118700</v>
       </c>
       <c r="J62" s="3">
-        <v>134000</v>
+        <v>129500</v>
       </c>
       <c r="K62" s="3">
         <v>104700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1691100</v>
+        <v>1634600</v>
       </c>
       <c r="E66" s="3">
-        <v>1625000</v>
+        <v>1570800</v>
       </c>
       <c r="F66" s="3">
-        <v>1797000</v>
+        <v>1737000</v>
       </c>
       <c r="G66" s="3">
-        <v>1638800</v>
+        <v>1584000</v>
       </c>
       <c r="H66" s="3">
-        <v>1471100</v>
+        <v>1422000</v>
       </c>
       <c r="I66" s="3">
-        <v>1046800</v>
+        <v>1011900</v>
       </c>
       <c r="J66" s="3">
-        <v>967700</v>
+        <v>935400</v>
       </c>
       <c r="K66" s="3">
         <v>889600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>453000</v>
+        <v>437900</v>
       </c>
       <c r="E72" s="3">
-        <v>487300</v>
+        <v>471000</v>
       </c>
       <c r="F72" s="3">
-        <v>548300</v>
+        <v>530000</v>
       </c>
       <c r="G72" s="3">
-        <v>580100</v>
+        <v>560700</v>
       </c>
       <c r="H72" s="3">
-        <v>611300</v>
+        <v>590900</v>
       </c>
       <c r="I72" s="3">
-        <v>702200</v>
+        <v>678800</v>
       </c>
       <c r="J72" s="3">
-        <v>729700</v>
+        <v>705300</v>
       </c>
       <c r="K72" s="3">
         <v>767500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>919100</v>
+        <v>888400</v>
       </c>
       <c r="E76" s="3">
-        <v>929700</v>
+        <v>898600</v>
       </c>
       <c r="F76" s="3">
-        <v>918400</v>
+        <v>887800</v>
       </c>
       <c r="G76" s="3">
-        <v>912800</v>
+        <v>882400</v>
       </c>
       <c r="H76" s="3">
-        <v>924100</v>
+        <v>893200</v>
       </c>
       <c r="I76" s="3">
-        <v>1028700</v>
+        <v>994400</v>
       </c>
       <c r="J76" s="3">
-        <v>1049300</v>
+        <v>1014300</v>
       </c>
       <c r="K76" s="3">
         <v>1107700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>255500</v>
+        <v>246900</v>
       </c>
       <c r="E81" s="3">
-        <v>239300</v>
+        <v>231300</v>
       </c>
       <c r="F81" s="3">
-        <v>261700</v>
+        <v>253000</v>
       </c>
       <c r="G81" s="3">
-        <v>254800</v>
+        <v>246300</v>
       </c>
       <c r="H81" s="3">
-        <v>227400</v>
+        <v>219800</v>
       </c>
       <c r="I81" s="3">
-        <v>260500</v>
+        <v>251800</v>
       </c>
       <c r="J81" s="3">
-        <v>230500</v>
+        <v>222900</v>
       </c>
       <c r="K81" s="3">
         <v>232400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>324000</v>
+        <v>313200</v>
       </c>
       <c r="E83" s="3">
-        <v>324600</v>
+        <v>313800</v>
       </c>
       <c r="F83" s="3">
-        <v>298500</v>
+        <v>288500</v>
       </c>
       <c r="G83" s="3">
-        <v>297200</v>
+        <v>287300</v>
       </c>
       <c r="H83" s="3">
-        <v>299700</v>
+        <v>289700</v>
       </c>
       <c r="I83" s="3">
-        <v>267900</v>
+        <v>259000</v>
       </c>
       <c r="J83" s="3">
-        <v>277900</v>
+        <v>268600</v>
       </c>
       <c r="K83" s="3">
         <v>282200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>524000</v>
+        <v>506500</v>
       </c>
       <c r="E89" s="3">
-        <v>531500</v>
+        <v>513800</v>
       </c>
       <c r="F89" s="3">
-        <v>562700</v>
+        <v>543900</v>
       </c>
       <c r="G89" s="3">
-        <v>484100</v>
+        <v>468000</v>
       </c>
       <c r="H89" s="3">
-        <v>510900</v>
+        <v>493900</v>
       </c>
       <c r="I89" s="3">
-        <v>446800</v>
+        <v>431800</v>
       </c>
       <c r="J89" s="3">
-        <v>446100</v>
+        <v>431200</v>
       </c>
       <c r="K89" s="3">
         <v>392500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-264800</v>
+        <v>-256000</v>
       </c>
       <c r="E91" s="3">
-        <v>-205600</v>
+        <v>-198800</v>
       </c>
       <c r="F91" s="3">
-        <v>-244900</v>
+        <v>-236700</v>
       </c>
       <c r="G91" s="3">
-        <v>-258600</v>
+        <v>-250000</v>
       </c>
       <c r="H91" s="3">
-        <v>-258000</v>
+        <v>-249400</v>
       </c>
       <c r="I91" s="3">
-        <v>-248000</v>
+        <v>-239700</v>
       </c>
       <c r="J91" s="3">
-        <v>-260500</v>
+        <v>-251800</v>
       </c>
       <c r="K91" s="3">
         <v>-365100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-306600</v>
+        <v>-296300</v>
       </c>
       <c r="E94" s="3">
-        <v>-234300</v>
+        <v>-226500</v>
       </c>
       <c r="F94" s="3">
-        <v>-256100</v>
+        <v>-247500</v>
       </c>
       <c r="G94" s="3">
-        <v>-265400</v>
+        <v>-256600</v>
       </c>
       <c r="H94" s="3">
-        <v>-301600</v>
+        <v>-291500</v>
       </c>
       <c r="I94" s="3">
-        <v>-236800</v>
+        <v>-228900</v>
       </c>
       <c r="J94" s="3">
-        <v>-304100</v>
+        <v>-293900</v>
       </c>
       <c r="K94" s="3">
         <v>-284100</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-279800</v>
+        <v>-270400</v>
       </c>
       <c r="E96" s="3">
-        <v>-205600</v>
+        <v>-198800</v>
       </c>
       <c r="F96" s="3">
-        <v>-286000</v>
+        <v>-276500</v>
       </c>
       <c r="G96" s="3">
-        <v>-286000</v>
+        <v>-276500</v>
       </c>
       <c r="H96" s="3">
-        <v>-285400</v>
+        <v>-275900</v>
       </c>
       <c r="I96" s="3">
-        <v>-285400</v>
+        <v>-275900</v>
       </c>
       <c r="J96" s="3">
-        <v>-267900</v>
+        <v>-259000</v>
       </c>
       <c r="K96" s="3">
         <v>-185700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-218100</v>
+        <v>-210800</v>
       </c>
       <c r="E100" s="3">
-        <v>-285400</v>
+        <v>-275900</v>
       </c>
       <c r="F100" s="3">
-        <v>-307200</v>
+        <v>-296900</v>
       </c>
       <c r="G100" s="3">
-        <v>-219300</v>
+        <v>-212000</v>
       </c>
       <c r="H100" s="3">
-        <v>-207500</v>
+        <v>-200600</v>
       </c>
       <c r="I100" s="3">
-        <v>-210000</v>
+        <v>-203000</v>
       </c>
       <c r="J100" s="3">
-        <v>-159500</v>
+        <v>-154200</v>
       </c>
       <c r="K100" s="3">
         <v>-189400</v>
@@ -4001,7 +4001,7 @@
         <v>-600</v>
       </c>
       <c r="E102" s="3">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="F102" s="3">
         <v>-600</v>
@@ -4010,13 +4010,13 @@
         <v>-600</v>
       </c>
       <c r="H102" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-17400</v>
+        <v>-16900</v>
       </c>
       <c r="K102" s="3">
         <v>-79700</v>

--- a/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2224900</v>
+        <v>2253000</v>
       </c>
       <c r="E8" s="3">
-        <v>2147800</v>
+        <v>2174900</v>
       </c>
       <c r="F8" s="3">
-        <v>2164100</v>
+        <v>2191400</v>
       </c>
       <c r="G8" s="3">
-        <v>2120100</v>
+        <v>2146800</v>
       </c>
       <c r="H8" s="3">
-        <v>2127900</v>
+        <v>2154800</v>
       </c>
       <c r="I8" s="3">
-        <v>2164700</v>
+        <v>2192000</v>
       </c>
       <c r="J8" s="3">
-        <v>2106200</v>
+        <v>2132800</v>
       </c>
       <c r="K8" s="3">
         <v>2179900</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1059400</v>
+        <v>1072800</v>
       </c>
       <c r="E9" s="3">
-        <v>1009500</v>
+        <v>1022200</v>
       </c>
       <c r="F9" s="3">
-        <v>1001000</v>
+        <v>1013700</v>
       </c>
       <c r="G9" s="3">
-        <v>978700</v>
+        <v>991100</v>
       </c>
       <c r="H9" s="3">
-        <v>1941200</v>
+        <v>1965700</v>
       </c>
       <c r="I9" s="3">
-        <v>967300</v>
+        <v>979500</v>
       </c>
       <c r="J9" s="3">
-        <v>946800</v>
+        <v>958800</v>
       </c>
       <c r="K9" s="3">
         <v>989300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1165500</v>
+        <v>1180200</v>
       </c>
       <c r="E10" s="3">
-        <v>1138300</v>
+        <v>1152700</v>
       </c>
       <c r="F10" s="3">
-        <v>1163000</v>
+        <v>1177700</v>
       </c>
       <c r="G10" s="3">
-        <v>1141400</v>
+        <v>1155800</v>
       </c>
       <c r="H10" s="3">
-        <v>186700</v>
+        <v>189100</v>
       </c>
       <c r="I10" s="3">
-        <v>1197400</v>
+        <v>1212500</v>
       </c>
       <c r="J10" s="3">
-        <v>1159400</v>
+        <v>1174100</v>
       </c>
       <c r="K10" s="3">
         <v>1190600</v>
@@ -935,10 +935,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-8400</v>
+        <v>-8500</v>
       </c>
       <c r="E14" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>600</v>
       </c>
       <c r="H14" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I14" s="3">
         <v>1200</v>
       </c>
       <c r="J14" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>313200</v>
+        <v>317100</v>
       </c>
       <c r="E15" s="3">
-        <v>315000</v>
+        <v>319000</v>
       </c>
       <c r="F15" s="3">
-        <v>293900</v>
+        <v>297600</v>
       </c>
       <c r="G15" s="3">
-        <v>287300</v>
+        <v>290900</v>
       </c>
       <c r="H15" s="3">
-        <v>383100</v>
+        <v>387900</v>
       </c>
       <c r="I15" s="3">
-        <v>259000</v>
+        <v>262300</v>
       </c>
       <c r="J15" s="3">
-        <v>268600</v>
+        <v>272000</v>
       </c>
       <c r="K15" s="3">
         <v>282200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1846000</v>
+        <v>1869300</v>
       </c>
       <c r="E17" s="3">
-        <v>1786400</v>
+        <v>1809000</v>
       </c>
       <c r="F17" s="3">
-        <v>1787600</v>
+        <v>1810200</v>
       </c>
       <c r="G17" s="3">
-        <v>1742500</v>
+        <v>1764400</v>
       </c>
       <c r="H17" s="3">
-        <v>1798500</v>
+        <v>1821200</v>
       </c>
       <c r="I17" s="3">
-        <v>1811700</v>
+        <v>1834600</v>
       </c>
       <c r="J17" s="3">
-        <v>1781000</v>
+        <v>1803500</v>
       </c>
       <c r="K17" s="3">
         <v>1862800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>378800</v>
+        <v>383600</v>
       </c>
       <c r="E18" s="3">
-        <v>361400</v>
+        <v>365900</v>
       </c>
       <c r="F18" s="3">
-        <v>376400</v>
+        <v>381200</v>
       </c>
       <c r="G18" s="3">
-        <v>377600</v>
+        <v>382400</v>
       </c>
       <c r="H18" s="3">
-        <v>329500</v>
+        <v>333600</v>
       </c>
       <c r="I18" s="3">
-        <v>352900</v>
+        <v>357400</v>
       </c>
       <c r="J18" s="3">
-        <v>325200</v>
+        <v>329300</v>
       </c>
       <c r="K18" s="3">
         <v>317100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15700</v>
+        <v>15900</v>
       </c>
       <c r="E20" s="3">
-        <v>20500</v>
+        <v>20700</v>
       </c>
       <c r="F20" s="3">
-        <v>22300</v>
+        <v>22600</v>
       </c>
       <c r="G20" s="3">
-        <v>22300</v>
+        <v>22600</v>
       </c>
       <c r="H20" s="3">
-        <v>21100</v>
+        <v>21300</v>
       </c>
       <c r="I20" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="J20" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="K20" s="3">
         <v>16800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>700300</v>
+        <v>716900</v>
       </c>
       <c r="E21" s="3">
-        <v>688300</v>
+        <v>704700</v>
       </c>
       <c r="F21" s="3">
-        <v>680400</v>
+        <v>696200</v>
       </c>
       <c r="G21" s="3">
-        <v>680500</v>
+        <v>696200</v>
       </c>
       <c r="H21" s="3">
-        <v>633400</v>
+        <v>648600</v>
       </c>
       <c r="I21" s="3">
-        <v>615500</v>
+        <v>629700</v>
       </c>
       <c r="J21" s="3">
-        <v>598400</v>
+        <v>612600</v>
       </c>
       <c r="K21" s="3">
         <v>619300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44600</v>
+        <v>45100</v>
       </c>
       <c r="E22" s="3">
-        <v>48800</v>
+        <v>49400</v>
       </c>
       <c r="F22" s="3">
-        <v>56600</v>
+        <v>57300</v>
       </c>
       <c r="G22" s="3">
-        <v>51200</v>
+        <v>51800</v>
       </c>
       <c r="H22" s="3">
-        <v>46400</v>
+        <v>47000</v>
       </c>
       <c r="I22" s="3">
-        <v>25300</v>
+        <v>25600</v>
       </c>
       <c r="J22" s="3">
-        <v>27700</v>
+        <v>28100</v>
       </c>
       <c r="K22" s="3">
         <v>33600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>349900</v>
+        <v>354400</v>
       </c>
       <c r="E23" s="3">
-        <v>333100</v>
+        <v>337300</v>
       </c>
       <c r="F23" s="3">
-        <v>342100</v>
+        <v>346400</v>
       </c>
       <c r="G23" s="3">
-        <v>348700</v>
+        <v>353100</v>
       </c>
       <c r="H23" s="3">
-        <v>304200</v>
+        <v>308000</v>
       </c>
       <c r="I23" s="3">
-        <v>337300</v>
+        <v>341500</v>
       </c>
       <c r="J23" s="3">
-        <v>308400</v>
+        <v>312300</v>
       </c>
       <c r="K23" s="3">
         <v>300300</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>103000</v>
+        <v>104300</v>
       </c>
       <c r="E24" s="3">
-        <v>101800</v>
+        <v>103100</v>
       </c>
       <c r="F24" s="3">
-        <v>89100</v>
+        <v>90300</v>
       </c>
       <c r="G24" s="3">
-        <v>102400</v>
+        <v>103700</v>
       </c>
       <c r="H24" s="3">
-        <v>84300</v>
+        <v>85400</v>
       </c>
       <c r="I24" s="3">
-        <v>85500</v>
+        <v>86600</v>
       </c>
       <c r="J24" s="3">
-        <v>85500</v>
+        <v>86600</v>
       </c>
       <c r="K24" s="3">
         <v>66700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>246900</v>
+        <v>250100</v>
       </c>
       <c r="E26" s="3">
-        <v>231300</v>
+        <v>234200</v>
       </c>
       <c r="F26" s="3">
-        <v>253000</v>
+        <v>256200</v>
       </c>
       <c r="G26" s="3">
-        <v>246300</v>
+        <v>249400</v>
       </c>
       <c r="H26" s="3">
-        <v>219800</v>
+        <v>222600</v>
       </c>
       <c r="I26" s="3">
-        <v>251800</v>
+        <v>254900</v>
       </c>
       <c r="J26" s="3">
-        <v>222900</v>
+        <v>225700</v>
       </c>
       <c r="K26" s="3">
         <v>233600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>246900</v>
+        <v>250100</v>
       </c>
       <c r="E27" s="3">
-        <v>231300</v>
+        <v>234200</v>
       </c>
       <c r="F27" s="3">
-        <v>253000</v>
+        <v>256200</v>
       </c>
       <c r="G27" s="3">
-        <v>246300</v>
+        <v>249400</v>
       </c>
       <c r="H27" s="3">
-        <v>219800</v>
+        <v>222600</v>
       </c>
       <c r="I27" s="3">
-        <v>251800</v>
+        <v>254900</v>
       </c>
       <c r="J27" s="3">
-        <v>222900</v>
+        <v>225700</v>
       </c>
       <c r="K27" s="3">
         <v>232400</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15700</v>
+        <v>-15900</v>
       </c>
       <c r="E32" s="3">
-        <v>-20500</v>
+        <v>-20700</v>
       </c>
       <c r="F32" s="3">
-        <v>-22300</v>
+        <v>-22600</v>
       </c>
       <c r="G32" s="3">
-        <v>-22300</v>
+        <v>-22600</v>
       </c>
       <c r="H32" s="3">
-        <v>-21100</v>
+        <v>-21300</v>
       </c>
       <c r="I32" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="J32" s="3">
-        <v>-10800</v>
+        <v>-11000</v>
       </c>
       <c r="K32" s="3">
         <v>-16800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>246900</v>
+        <v>250100</v>
       </c>
       <c r="E33" s="3">
-        <v>231300</v>
+        <v>234200</v>
       </c>
       <c r="F33" s="3">
-        <v>253000</v>
+        <v>256200</v>
       </c>
       <c r="G33" s="3">
-        <v>246300</v>
+        <v>249400</v>
       </c>
       <c r="H33" s="3">
-        <v>219800</v>
+        <v>222600</v>
       </c>
       <c r="I33" s="3">
-        <v>251800</v>
+        <v>254900</v>
       </c>
       <c r="J33" s="3">
-        <v>222900</v>
+        <v>225700</v>
       </c>
       <c r="K33" s="3">
         <v>232400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>246900</v>
+        <v>250100</v>
       </c>
       <c r="E35" s="3">
-        <v>231300</v>
+        <v>234200</v>
       </c>
       <c r="F35" s="3">
-        <v>253000</v>
+        <v>256200</v>
       </c>
       <c r="G35" s="3">
-        <v>246300</v>
+        <v>249400</v>
       </c>
       <c r="H35" s="3">
-        <v>219800</v>
+        <v>222600</v>
       </c>
       <c r="I35" s="3">
-        <v>251800</v>
+        <v>254900</v>
       </c>
       <c r="J35" s="3">
-        <v>222900</v>
+        <v>225700</v>
       </c>
       <c r="K35" s="3">
         <v>232400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>42800</v>
+        <v>43300</v>
       </c>
       <c r="E41" s="3">
-        <v>43400</v>
+        <v>43900</v>
       </c>
       <c r="F41" s="3">
-        <v>31900</v>
+        <v>32300</v>
       </c>
       <c r="G41" s="3">
-        <v>32500</v>
+        <v>32900</v>
       </c>
       <c r="H41" s="3">
-        <v>33100</v>
+        <v>33500</v>
       </c>
       <c r="I41" s="3">
-        <v>31300</v>
+        <v>31700</v>
       </c>
       <c r="J41" s="3">
-        <v>31300</v>
+        <v>31700</v>
       </c>
       <c r="K41" s="3">
         <v>49800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>392700</v>
+        <v>397700</v>
       </c>
       <c r="E43" s="3">
-        <v>816700</v>
+        <v>827000</v>
       </c>
       <c r="F43" s="3">
-        <v>374000</v>
+        <v>378700</v>
       </c>
       <c r="G43" s="3">
-        <v>370400</v>
+        <v>375100</v>
       </c>
       <c r="H43" s="3">
-        <v>731800</v>
+        <v>741000</v>
       </c>
       <c r="I43" s="3">
-        <v>318600</v>
+        <v>322600</v>
       </c>
       <c r="J43" s="3">
-        <v>260800</v>
+        <v>264100</v>
       </c>
       <c r="K43" s="3">
         <v>221200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>64400</v>
+        <v>65300</v>
       </c>
       <c r="E44" s="3">
-        <v>77100</v>
+        <v>78100</v>
       </c>
       <c r="F44" s="3">
-        <v>57800</v>
+        <v>58600</v>
       </c>
       <c r="G44" s="3">
-        <v>60200</v>
+        <v>61000</v>
       </c>
       <c r="H44" s="3">
-        <v>95200</v>
+        <v>96400</v>
       </c>
       <c r="I44" s="3">
-        <v>56600</v>
+        <v>57300</v>
       </c>
       <c r="J44" s="3">
-        <v>48800</v>
+        <v>49400</v>
       </c>
       <c r="K44" s="3">
         <v>43600</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>235500</v>
+        <v>238500</v>
       </c>
       <c r="E45" s="3">
-        <v>115600</v>
+        <v>117100</v>
       </c>
       <c r="F45" s="3">
-        <v>113200</v>
+        <v>114700</v>
       </c>
       <c r="G45" s="3">
-        <v>85500</v>
+        <v>86600</v>
       </c>
       <c r="H45" s="3">
-        <v>74700</v>
+        <v>75600</v>
       </c>
       <c r="I45" s="3">
-        <v>48800</v>
+        <v>49400</v>
       </c>
       <c r="J45" s="3">
-        <v>50000</v>
+        <v>50600</v>
       </c>
       <c r="K45" s="3">
         <v>100300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>735400</v>
+        <v>744700</v>
       </c>
       <c r="E46" s="3">
-        <v>551700</v>
+        <v>558700</v>
       </c>
       <c r="F46" s="3">
-        <v>577000</v>
+        <v>584300</v>
       </c>
       <c r="G46" s="3">
-        <v>548700</v>
+        <v>555600</v>
       </c>
       <c r="H46" s="3">
-        <v>486100</v>
+        <v>492200</v>
       </c>
       <c r="I46" s="3">
-        <v>455300</v>
+        <v>461100</v>
       </c>
       <c r="J46" s="3">
-        <v>390900</v>
+        <v>395800</v>
       </c>
       <c r="K46" s="3">
         <v>414900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>246300</v>
+        <v>249400</v>
       </c>
       <c r="E47" s="3">
-        <v>436700</v>
+        <v>442200</v>
       </c>
       <c r="F47" s="3">
-        <v>356600</v>
+        <v>361100</v>
       </c>
       <c r="G47" s="3">
-        <v>284900</v>
+        <v>288500</v>
       </c>
       <c r="H47" s="3">
-        <v>439700</v>
+        <v>445200</v>
       </c>
       <c r="I47" s="3">
-        <v>207800</v>
+        <v>210400</v>
       </c>
       <c r="J47" s="3">
-        <v>205400</v>
+        <v>208000</v>
       </c>
       <c r="K47" s="3">
         <v>195600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1028100</v>
+        <v>1041100</v>
       </c>
       <c r="E48" s="3">
-        <v>2173100</v>
+        <v>2200500</v>
       </c>
       <c r="F48" s="3">
-        <v>1147400</v>
+        <v>1161900</v>
       </c>
       <c r="G48" s="3">
-        <v>1019100</v>
+        <v>1032000</v>
       </c>
       <c r="H48" s="3">
-        <v>1647900</v>
+        <v>1668700</v>
       </c>
       <c r="I48" s="3">
-        <v>644500</v>
+        <v>652600</v>
       </c>
       <c r="J48" s="3">
-        <v>664900</v>
+        <v>673300</v>
       </c>
       <c r="K48" s="3">
         <v>688400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>505300</v>
+        <v>511700</v>
       </c>
       <c r="E49" s="3">
-        <v>1041400</v>
+        <v>1054500</v>
       </c>
       <c r="F49" s="3">
-        <v>507700</v>
+        <v>514100</v>
       </c>
       <c r="G49" s="3">
-        <v>594500</v>
+        <v>602000</v>
       </c>
       <c r="H49" s="3">
-        <v>1302800</v>
+        <v>1319200</v>
       </c>
       <c r="I49" s="3">
-        <v>694500</v>
+        <v>703200</v>
       </c>
       <c r="J49" s="3">
-        <v>681200</v>
+        <v>689800</v>
       </c>
       <c r="K49" s="3">
         <v>697800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="E52" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="F52" s="3">
-        <v>36100</v>
+        <v>36600</v>
       </c>
       <c r="G52" s="3">
-        <v>19300</v>
+        <v>19500</v>
       </c>
       <c r="H52" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="I52" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J52" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2523000</v>
+        <v>2554900</v>
       </c>
       <c r="E54" s="3">
-        <v>2469400</v>
+        <v>2500600</v>
       </c>
       <c r="F54" s="3">
-        <v>2624800</v>
+        <v>2657900</v>
       </c>
       <c r="G54" s="3">
-        <v>2466400</v>
+        <v>2497500</v>
       </c>
       <c r="H54" s="3">
-        <v>2315200</v>
+        <v>2344500</v>
       </c>
       <c r="I54" s="3">
-        <v>2006300</v>
+        <v>2031600</v>
       </c>
       <c r="J54" s="3">
-        <v>1949600</v>
+        <v>1974200</v>
       </c>
       <c r="K54" s="3">
         <v>1997300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>157800</v>
+        <v>159800</v>
       </c>
       <c r="E57" s="3">
-        <v>451100</v>
+        <v>456800</v>
       </c>
       <c r="F57" s="3">
-        <v>160800</v>
+        <v>162800</v>
       </c>
       <c r="G57" s="3">
-        <v>155400</v>
+        <v>157400</v>
       </c>
       <c r="H57" s="3">
-        <v>460200</v>
+        <v>466000</v>
       </c>
       <c r="I57" s="3">
-        <v>163200</v>
+        <v>165300</v>
       </c>
       <c r="J57" s="3">
-        <v>166800</v>
+        <v>168900</v>
       </c>
       <c r="K57" s="3">
         <v>217400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>228900</v>
+        <v>231800</v>
       </c>
       <c r="E58" s="3">
-        <v>410800</v>
+        <v>416000</v>
       </c>
       <c r="F58" s="3">
-        <v>180700</v>
+        <v>183000</v>
       </c>
       <c r="G58" s="3">
-        <v>287900</v>
+        <v>291500</v>
       </c>
       <c r="H58" s="3">
-        <v>171100</v>
+        <v>173200</v>
       </c>
       <c r="I58" s="3">
-        <v>177700</v>
+        <v>179900</v>
       </c>
       <c r="J58" s="3">
-        <v>114400</v>
+        <v>115900</v>
       </c>
       <c r="K58" s="3">
         <v>94100</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>179500</v>
+        <v>181800</v>
       </c>
       <c r="E59" s="3">
-        <v>121700</v>
+        <v>123200</v>
       </c>
       <c r="F59" s="3">
-        <v>147000</v>
+        <v>148800</v>
       </c>
       <c r="G59" s="3">
-        <v>125300</v>
+        <v>126900</v>
       </c>
       <c r="H59" s="3">
-        <v>137300</v>
+        <v>139100</v>
       </c>
       <c r="I59" s="3">
-        <v>135500</v>
+        <v>137200</v>
       </c>
       <c r="J59" s="3">
-        <v>112000</v>
+        <v>113400</v>
       </c>
       <c r="K59" s="3">
         <v>135200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>566200</v>
+        <v>573300</v>
       </c>
       <c r="E60" s="3">
-        <v>565600</v>
+        <v>572700</v>
       </c>
       <c r="F60" s="3">
-        <v>488500</v>
+        <v>494600</v>
       </c>
       <c r="G60" s="3">
-        <v>568600</v>
+        <v>575700</v>
       </c>
       <c r="H60" s="3">
-        <v>457100</v>
+        <v>462900</v>
       </c>
       <c r="I60" s="3">
-        <v>476400</v>
+        <v>482400</v>
       </c>
       <c r="J60" s="3">
-        <v>393300</v>
+        <v>398300</v>
       </c>
       <c r="K60" s="3">
         <v>446700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>918500</v>
+        <v>930100</v>
       </c>
       <c r="E61" s="3">
-        <v>864900</v>
+        <v>875800</v>
       </c>
       <c r="F61" s="3">
-        <v>1069100</v>
+        <v>1082600</v>
       </c>
       <c r="G61" s="3">
-        <v>855900</v>
+        <v>866700</v>
       </c>
       <c r="H61" s="3">
-        <v>840800</v>
+        <v>851400</v>
       </c>
       <c r="I61" s="3">
-        <v>416800</v>
+        <v>422100</v>
       </c>
       <c r="J61" s="3">
-        <v>412600</v>
+        <v>417800</v>
       </c>
       <c r="K61" s="3">
         <v>338300</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>150000</v>
+        <v>151900</v>
       </c>
       <c r="E62" s="3">
-        <v>140300</v>
+        <v>142100</v>
       </c>
       <c r="F62" s="3">
-        <v>179500</v>
+        <v>181800</v>
       </c>
       <c r="G62" s="3">
-        <v>159600</v>
+        <v>161600</v>
       </c>
       <c r="H62" s="3">
-        <v>136700</v>
+        <v>138400</v>
       </c>
       <c r="I62" s="3">
-        <v>118700</v>
+        <v>120200</v>
       </c>
       <c r="J62" s="3">
-        <v>129500</v>
+        <v>131100</v>
       </c>
       <c r="K62" s="3">
         <v>104700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1634600</v>
+        <v>1655300</v>
       </c>
       <c r="E66" s="3">
-        <v>1570800</v>
+        <v>1590600</v>
       </c>
       <c r="F66" s="3">
-        <v>1737000</v>
+        <v>1759000</v>
       </c>
       <c r="G66" s="3">
-        <v>1584000</v>
+        <v>1604000</v>
       </c>
       <c r="H66" s="3">
-        <v>1422000</v>
+        <v>1440000</v>
       </c>
       <c r="I66" s="3">
-        <v>1011900</v>
+        <v>1024600</v>
       </c>
       <c r="J66" s="3">
-        <v>935400</v>
+        <v>947200</v>
       </c>
       <c r="K66" s="3">
         <v>889600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>437900</v>
+        <v>443400</v>
       </c>
       <c r="E72" s="3">
-        <v>471000</v>
+        <v>476900</v>
       </c>
       <c r="F72" s="3">
-        <v>530000</v>
+        <v>536700</v>
       </c>
       <c r="G72" s="3">
-        <v>560700</v>
+        <v>567800</v>
       </c>
       <c r="H72" s="3">
-        <v>590900</v>
+        <v>598300</v>
       </c>
       <c r="I72" s="3">
-        <v>678800</v>
+        <v>687400</v>
       </c>
       <c r="J72" s="3">
-        <v>705300</v>
+        <v>714200</v>
       </c>
       <c r="K72" s="3">
         <v>767500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>888400</v>
+        <v>899600</v>
       </c>
       <c r="E76" s="3">
-        <v>898600</v>
+        <v>910000</v>
       </c>
       <c r="F76" s="3">
-        <v>887800</v>
+        <v>899000</v>
       </c>
       <c r="G76" s="3">
-        <v>882400</v>
+        <v>893500</v>
       </c>
       <c r="H76" s="3">
-        <v>893200</v>
+        <v>904500</v>
       </c>
       <c r="I76" s="3">
-        <v>994400</v>
+        <v>1006900</v>
       </c>
       <c r="J76" s="3">
-        <v>1014300</v>
+        <v>1027100</v>
       </c>
       <c r="K76" s="3">
         <v>1107700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>246900</v>
+        <v>250100</v>
       </c>
       <c r="E81" s="3">
-        <v>231300</v>
+        <v>234200</v>
       </c>
       <c r="F81" s="3">
-        <v>253000</v>
+        <v>256200</v>
       </c>
       <c r="G81" s="3">
-        <v>246300</v>
+        <v>249400</v>
       </c>
       <c r="H81" s="3">
-        <v>219800</v>
+        <v>222600</v>
       </c>
       <c r="I81" s="3">
-        <v>251800</v>
+        <v>254900</v>
       </c>
       <c r="J81" s="3">
-        <v>222900</v>
+        <v>225700</v>
       </c>
       <c r="K81" s="3">
         <v>232400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>313200</v>
+        <v>317100</v>
       </c>
       <c r="E83" s="3">
-        <v>313800</v>
+        <v>317800</v>
       </c>
       <c r="F83" s="3">
-        <v>288500</v>
+        <v>292100</v>
       </c>
       <c r="G83" s="3">
-        <v>287300</v>
+        <v>290900</v>
       </c>
       <c r="H83" s="3">
-        <v>289700</v>
+        <v>293400</v>
       </c>
       <c r="I83" s="3">
-        <v>259000</v>
+        <v>262300</v>
       </c>
       <c r="J83" s="3">
-        <v>268600</v>
+        <v>272000</v>
       </c>
       <c r="K83" s="3">
         <v>282200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>506500</v>
+        <v>512900</v>
       </c>
       <c r="E89" s="3">
-        <v>513800</v>
+        <v>520200</v>
       </c>
       <c r="F89" s="3">
-        <v>543900</v>
+        <v>550700</v>
       </c>
       <c r="G89" s="3">
-        <v>468000</v>
+        <v>473900</v>
       </c>
       <c r="H89" s="3">
-        <v>493900</v>
+        <v>500100</v>
       </c>
       <c r="I89" s="3">
-        <v>431800</v>
+        <v>437300</v>
       </c>
       <c r="J89" s="3">
-        <v>431200</v>
+        <v>436700</v>
       </c>
       <c r="K89" s="3">
         <v>392500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-256000</v>
+        <v>-259200</v>
       </c>
       <c r="E91" s="3">
-        <v>-198800</v>
+        <v>-201300</v>
       </c>
       <c r="F91" s="3">
-        <v>-236700</v>
+        <v>-239700</v>
       </c>
       <c r="G91" s="3">
-        <v>-250000</v>
+        <v>-253100</v>
       </c>
       <c r="H91" s="3">
-        <v>-249400</v>
+        <v>-252500</v>
       </c>
       <c r="I91" s="3">
-        <v>-239700</v>
+        <v>-242700</v>
       </c>
       <c r="J91" s="3">
-        <v>-251800</v>
+        <v>-254900</v>
       </c>
       <c r="K91" s="3">
         <v>-365100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-296300</v>
+        <v>-300100</v>
       </c>
       <c r="E94" s="3">
-        <v>-226500</v>
+        <v>-229300</v>
       </c>
       <c r="F94" s="3">
-        <v>-247500</v>
+        <v>-250700</v>
       </c>
       <c r="G94" s="3">
-        <v>-256600</v>
+        <v>-259800</v>
       </c>
       <c r="H94" s="3">
-        <v>-291500</v>
+        <v>-295200</v>
       </c>
       <c r="I94" s="3">
-        <v>-228900</v>
+        <v>-231800</v>
       </c>
       <c r="J94" s="3">
-        <v>-293900</v>
+        <v>-297600</v>
       </c>
       <c r="K94" s="3">
         <v>-284100</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-270400</v>
+        <v>-273800</v>
       </c>
       <c r="E96" s="3">
-        <v>-198800</v>
+        <v>-201300</v>
       </c>
       <c r="F96" s="3">
-        <v>-276500</v>
+        <v>-279900</v>
       </c>
       <c r="G96" s="3">
-        <v>-276500</v>
+        <v>-279900</v>
       </c>
       <c r="H96" s="3">
-        <v>-275900</v>
+        <v>-279300</v>
       </c>
       <c r="I96" s="3">
-        <v>-275900</v>
+        <v>-279300</v>
       </c>
       <c r="J96" s="3">
-        <v>-259000</v>
+        <v>-262300</v>
       </c>
       <c r="K96" s="3">
         <v>-185700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-210800</v>
+        <v>-213500</v>
       </c>
       <c r="E100" s="3">
-        <v>-275900</v>
+        <v>-279300</v>
       </c>
       <c r="F100" s="3">
-        <v>-296900</v>
+        <v>-300700</v>
       </c>
       <c r="G100" s="3">
-        <v>-212000</v>
+        <v>-214700</v>
       </c>
       <c r="H100" s="3">
-        <v>-200600</v>
+        <v>-203100</v>
       </c>
       <c r="I100" s="3">
-        <v>-203000</v>
+        <v>-205500</v>
       </c>
       <c r="J100" s="3">
-        <v>-154200</v>
+        <v>-156100</v>
       </c>
       <c r="K100" s="3">
         <v>-189400</v>
@@ -4001,7 +4001,7 @@
         <v>-600</v>
       </c>
       <c r="E102" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="F102" s="3">
         <v>-600</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-16900</v>
+        <v>-17100</v>
       </c>
       <c r="K102" s="3">
         <v>-79700</v>

--- a/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2253000</v>
+        <v>2299900</v>
       </c>
       <c r="E8" s="3">
-        <v>2174900</v>
+        <v>2220200</v>
       </c>
       <c r="F8" s="3">
-        <v>2191400</v>
+        <v>2237000</v>
       </c>
       <c r="G8" s="3">
-        <v>2146800</v>
+        <v>2191600</v>
       </c>
       <c r="H8" s="3">
-        <v>2154800</v>
+        <v>2199600</v>
       </c>
       <c r="I8" s="3">
-        <v>2192000</v>
+        <v>2237600</v>
       </c>
       <c r="J8" s="3">
-        <v>2132800</v>
+        <v>2177200</v>
       </c>
       <c r="K8" s="3">
         <v>2179900</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1072800</v>
+        <v>1095200</v>
       </c>
       <c r="E9" s="3">
-        <v>1022200</v>
+        <v>1043500</v>
       </c>
       <c r="F9" s="3">
-        <v>1013700</v>
+        <v>1034800</v>
       </c>
       <c r="G9" s="3">
-        <v>991100</v>
+        <v>1011700</v>
       </c>
       <c r="H9" s="3">
-        <v>1965700</v>
+        <v>2006600</v>
       </c>
       <c r="I9" s="3">
-        <v>979500</v>
+        <v>999900</v>
       </c>
       <c r="J9" s="3">
-        <v>958800</v>
+        <v>978700</v>
       </c>
       <c r="K9" s="3">
         <v>989300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1180200</v>
+        <v>1204700</v>
       </c>
       <c r="E10" s="3">
-        <v>1152700</v>
+        <v>1176700</v>
       </c>
       <c r="F10" s="3">
-        <v>1177700</v>
+        <v>1202200</v>
       </c>
       <c r="G10" s="3">
-        <v>1155800</v>
+        <v>1179800</v>
       </c>
       <c r="H10" s="3">
-        <v>189100</v>
+        <v>193000</v>
       </c>
       <c r="I10" s="3">
-        <v>1212500</v>
+        <v>1237700</v>
       </c>
       <c r="J10" s="3">
-        <v>1174100</v>
+        <v>1198500</v>
       </c>
       <c r="K10" s="3">
         <v>1190600</v>
@@ -935,10 +935,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-8500</v>
+        <v>-8700</v>
       </c>
       <c r="E14" s="3">
-        <v>-9800</v>
+        <v>-10000</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>600</v>
       </c>
       <c r="H14" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="I14" s="3">
         <v>1200</v>
       </c>
       <c r="J14" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>317100</v>
+        <v>323800</v>
       </c>
       <c r="E15" s="3">
-        <v>319000</v>
+        <v>325600</v>
       </c>
       <c r="F15" s="3">
-        <v>297600</v>
+        <v>303800</v>
       </c>
       <c r="G15" s="3">
-        <v>290900</v>
+        <v>297000</v>
       </c>
       <c r="H15" s="3">
-        <v>387900</v>
+        <v>396000</v>
       </c>
       <c r="I15" s="3">
-        <v>262300</v>
+        <v>267700</v>
       </c>
       <c r="J15" s="3">
-        <v>272000</v>
+        <v>277700</v>
       </c>
       <c r="K15" s="3">
         <v>282200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1869300</v>
+        <v>1908300</v>
       </c>
       <c r="E17" s="3">
-        <v>1809000</v>
+        <v>1846600</v>
       </c>
       <c r="F17" s="3">
-        <v>1810200</v>
+        <v>1847900</v>
       </c>
       <c r="G17" s="3">
-        <v>1764400</v>
+        <v>1801200</v>
       </c>
       <c r="H17" s="3">
-        <v>1821200</v>
+        <v>1859100</v>
       </c>
       <c r="I17" s="3">
-        <v>1834600</v>
+        <v>1872800</v>
       </c>
       <c r="J17" s="3">
-        <v>1803500</v>
+        <v>1841000</v>
       </c>
       <c r="K17" s="3">
         <v>1862800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>383600</v>
+        <v>391600</v>
       </c>
       <c r="E18" s="3">
-        <v>365900</v>
+        <v>373600</v>
       </c>
       <c r="F18" s="3">
-        <v>381200</v>
+        <v>389100</v>
       </c>
       <c r="G18" s="3">
-        <v>382400</v>
+        <v>390400</v>
       </c>
       <c r="H18" s="3">
-        <v>333600</v>
+        <v>340600</v>
       </c>
       <c r="I18" s="3">
-        <v>357400</v>
+        <v>364800</v>
       </c>
       <c r="J18" s="3">
-        <v>329300</v>
+        <v>336200</v>
       </c>
       <c r="K18" s="3">
         <v>317100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="E20" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="F20" s="3">
-        <v>22600</v>
+        <v>23000</v>
       </c>
       <c r="G20" s="3">
-        <v>22600</v>
+        <v>23000</v>
       </c>
       <c r="H20" s="3">
-        <v>21300</v>
+        <v>21800</v>
       </c>
       <c r="I20" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="J20" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="K20" s="3">
         <v>16800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>716900</v>
+        <v>732700</v>
       </c>
       <c r="E21" s="3">
-        <v>704700</v>
+        <v>720200</v>
       </c>
       <c r="F21" s="3">
-        <v>696200</v>
+        <v>711400</v>
       </c>
       <c r="G21" s="3">
-        <v>696200</v>
+        <v>711400</v>
       </c>
       <c r="H21" s="3">
-        <v>648600</v>
+        <v>662900</v>
       </c>
       <c r="I21" s="3">
-        <v>629700</v>
+        <v>643500</v>
       </c>
       <c r="J21" s="3">
-        <v>612600</v>
+        <v>626100</v>
       </c>
       <c r="K21" s="3">
         <v>619300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>45100</v>
+        <v>46100</v>
       </c>
       <c r="E22" s="3">
-        <v>49400</v>
+        <v>50400</v>
       </c>
       <c r="F22" s="3">
-        <v>57300</v>
+        <v>58500</v>
       </c>
       <c r="G22" s="3">
-        <v>51800</v>
+        <v>52900</v>
       </c>
       <c r="H22" s="3">
-        <v>47000</v>
+        <v>47900</v>
       </c>
       <c r="I22" s="3">
-        <v>25600</v>
+        <v>26100</v>
       </c>
       <c r="J22" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="K22" s="3">
         <v>33600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>354400</v>
+        <v>361700</v>
       </c>
       <c r="E23" s="3">
-        <v>337300</v>
+        <v>344300</v>
       </c>
       <c r="F23" s="3">
-        <v>346400</v>
+        <v>353600</v>
       </c>
       <c r="G23" s="3">
-        <v>353100</v>
+        <v>360500</v>
       </c>
       <c r="H23" s="3">
-        <v>308000</v>
+        <v>314400</v>
       </c>
       <c r="I23" s="3">
-        <v>341500</v>
+        <v>348700</v>
       </c>
       <c r="J23" s="3">
-        <v>312300</v>
+        <v>318800</v>
       </c>
       <c r="K23" s="3">
         <v>300300</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>104300</v>
+        <v>106500</v>
       </c>
       <c r="E24" s="3">
-        <v>103100</v>
+        <v>105200</v>
       </c>
       <c r="F24" s="3">
-        <v>90300</v>
+        <v>92100</v>
       </c>
       <c r="G24" s="3">
-        <v>103700</v>
+        <v>105800</v>
       </c>
       <c r="H24" s="3">
-        <v>85400</v>
+        <v>87200</v>
       </c>
       <c r="I24" s="3">
-        <v>86600</v>
+        <v>88400</v>
       </c>
       <c r="J24" s="3">
-        <v>86600</v>
+        <v>88400</v>
       </c>
       <c r="K24" s="3">
         <v>66700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>250100</v>
+        <v>255300</v>
       </c>
       <c r="E26" s="3">
-        <v>234200</v>
+        <v>239100</v>
       </c>
       <c r="F26" s="3">
-        <v>256200</v>
+        <v>261500</v>
       </c>
       <c r="G26" s="3">
-        <v>249400</v>
+        <v>254600</v>
       </c>
       <c r="H26" s="3">
-        <v>222600</v>
+        <v>227200</v>
       </c>
       <c r="I26" s="3">
-        <v>254900</v>
+        <v>260200</v>
       </c>
       <c r="J26" s="3">
-        <v>225700</v>
+        <v>230400</v>
       </c>
       <c r="K26" s="3">
         <v>233600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>250100</v>
+        <v>255300</v>
       </c>
       <c r="E27" s="3">
-        <v>234200</v>
+        <v>239100</v>
       </c>
       <c r="F27" s="3">
-        <v>256200</v>
+        <v>261500</v>
       </c>
       <c r="G27" s="3">
-        <v>249400</v>
+        <v>254600</v>
       </c>
       <c r="H27" s="3">
-        <v>222600</v>
+        <v>227200</v>
       </c>
       <c r="I27" s="3">
-        <v>254900</v>
+        <v>260200</v>
       </c>
       <c r="J27" s="3">
-        <v>225700</v>
+        <v>230400</v>
       </c>
       <c r="K27" s="3">
         <v>232400</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15900</v>
+        <v>-16200</v>
       </c>
       <c r="E32" s="3">
-        <v>-20700</v>
+        <v>-21200</v>
       </c>
       <c r="F32" s="3">
-        <v>-22600</v>
+        <v>-23000</v>
       </c>
       <c r="G32" s="3">
-        <v>-22600</v>
+        <v>-23000</v>
       </c>
       <c r="H32" s="3">
-        <v>-21300</v>
+        <v>-21800</v>
       </c>
       <c r="I32" s="3">
-        <v>-9800</v>
+        <v>-10000</v>
       </c>
       <c r="J32" s="3">
-        <v>-11000</v>
+        <v>-11200</v>
       </c>
       <c r="K32" s="3">
         <v>-16800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>250100</v>
+        <v>255300</v>
       </c>
       <c r="E33" s="3">
-        <v>234200</v>
+        <v>239100</v>
       </c>
       <c r="F33" s="3">
-        <v>256200</v>
+        <v>261500</v>
       </c>
       <c r="G33" s="3">
-        <v>249400</v>
+        <v>254600</v>
       </c>
       <c r="H33" s="3">
-        <v>222600</v>
+        <v>227200</v>
       </c>
       <c r="I33" s="3">
-        <v>254900</v>
+        <v>260200</v>
       </c>
       <c r="J33" s="3">
-        <v>225700</v>
+        <v>230400</v>
       </c>
       <c r="K33" s="3">
         <v>232400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>250100</v>
+        <v>255300</v>
       </c>
       <c r="E35" s="3">
-        <v>234200</v>
+        <v>239100</v>
       </c>
       <c r="F35" s="3">
-        <v>256200</v>
+        <v>261500</v>
       </c>
       <c r="G35" s="3">
-        <v>249400</v>
+        <v>254600</v>
       </c>
       <c r="H35" s="3">
-        <v>222600</v>
+        <v>227200</v>
       </c>
       <c r="I35" s="3">
-        <v>254900</v>
+        <v>260200</v>
       </c>
       <c r="J35" s="3">
-        <v>225700</v>
+        <v>230400</v>
       </c>
       <c r="K35" s="3">
         <v>232400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>43300</v>
+        <v>44200</v>
       </c>
       <c r="E41" s="3">
-        <v>43900</v>
+        <v>44800</v>
       </c>
       <c r="F41" s="3">
-        <v>32300</v>
+        <v>33000</v>
       </c>
       <c r="G41" s="3">
-        <v>32900</v>
+        <v>33600</v>
       </c>
       <c r="H41" s="3">
-        <v>33500</v>
+        <v>34200</v>
       </c>
       <c r="I41" s="3">
-        <v>31700</v>
+        <v>32400</v>
       </c>
       <c r="J41" s="3">
-        <v>31700</v>
+        <v>32400</v>
       </c>
       <c r="K41" s="3">
         <v>49800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>397700</v>
+        <v>405900</v>
       </c>
       <c r="E43" s="3">
-        <v>827000</v>
+        <v>844200</v>
       </c>
       <c r="F43" s="3">
-        <v>378700</v>
+        <v>386600</v>
       </c>
       <c r="G43" s="3">
-        <v>375100</v>
+        <v>382900</v>
       </c>
       <c r="H43" s="3">
-        <v>741000</v>
+        <v>756500</v>
       </c>
       <c r="I43" s="3">
-        <v>322600</v>
+        <v>329400</v>
       </c>
       <c r="J43" s="3">
-        <v>264100</v>
+        <v>269600</v>
       </c>
       <c r="K43" s="3">
         <v>221200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>65300</v>
+        <v>66600</v>
       </c>
       <c r="E44" s="3">
-        <v>78100</v>
+        <v>79700</v>
       </c>
       <c r="F44" s="3">
-        <v>58600</v>
+        <v>59800</v>
       </c>
       <c r="G44" s="3">
-        <v>61000</v>
+        <v>62300</v>
       </c>
       <c r="H44" s="3">
-        <v>96400</v>
+        <v>98400</v>
       </c>
       <c r="I44" s="3">
-        <v>57300</v>
+        <v>58500</v>
       </c>
       <c r="J44" s="3">
-        <v>49400</v>
+        <v>50400</v>
       </c>
       <c r="K44" s="3">
         <v>43600</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>238500</v>
+        <v>243400</v>
       </c>
       <c r="E45" s="3">
-        <v>117100</v>
+        <v>119500</v>
       </c>
       <c r="F45" s="3">
-        <v>114700</v>
+        <v>117000</v>
       </c>
       <c r="G45" s="3">
-        <v>86600</v>
+        <v>88400</v>
       </c>
       <c r="H45" s="3">
-        <v>75600</v>
+        <v>77200</v>
       </c>
       <c r="I45" s="3">
-        <v>49400</v>
+        <v>50400</v>
       </c>
       <c r="J45" s="3">
-        <v>50600</v>
+        <v>51700</v>
       </c>
       <c r="K45" s="3">
         <v>100300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>744700</v>
+        <v>760200</v>
       </c>
       <c r="E46" s="3">
-        <v>558700</v>
+        <v>570300</v>
       </c>
       <c r="F46" s="3">
-        <v>584300</v>
+        <v>596500</v>
       </c>
       <c r="G46" s="3">
-        <v>555600</v>
+        <v>567200</v>
       </c>
       <c r="H46" s="3">
-        <v>492200</v>
+        <v>502400</v>
       </c>
       <c r="I46" s="3">
-        <v>461100</v>
+        <v>470700</v>
       </c>
       <c r="J46" s="3">
-        <v>395800</v>
+        <v>404100</v>
       </c>
       <c r="K46" s="3">
         <v>414900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>249400</v>
+        <v>254600</v>
       </c>
       <c r="E47" s="3">
-        <v>442200</v>
+        <v>451400</v>
       </c>
       <c r="F47" s="3">
-        <v>361100</v>
+        <v>368600</v>
       </c>
       <c r="G47" s="3">
-        <v>288500</v>
+        <v>294500</v>
       </c>
       <c r="H47" s="3">
-        <v>445200</v>
+        <v>454500</v>
       </c>
       <c r="I47" s="3">
-        <v>210400</v>
+        <v>214800</v>
       </c>
       <c r="J47" s="3">
-        <v>208000</v>
+        <v>212300</v>
       </c>
       <c r="K47" s="3">
         <v>195600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1041100</v>
+        <v>1062800</v>
       </c>
       <c r="E48" s="3">
-        <v>2200500</v>
+        <v>2246300</v>
       </c>
       <c r="F48" s="3">
-        <v>1161900</v>
+        <v>1186100</v>
       </c>
       <c r="G48" s="3">
-        <v>1032000</v>
+        <v>1053400</v>
       </c>
       <c r="H48" s="3">
-        <v>1668700</v>
+        <v>1703400</v>
       </c>
       <c r="I48" s="3">
-        <v>652600</v>
+        <v>666200</v>
       </c>
       <c r="J48" s="3">
-        <v>673300</v>
+        <v>687400</v>
       </c>
       <c r="K48" s="3">
         <v>688400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>511700</v>
+        <v>522400</v>
       </c>
       <c r="E49" s="3">
-        <v>1054500</v>
+        <v>1076500</v>
       </c>
       <c r="F49" s="3">
-        <v>514100</v>
+        <v>524900</v>
       </c>
       <c r="G49" s="3">
-        <v>602000</v>
+        <v>614500</v>
       </c>
       <c r="H49" s="3">
-        <v>1319200</v>
+        <v>1346700</v>
       </c>
       <c r="I49" s="3">
-        <v>703200</v>
+        <v>717900</v>
       </c>
       <c r="J49" s="3">
-        <v>689800</v>
+        <v>704200</v>
       </c>
       <c r="K49" s="3">
         <v>697800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="E52" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="F52" s="3">
-        <v>36600</v>
+        <v>37400</v>
       </c>
       <c r="G52" s="3">
-        <v>19500</v>
+        <v>19900</v>
       </c>
       <c r="H52" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="I52" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J52" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2554900</v>
+        <v>2608100</v>
       </c>
       <c r="E54" s="3">
-        <v>2500600</v>
+        <v>2552700</v>
       </c>
       <c r="F54" s="3">
-        <v>2657900</v>
+        <v>2713300</v>
       </c>
       <c r="G54" s="3">
-        <v>2497500</v>
+        <v>2549500</v>
       </c>
       <c r="H54" s="3">
-        <v>2344500</v>
+        <v>2393300</v>
       </c>
       <c r="I54" s="3">
-        <v>2031600</v>
+        <v>2073900</v>
       </c>
       <c r="J54" s="3">
-        <v>1974200</v>
+        <v>2015400</v>
       </c>
       <c r="K54" s="3">
         <v>1997300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>159800</v>
+        <v>163100</v>
       </c>
       <c r="E57" s="3">
-        <v>456800</v>
+        <v>466300</v>
       </c>
       <c r="F57" s="3">
-        <v>162800</v>
+        <v>166200</v>
       </c>
       <c r="G57" s="3">
-        <v>157400</v>
+        <v>160600</v>
       </c>
       <c r="H57" s="3">
-        <v>466000</v>
+        <v>475700</v>
       </c>
       <c r="I57" s="3">
-        <v>165300</v>
+        <v>168700</v>
       </c>
       <c r="J57" s="3">
-        <v>168900</v>
+        <v>172500</v>
       </c>
       <c r="K57" s="3">
         <v>217400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>231800</v>
+        <v>236600</v>
       </c>
       <c r="E58" s="3">
-        <v>416000</v>
+        <v>424600</v>
       </c>
       <c r="F58" s="3">
-        <v>183000</v>
+        <v>186800</v>
       </c>
       <c r="G58" s="3">
-        <v>291500</v>
+        <v>297600</v>
       </c>
       <c r="H58" s="3">
-        <v>173200</v>
+        <v>176800</v>
       </c>
       <c r="I58" s="3">
-        <v>179900</v>
+        <v>183700</v>
       </c>
       <c r="J58" s="3">
-        <v>115900</v>
+        <v>118300</v>
       </c>
       <c r="K58" s="3">
         <v>94100</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>181800</v>
+        <v>185500</v>
       </c>
       <c r="E59" s="3">
-        <v>123200</v>
+        <v>125800</v>
       </c>
       <c r="F59" s="3">
-        <v>148800</v>
+        <v>151900</v>
       </c>
       <c r="G59" s="3">
-        <v>126900</v>
+        <v>129500</v>
       </c>
       <c r="H59" s="3">
-        <v>139100</v>
+        <v>142000</v>
       </c>
       <c r="I59" s="3">
-        <v>137200</v>
+        <v>140100</v>
       </c>
       <c r="J59" s="3">
-        <v>113400</v>
+        <v>115800</v>
       </c>
       <c r="K59" s="3">
         <v>135200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>573300</v>
+        <v>585200</v>
       </c>
       <c r="E60" s="3">
-        <v>572700</v>
+        <v>584600</v>
       </c>
       <c r="F60" s="3">
-        <v>494600</v>
+        <v>504900</v>
       </c>
       <c r="G60" s="3">
-        <v>575700</v>
+        <v>587700</v>
       </c>
       <c r="H60" s="3">
-        <v>462900</v>
+        <v>472600</v>
       </c>
       <c r="I60" s="3">
-        <v>482400</v>
+        <v>492500</v>
       </c>
       <c r="J60" s="3">
-        <v>398300</v>
+        <v>406600</v>
       </c>
       <c r="K60" s="3">
         <v>446700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>930100</v>
+        <v>949500</v>
       </c>
       <c r="E61" s="3">
-        <v>875800</v>
+        <v>894100</v>
       </c>
       <c r="F61" s="3">
-        <v>1082600</v>
+        <v>1105100</v>
       </c>
       <c r="G61" s="3">
-        <v>866700</v>
+        <v>884700</v>
       </c>
       <c r="H61" s="3">
-        <v>851400</v>
+        <v>869100</v>
       </c>
       <c r="I61" s="3">
-        <v>422100</v>
+        <v>430800</v>
       </c>
       <c r="J61" s="3">
-        <v>417800</v>
+        <v>426500</v>
       </c>
       <c r="K61" s="3">
         <v>338300</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>151900</v>
+        <v>155000</v>
       </c>
       <c r="E62" s="3">
-        <v>142100</v>
+        <v>145100</v>
       </c>
       <c r="F62" s="3">
-        <v>181800</v>
+        <v>185500</v>
       </c>
       <c r="G62" s="3">
-        <v>161600</v>
+        <v>165000</v>
       </c>
       <c r="H62" s="3">
-        <v>138400</v>
+        <v>141300</v>
       </c>
       <c r="I62" s="3">
-        <v>120200</v>
+        <v>122700</v>
       </c>
       <c r="J62" s="3">
-        <v>131100</v>
+        <v>133900</v>
       </c>
       <c r="K62" s="3">
         <v>104700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1655300</v>
+        <v>1689700</v>
       </c>
       <c r="E66" s="3">
-        <v>1590600</v>
+        <v>1623700</v>
       </c>
       <c r="F66" s="3">
-        <v>1759000</v>
+        <v>1795600</v>
       </c>
       <c r="G66" s="3">
-        <v>1604000</v>
+        <v>1637400</v>
       </c>
       <c r="H66" s="3">
-        <v>1440000</v>
+        <v>1470000</v>
       </c>
       <c r="I66" s="3">
-        <v>1024600</v>
+        <v>1046000</v>
       </c>
       <c r="J66" s="3">
-        <v>947200</v>
+        <v>966900</v>
       </c>
       <c r="K66" s="3">
         <v>889600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>443400</v>
+        <v>452600</v>
       </c>
       <c r="E72" s="3">
-        <v>476900</v>
+        <v>486900</v>
       </c>
       <c r="F72" s="3">
-        <v>536700</v>
+        <v>547900</v>
       </c>
       <c r="G72" s="3">
-        <v>567800</v>
+        <v>579600</v>
       </c>
       <c r="H72" s="3">
-        <v>598300</v>
+        <v>610800</v>
       </c>
       <c r="I72" s="3">
-        <v>687400</v>
+        <v>701700</v>
       </c>
       <c r="J72" s="3">
-        <v>714200</v>
+        <v>729100</v>
       </c>
       <c r="K72" s="3">
         <v>767500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>899600</v>
+        <v>918300</v>
       </c>
       <c r="E76" s="3">
-        <v>910000</v>
+        <v>928900</v>
       </c>
       <c r="F76" s="3">
-        <v>899000</v>
+        <v>917700</v>
       </c>
       <c r="G76" s="3">
-        <v>893500</v>
+        <v>912100</v>
       </c>
       <c r="H76" s="3">
-        <v>904500</v>
+        <v>923300</v>
       </c>
       <c r="I76" s="3">
-        <v>1006900</v>
+        <v>1027900</v>
       </c>
       <c r="J76" s="3">
-        <v>1027100</v>
+        <v>1048500</v>
       </c>
       <c r="K76" s="3">
         <v>1107700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>250100</v>
+        <v>255300</v>
       </c>
       <c r="E81" s="3">
-        <v>234200</v>
+        <v>239100</v>
       </c>
       <c r="F81" s="3">
-        <v>256200</v>
+        <v>261500</v>
       </c>
       <c r="G81" s="3">
-        <v>249400</v>
+        <v>254600</v>
       </c>
       <c r="H81" s="3">
-        <v>222600</v>
+        <v>227200</v>
       </c>
       <c r="I81" s="3">
-        <v>254900</v>
+        <v>260200</v>
       </c>
       <c r="J81" s="3">
-        <v>225700</v>
+        <v>230400</v>
       </c>
       <c r="K81" s="3">
         <v>232400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>317100</v>
+        <v>323800</v>
       </c>
       <c r="E83" s="3">
-        <v>317800</v>
+        <v>324400</v>
       </c>
       <c r="F83" s="3">
-        <v>292100</v>
+        <v>298200</v>
       </c>
       <c r="G83" s="3">
-        <v>290900</v>
+        <v>297000</v>
       </c>
       <c r="H83" s="3">
-        <v>293400</v>
+        <v>299500</v>
       </c>
       <c r="I83" s="3">
-        <v>262300</v>
+        <v>267700</v>
       </c>
       <c r="J83" s="3">
-        <v>272000</v>
+        <v>277700</v>
       </c>
       <c r="K83" s="3">
         <v>282200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>512900</v>
+        <v>523600</v>
       </c>
       <c r="E89" s="3">
-        <v>520200</v>
+        <v>531100</v>
       </c>
       <c r="F89" s="3">
-        <v>550700</v>
+        <v>562200</v>
       </c>
       <c r="G89" s="3">
-        <v>473900</v>
+        <v>483800</v>
       </c>
       <c r="H89" s="3">
-        <v>500100</v>
+        <v>510500</v>
       </c>
       <c r="I89" s="3">
-        <v>437300</v>
+        <v>446400</v>
       </c>
       <c r="J89" s="3">
-        <v>436700</v>
+        <v>445800</v>
       </c>
       <c r="K89" s="3">
         <v>392500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-259200</v>
+        <v>-264600</v>
       </c>
       <c r="E91" s="3">
-        <v>-201300</v>
+        <v>-205500</v>
       </c>
       <c r="F91" s="3">
-        <v>-239700</v>
+        <v>-244700</v>
       </c>
       <c r="G91" s="3">
-        <v>-253100</v>
+        <v>-258400</v>
       </c>
       <c r="H91" s="3">
-        <v>-252500</v>
+        <v>-257800</v>
       </c>
       <c r="I91" s="3">
-        <v>-242700</v>
+        <v>-247800</v>
       </c>
       <c r="J91" s="3">
-        <v>-254900</v>
+        <v>-260200</v>
       </c>
       <c r="K91" s="3">
         <v>-365100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300100</v>
+        <v>-306300</v>
       </c>
       <c r="E94" s="3">
-        <v>-229300</v>
+        <v>-234100</v>
       </c>
       <c r="F94" s="3">
-        <v>-250700</v>
+        <v>-255900</v>
       </c>
       <c r="G94" s="3">
-        <v>-259800</v>
+        <v>-265200</v>
       </c>
       <c r="H94" s="3">
-        <v>-295200</v>
+        <v>-301300</v>
       </c>
       <c r="I94" s="3">
-        <v>-231800</v>
+        <v>-236600</v>
       </c>
       <c r="J94" s="3">
-        <v>-297600</v>
+        <v>-303800</v>
       </c>
       <c r="K94" s="3">
         <v>-284100</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-273800</v>
+        <v>-279500</v>
       </c>
       <c r="E96" s="3">
-        <v>-201300</v>
+        <v>-205500</v>
       </c>
       <c r="F96" s="3">
-        <v>-279900</v>
+        <v>-285800</v>
       </c>
       <c r="G96" s="3">
-        <v>-279900</v>
+        <v>-285800</v>
       </c>
       <c r="H96" s="3">
-        <v>-279300</v>
+        <v>-285200</v>
       </c>
       <c r="I96" s="3">
-        <v>-279300</v>
+        <v>-285200</v>
       </c>
       <c r="J96" s="3">
-        <v>-262300</v>
+        <v>-267700</v>
       </c>
       <c r="K96" s="3">
         <v>-185700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-213500</v>
+        <v>-217900</v>
       </c>
       <c r="E100" s="3">
-        <v>-279300</v>
+        <v>-285200</v>
       </c>
       <c r="F100" s="3">
-        <v>-300700</v>
+        <v>-306900</v>
       </c>
       <c r="G100" s="3">
-        <v>-214700</v>
+        <v>-219200</v>
       </c>
       <c r="H100" s="3">
-        <v>-203100</v>
+        <v>-207300</v>
       </c>
       <c r="I100" s="3">
-        <v>-205500</v>
+        <v>-209800</v>
       </c>
       <c r="J100" s="3">
-        <v>-156100</v>
+        <v>-159400</v>
       </c>
       <c r="K100" s="3">
         <v>-189400</v>
@@ -4001,7 +4001,7 @@
         <v>-600</v>
       </c>
       <c r="E102" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="F102" s="3">
         <v>-600</v>
@@ -4010,13 +4010,13 @@
         <v>-600</v>
       </c>
       <c r="H102" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-17100</v>
+        <v>-17400</v>
       </c>
       <c r="K102" s="3">
         <v>-79700</v>

--- a/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>SPKKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41820</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41455</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41090</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2299900</v>
+        <v>2311100</v>
       </c>
       <c r="E8" s="3">
-        <v>2220200</v>
+        <v>2203100</v>
       </c>
       <c r="F8" s="3">
-        <v>2237000</v>
+        <v>2126800</v>
       </c>
       <c r="G8" s="3">
-        <v>2191600</v>
+        <v>2142900</v>
       </c>
       <c r="H8" s="3">
-        <v>2199600</v>
+        <v>2099300</v>
       </c>
       <c r="I8" s="3">
-        <v>2237600</v>
+        <v>2107100</v>
       </c>
       <c r="J8" s="3">
+        <v>2143500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2177200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2179900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2622000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2600100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3100200</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1095200</v>
+        <v>1113500</v>
       </c>
       <c r="E9" s="3">
-        <v>1043500</v>
+        <v>1049100</v>
       </c>
       <c r="F9" s="3">
-        <v>1034800</v>
+        <v>999600</v>
       </c>
       <c r="G9" s="3">
-        <v>1011700</v>
+        <v>991200</v>
       </c>
       <c r="H9" s="3">
-        <v>2006600</v>
+        <v>969200</v>
       </c>
       <c r="I9" s="3">
-        <v>999900</v>
+        <v>1922200</v>
       </c>
       <c r="J9" s="3">
+        <v>957800</v>
+      </c>
+      <c r="K9" s="3">
         <v>978700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>989300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1250300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>49700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>71100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1204700</v>
+        <v>1197600</v>
       </c>
       <c r="E10" s="3">
-        <v>1176700</v>
+        <v>1154000</v>
       </c>
       <c r="F10" s="3">
-        <v>1202200</v>
+        <v>1127200</v>
       </c>
       <c r="G10" s="3">
-        <v>1179800</v>
+        <v>1151600</v>
       </c>
       <c r="H10" s="3">
-        <v>193000</v>
+        <v>1130200</v>
       </c>
       <c r="I10" s="3">
-        <v>1237700</v>
+        <v>184900</v>
       </c>
       <c r="J10" s="3">
+        <v>1185600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1198500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1190600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1371700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2550500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3029100</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -886,12 +899,15 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3">
         <v>2700</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-8700</v>
+        <v>-355500</v>
       </c>
       <c r="E14" s="3">
-        <v>-10000</v>
+        <v>-8300</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-9500</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
-        <v>4400</v>
-      </c>
       <c r="I14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5600</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>91900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3400</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>323800</v>
+        <v>300600</v>
       </c>
       <c r="E15" s="3">
-        <v>325600</v>
+        <v>310100</v>
       </c>
       <c r="F15" s="3">
-        <v>303800</v>
+        <v>311900</v>
       </c>
       <c r="G15" s="3">
-        <v>297000</v>
+        <v>291000</v>
       </c>
       <c r="H15" s="3">
-        <v>396000</v>
+        <v>284500</v>
       </c>
       <c r="I15" s="3">
-        <v>267700</v>
+        <v>379300</v>
       </c>
       <c r="J15" s="3">
+        <v>256500</v>
+      </c>
+      <c r="K15" s="3">
         <v>277700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>282200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>325900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>334600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>390200</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1908300</v>
+        <v>1584000</v>
       </c>
       <c r="E17" s="3">
-        <v>1846600</v>
+        <v>1828000</v>
       </c>
       <c r="F17" s="3">
-        <v>1847900</v>
+        <v>1768900</v>
       </c>
       <c r="G17" s="3">
-        <v>1801200</v>
+        <v>1770100</v>
       </c>
       <c r="H17" s="3">
-        <v>1859100</v>
+        <v>1725400</v>
       </c>
       <c r="I17" s="3">
-        <v>1872800</v>
+        <v>1780900</v>
       </c>
       <c r="J17" s="3">
+        <v>1794000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1841000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1862800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2271400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2362400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2759500</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>391600</v>
+        <v>727000</v>
       </c>
       <c r="E18" s="3">
-        <v>373600</v>
+        <v>375100</v>
       </c>
       <c r="F18" s="3">
-        <v>389100</v>
+        <v>357800</v>
       </c>
       <c r="G18" s="3">
-        <v>390400</v>
+        <v>372800</v>
       </c>
       <c r="H18" s="3">
-        <v>340600</v>
+        <v>373900</v>
       </c>
       <c r="I18" s="3">
-        <v>364800</v>
+        <v>326200</v>
       </c>
       <c r="J18" s="3">
+        <v>349500</v>
+      </c>
+      <c r="K18" s="3">
         <v>336200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>317100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>350500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>237700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>340800</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16200</v>
+        <v>19100</v>
       </c>
       <c r="E20" s="3">
-        <v>21200</v>
+        <v>15500</v>
       </c>
       <c r="F20" s="3">
-        <v>23000</v>
+        <v>20300</v>
       </c>
       <c r="G20" s="3">
-        <v>23000</v>
+        <v>22100</v>
       </c>
       <c r="H20" s="3">
-        <v>21800</v>
+        <v>22100</v>
       </c>
       <c r="I20" s="3">
-        <v>10000</v>
+        <v>20900</v>
       </c>
       <c r="J20" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K20" s="3">
         <v>11200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>732700</v>
+        <v>1046700</v>
       </c>
       <c r="E21" s="3">
-        <v>720200</v>
+        <v>700800</v>
       </c>
       <c r="F21" s="3">
-        <v>711400</v>
+        <v>688800</v>
       </c>
       <c r="G21" s="3">
-        <v>711400</v>
+        <v>680500</v>
       </c>
       <c r="H21" s="3">
-        <v>662900</v>
+        <v>680500</v>
       </c>
       <c r="I21" s="3">
-        <v>643500</v>
+        <v>634000</v>
       </c>
       <c r="J21" s="3">
+        <v>615500</v>
+      </c>
+      <c r="K21" s="3">
         <v>626100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>619300</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>578800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>803600</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>46100</v>
+        <v>59000</v>
       </c>
       <c r="E22" s="3">
-        <v>50400</v>
+        <v>44100</v>
       </c>
       <c r="F22" s="3">
-        <v>58500</v>
+        <v>48300</v>
       </c>
       <c r="G22" s="3">
-        <v>52900</v>
+        <v>56100</v>
       </c>
       <c r="H22" s="3">
-        <v>47900</v>
+        <v>50700</v>
       </c>
       <c r="I22" s="3">
-        <v>26100</v>
+        <v>45900</v>
       </c>
       <c r="J22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K22" s="3">
         <v>28600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>30400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>34100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>54200</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>361700</v>
+        <v>687100</v>
       </c>
       <c r="E23" s="3">
-        <v>344300</v>
+        <v>346500</v>
       </c>
       <c r="F23" s="3">
-        <v>353600</v>
+        <v>329800</v>
       </c>
       <c r="G23" s="3">
-        <v>360500</v>
+        <v>338800</v>
       </c>
       <c r="H23" s="3">
-        <v>314400</v>
+        <v>345300</v>
       </c>
       <c r="I23" s="3">
-        <v>348700</v>
+        <v>301200</v>
       </c>
       <c r="J23" s="3">
+        <v>334000</v>
+      </c>
+      <c r="K23" s="3">
         <v>318800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>328100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>211700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>286600</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>106500</v>
+        <v>10100</v>
       </c>
       <c r="E24" s="3">
-        <v>105200</v>
+        <v>102000</v>
       </c>
       <c r="F24" s="3">
-        <v>92100</v>
+        <v>100800</v>
       </c>
       <c r="G24" s="3">
-        <v>105800</v>
+        <v>88300</v>
       </c>
       <c r="H24" s="3">
-        <v>87200</v>
+        <v>101400</v>
       </c>
       <c r="I24" s="3">
+        <v>83500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>84700</v>
+      </c>
+      <c r="K24" s="3">
         <v>88400</v>
       </c>
-      <c r="J24" s="3">
-        <v>88400</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>66700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>94700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>63900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>75900</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>255300</v>
+        <v>676900</v>
       </c>
       <c r="E26" s="3">
-        <v>239100</v>
+        <v>244500</v>
       </c>
       <c r="F26" s="3">
-        <v>261500</v>
+        <v>229000</v>
       </c>
       <c r="G26" s="3">
-        <v>254600</v>
+        <v>250500</v>
       </c>
       <c r="H26" s="3">
-        <v>227200</v>
+        <v>243900</v>
       </c>
       <c r="I26" s="3">
-        <v>260200</v>
+        <v>217700</v>
       </c>
       <c r="J26" s="3">
+        <v>249300</v>
+      </c>
+      <c r="K26" s="3">
         <v>230400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>233600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>233400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>147700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>210700</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>255300</v>
+        <v>676900</v>
       </c>
       <c r="E27" s="3">
-        <v>239100</v>
+        <v>244500</v>
       </c>
       <c r="F27" s="3">
-        <v>261500</v>
+        <v>229000</v>
       </c>
       <c r="G27" s="3">
-        <v>254600</v>
+        <v>250500</v>
       </c>
       <c r="H27" s="3">
-        <v>227200</v>
+        <v>243900</v>
       </c>
       <c r="I27" s="3">
-        <v>260200</v>
+        <v>217700</v>
       </c>
       <c r="J27" s="3">
+        <v>249300</v>
+      </c>
+      <c r="K27" s="3">
         <v>230400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>232400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>232000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>146500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>209300</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1497,17 +1557,20 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>99000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>573200</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16200</v>
+        <v>-19100</v>
       </c>
       <c r="E32" s="3">
-        <v>-21200</v>
+        <v>-15500</v>
       </c>
       <c r="F32" s="3">
-        <v>-23000</v>
+        <v>-20300</v>
       </c>
       <c r="G32" s="3">
-        <v>-23000</v>
+        <v>-22100</v>
       </c>
       <c r="H32" s="3">
-        <v>-21800</v>
+        <v>-22100</v>
       </c>
       <c r="I32" s="3">
-        <v>-10000</v>
+        <v>-20900</v>
       </c>
       <c r="J32" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>255300</v>
+        <v>676900</v>
       </c>
       <c r="E33" s="3">
-        <v>239100</v>
+        <v>244500</v>
       </c>
       <c r="F33" s="3">
-        <v>261500</v>
+        <v>229000</v>
       </c>
       <c r="G33" s="3">
-        <v>254600</v>
+        <v>250500</v>
       </c>
       <c r="H33" s="3">
-        <v>227200</v>
+        <v>243900</v>
       </c>
       <c r="I33" s="3">
-        <v>260200</v>
+        <v>217700</v>
       </c>
       <c r="J33" s="3">
+        <v>249300</v>
+      </c>
+      <c r="K33" s="3">
         <v>230400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>232400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>331000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>146500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>782500</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>255300</v>
+        <v>676900</v>
       </c>
       <c r="E35" s="3">
-        <v>239100</v>
+        <v>244500</v>
       </c>
       <c r="F35" s="3">
-        <v>261500</v>
+        <v>229000</v>
       </c>
       <c r="G35" s="3">
-        <v>254600</v>
+        <v>250500</v>
       </c>
       <c r="H35" s="3">
-        <v>227200</v>
+        <v>243900</v>
       </c>
       <c r="I35" s="3">
-        <v>260200</v>
+        <v>217700</v>
       </c>
       <c r="J35" s="3">
+        <v>249300</v>
+      </c>
+      <c r="K35" s="3">
         <v>230400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>232400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>331000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>146500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>782500</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41820</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41455</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41090</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44200</v>
+        <v>59600</v>
       </c>
       <c r="E41" s="3">
-        <v>44800</v>
+        <v>42300</v>
       </c>
       <c r="F41" s="3">
-        <v>33000</v>
+        <v>42900</v>
       </c>
       <c r="G41" s="3">
-        <v>33600</v>
+        <v>31600</v>
       </c>
       <c r="H41" s="3">
-        <v>34200</v>
+        <v>32200</v>
       </c>
       <c r="I41" s="3">
+        <v>32800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K41" s="3">
         <v>32400</v>
       </c>
-      <c r="J41" s="3">
-        <v>32400</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>150300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>73200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>125300</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1895,282 +1984,306 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>405900</v>
+        <v>419300</v>
       </c>
       <c r="E43" s="3">
-        <v>844200</v>
+        <v>388900</v>
       </c>
       <c r="F43" s="3">
-        <v>386600</v>
+        <v>808700</v>
       </c>
       <c r="G43" s="3">
-        <v>382900</v>
+        <v>370400</v>
       </c>
       <c r="H43" s="3">
-        <v>756500</v>
+        <v>366800</v>
       </c>
       <c r="I43" s="3">
-        <v>329400</v>
+        <v>724600</v>
       </c>
       <c r="J43" s="3">
+        <v>315500</v>
+      </c>
+      <c r="K43" s="3">
         <v>269600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>221200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>315800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>299500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>392900</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>66600</v>
+        <v>47100</v>
       </c>
       <c r="E44" s="3">
-        <v>79700</v>
+        <v>63800</v>
       </c>
       <c r="F44" s="3">
-        <v>59800</v>
+        <v>76300</v>
       </c>
       <c r="G44" s="3">
-        <v>62300</v>
+        <v>57300</v>
       </c>
       <c r="H44" s="3">
-        <v>98400</v>
+        <v>59600</v>
       </c>
       <c r="I44" s="3">
-        <v>58500</v>
+        <v>94200</v>
       </c>
       <c r="J44" s="3">
+        <v>56100</v>
+      </c>
+      <c r="K44" s="3">
         <v>50400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>43600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>36100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>32900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>33200</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>243400</v>
+        <v>117500</v>
       </c>
       <c r="E45" s="3">
-        <v>119500</v>
+        <v>233200</v>
       </c>
       <c r="F45" s="3">
-        <v>117000</v>
+        <v>114500</v>
       </c>
       <c r="G45" s="3">
-        <v>88400</v>
+        <v>112100</v>
       </c>
       <c r="H45" s="3">
-        <v>77200</v>
+        <v>84700</v>
       </c>
       <c r="I45" s="3">
-        <v>50400</v>
+        <v>74000</v>
       </c>
       <c r="J45" s="3">
+        <v>48300</v>
+      </c>
+      <c r="K45" s="3">
         <v>51700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>105500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>114100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>107000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>760200</v>
+        <v>643500</v>
       </c>
       <c r="E46" s="3">
-        <v>570300</v>
+        <v>728200</v>
       </c>
       <c r="F46" s="3">
-        <v>596500</v>
+        <v>546300</v>
       </c>
       <c r="G46" s="3">
-        <v>567200</v>
+        <v>571400</v>
       </c>
       <c r="H46" s="3">
-        <v>502400</v>
+        <v>543300</v>
       </c>
       <c r="I46" s="3">
-        <v>470700</v>
+        <v>481300</v>
       </c>
       <c r="J46" s="3">
+        <v>450900</v>
+      </c>
+      <c r="K46" s="3">
         <v>404100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>414900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>607800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>519600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>658500</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>254600</v>
+        <v>405600</v>
       </c>
       <c r="E47" s="3">
-        <v>451400</v>
+        <v>243900</v>
       </c>
       <c r="F47" s="3">
-        <v>368600</v>
+        <v>432400</v>
       </c>
       <c r="G47" s="3">
-        <v>294500</v>
+        <v>353100</v>
       </c>
       <c r="H47" s="3">
-        <v>454500</v>
+        <v>282100</v>
       </c>
       <c r="I47" s="3">
-        <v>214800</v>
+        <v>435400</v>
       </c>
       <c r="J47" s="3">
+        <v>205800</v>
+      </c>
+      <c r="K47" s="3">
         <v>212300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>195600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>219700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>146300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>189000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1062800</v>
+        <v>1090800</v>
       </c>
       <c r="E48" s="3">
-        <v>2246300</v>
+        <v>1018100</v>
       </c>
       <c r="F48" s="3">
-        <v>1186100</v>
+        <v>2151800</v>
       </c>
       <c r="G48" s="3">
-        <v>1053400</v>
+        <v>1136100</v>
       </c>
       <c r="H48" s="3">
-        <v>1703400</v>
+        <v>1009100</v>
       </c>
       <c r="I48" s="3">
-        <v>666200</v>
+        <v>1631800</v>
       </c>
       <c r="J48" s="3">
+        <v>638100</v>
+      </c>
+      <c r="K48" s="3">
         <v>687400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>688400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>795700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>835300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1026400</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>522400</v>
+        <v>480700</v>
       </c>
       <c r="E49" s="3">
-        <v>1076500</v>
+        <v>500400</v>
       </c>
       <c r="F49" s="3">
-        <v>524900</v>
+        <v>1031200</v>
       </c>
       <c r="G49" s="3">
-        <v>614500</v>
+        <v>502800</v>
       </c>
       <c r="H49" s="3">
-        <v>1346700</v>
+        <v>588600</v>
       </c>
       <c r="I49" s="3">
-        <v>717900</v>
+        <v>1290000</v>
       </c>
       <c r="J49" s="3">
+        <v>687600</v>
+      </c>
+      <c r="K49" s="3">
         <v>704200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>697800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>716900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>664100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>609800</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8100</v>
+        <v>52500</v>
       </c>
       <c r="E52" s="3">
-        <v>14900</v>
+        <v>7800</v>
       </c>
       <c r="F52" s="3">
-        <v>37400</v>
+        <v>14300</v>
       </c>
       <c r="G52" s="3">
-        <v>19900</v>
+        <v>35800</v>
       </c>
       <c r="H52" s="3">
-        <v>6200</v>
+        <v>19100</v>
       </c>
       <c r="I52" s="3">
-        <v>4400</v>
+        <v>6000</v>
       </c>
       <c r="J52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K52" s="3">
         <v>7500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2608100</v>
+        <v>2673100</v>
       </c>
       <c r="E54" s="3">
-        <v>2552700</v>
+        <v>2498300</v>
       </c>
       <c r="F54" s="3">
-        <v>2713300</v>
+        <v>2445200</v>
       </c>
       <c r="G54" s="3">
-        <v>2549500</v>
+        <v>2599100</v>
       </c>
       <c r="H54" s="3">
-        <v>2393300</v>
+        <v>2442300</v>
       </c>
       <c r="I54" s="3">
-        <v>2073900</v>
+        <v>2292600</v>
       </c>
       <c r="J54" s="3">
+        <v>1986600</v>
+      </c>
+      <c r="K54" s="3">
         <v>2015400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1997300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2343700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2166000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2484400</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>163100</v>
+        <v>178300</v>
       </c>
       <c r="E57" s="3">
-        <v>466300</v>
+        <v>156300</v>
       </c>
       <c r="F57" s="3">
-        <v>166200</v>
+        <v>446700</v>
       </c>
       <c r="G57" s="3">
-        <v>160600</v>
+        <v>159200</v>
       </c>
       <c r="H57" s="3">
-        <v>475700</v>
+        <v>153900</v>
       </c>
       <c r="I57" s="3">
-        <v>168700</v>
+        <v>455600</v>
       </c>
       <c r="J57" s="3">
+        <v>161600</v>
+      </c>
+      <c r="K57" s="3">
         <v>172500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>217400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>283300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>341100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300100</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>236600</v>
+        <v>205200</v>
       </c>
       <c r="E58" s="3">
-        <v>424600</v>
+        <v>226600</v>
       </c>
       <c r="F58" s="3">
-        <v>186800</v>
+        <v>406700</v>
       </c>
       <c r="G58" s="3">
-        <v>297600</v>
+        <v>178900</v>
       </c>
       <c r="H58" s="3">
-        <v>176800</v>
+        <v>285100</v>
       </c>
       <c r="I58" s="3">
-        <v>183700</v>
+        <v>169400</v>
       </c>
       <c r="J58" s="3">
+        <v>175900</v>
+      </c>
+      <c r="K58" s="3">
         <v>118300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>94100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>83800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>143200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>279800</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>185500</v>
+        <v>123500</v>
       </c>
       <c r="E59" s="3">
-        <v>125800</v>
+        <v>177700</v>
       </c>
       <c r="F59" s="3">
-        <v>151900</v>
+        <v>120500</v>
       </c>
       <c r="G59" s="3">
-        <v>129500</v>
+        <v>145500</v>
       </c>
       <c r="H59" s="3">
-        <v>142000</v>
+        <v>124100</v>
       </c>
       <c r="I59" s="3">
-        <v>140100</v>
+        <v>136000</v>
       </c>
       <c r="J59" s="3">
+        <v>134200</v>
+      </c>
+      <c r="K59" s="3">
         <v>115800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>135200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>191500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>189100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>235800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>585200</v>
+        <v>506900</v>
       </c>
       <c r="E60" s="3">
-        <v>584600</v>
+        <v>560600</v>
       </c>
       <c r="F60" s="3">
-        <v>504900</v>
+        <v>560000</v>
       </c>
       <c r="G60" s="3">
-        <v>587700</v>
+        <v>483700</v>
       </c>
       <c r="H60" s="3">
-        <v>472600</v>
+        <v>563000</v>
       </c>
       <c r="I60" s="3">
-        <v>492500</v>
+        <v>452700</v>
       </c>
       <c r="J60" s="3">
+        <v>471800</v>
+      </c>
+      <c r="K60" s="3">
         <v>406600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>446700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>558600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>673400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>815700</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>949500</v>
+        <v>904100</v>
       </c>
       <c r="E61" s="3">
-        <v>894100</v>
+        <v>909500</v>
       </c>
       <c r="F61" s="3">
-        <v>1105100</v>
+        <v>856400</v>
       </c>
       <c r="G61" s="3">
-        <v>884700</v>
+        <v>1058600</v>
       </c>
       <c r="H61" s="3">
-        <v>869100</v>
+        <v>847500</v>
       </c>
       <c r="I61" s="3">
-        <v>430800</v>
+        <v>832600</v>
       </c>
       <c r="J61" s="3">
+        <v>412700</v>
+      </c>
+      <c r="K61" s="3">
         <v>426500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>338300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>417700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>468800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>412600</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>155000</v>
+        <v>105000</v>
       </c>
       <c r="E62" s="3">
-        <v>145100</v>
+        <v>148500</v>
       </c>
       <c r="F62" s="3">
-        <v>185500</v>
+        <v>139000</v>
       </c>
       <c r="G62" s="3">
-        <v>165000</v>
+        <v>177700</v>
       </c>
       <c r="H62" s="3">
-        <v>141300</v>
+        <v>158000</v>
       </c>
       <c r="I62" s="3">
-        <v>122700</v>
+        <v>135400</v>
       </c>
       <c r="J62" s="3">
+        <v>117500</v>
+      </c>
+      <c r="K62" s="3">
         <v>133900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>104700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>133000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>147600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>154500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1689700</v>
+        <v>1516000</v>
       </c>
       <c r="E66" s="3">
-        <v>1623700</v>
+        <v>1618600</v>
       </c>
       <c r="F66" s="3">
-        <v>1795600</v>
+        <v>1555400</v>
       </c>
       <c r="G66" s="3">
-        <v>1637400</v>
+        <v>1720000</v>
       </c>
       <c r="H66" s="3">
-        <v>1470000</v>
+        <v>1568500</v>
       </c>
       <c r="I66" s="3">
-        <v>1046000</v>
+        <v>1408100</v>
       </c>
       <c r="J66" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="K66" s="3">
         <v>966900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>889600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1113700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1293500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1386200</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>452600</v>
+        <v>818900</v>
       </c>
       <c r="E72" s="3">
-        <v>486900</v>
+        <v>433600</v>
       </c>
       <c r="F72" s="3">
-        <v>547900</v>
+        <v>466400</v>
       </c>
       <c r="G72" s="3">
-        <v>579600</v>
+        <v>524800</v>
       </c>
       <c r="H72" s="3">
-        <v>610800</v>
+        <v>555200</v>
       </c>
       <c r="I72" s="3">
-        <v>701700</v>
+        <v>585100</v>
       </c>
       <c r="J72" s="3">
+        <v>672100</v>
+      </c>
+      <c r="K72" s="3">
         <v>729100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>767500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>855700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>627500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>758800</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>918300</v>
+        <v>1157000</v>
       </c>
       <c r="E76" s="3">
-        <v>928900</v>
+        <v>879700</v>
       </c>
       <c r="F76" s="3">
-        <v>917700</v>
+        <v>889800</v>
       </c>
       <c r="G76" s="3">
-        <v>912100</v>
+        <v>879100</v>
       </c>
       <c r="H76" s="3">
-        <v>923300</v>
+        <v>873700</v>
       </c>
       <c r="I76" s="3">
-        <v>1027900</v>
+        <v>884500</v>
       </c>
       <c r="J76" s="3">
+        <v>984700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1048500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1107700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1230000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>872500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1098200</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41820</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41455</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41090</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>255300</v>
+        <v>676900</v>
       </c>
       <c r="E81" s="3">
-        <v>239100</v>
+        <v>244500</v>
       </c>
       <c r="F81" s="3">
-        <v>261500</v>
+        <v>229000</v>
       </c>
       <c r="G81" s="3">
-        <v>254600</v>
+        <v>250500</v>
       </c>
       <c r="H81" s="3">
-        <v>227200</v>
+        <v>243900</v>
       </c>
       <c r="I81" s="3">
-        <v>260200</v>
+        <v>217700</v>
       </c>
       <c r="J81" s="3">
+        <v>249300</v>
+      </c>
+      <c r="K81" s="3">
         <v>230400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>232400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>331000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>146500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>782500</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>323800</v>
+        <v>300600</v>
       </c>
       <c r="E83" s="3">
-        <v>324400</v>
+        <v>310100</v>
       </c>
       <c r="F83" s="3">
-        <v>298200</v>
+        <v>310700</v>
       </c>
       <c r="G83" s="3">
-        <v>297000</v>
+        <v>285700</v>
       </c>
       <c r="H83" s="3">
-        <v>299500</v>
+        <v>284500</v>
       </c>
       <c r="I83" s="3">
-        <v>267700</v>
+        <v>286900</v>
       </c>
       <c r="J83" s="3">
+        <v>256500</v>
+      </c>
+      <c r="K83" s="3">
         <v>277700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>282200</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>334600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>461400</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>523600</v>
+        <v>477100</v>
       </c>
       <c r="E89" s="3">
-        <v>531100</v>
+        <v>501600</v>
       </c>
       <c r="F89" s="3">
-        <v>562200</v>
+        <v>508700</v>
       </c>
       <c r="G89" s="3">
-        <v>483800</v>
+        <v>538500</v>
       </c>
       <c r="H89" s="3">
-        <v>510500</v>
+        <v>463400</v>
       </c>
       <c r="I89" s="3">
-        <v>446400</v>
+        <v>489000</v>
       </c>
       <c r="J89" s="3">
+        <v>427600</v>
+      </c>
+      <c r="K89" s="3">
         <v>445800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>392500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>442300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>549300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>667300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-264600</v>
+        <v>-283300</v>
       </c>
       <c r="E91" s="3">
-        <v>-205500</v>
+        <v>-253500</v>
       </c>
       <c r="F91" s="3">
-        <v>-244700</v>
+        <v>-196800</v>
       </c>
       <c r="G91" s="3">
-        <v>-258400</v>
+        <v>-234400</v>
       </c>
       <c r="H91" s="3">
-        <v>-257800</v>
+        <v>-247500</v>
       </c>
       <c r="I91" s="3">
-        <v>-247800</v>
+        <v>-246900</v>
       </c>
       <c r="J91" s="3">
+        <v>-237400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-260200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-365100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-349100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-241500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-449200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-306300</v>
+        <v>253500</v>
       </c>
       <c r="E94" s="3">
-        <v>-234100</v>
+        <v>-293400</v>
       </c>
       <c r="F94" s="3">
-        <v>-255900</v>
+        <v>-224200</v>
       </c>
       <c r="G94" s="3">
-        <v>-265200</v>
+        <v>-245100</v>
       </c>
       <c r="H94" s="3">
-        <v>-301300</v>
+        <v>-254100</v>
       </c>
       <c r="I94" s="3">
-        <v>-236600</v>
+        <v>-288700</v>
       </c>
       <c r="J94" s="3">
+        <v>-226600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-303800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-284100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-286800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-449200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-279500</v>
+        <v>-289900</v>
       </c>
       <c r="E96" s="3">
-        <v>-205500</v>
+        <v>-267800</v>
       </c>
       <c r="F96" s="3">
-        <v>-285800</v>
+        <v>-196800</v>
       </c>
       <c r="G96" s="3">
-        <v>-285800</v>
+        <v>-273700</v>
       </c>
       <c r="H96" s="3">
-        <v>-285200</v>
+        <v>-273700</v>
       </c>
       <c r="I96" s="3">
-        <v>-285200</v>
+        <v>-273200</v>
       </c>
       <c r="J96" s="3">
+        <v>-273200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-267700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-185700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-195900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-203000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-230400</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,48 +4155,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-217900</v>
+        <v>-713300</v>
       </c>
       <c r="E100" s="3">
-        <v>-285200</v>
+        <v>-208700</v>
       </c>
       <c r="F100" s="3">
-        <v>-306900</v>
+        <v>-273200</v>
       </c>
       <c r="G100" s="3">
-        <v>-219200</v>
+        <v>-294000</v>
       </c>
       <c r="H100" s="3">
-        <v>-207300</v>
+        <v>-209900</v>
       </c>
       <c r="I100" s="3">
-        <v>-209800</v>
+        <v>-198600</v>
       </c>
       <c r="J100" s="3">
+        <v>-201000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-159400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-189400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-383000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-302900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-313000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3980,57 +4228,63 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
-        <v>11800</v>
-      </c>
       <c r="F102" s="3">
-        <v>-600</v>
+        <v>11300</v>
       </c>
       <c r="G102" s="3">
         <v>-600</v>
       </c>
       <c r="H102" s="3">
-        <v>1900</v>
+        <v>-600</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-17400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-79700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>65000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-41600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-94200</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SPKKY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2311100</v>
+        <v>2313800</v>
       </c>
       <c r="E8" s="3">
-        <v>2203100</v>
+        <v>2205700</v>
       </c>
       <c r="F8" s="3">
-        <v>2126800</v>
+        <v>2129300</v>
       </c>
       <c r="G8" s="3">
-        <v>2142900</v>
+        <v>2145400</v>
       </c>
       <c r="H8" s="3">
-        <v>2099300</v>
+        <v>2101800</v>
       </c>
       <c r="I8" s="3">
-        <v>2107100</v>
+        <v>2109600</v>
       </c>
       <c r="J8" s="3">
-        <v>2143500</v>
+        <v>2146000</v>
       </c>
       <c r="K8" s="3">
         <v>2177200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1113500</v>
+        <v>1114800</v>
       </c>
       <c r="E9" s="3">
-        <v>1049100</v>
+        <v>1050300</v>
       </c>
       <c r="F9" s="3">
-        <v>999600</v>
+        <v>1000700</v>
       </c>
       <c r="G9" s="3">
-        <v>991200</v>
+        <v>992400</v>
       </c>
       <c r="H9" s="3">
-        <v>969200</v>
+        <v>970300</v>
       </c>
       <c r="I9" s="3">
-        <v>1922200</v>
+        <v>1924500</v>
       </c>
       <c r="J9" s="3">
-        <v>957800</v>
+        <v>958900</v>
       </c>
       <c r="K9" s="3">
         <v>978700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1197600</v>
+        <v>1199000</v>
       </c>
       <c r="E10" s="3">
-        <v>1154000</v>
+        <v>1155400</v>
       </c>
       <c r="F10" s="3">
-        <v>1127200</v>
+        <v>1128500</v>
       </c>
       <c r="G10" s="3">
-        <v>1151600</v>
+        <v>1153000</v>
       </c>
       <c r="H10" s="3">
-        <v>1130200</v>
+        <v>1131500</v>
       </c>
       <c r="I10" s="3">
-        <v>184900</v>
+        <v>185100</v>
       </c>
       <c r="J10" s="3">
-        <v>1185600</v>
+        <v>1187000</v>
       </c>
       <c r="K10" s="3">
         <v>1198500</v>
@@ -954,13 +954,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-355500</v>
+        <v>-355900</v>
       </c>
       <c r="E14" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="F14" s="3">
-        <v>-9500</v>
+        <v>-9600</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>300600</v>
+        <v>300900</v>
       </c>
       <c r="E15" s="3">
-        <v>310100</v>
+        <v>310500</v>
       </c>
       <c r="F15" s="3">
-        <v>311900</v>
+        <v>312300</v>
       </c>
       <c r="G15" s="3">
-        <v>291000</v>
+        <v>291400</v>
       </c>
       <c r="H15" s="3">
-        <v>284500</v>
+        <v>284800</v>
       </c>
       <c r="I15" s="3">
-        <v>379300</v>
+        <v>379800</v>
       </c>
       <c r="J15" s="3">
-        <v>256500</v>
+        <v>256800</v>
       </c>
       <c r="K15" s="3">
         <v>277700</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1584000</v>
+        <v>1585900</v>
       </c>
       <c r="E17" s="3">
-        <v>1828000</v>
+        <v>1830100</v>
       </c>
       <c r="F17" s="3">
-        <v>1768900</v>
+        <v>1771000</v>
       </c>
       <c r="G17" s="3">
-        <v>1770100</v>
+        <v>1772200</v>
       </c>
       <c r="H17" s="3">
-        <v>1725400</v>
+        <v>1727400</v>
       </c>
       <c r="I17" s="3">
-        <v>1780900</v>
+        <v>1782900</v>
       </c>
       <c r="J17" s="3">
-        <v>1794000</v>
+        <v>1796100</v>
       </c>
       <c r="K17" s="3">
         <v>1841000</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>727000</v>
+        <v>727900</v>
       </c>
       <c r="E18" s="3">
-        <v>375100</v>
+        <v>375600</v>
       </c>
       <c r="F18" s="3">
-        <v>357800</v>
+        <v>358300</v>
       </c>
       <c r="G18" s="3">
-        <v>372800</v>
+        <v>373200</v>
       </c>
       <c r="H18" s="3">
-        <v>373900</v>
+        <v>374400</v>
       </c>
       <c r="I18" s="3">
-        <v>326200</v>
+        <v>326600</v>
       </c>
       <c r="J18" s="3">
-        <v>349500</v>
+        <v>349900</v>
       </c>
       <c r="K18" s="3">
         <v>336200</v>
@@ -1173,7 +1173,7 @@
         <v>20900</v>
       </c>
       <c r="J20" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="K20" s="3">
         <v>11200</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1046700</v>
+        <v>1050600</v>
       </c>
       <c r="E21" s="3">
-        <v>700800</v>
+        <v>704300</v>
       </c>
       <c r="F21" s="3">
-        <v>688800</v>
+        <v>692400</v>
       </c>
       <c r="G21" s="3">
-        <v>680500</v>
+        <v>683800</v>
       </c>
       <c r="H21" s="3">
-        <v>680500</v>
+        <v>683800</v>
       </c>
       <c r="I21" s="3">
-        <v>634000</v>
+        <v>637300</v>
       </c>
       <c r="J21" s="3">
-        <v>615500</v>
+        <v>618500</v>
       </c>
       <c r="K21" s="3">
         <v>626100</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>59000</v>
+        <v>59100</v>
       </c>
       <c r="E22" s="3">
-        <v>44100</v>
+        <v>44200</v>
       </c>
       <c r="F22" s="3">
-        <v>48300</v>
+        <v>48400</v>
       </c>
       <c r="G22" s="3">
         <v>56100</v>
       </c>
       <c r="H22" s="3">
-        <v>50700</v>
+        <v>50800</v>
       </c>
       <c r="I22" s="3">
-        <v>45900</v>
+        <v>46000</v>
       </c>
       <c r="J22" s="3">
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="K22" s="3">
         <v>28600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>687100</v>
+        <v>687900</v>
       </c>
       <c r="E23" s="3">
-        <v>346500</v>
+        <v>346900</v>
       </c>
       <c r="F23" s="3">
-        <v>329800</v>
+        <v>330200</v>
       </c>
       <c r="G23" s="3">
-        <v>338800</v>
+        <v>339200</v>
       </c>
       <c r="H23" s="3">
-        <v>345300</v>
+        <v>345700</v>
       </c>
       <c r="I23" s="3">
-        <v>301200</v>
+        <v>301500</v>
       </c>
       <c r="J23" s="3">
-        <v>334000</v>
+        <v>334400</v>
       </c>
       <c r="K23" s="3">
         <v>318800</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="E24" s="3">
-        <v>102000</v>
+        <v>102100</v>
       </c>
       <c r="F24" s="3">
-        <v>100800</v>
+        <v>100900</v>
       </c>
       <c r="G24" s="3">
-        <v>88300</v>
+        <v>88400</v>
       </c>
       <c r="H24" s="3">
-        <v>101400</v>
+        <v>101500</v>
       </c>
       <c r="I24" s="3">
-        <v>83500</v>
+        <v>83600</v>
       </c>
       <c r="J24" s="3">
-        <v>84700</v>
+        <v>84800</v>
       </c>
       <c r="K24" s="3">
         <v>88400</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>676900</v>
+        <v>677700</v>
       </c>
       <c r="E26" s="3">
-        <v>244500</v>
+        <v>244800</v>
       </c>
       <c r="F26" s="3">
-        <v>229000</v>
+        <v>229300</v>
       </c>
       <c r="G26" s="3">
-        <v>250500</v>
+        <v>250800</v>
       </c>
       <c r="H26" s="3">
-        <v>243900</v>
+        <v>244200</v>
       </c>
       <c r="I26" s="3">
-        <v>217700</v>
+        <v>217900</v>
       </c>
       <c r="J26" s="3">
-        <v>249300</v>
+        <v>249600</v>
       </c>
       <c r="K26" s="3">
         <v>230400</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>676900</v>
+        <v>677700</v>
       </c>
       <c r="E27" s="3">
-        <v>244500</v>
+        <v>244800</v>
       </c>
       <c r="F27" s="3">
-        <v>229000</v>
+        <v>229300</v>
       </c>
       <c r="G27" s="3">
-        <v>250500</v>
+        <v>250800</v>
       </c>
       <c r="H27" s="3">
-        <v>243900</v>
+        <v>244200</v>
       </c>
       <c r="I27" s="3">
-        <v>217700</v>
+        <v>217900</v>
       </c>
       <c r="J27" s="3">
-        <v>249300</v>
+        <v>249600</v>
       </c>
       <c r="K27" s="3">
         <v>230400</v>
@@ -1677,7 +1677,7 @@
         <v>-20900</v>
       </c>
       <c r="J32" s="3">
-        <v>-9500</v>
+        <v>-9600</v>
       </c>
       <c r="K32" s="3">
         <v>-11200</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>676900</v>
+        <v>677700</v>
       </c>
       <c r="E33" s="3">
-        <v>244500</v>
+        <v>244800</v>
       </c>
       <c r="F33" s="3">
-        <v>229000</v>
+        <v>229300</v>
       </c>
       <c r="G33" s="3">
-        <v>250500</v>
+        <v>250800</v>
       </c>
       <c r="H33" s="3">
-        <v>243900</v>
+        <v>244200</v>
       </c>
       <c r="I33" s="3">
-        <v>217700</v>
+        <v>217900</v>
       </c>
       <c r="J33" s="3">
-        <v>249300</v>
+        <v>249600</v>
       </c>
       <c r="K33" s="3">
         <v>230400</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>676900</v>
+        <v>677700</v>
       </c>
       <c r="E35" s="3">
-        <v>244500</v>
+        <v>244800</v>
       </c>
       <c r="F35" s="3">
-        <v>229000</v>
+        <v>229300</v>
       </c>
       <c r="G35" s="3">
-        <v>250500</v>
+        <v>250800</v>
       </c>
       <c r="H35" s="3">
-        <v>243900</v>
+        <v>244200</v>
       </c>
       <c r="I35" s="3">
-        <v>217700</v>
+        <v>217900</v>
       </c>
       <c r="J35" s="3">
-        <v>249300</v>
+        <v>249600</v>
       </c>
       <c r="K35" s="3">
         <v>230400</v>
@@ -1910,13 +1910,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>59600</v>
+        <v>59700</v>
       </c>
       <c r="E41" s="3">
-        <v>42300</v>
+        <v>42400</v>
       </c>
       <c r="F41" s="3">
-        <v>42900</v>
+        <v>43000</v>
       </c>
       <c r="G41" s="3">
         <v>31600</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>419300</v>
+        <v>419800</v>
       </c>
       <c r="E43" s="3">
-        <v>388900</v>
+        <v>389300</v>
       </c>
       <c r="F43" s="3">
-        <v>808700</v>
+        <v>809700</v>
       </c>
       <c r="G43" s="3">
-        <v>370400</v>
+        <v>370800</v>
       </c>
       <c r="H43" s="3">
-        <v>366800</v>
+        <v>367200</v>
       </c>
       <c r="I43" s="3">
-        <v>724600</v>
+        <v>725500</v>
       </c>
       <c r="J43" s="3">
-        <v>315500</v>
+        <v>315900</v>
       </c>
       <c r="K43" s="3">
         <v>269600</v>
@@ -2036,22 +2036,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>47100</v>
+        <v>47200</v>
       </c>
       <c r="E44" s="3">
-        <v>63800</v>
+        <v>63900</v>
       </c>
       <c r="F44" s="3">
-        <v>76300</v>
+        <v>76400</v>
       </c>
       <c r="G44" s="3">
         <v>57300</v>
       </c>
       <c r="H44" s="3">
-        <v>59600</v>
+        <v>59700</v>
       </c>
       <c r="I44" s="3">
-        <v>94200</v>
+        <v>94300</v>
       </c>
       <c r="J44" s="3">
         <v>56100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>117500</v>
+        <v>117600</v>
       </c>
       <c r="E45" s="3">
-        <v>233200</v>
+        <v>233500</v>
       </c>
       <c r="F45" s="3">
-        <v>114500</v>
+        <v>114600</v>
       </c>
       <c r="G45" s="3">
-        <v>112100</v>
+        <v>112300</v>
       </c>
       <c r="H45" s="3">
-        <v>84700</v>
+        <v>84800</v>
       </c>
       <c r="I45" s="3">
         <v>74000</v>
       </c>
       <c r="J45" s="3">
-        <v>48300</v>
+        <v>48400</v>
       </c>
       <c r="K45" s="3">
         <v>51700</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>643500</v>
+        <v>644300</v>
       </c>
       <c r="E46" s="3">
-        <v>728200</v>
+        <v>729100</v>
       </c>
       <c r="F46" s="3">
-        <v>546300</v>
+        <v>546900</v>
       </c>
       <c r="G46" s="3">
-        <v>571400</v>
+        <v>572000</v>
       </c>
       <c r="H46" s="3">
-        <v>543300</v>
+        <v>544000</v>
       </c>
       <c r="I46" s="3">
-        <v>481300</v>
+        <v>481900</v>
       </c>
       <c r="J46" s="3">
-        <v>450900</v>
+        <v>451400</v>
       </c>
       <c r="K46" s="3">
         <v>404100</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>405600</v>
+        <v>406000</v>
       </c>
       <c r="E47" s="3">
-        <v>243900</v>
+        <v>244200</v>
       </c>
       <c r="F47" s="3">
-        <v>432400</v>
+        <v>432900</v>
       </c>
       <c r="G47" s="3">
-        <v>353100</v>
+        <v>353500</v>
       </c>
       <c r="H47" s="3">
-        <v>282100</v>
+        <v>282400</v>
       </c>
       <c r="I47" s="3">
-        <v>435400</v>
+        <v>435900</v>
       </c>
       <c r="J47" s="3">
-        <v>205800</v>
+        <v>206000</v>
       </c>
       <c r="K47" s="3">
         <v>212300</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1090800</v>
+        <v>1092100</v>
       </c>
       <c r="E48" s="3">
-        <v>1018100</v>
+        <v>1019200</v>
       </c>
       <c r="F48" s="3">
-        <v>2151800</v>
+        <v>2154300</v>
       </c>
       <c r="G48" s="3">
-        <v>1136100</v>
+        <v>1137500</v>
       </c>
       <c r="H48" s="3">
-        <v>1009100</v>
+        <v>1010300</v>
       </c>
       <c r="I48" s="3">
-        <v>1631800</v>
+        <v>1633700</v>
       </c>
       <c r="J48" s="3">
-        <v>638100</v>
+        <v>638900</v>
       </c>
       <c r="K48" s="3">
         <v>687400</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>480700</v>
+        <v>481300</v>
       </c>
       <c r="E49" s="3">
-        <v>500400</v>
+        <v>501000</v>
       </c>
       <c r="F49" s="3">
-        <v>1031200</v>
+        <v>1032400</v>
       </c>
       <c r="G49" s="3">
-        <v>502800</v>
+        <v>503400</v>
       </c>
       <c r="H49" s="3">
-        <v>588600</v>
+        <v>589300</v>
       </c>
       <c r="I49" s="3">
-        <v>1290000</v>
+        <v>1291500</v>
       </c>
       <c r="J49" s="3">
-        <v>687600</v>
+        <v>688500</v>
       </c>
       <c r="K49" s="3">
         <v>704200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2673100</v>
+        <v>2676200</v>
       </c>
       <c r="E54" s="3">
-        <v>2498300</v>
+        <v>2501300</v>
       </c>
       <c r="F54" s="3">
-        <v>2445200</v>
+        <v>2448100</v>
       </c>
       <c r="G54" s="3">
-        <v>2599100</v>
+        <v>2602200</v>
       </c>
       <c r="H54" s="3">
-        <v>2442300</v>
+        <v>2445100</v>
       </c>
       <c r="I54" s="3">
-        <v>2292600</v>
+        <v>2295300</v>
       </c>
       <c r="J54" s="3">
-        <v>1986600</v>
+        <v>1988900</v>
       </c>
       <c r="K54" s="3">
         <v>2015400</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>178300</v>
+        <v>178500</v>
       </c>
       <c r="E57" s="3">
-        <v>156300</v>
+        <v>156400</v>
       </c>
       <c r="F57" s="3">
-        <v>446700</v>
+        <v>447200</v>
       </c>
       <c r="G57" s="3">
-        <v>159200</v>
+        <v>159400</v>
       </c>
       <c r="H57" s="3">
-        <v>153900</v>
+        <v>154100</v>
       </c>
       <c r="I57" s="3">
-        <v>455600</v>
+        <v>456200</v>
       </c>
       <c r="J57" s="3">
-        <v>161600</v>
+        <v>161800</v>
       </c>
       <c r="K57" s="3">
         <v>172500</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>205200</v>
+        <v>205400</v>
       </c>
       <c r="E58" s="3">
-        <v>226600</v>
+        <v>226900</v>
       </c>
       <c r="F58" s="3">
-        <v>406700</v>
+        <v>407200</v>
       </c>
       <c r="G58" s="3">
-        <v>178900</v>
+        <v>179100</v>
       </c>
       <c r="H58" s="3">
-        <v>285100</v>
+        <v>285400</v>
       </c>
       <c r="I58" s="3">
-        <v>169400</v>
+        <v>169600</v>
       </c>
       <c r="J58" s="3">
-        <v>175900</v>
+        <v>176100</v>
       </c>
       <c r="K58" s="3">
         <v>118300</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>123500</v>
+        <v>123600</v>
       </c>
       <c r="E59" s="3">
-        <v>177700</v>
+        <v>177900</v>
       </c>
       <c r="F59" s="3">
-        <v>120500</v>
+        <v>120600</v>
       </c>
       <c r="G59" s="3">
-        <v>145500</v>
+        <v>145700</v>
       </c>
       <c r="H59" s="3">
-        <v>124100</v>
+        <v>124200</v>
       </c>
       <c r="I59" s="3">
-        <v>136000</v>
+        <v>136100</v>
       </c>
       <c r="J59" s="3">
-        <v>134200</v>
+        <v>134300</v>
       </c>
       <c r="K59" s="3">
         <v>115800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>506900</v>
+        <v>507500</v>
       </c>
       <c r="E60" s="3">
-        <v>560600</v>
+        <v>561300</v>
       </c>
       <c r="F60" s="3">
-        <v>560000</v>
+        <v>560700</v>
       </c>
       <c r="G60" s="3">
-        <v>483700</v>
+        <v>484200</v>
       </c>
       <c r="H60" s="3">
-        <v>563000</v>
+        <v>563700</v>
       </c>
       <c r="I60" s="3">
-        <v>452700</v>
+        <v>453200</v>
       </c>
       <c r="J60" s="3">
-        <v>471800</v>
+        <v>472300</v>
       </c>
       <c r="K60" s="3">
         <v>406600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>904100</v>
+        <v>905200</v>
       </c>
       <c r="E61" s="3">
-        <v>909500</v>
+        <v>910600</v>
       </c>
       <c r="F61" s="3">
-        <v>856400</v>
+        <v>857400</v>
       </c>
       <c r="G61" s="3">
-        <v>1058600</v>
+        <v>1059900</v>
       </c>
       <c r="H61" s="3">
-        <v>847500</v>
+        <v>848500</v>
       </c>
       <c r="I61" s="3">
-        <v>832600</v>
+        <v>833600</v>
       </c>
       <c r="J61" s="3">
-        <v>412700</v>
+        <v>413200</v>
       </c>
       <c r="K61" s="3">
         <v>426500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>105000</v>
+        <v>105100</v>
       </c>
       <c r="E62" s="3">
-        <v>148500</v>
+        <v>148700</v>
       </c>
       <c r="F62" s="3">
-        <v>139000</v>
+        <v>139100</v>
       </c>
       <c r="G62" s="3">
-        <v>177700</v>
+        <v>177900</v>
       </c>
       <c r="H62" s="3">
-        <v>158000</v>
+        <v>158200</v>
       </c>
       <c r="I62" s="3">
-        <v>135400</v>
+        <v>135500</v>
       </c>
       <c r="J62" s="3">
-        <v>117500</v>
+        <v>117600</v>
       </c>
       <c r="K62" s="3">
         <v>133900</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1516000</v>
+        <v>1517800</v>
       </c>
       <c r="E66" s="3">
-        <v>1618600</v>
+        <v>1620500</v>
       </c>
       <c r="F66" s="3">
-        <v>1555400</v>
+        <v>1557200</v>
       </c>
       <c r="G66" s="3">
-        <v>1720000</v>
+        <v>1722000</v>
       </c>
       <c r="H66" s="3">
-        <v>1568500</v>
+        <v>1570400</v>
       </c>
       <c r="I66" s="3">
-        <v>1408100</v>
+        <v>1409800</v>
       </c>
       <c r="J66" s="3">
-        <v>1002000</v>
+        <v>1003100</v>
       </c>
       <c r="K66" s="3">
         <v>966900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>818900</v>
+        <v>819800</v>
       </c>
       <c r="E72" s="3">
-        <v>433600</v>
+        <v>434100</v>
       </c>
       <c r="F72" s="3">
-        <v>466400</v>
+        <v>466900</v>
       </c>
       <c r="G72" s="3">
-        <v>524800</v>
+        <v>525400</v>
       </c>
       <c r="H72" s="3">
-        <v>555200</v>
+        <v>555900</v>
       </c>
       <c r="I72" s="3">
-        <v>585100</v>
+        <v>585800</v>
       </c>
       <c r="J72" s="3">
-        <v>672100</v>
+        <v>672900</v>
       </c>
       <c r="K72" s="3">
         <v>729100</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1157000</v>
+        <v>1158400</v>
       </c>
       <c r="E76" s="3">
-        <v>879700</v>
+        <v>880700</v>
       </c>
       <c r="F76" s="3">
-        <v>889800</v>
+        <v>890900</v>
       </c>
       <c r="G76" s="3">
-        <v>879100</v>
+        <v>880100</v>
       </c>
       <c r="H76" s="3">
-        <v>873700</v>
+        <v>874800</v>
       </c>
       <c r="I76" s="3">
-        <v>884500</v>
+        <v>885500</v>
       </c>
       <c r="J76" s="3">
-        <v>984700</v>
+        <v>985800</v>
       </c>
       <c r="K76" s="3">
         <v>1048500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>676900</v>
+        <v>677700</v>
       </c>
       <c r="E81" s="3">
-        <v>244500</v>
+        <v>244800</v>
       </c>
       <c r="F81" s="3">
-        <v>229000</v>
+        <v>229300</v>
       </c>
       <c r="G81" s="3">
-        <v>250500</v>
+        <v>250800</v>
       </c>
       <c r="H81" s="3">
-        <v>243900</v>
+        <v>244200</v>
       </c>
       <c r="I81" s="3">
-        <v>217700</v>
+        <v>217900</v>
       </c>
       <c r="J81" s="3">
-        <v>249300</v>
+        <v>249600</v>
       </c>
       <c r="K81" s="3">
         <v>230400</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300600</v>
+        <v>300900</v>
       </c>
       <c r="E83" s="3">
-        <v>310100</v>
+        <v>310500</v>
       </c>
       <c r="F83" s="3">
-        <v>310700</v>
+        <v>311100</v>
       </c>
       <c r="G83" s="3">
-        <v>285700</v>
+        <v>286000</v>
       </c>
       <c r="H83" s="3">
-        <v>284500</v>
+        <v>284800</v>
       </c>
       <c r="I83" s="3">
-        <v>286900</v>
+        <v>287200</v>
       </c>
       <c r="J83" s="3">
-        <v>256500</v>
+        <v>256800</v>
       </c>
       <c r="K83" s="3">
         <v>277700</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>477100</v>
+        <v>477700</v>
       </c>
       <c r="E89" s="3">
-        <v>501600</v>
+        <v>502200</v>
       </c>
       <c r="F89" s="3">
-        <v>508700</v>
+        <v>509300</v>
       </c>
       <c r="G89" s="3">
-        <v>538500</v>
+        <v>539200</v>
       </c>
       <c r="H89" s="3">
-        <v>463400</v>
+        <v>463900</v>
       </c>
       <c r="I89" s="3">
-        <v>489000</v>
+        <v>489600</v>
       </c>
       <c r="J89" s="3">
-        <v>427600</v>
+        <v>428100</v>
       </c>
       <c r="K89" s="3">
         <v>445800</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-283300</v>
+        <v>-283600</v>
       </c>
       <c r="E91" s="3">
-        <v>-253500</v>
+        <v>-253800</v>
       </c>
       <c r="F91" s="3">
-        <v>-196800</v>
+        <v>-197000</v>
       </c>
       <c r="G91" s="3">
-        <v>-234400</v>
+        <v>-234700</v>
       </c>
       <c r="H91" s="3">
-        <v>-247500</v>
+        <v>-247800</v>
       </c>
       <c r="I91" s="3">
-        <v>-246900</v>
+        <v>-247200</v>
       </c>
       <c r="J91" s="3">
-        <v>-237400</v>
+        <v>-237600</v>
       </c>
       <c r="K91" s="3">
         <v>-260200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>253500</v>
+        <v>253800</v>
       </c>
       <c r="E94" s="3">
-        <v>-293400</v>
+        <v>-293800</v>
       </c>
       <c r="F94" s="3">
-        <v>-224200</v>
+        <v>-224500</v>
       </c>
       <c r="G94" s="3">
-        <v>-245100</v>
+        <v>-245400</v>
       </c>
       <c r="H94" s="3">
-        <v>-254100</v>
+        <v>-254400</v>
       </c>
       <c r="I94" s="3">
-        <v>-288700</v>
+        <v>-289000</v>
       </c>
       <c r="J94" s="3">
-        <v>-226600</v>
+        <v>-226900</v>
       </c>
       <c r="K94" s="3">
         <v>-303800</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-289900</v>
+        <v>-290200</v>
       </c>
       <c r="E96" s="3">
-        <v>-267800</v>
+        <v>-268100</v>
       </c>
       <c r="F96" s="3">
-        <v>-196800</v>
+        <v>-197000</v>
       </c>
       <c r="G96" s="3">
-        <v>-273700</v>
+        <v>-274100</v>
       </c>
       <c r="H96" s="3">
-        <v>-273700</v>
+        <v>-274100</v>
       </c>
       <c r="I96" s="3">
-        <v>-273200</v>
+        <v>-273500</v>
       </c>
       <c r="J96" s="3">
-        <v>-273200</v>
+        <v>-273500</v>
       </c>
       <c r="K96" s="3">
         <v>-267700</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-713300</v>
+        <v>-714100</v>
       </c>
       <c r="E100" s="3">
-        <v>-208700</v>
+        <v>-209000</v>
       </c>
       <c r="F100" s="3">
-        <v>-273200</v>
+        <v>-273500</v>
       </c>
       <c r="G100" s="3">
-        <v>-294000</v>
+        <v>-294400</v>
       </c>
       <c r="H100" s="3">
-        <v>-209900</v>
+        <v>-210200</v>
       </c>
       <c r="I100" s="3">
-        <v>-198600</v>
+        <v>-198800</v>
       </c>
       <c r="J100" s="3">
-        <v>-201000</v>
+        <v>-201200</v>
       </c>
       <c r="K100" s="3">
         <v>-159400</v>
